--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -3651,184 +3651,817 @@
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="37">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>nayibis</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>morelo</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>marimon</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>cc</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14/01/1971 </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>40925684</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14/01/1971 +</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ama de casa</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nivel 1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ninguno de los anteriores </t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no definido </t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">riohacha </t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3226754735 </t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ama de casa+</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nivel 1+</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado +</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ninguno de los anteriores +</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no definido+</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">riohacha +</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3226754735 +</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr">
         <is>
           <t>na</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="0" t="inlineStr">
         <is>
           <t>c509</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="0" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="S4" s="0" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="T4" s="0" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U4" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Z4" s="0" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AD4" s="0" t="inlineStr">
         <is>
           <t>19/04/2021</t>
         </is>
       </c>
-      <c r="EJ4" t="inlineStr">
+      <c r="AE4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN4" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EK4" t="inlineStr">
+      <c r="AO4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR4" s="0" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ4" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EL4" t="inlineStr">
+      <c r="EK4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EL4" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EM4" t="inlineStr">
+      <c r="EM4" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EN4" t="inlineStr">
+      <c r="EN4" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EO4" t="inlineStr">
+      <c r="EO4" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EP4" t="inlineStr">
+      <c r="EP4" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EQ4" t="inlineStr">
+      <c r="EQ4" s="0" t="inlineStr">
         <is>
           <t>23/03/2021</t>
         </is>
       </c>
-      <c r="ER4" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES4" t="inlineStr">
+      <c r="ER4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES4" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="ET4" t="inlineStr">
+      <c r="ET4" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="EU4" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV4" t="inlineStr">
+      <c r="EU4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV4" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EW4" t="inlineStr">
+      <c r="EW4" s="0" t="inlineStr">
         <is>
           <t>25/01/2021</t>
         </is>
       </c>
-      <c r="EX4" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY4" t="inlineStr">
+      <c r="EX4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY4" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EZ4" t="inlineStr">
-        <is>
-          <t>98</t>
+      <c r="EZ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA4" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="FB4" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD4" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ4" s="0" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
         </is>
       </c>
     </row>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -729,7 +729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:FJ4"/>
+  <dimension ref="A1:FJ6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="EV1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="EY8" activeCellId="0" sqref="EY8"/>
@@ -3653,813 +3653,2443 @@
     <row r="4" ht="13.8" customHeight="1" s="37">
       <c r="A4" s="0" t="inlineStr">
         <is>
+          <t>yoraima</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>aracelly</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>mejia</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>uriana</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>1192943668</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/09/1985 +</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">otras ocupaciones elementales+</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nivel 1+</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado +</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ninguno de los anteriores +</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no definido+</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">riohacha +</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3234440935 +</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="Q4" s="0" t="inlineStr">
+        <is>
+          <t>c910</t>
+        </is>
+      </c>
+      <c r="R4" s="0" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="S4" s="0" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T4" s="0" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U4" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Z4" s="0" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AD4" s="0" t="inlineStr">
+        <is>
+          <t>30/04/2021</t>
+        </is>
+      </c>
+      <c r="AE4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR4" s="0" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB4" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EK4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EL4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EQ4" s="0" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="ER4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="ET4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">y hora de </t>
+        </is>
+      </c>
+      <c r="EU4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EW4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">y hora de </t>
+        </is>
+      </c>
+      <c r="EX4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EZ4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA4" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="FB4" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD4" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG4" s="0" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI4" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ4" s="0" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
           <t>nayibis</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>morelo</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>marimon</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>cc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>40925684</t>
         </is>
       </c>
-      <c r="G4" s="0" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">14/01/1971  </t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">ama de casa </t>
         </is>
       </c>
-      <c r="J4" s="0" t="inlineStr">
+      <c r="J5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">nivel 1 </t>
         </is>
       </c>
-      <c r="K4" s="0" t="inlineStr">
+      <c r="K5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">comfaguajira pgp oncologia subsidiado  </t>
         </is>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">ninguno de los anteriores  </t>
         </is>
       </c>
-      <c r="M4" s="0" t="inlineStr">
+      <c r="M5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">no definido </t>
         </is>
       </c>
-      <c r="N4" s="0" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">riohacha  </t>
         </is>
       </c>
-      <c r="O4" s="0" t="inlineStr">
+      <c r="O5" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve">3226754735  </t>
         </is>
       </c>
-      <c r="P4" s="0" t="inlineStr">
+      <c r="P5" s="0" t="inlineStr">
         <is>
           <t>na</t>
         </is>
       </c>
-      <c r="Q4" s="0" t="inlineStr">
+      <c r="Q5" s="0" t="inlineStr">
         <is>
           <t>c509</t>
         </is>
       </c>
-      <c r="R4" s="0" t="inlineStr">
+      <c r="R5" s="0" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="S4" s="0" t="inlineStr">
+      <c r="S5" s="0" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="T4" s="0" t="inlineStr">
+      <c r="T5" s="0" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="U4" s="0" t="inlineStr">
+      <c r="U5" s="0" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="Y4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="Z4" s="0" t="inlineStr">
+      <c r="V5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Z5" s="0" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="AD4" s="0" t="inlineStr">
+      <c r="AD5" s="0" t="inlineStr">
         <is>
           <t>19/04/2021</t>
         </is>
       </c>
-      <c r="AE4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AF4" s="0" t="inlineStr">
+      <c r="AE5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="AG4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AH4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AI4" s="0" t="inlineStr">
+      <c r="AG5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="AJ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AK4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AL4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM4" s="0" t="inlineStr">
+      <c r="AJ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="AN4" s="0" t="inlineStr">
+      <c r="AN5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AO4" s="0" t="inlineStr">
+      <c r="AO5" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AP4" s="0" t="inlineStr">
+      <c r="AP5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AQ4" s="0" t="inlineStr">
+      <c r="AQ5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="AR4" s="0" t="inlineStr">
+      <c r="AR5" s="0" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AS4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU4" s="0" t="inlineStr">
+      <c r="AS5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU5" s="0" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AV4" s="0" t="inlineStr">
+      <c r="AV5" s="0" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AW4" s="0" t="inlineStr">
+      <c r="AW5" s="0" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AX4" s="0" t="inlineStr">
+      <c r="AX5" s="0" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AY4" s="0" t="inlineStr">
+      <c r="AY5" s="0" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AZ4" s="0" t="inlineStr">
+      <c r="AZ5" s="0" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BA4" s="0" t="inlineStr">
+      <c r="BA5" s="0" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BB4" s="0" t="inlineStr">
+      <c r="BB5" s="0" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BC4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE4" s="0" t="inlineStr">
+      <c r="BC5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="BF4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW4" s="0" t="inlineStr">
+      <c r="BF5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="BX4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA4" s="0" t="inlineStr">
+      <c r="BX5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="CB4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS4" s="0" t="inlineStr">
+      <c r="CB5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="CT4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV4" s="0" t="inlineStr">
+      <c r="CT5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CW4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX4" s="0" t="inlineStr">
+      <c r="CW5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="CY4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB4" s="0" t="inlineStr">
+      <c r="CY5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="DC4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ4" s="0" t="inlineStr">
+      <c r="DC5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="DK4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP4" s="0" t="inlineStr">
+      <c r="DK5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="DQ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS4" s="0" t="inlineStr">
+      <c r="DQ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="DT4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY4" s="0" t="inlineStr">
+      <c r="DT5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="DZ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EB4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EC4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ED4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EE4" s="0" t="inlineStr">
+      <c r="DZ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="EF4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EG4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EH4" s="0" t="inlineStr">
+      <c r="EF5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="EI4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EJ4" s="0" t="inlineStr">
+      <c r="EI5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EK4" s="0" t="inlineStr">
+      <c r="EK5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EL4" s="0" t="inlineStr">
+      <c r="EL5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EM4" s="0" t="inlineStr">
+      <c r="EM5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EN4" s="0" t="inlineStr">
+      <c r="EN5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EO4" s="0" t="inlineStr">
+      <c r="EO5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EP4" s="0" t="inlineStr">
+      <c r="EP5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EQ4" s="0" t="inlineStr">
+      <c r="EQ5" s="0" t="inlineStr">
         <is>
           <t>23/03/2021</t>
         </is>
       </c>
-      <c r="ER4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES4" s="0" t="inlineStr">
+      <c r="ER5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="ET4" s="0" t="inlineStr">
+      <c r="ET5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="EU4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV4" s="0" t="inlineStr">
+      <c r="EU5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EW4" s="0" t="inlineStr">
+      <c r="EW5" s="0" t="inlineStr">
         <is>
           <t>25/01/2021</t>
         </is>
       </c>
-      <c r="EX4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY4" s="0" t="inlineStr">
+      <c r="EX5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EZ4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FA4" s="0" t="inlineStr">
+      <c r="EZ5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA5" s="0" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="FB4" s="0" t="inlineStr">
+      <c r="FB5" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="FC4" s="0" t="inlineStr">
+      <c r="FC5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="FD4" s="0" t="inlineStr">
+      <c r="FD5" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="FE4" s="0" t="inlineStr">
+      <c r="FE5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="FF4" s="0" t="inlineStr">
+      <c r="FF5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="FG4" s="0" t="inlineStr">
+      <c r="FG5" s="0" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="FH4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FI4" s="0" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FJ4" s="0" t="inlineStr">
+      <c r="FH5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI5" s="0" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ5" s="0" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>warner</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>chistian</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>montenegro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>barros</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>84046881</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/02/1989 +</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">otras ocupaciones elementales+</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cotizante nivel 1+</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado +</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ninguno de los anteriores +</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no definido+</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maicao +</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3185218372 +</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>c859</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>30/04/2021</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="ET6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EZ6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG6" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ6" t="inlineStr">
         <is>
           <t>2021-01-01</t>
         </is>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -162,7 +162,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -280,13 +280,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -403,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -773,11 +770,14 @@
   </sheetPr>
   <dimension ref="A1:FX24"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FM7" activeCellId="0" sqref="FM7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="FD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:FJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="18.47" customWidth="1" style="41" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" s="42">
       <c r="A1" s="43" t="n">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="N4" s="79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>44430</t>
         </is>
       </c>
       <c r="O4" s="79" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="N5" s="79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>44001</t>
         </is>
       </c>
       <c r="O5" s="79" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="N6" s="79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>44001</t>
         </is>
       </c>
       <c r="O6" s="79" t="inlineStr">
@@ -6192,3028 +6192,3028 @@
       <c r="FX6" s="79" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="42">
-      <c r="A7" s="81" t="n"/>
-      <c r="B7" s="81" t="n"/>
-      <c r="C7" s="81" t="n"/>
-      <c r="D7" s="81" t="n"/>
-      <c r="E7" s="81" t="n"/>
-      <c r="F7" s="81" t="n"/>
-      <c r="G7" s="82" t="n"/>
-      <c r="H7" s="81" t="n"/>
-      <c r="I7" s="81" t="n"/>
-      <c r="J7" s="81" t="n"/>
-      <c r="K7" s="82" t="n"/>
-      <c r="L7" s="81" t="n"/>
-      <c r="M7" s="81" t="n"/>
-      <c r="N7" s="81" t="n"/>
-      <c r="O7" s="81" t="n"/>
-      <c r="P7" s="81" t="n"/>
-      <c r="Q7" s="81" t="n"/>
-      <c r="R7" s="81" t="n"/>
-      <c r="S7" s="81" t="n"/>
-      <c r="T7" s="81" t="n"/>
-      <c r="U7" s="81" t="n"/>
-      <c r="V7" s="81" t="n"/>
-      <c r="W7" s="81" t="n"/>
-      <c r="X7" s="81" t="n"/>
-      <c r="Y7" s="81" t="n"/>
-      <c r="Z7" s="81" t="n"/>
-      <c r="AA7" s="81" t="n"/>
-      <c r="AB7" s="81" t="n"/>
-      <c r="AC7" s="81" t="n"/>
-      <c r="AD7" s="81" t="n"/>
-      <c r="AE7" s="81" t="n"/>
-      <c r="AF7" s="81" t="n"/>
-      <c r="AG7" s="81" t="n"/>
-      <c r="AH7" s="81" t="n"/>
-      <c r="AI7" s="81" t="n"/>
-      <c r="AJ7" s="81" t="n"/>
-      <c r="AK7" s="81" t="n"/>
-      <c r="AL7" s="81" t="n"/>
-      <c r="AM7" s="81" t="n"/>
-      <c r="AN7" s="81" t="n"/>
-      <c r="AO7" s="81" t="n"/>
-      <c r="AP7" s="81" t="n"/>
-      <c r="AQ7" s="81" t="n"/>
-      <c r="AR7" s="81" t="n"/>
-      <c r="AS7" s="81" t="n"/>
-      <c r="AT7" s="81" t="n"/>
-      <c r="AU7" s="81" t="n"/>
-      <c r="AV7" s="81" t="n"/>
-      <c r="AW7" s="81" t="n"/>
-      <c r="AX7" s="81" t="n"/>
-      <c r="AY7" s="81" t="n"/>
-      <c r="AZ7" s="81" t="n"/>
-      <c r="BA7" s="81" t="n"/>
-      <c r="BB7" s="81" t="n"/>
-      <c r="BC7" s="81" t="n"/>
-      <c r="BD7" s="81" t="n"/>
-      <c r="BE7" s="81" t="n"/>
-      <c r="BF7" s="81" t="n"/>
-      <c r="BG7" s="81" t="n"/>
-      <c r="BH7" s="81" t="n"/>
-      <c r="BI7" s="81" t="n"/>
-      <c r="BJ7" s="81" t="n"/>
-      <c r="BK7" s="81" t="n"/>
-      <c r="BL7" s="81" t="n"/>
-      <c r="BM7" s="81" t="n"/>
-      <c r="BN7" s="81" t="n"/>
-      <c r="BO7" s="81" t="n"/>
-      <c r="BP7" s="81" t="n"/>
-      <c r="BQ7" s="81" t="n"/>
-      <c r="BR7" s="81" t="n"/>
-      <c r="BS7" s="81" t="n"/>
-      <c r="BT7" s="81" t="n"/>
-      <c r="BU7" s="81" t="n"/>
-      <c r="BV7" s="81" t="n"/>
-      <c r="BW7" s="81" t="n"/>
-      <c r="BX7" s="81" t="n"/>
-      <c r="BY7" s="81" t="n"/>
-      <c r="BZ7" s="81" t="n"/>
-      <c r="CA7" s="81" t="n"/>
-      <c r="CB7" s="81" t="n"/>
-      <c r="CC7" s="81" t="n"/>
-      <c r="CD7" s="81" t="n"/>
-      <c r="CE7" s="81" t="n"/>
-      <c r="CF7" s="81" t="n"/>
-      <c r="CG7" s="81" t="n"/>
-      <c r="CH7" s="81" t="n"/>
-      <c r="CI7" s="81" t="n"/>
-      <c r="CJ7" s="81" t="n"/>
-      <c r="CK7" s="81" t="n"/>
-      <c r="CL7" s="81" t="n"/>
-      <c r="CM7" s="81" t="n"/>
-      <c r="CN7" s="81" t="n"/>
-      <c r="CO7" s="81" t="n"/>
-      <c r="CP7" s="81" t="n"/>
-      <c r="CQ7" s="81" t="n"/>
-      <c r="CR7" s="81" t="n"/>
-      <c r="CS7" s="81" t="n"/>
-      <c r="CT7" s="81" t="n"/>
-      <c r="CU7" s="81" t="n"/>
-      <c r="CV7" s="81" t="n"/>
-      <c r="CW7" s="81" t="n"/>
-      <c r="CX7" s="81" t="n"/>
-      <c r="CY7" s="81" t="n"/>
-      <c r="CZ7" s="81" t="n"/>
-      <c r="DA7" s="81" t="n"/>
-      <c r="DB7" s="81" t="n"/>
-      <c r="DC7" s="81" t="n"/>
-      <c r="DD7" s="81" t="n"/>
-      <c r="DE7" s="81" t="n"/>
-      <c r="DF7" s="81" t="n"/>
-      <c r="DG7" s="81" t="n"/>
-      <c r="DH7" s="81" t="n"/>
-      <c r="DI7" s="81" t="n"/>
-      <c r="DJ7" s="81" t="n"/>
-      <c r="DK7" s="81" t="n"/>
-      <c r="DL7" s="81" t="n"/>
-      <c r="DM7" s="81" t="n"/>
-      <c r="DN7" s="81" t="n"/>
-      <c r="DO7" s="81" t="n"/>
-      <c r="DP7" s="81" t="n"/>
-      <c r="DQ7" s="81" t="n"/>
-      <c r="DR7" s="81" t="n"/>
-      <c r="DS7" s="81" t="n"/>
-      <c r="DT7" s="81" t="n"/>
-      <c r="DU7" s="81" t="n"/>
-      <c r="DV7" s="81" t="n"/>
-      <c r="DW7" s="81" t="n"/>
-      <c r="DX7" s="81" t="n"/>
-      <c r="DY7" s="81" t="n"/>
-      <c r="DZ7" s="81" t="n"/>
-      <c r="EA7" s="81" t="n"/>
-      <c r="EB7" s="81" t="n"/>
-      <c r="EC7" s="81" t="n"/>
-      <c r="ED7" s="81" t="n"/>
-      <c r="EE7" s="81" t="n"/>
-      <c r="EF7" s="81" t="n"/>
-      <c r="EG7" s="81" t="n"/>
-      <c r="EH7" s="81" t="n"/>
-      <c r="EI7" s="81" t="n"/>
-      <c r="EJ7" s="81" t="n"/>
-      <c r="EK7" s="81" t="n"/>
-      <c r="EL7" s="81" t="n"/>
-      <c r="EM7" s="81" t="n"/>
-      <c r="EN7" s="81" t="n"/>
-      <c r="EO7" s="81" t="n"/>
-      <c r="EP7" s="81" t="n"/>
-      <c r="EQ7" s="81" t="n"/>
-      <c r="ER7" s="81" t="n"/>
-      <c r="ES7" s="81" t="n"/>
-      <c r="ET7" s="81" t="n"/>
-      <c r="EU7" s="81" t="n"/>
-      <c r="EV7" s="81" t="n"/>
-      <c r="EW7" s="81" t="n"/>
-      <c r="EX7" s="81" t="n"/>
-      <c r="EY7" s="81" t="n"/>
-      <c r="EZ7" s="81" t="n"/>
-      <c r="FA7" s="81" t="n"/>
-      <c r="FB7" s="81" t="n"/>
-      <c r="FC7" s="81" t="n"/>
-      <c r="FD7" s="81" t="n"/>
-      <c r="FE7" s="81" t="n"/>
-      <c r="FF7" s="81" t="n"/>
-      <c r="FG7" s="81" t="n"/>
-      <c r="FH7" s="81" t="n"/>
-      <c r="FI7" s="81" t="n"/>
-      <c r="FJ7" s="81" t="n"/>
+      <c r="A7" s="41" t="n"/>
+      <c r="B7" s="41" t="n"/>
+      <c r="C7" s="41" t="n"/>
+      <c r="D7" s="41" t="n"/>
+      <c r="E7" s="41" t="n"/>
+      <c r="F7" s="41" t="n"/>
+      <c r="G7" s="81" t="n"/>
+      <c r="H7" s="41" t="n"/>
+      <c r="I7" s="41" t="n"/>
+      <c r="J7" s="41" t="n"/>
+      <c r="K7" s="81" t="n"/>
+      <c r="L7" s="41" t="n"/>
+      <c r="M7" s="41" t="n"/>
+      <c r="N7" s="41" t="n"/>
+      <c r="O7" s="41" t="n"/>
+      <c r="P7" s="41" t="n"/>
+      <c r="Q7" s="41" t="n"/>
+      <c r="R7" s="41" t="n"/>
+      <c r="S7" s="41" t="n"/>
+      <c r="T7" s="41" t="n"/>
+      <c r="U7" s="41" t="n"/>
+      <c r="V7" s="41" t="n"/>
+      <c r="W7" s="41" t="n"/>
+      <c r="X7" s="41" t="n"/>
+      <c r="Y7" s="41" t="n"/>
+      <c r="Z7" s="41" t="n"/>
+      <c r="AA7" s="41" t="n"/>
+      <c r="AB7" s="41" t="n"/>
+      <c r="AC7" s="41" t="n"/>
+      <c r="AD7" s="41" t="n"/>
+      <c r="AE7" s="41" t="n"/>
+      <c r="AF7" s="41" t="n"/>
+      <c r="AG7" s="41" t="n"/>
+      <c r="AH7" s="41" t="n"/>
+      <c r="AI7" s="41" t="n"/>
+      <c r="AJ7" s="41" t="n"/>
+      <c r="AK7" s="41" t="n"/>
+      <c r="AL7" s="41" t="n"/>
+      <c r="AM7" s="41" t="n"/>
+      <c r="AN7" s="41" t="n"/>
+      <c r="AO7" s="41" t="n"/>
+      <c r="AP7" s="41" t="n"/>
+      <c r="AQ7" s="41" t="n"/>
+      <c r="AR7" s="41" t="n"/>
+      <c r="AS7" s="41" t="n"/>
+      <c r="AT7" s="41" t="n"/>
+      <c r="AU7" s="41" t="n"/>
+      <c r="AV7" s="41" t="n"/>
+      <c r="AW7" s="41" t="n"/>
+      <c r="AX7" s="41" t="n"/>
+      <c r="AY7" s="41" t="n"/>
+      <c r="AZ7" s="41" t="n"/>
+      <c r="BA7" s="41" t="n"/>
+      <c r="BB7" s="41" t="n"/>
+      <c r="BC7" s="41" t="n"/>
+      <c r="BD7" s="41" t="n"/>
+      <c r="BE7" s="41" t="n"/>
+      <c r="BF7" s="41" t="n"/>
+      <c r="BG7" s="41" t="n"/>
+      <c r="BH7" s="41" t="n"/>
+      <c r="BI7" s="41" t="n"/>
+      <c r="BJ7" s="41" t="n"/>
+      <c r="BK7" s="41" t="n"/>
+      <c r="BL7" s="41" t="n"/>
+      <c r="BM7" s="41" t="n"/>
+      <c r="BN7" s="41" t="n"/>
+      <c r="BO7" s="41" t="n"/>
+      <c r="BP7" s="41" t="n"/>
+      <c r="BQ7" s="41" t="n"/>
+      <c r="BR7" s="41" t="n"/>
+      <c r="BS7" s="41" t="n"/>
+      <c r="BT7" s="41" t="n"/>
+      <c r="BU7" s="41" t="n"/>
+      <c r="BV7" s="41" t="n"/>
+      <c r="BW7" s="41" t="n"/>
+      <c r="BX7" s="41" t="n"/>
+      <c r="BY7" s="41" t="n"/>
+      <c r="BZ7" s="41" t="n"/>
+      <c r="CA7" s="41" t="n"/>
+      <c r="CB7" s="41" t="n"/>
+      <c r="CC7" s="41" t="n"/>
+      <c r="CD7" s="41" t="n"/>
+      <c r="CE7" s="41" t="n"/>
+      <c r="CF7" s="41" t="n"/>
+      <c r="CG7" s="41" t="n"/>
+      <c r="CH7" s="41" t="n"/>
+      <c r="CI7" s="41" t="n"/>
+      <c r="CJ7" s="41" t="n"/>
+      <c r="CK7" s="41" t="n"/>
+      <c r="CL7" s="41" t="n"/>
+      <c r="CM7" s="41" t="n"/>
+      <c r="CN7" s="41" t="n"/>
+      <c r="CO7" s="41" t="n"/>
+      <c r="CP7" s="41" t="n"/>
+      <c r="CQ7" s="41" t="n"/>
+      <c r="CR7" s="41" t="n"/>
+      <c r="CS7" s="41" t="n"/>
+      <c r="CT7" s="41" t="n"/>
+      <c r="CU7" s="41" t="n"/>
+      <c r="CV7" s="41" t="n"/>
+      <c r="CW7" s="41" t="n"/>
+      <c r="CX7" s="41" t="n"/>
+      <c r="CY7" s="41" t="n"/>
+      <c r="CZ7" s="41" t="n"/>
+      <c r="DA7" s="41" t="n"/>
+      <c r="DB7" s="41" t="n"/>
+      <c r="DC7" s="41" t="n"/>
+      <c r="DD7" s="41" t="n"/>
+      <c r="DE7" s="41" t="n"/>
+      <c r="DF7" s="41" t="n"/>
+      <c r="DG7" s="41" t="n"/>
+      <c r="DH7" s="41" t="n"/>
+      <c r="DI7" s="41" t="n"/>
+      <c r="DJ7" s="41" t="n"/>
+      <c r="DK7" s="41" t="n"/>
+      <c r="DL7" s="41" t="n"/>
+      <c r="DM7" s="41" t="n"/>
+      <c r="DN7" s="41" t="n"/>
+      <c r="DO7" s="41" t="n"/>
+      <c r="DP7" s="41" t="n"/>
+      <c r="DQ7" s="41" t="n"/>
+      <c r="DR7" s="41" t="n"/>
+      <c r="DS7" s="41" t="n"/>
+      <c r="DT7" s="41" t="n"/>
+      <c r="DU7" s="41" t="n"/>
+      <c r="DV7" s="41" t="n"/>
+      <c r="DW7" s="41" t="n"/>
+      <c r="DX7" s="41" t="n"/>
+      <c r="DY7" s="41" t="n"/>
+      <c r="DZ7" s="41" t="n"/>
+      <c r="EA7" s="41" t="n"/>
+      <c r="EB7" s="41" t="n"/>
+      <c r="EC7" s="41" t="n"/>
+      <c r="ED7" s="41" t="n"/>
+      <c r="EE7" s="41" t="n"/>
+      <c r="EF7" s="41" t="n"/>
+      <c r="EG7" s="41" t="n"/>
+      <c r="EH7" s="41" t="n"/>
+      <c r="EI7" s="41" t="n"/>
+      <c r="EJ7" s="41" t="n"/>
+      <c r="EK7" s="41" t="n"/>
+      <c r="EL7" s="41" t="n"/>
+      <c r="EM7" s="41" t="n"/>
+      <c r="EN7" s="41" t="n"/>
+      <c r="EO7" s="41" t="n"/>
+      <c r="EP7" s="41" t="n"/>
+      <c r="EQ7" s="41" t="n"/>
+      <c r="ER7" s="41" t="n"/>
+      <c r="ES7" s="41" t="n"/>
+      <c r="ET7" s="41" t="n"/>
+      <c r="EU7" s="41" t="n"/>
+      <c r="EV7" s="41" t="n"/>
+      <c r="EW7" s="41" t="n"/>
+      <c r="EX7" s="41" t="n"/>
+      <c r="EY7" s="41" t="n"/>
+      <c r="EZ7" s="41" t="n"/>
+      <c r="FA7" s="41" t="n"/>
+      <c r="FB7" s="41" t="n"/>
+      <c r="FC7" s="41" t="n"/>
+      <c r="FD7" s="41" t="n"/>
+      <c r="FE7" s="41" t="n"/>
+      <c r="FF7" s="41" t="n"/>
+      <c r="FG7" s="41" t="n"/>
+      <c r="FH7" s="41" t="n"/>
+      <c r="FI7" s="41" t="n"/>
+      <c r="FJ7" s="41" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="42">
-      <c r="A8" s="81" t="n"/>
-      <c r="B8" s="81" t="n"/>
-      <c r="C8" s="81" t="n"/>
-      <c r="D8" s="81" t="n"/>
-      <c r="E8" s="81" t="n"/>
-      <c r="F8" s="81" t="n"/>
-      <c r="G8" s="81" t="n"/>
-      <c r="H8" s="81" t="n"/>
-      <c r="I8" s="81" t="n"/>
-      <c r="J8" s="81" t="n"/>
-      <c r="K8" s="81" t="n"/>
-      <c r="L8" s="81" t="n"/>
-      <c r="M8" s="81" t="n"/>
-      <c r="N8" s="81" t="n"/>
-      <c r="O8" s="81" t="n"/>
-      <c r="P8" s="81" t="n"/>
-      <c r="Q8" s="81" t="n"/>
-      <c r="R8" s="81" t="n"/>
-      <c r="S8" s="81" t="n"/>
-      <c r="T8" s="81" t="n"/>
-      <c r="U8" s="81" t="n"/>
-      <c r="V8" s="81" t="n"/>
-      <c r="W8" s="81" t="n"/>
-      <c r="X8" s="81" t="n"/>
-      <c r="Y8" s="81" t="n"/>
-      <c r="Z8" s="81" t="n"/>
-      <c r="AA8" s="81" t="n"/>
-      <c r="AB8" s="81" t="n"/>
-      <c r="AC8" s="81" t="n"/>
-      <c r="AD8" s="81" t="n"/>
-      <c r="AE8" s="81" t="n"/>
-      <c r="AF8" s="81" t="n"/>
-      <c r="AG8" s="81" t="n"/>
-      <c r="AH8" s="81" t="n"/>
-      <c r="AI8" s="81" t="n"/>
-      <c r="AJ8" s="81" t="n"/>
-      <c r="AK8" s="81" t="n"/>
-      <c r="AL8" s="81" t="n"/>
-      <c r="AM8" s="81" t="n"/>
-      <c r="AN8" s="81" t="n"/>
-      <c r="AO8" s="81" t="n"/>
-      <c r="AP8" s="81" t="n"/>
-      <c r="AQ8" s="81" t="n"/>
-      <c r="AR8" s="81" t="n"/>
-      <c r="AS8" s="81" t="n"/>
-      <c r="AT8" s="81" t="n"/>
-      <c r="AU8" s="81" t="n"/>
-      <c r="AV8" s="81" t="n"/>
-      <c r="AW8" s="81" t="n"/>
-      <c r="AX8" s="81" t="n"/>
-      <c r="AY8" s="81" t="n"/>
-      <c r="AZ8" s="81" t="n"/>
-      <c r="BA8" s="81" t="n"/>
-      <c r="BB8" s="81" t="n"/>
-      <c r="BC8" s="81" t="n"/>
-      <c r="BD8" s="81" t="n"/>
-      <c r="BE8" s="81" t="n"/>
-      <c r="BF8" s="81" t="n"/>
-      <c r="BG8" s="81" t="n"/>
-      <c r="BH8" s="81" t="n"/>
-      <c r="BI8" s="81" t="n"/>
-      <c r="BJ8" s="81" t="n"/>
-      <c r="BK8" s="81" t="n"/>
-      <c r="BL8" s="81" t="n"/>
-      <c r="BM8" s="81" t="n"/>
-      <c r="BN8" s="81" t="n"/>
-      <c r="BO8" s="81" t="n"/>
-      <c r="BP8" s="81" t="n"/>
-      <c r="BQ8" s="81" t="n"/>
-      <c r="BR8" s="81" t="n"/>
-      <c r="BS8" s="81" t="n"/>
-      <c r="BT8" s="81" t="n"/>
-      <c r="BU8" s="81" t="n"/>
-      <c r="BV8" s="81" t="n"/>
-      <c r="BW8" s="81" t="n"/>
-      <c r="BX8" s="81" t="n"/>
-      <c r="BY8" s="81" t="n"/>
-      <c r="BZ8" s="81" t="n"/>
-      <c r="CA8" s="81" t="n"/>
-      <c r="CB8" s="81" t="n"/>
-      <c r="CC8" s="81" t="n"/>
-      <c r="CD8" s="81" t="n"/>
-      <c r="CE8" s="81" t="n"/>
-      <c r="CF8" s="81" t="n"/>
-      <c r="CG8" s="81" t="n"/>
-      <c r="CH8" s="81" t="n"/>
-      <c r="CI8" s="81" t="n"/>
-      <c r="CJ8" s="81" t="n"/>
-      <c r="CK8" s="81" t="n"/>
-      <c r="CL8" s="81" t="n"/>
-      <c r="CM8" s="81" t="n"/>
-      <c r="CN8" s="81" t="n"/>
-      <c r="CO8" s="81" t="n"/>
-      <c r="CP8" s="81" t="n"/>
-      <c r="CQ8" s="81" t="n"/>
-      <c r="CR8" s="81" t="n"/>
-      <c r="CS8" s="81" t="n"/>
-      <c r="CT8" s="81" t="n"/>
-      <c r="CU8" s="81" t="n"/>
-      <c r="CV8" s="81" t="n"/>
-      <c r="CW8" s="81" t="n"/>
-      <c r="CX8" s="81" t="n"/>
-      <c r="CY8" s="81" t="n"/>
-      <c r="CZ8" s="81" t="n"/>
-      <c r="DA8" s="81" t="n"/>
-      <c r="DB8" s="81" t="n"/>
-      <c r="DC8" s="81" t="n"/>
-      <c r="DD8" s="81" t="n"/>
-      <c r="DE8" s="81" t="n"/>
-      <c r="DF8" s="81" t="n"/>
-      <c r="DG8" s="81" t="n"/>
-      <c r="DH8" s="81" t="n"/>
-      <c r="DI8" s="81" t="n"/>
-      <c r="DJ8" s="81" t="n"/>
-      <c r="DK8" s="81" t="n"/>
-      <c r="DL8" s="81" t="n"/>
-      <c r="DM8" s="81" t="n"/>
-      <c r="DN8" s="81" t="n"/>
-      <c r="DO8" s="81" t="n"/>
-      <c r="DP8" s="81" t="n"/>
-      <c r="DQ8" s="81" t="n"/>
-      <c r="DR8" s="81" t="n"/>
-      <c r="DS8" s="81" t="n"/>
-      <c r="DT8" s="81" t="n"/>
-      <c r="DU8" s="81" t="n"/>
-      <c r="DV8" s="81" t="n"/>
-      <c r="DW8" s="81" t="n"/>
-      <c r="DX8" s="81" t="n"/>
-      <c r="DY8" s="81" t="n"/>
-      <c r="DZ8" s="81" t="n"/>
-      <c r="EA8" s="81" t="n"/>
-      <c r="EB8" s="81" t="n"/>
-      <c r="EC8" s="81" t="n"/>
-      <c r="ED8" s="81" t="n"/>
-      <c r="EE8" s="81" t="n"/>
-      <c r="EF8" s="81" t="n"/>
-      <c r="EG8" s="81" t="n"/>
-      <c r="EH8" s="81" t="n"/>
-      <c r="EI8" s="81" t="n"/>
-      <c r="EJ8" s="81" t="n"/>
-      <c r="EK8" s="81" t="n"/>
-      <c r="EL8" s="81" t="n"/>
-      <c r="EM8" s="81" t="n"/>
-      <c r="EN8" s="81" t="n"/>
-      <c r="EO8" s="81" t="n"/>
-      <c r="EP8" s="81" t="n"/>
-      <c r="EQ8" s="81" t="n"/>
-      <c r="ER8" s="81" t="n"/>
-      <c r="ES8" s="81" t="n"/>
-      <c r="ET8" s="81" t="n"/>
-      <c r="EU8" s="81" t="n"/>
-      <c r="EV8" s="81" t="n"/>
-      <c r="EW8" s="81" t="n"/>
-      <c r="EX8" s="81" t="n"/>
-      <c r="EY8" s="81" t="n"/>
-      <c r="EZ8" s="81" t="n"/>
-      <c r="FA8" s="81" t="n"/>
-      <c r="FB8" s="81" t="n"/>
-      <c r="FC8" s="81" t="n"/>
-      <c r="FD8" s="81" t="n"/>
-      <c r="FE8" s="81" t="n"/>
-      <c r="FF8" s="81" t="n"/>
-      <c r="FG8" s="81" t="n"/>
-      <c r="FH8" s="81" t="n"/>
-      <c r="FI8" s="81" t="n"/>
-      <c r="FJ8" s="81" t="n"/>
+      <c r="A8" s="41" t="n"/>
+      <c r="B8" s="41" t="n"/>
+      <c r="C8" s="41" t="n"/>
+      <c r="D8" s="41" t="n"/>
+      <c r="E8" s="41" t="n"/>
+      <c r="F8" s="41" t="n"/>
+      <c r="G8" s="41" t="n"/>
+      <c r="H8" s="41" t="n"/>
+      <c r="I8" s="41" t="n"/>
+      <c r="J8" s="41" t="n"/>
+      <c r="K8" s="41" t="n"/>
+      <c r="L8" s="41" t="n"/>
+      <c r="M8" s="41" t="n"/>
+      <c r="N8" s="41" t="n"/>
+      <c r="O8" s="41" t="n"/>
+      <c r="P8" s="41" t="n"/>
+      <c r="Q8" s="41" t="n"/>
+      <c r="R8" s="41" t="n"/>
+      <c r="S8" s="41" t="n"/>
+      <c r="T8" s="41" t="n"/>
+      <c r="U8" s="41" t="n"/>
+      <c r="V8" s="41" t="n"/>
+      <c r="W8" s="41" t="n"/>
+      <c r="X8" s="41" t="n"/>
+      <c r="Y8" s="41" t="n"/>
+      <c r="Z8" s="41" t="n"/>
+      <c r="AA8" s="41" t="n"/>
+      <c r="AB8" s="41" t="n"/>
+      <c r="AC8" s="41" t="n"/>
+      <c r="AD8" s="41" t="n"/>
+      <c r="AE8" s="41" t="n"/>
+      <c r="AF8" s="41" t="n"/>
+      <c r="AG8" s="41" t="n"/>
+      <c r="AH8" s="41" t="n"/>
+      <c r="AI8" s="41" t="n"/>
+      <c r="AJ8" s="41" t="n"/>
+      <c r="AK8" s="41" t="n"/>
+      <c r="AL8" s="41" t="n"/>
+      <c r="AM8" s="41" t="n"/>
+      <c r="AN8" s="41" t="n"/>
+      <c r="AO8" s="41" t="n"/>
+      <c r="AP8" s="41" t="n"/>
+      <c r="AQ8" s="41" t="n"/>
+      <c r="AR8" s="41" t="n"/>
+      <c r="AS8" s="41" t="n"/>
+      <c r="AT8" s="41" t="n"/>
+      <c r="AU8" s="41" t="n"/>
+      <c r="AV8" s="41" t="n"/>
+      <c r="AW8" s="41" t="n"/>
+      <c r="AX8" s="41" t="n"/>
+      <c r="AY8" s="41" t="n"/>
+      <c r="AZ8" s="41" t="n"/>
+      <c r="BA8" s="41" t="n"/>
+      <c r="BB8" s="41" t="n"/>
+      <c r="BC8" s="41" t="n"/>
+      <c r="BD8" s="41" t="n"/>
+      <c r="BE8" s="41" t="n"/>
+      <c r="BF8" s="41" t="n"/>
+      <c r="BG8" s="41" t="n"/>
+      <c r="BH8" s="41" t="n"/>
+      <c r="BI8" s="41" t="n"/>
+      <c r="BJ8" s="41" t="n"/>
+      <c r="BK8" s="41" t="n"/>
+      <c r="BL8" s="41" t="n"/>
+      <c r="BM8" s="41" t="n"/>
+      <c r="BN8" s="41" t="n"/>
+      <c r="BO8" s="41" t="n"/>
+      <c r="BP8" s="41" t="n"/>
+      <c r="BQ8" s="41" t="n"/>
+      <c r="BR8" s="41" t="n"/>
+      <c r="BS8" s="41" t="n"/>
+      <c r="BT8" s="41" t="n"/>
+      <c r="BU8" s="41" t="n"/>
+      <c r="BV8" s="41" t="n"/>
+      <c r="BW8" s="41" t="n"/>
+      <c r="BX8" s="41" t="n"/>
+      <c r="BY8" s="41" t="n"/>
+      <c r="BZ8" s="41" t="n"/>
+      <c r="CA8" s="41" t="n"/>
+      <c r="CB8" s="41" t="n"/>
+      <c r="CC8" s="41" t="n"/>
+      <c r="CD8" s="41" t="n"/>
+      <c r="CE8" s="41" t="n"/>
+      <c r="CF8" s="41" t="n"/>
+      <c r="CG8" s="41" t="n"/>
+      <c r="CH8" s="41" t="n"/>
+      <c r="CI8" s="41" t="n"/>
+      <c r="CJ8" s="41" t="n"/>
+      <c r="CK8" s="41" t="n"/>
+      <c r="CL8" s="41" t="n"/>
+      <c r="CM8" s="41" t="n"/>
+      <c r="CN8" s="41" t="n"/>
+      <c r="CO8" s="41" t="n"/>
+      <c r="CP8" s="41" t="n"/>
+      <c r="CQ8" s="41" t="n"/>
+      <c r="CR8" s="41" t="n"/>
+      <c r="CS8" s="41" t="n"/>
+      <c r="CT8" s="41" t="n"/>
+      <c r="CU8" s="41" t="n"/>
+      <c r="CV8" s="41" t="n"/>
+      <c r="CW8" s="41" t="n"/>
+      <c r="CX8" s="41" t="n"/>
+      <c r="CY8" s="41" t="n"/>
+      <c r="CZ8" s="41" t="n"/>
+      <c r="DA8" s="41" t="n"/>
+      <c r="DB8" s="41" t="n"/>
+      <c r="DC8" s="41" t="n"/>
+      <c r="DD8" s="41" t="n"/>
+      <c r="DE8" s="41" t="n"/>
+      <c r="DF8" s="41" t="n"/>
+      <c r="DG8" s="41" t="n"/>
+      <c r="DH8" s="41" t="n"/>
+      <c r="DI8" s="41" t="n"/>
+      <c r="DJ8" s="41" t="n"/>
+      <c r="DK8" s="41" t="n"/>
+      <c r="DL8" s="41" t="n"/>
+      <c r="DM8" s="41" t="n"/>
+      <c r="DN8" s="41" t="n"/>
+      <c r="DO8" s="41" t="n"/>
+      <c r="DP8" s="41" t="n"/>
+      <c r="DQ8" s="41" t="n"/>
+      <c r="DR8" s="41" t="n"/>
+      <c r="DS8" s="41" t="n"/>
+      <c r="DT8" s="41" t="n"/>
+      <c r="DU8" s="41" t="n"/>
+      <c r="DV8" s="41" t="n"/>
+      <c r="DW8" s="41" t="n"/>
+      <c r="DX8" s="41" t="n"/>
+      <c r="DY8" s="41" t="n"/>
+      <c r="DZ8" s="41" t="n"/>
+      <c r="EA8" s="41" t="n"/>
+      <c r="EB8" s="41" t="n"/>
+      <c r="EC8" s="41" t="n"/>
+      <c r="ED8" s="41" t="n"/>
+      <c r="EE8" s="41" t="n"/>
+      <c r="EF8" s="41" t="n"/>
+      <c r="EG8" s="41" t="n"/>
+      <c r="EH8" s="41" t="n"/>
+      <c r="EI8" s="41" t="n"/>
+      <c r="EJ8" s="41" t="n"/>
+      <c r="EK8" s="41" t="n"/>
+      <c r="EL8" s="41" t="n"/>
+      <c r="EM8" s="41" t="n"/>
+      <c r="EN8" s="41" t="n"/>
+      <c r="EO8" s="41" t="n"/>
+      <c r="EP8" s="41" t="n"/>
+      <c r="EQ8" s="41" t="n"/>
+      <c r="ER8" s="41" t="n"/>
+      <c r="ES8" s="41" t="n"/>
+      <c r="ET8" s="41" t="n"/>
+      <c r="EU8" s="41" t="n"/>
+      <c r="EV8" s="41" t="n"/>
+      <c r="EW8" s="41" t="n"/>
+      <c r="EX8" s="41" t="n"/>
+      <c r="EY8" s="41" t="n"/>
+      <c r="EZ8" s="41" t="n"/>
+      <c r="FA8" s="41" t="n"/>
+      <c r="FB8" s="41" t="n"/>
+      <c r="FC8" s="41" t="n"/>
+      <c r="FD8" s="41" t="n"/>
+      <c r="FE8" s="41" t="n"/>
+      <c r="FF8" s="41" t="n"/>
+      <c r="FG8" s="41" t="n"/>
+      <c r="FH8" s="41" t="n"/>
+      <c r="FI8" s="41" t="n"/>
+      <c r="FJ8" s="41" t="n"/>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="42">
-      <c r="A9" s="81" t="n"/>
-      <c r="B9" s="81" t="n"/>
-      <c r="C9" s="81" t="n"/>
-      <c r="D9" s="81" t="n"/>
-      <c r="E9" s="81" t="n"/>
-      <c r="F9" s="81" t="n"/>
-      <c r="G9" s="81" t="n"/>
-      <c r="H9" s="81" t="n"/>
-      <c r="I9" s="81" t="n"/>
-      <c r="J9" s="81" t="n"/>
-      <c r="K9" s="81" t="n"/>
-      <c r="L9" s="81" t="n"/>
-      <c r="M9" s="81" t="n"/>
-      <c r="N9" s="81" t="n"/>
-      <c r="O9" s="81" t="n"/>
-      <c r="P9" s="81" t="n"/>
-      <c r="Q9" s="81" t="n"/>
-      <c r="R9" s="81" t="n"/>
-      <c r="S9" s="81" t="n"/>
-      <c r="T9" s="81" t="n"/>
-      <c r="U9" s="81" t="n"/>
-      <c r="V9" s="81" t="n"/>
-      <c r="W9" s="81" t="n"/>
-      <c r="X9" s="81" t="n"/>
-      <c r="Y9" s="81" t="n"/>
-      <c r="Z9" s="81" t="n"/>
-      <c r="AA9" s="81" t="n"/>
-      <c r="AB9" s="81" t="n"/>
-      <c r="AC9" s="81" t="n"/>
-      <c r="AD9" s="81" t="n"/>
-      <c r="AE9" s="81" t="n"/>
-      <c r="AF9" s="81" t="n"/>
-      <c r="AG9" s="81" t="n"/>
-      <c r="AH9" s="81" t="n"/>
-      <c r="AI9" s="81" t="n"/>
-      <c r="AJ9" s="81" t="n"/>
-      <c r="AK9" s="81" t="n"/>
-      <c r="AL9" s="81" t="n"/>
-      <c r="AM9" s="81" t="n"/>
-      <c r="AN9" s="81" t="n"/>
-      <c r="AO9" s="81" t="n"/>
-      <c r="AP9" s="81" t="n"/>
-      <c r="AQ9" s="81" t="n"/>
-      <c r="AR9" s="81" t="n"/>
-      <c r="AS9" s="81" t="n"/>
-      <c r="AT9" s="81" t="n"/>
-      <c r="AU9" s="81" t="n"/>
-      <c r="AV9" s="81" t="n"/>
-      <c r="AW9" s="81" t="n"/>
-      <c r="AX9" s="81" t="n"/>
-      <c r="AY9" s="81" t="n"/>
-      <c r="AZ9" s="81" t="n"/>
-      <c r="BA9" s="81" t="n"/>
-      <c r="BB9" s="81" t="n"/>
-      <c r="BC9" s="81" t="n"/>
-      <c r="BD9" s="81" t="n"/>
-      <c r="BE9" s="81" t="n"/>
-      <c r="BF9" s="81" t="n"/>
-      <c r="BG9" s="81" t="n"/>
-      <c r="BH9" s="81" t="n"/>
-      <c r="BI9" s="81" t="n"/>
-      <c r="BJ9" s="81" t="n"/>
-      <c r="BK9" s="81" t="n"/>
-      <c r="BL9" s="81" t="n"/>
-      <c r="BM9" s="81" t="n"/>
-      <c r="BN9" s="81" t="n"/>
-      <c r="BO9" s="81" t="n"/>
-      <c r="BP9" s="81" t="n"/>
-      <c r="BQ9" s="81" t="n"/>
-      <c r="BR9" s="81" t="n"/>
-      <c r="BS9" s="81" t="n"/>
-      <c r="BT9" s="81" t="n"/>
-      <c r="BU9" s="81" t="n"/>
-      <c r="BV9" s="81" t="n"/>
-      <c r="BW9" s="81" t="n"/>
-      <c r="BX9" s="81" t="n"/>
-      <c r="BY9" s="81" t="n"/>
-      <c r="BZ9" s="81" t="n"/>
-      <c r="CA9" s="81" t="n"/>
-      <c r="CB9" s="81" t="n"/>
-      <c r="CC9" s="81" t="n"/>
-      <c r="CD9" s="81" t="n"/>
-      <c r="CE9" s="81" t="n"/>
-      <c r="CF9" s="81" t="n"/>
-      <c r="CG9" s="81" t="n"/>
-      <c r="CH9" s="81" t="n"/>
-      <c r="CI9" s="81" t="n"/>
-      <c r="CJ9" s="81" t="n"/>
-      <c r="CK9" s="81" t="n"/>
-      <c r="CL9" s="81" t="n"/>
-      <c r="CM9" s="81" t="n"/>
-      <c r="CN9" s="81" t="n"/>
-      <c r="CO9" s="81" t="n"/>
-      <c r="CP9" s="81" t="n"/>
-      <c r="CQ9" s="81" t="n"/>
-      <c r="CR9" s="81" t="n"/>
-      <c r="CS9" s="81" t="n"/>
-      <c r="CT9" s="81" t="n"/>
-      <c r="CU9" s="81" t="n"/>
-      <c r="CV9" s="81" t="n"/>
-      <c r="CW9" s="81" t="n"/>
-      <c r="CX9" s="81" t="n"/>
-      <c r="CY9" s="81" t="n"/>
-      <c r="CZ9" s="81" t="n"/>
-      <c r="DA9" s="81" t="n"/>
-      <c r="DB9" s="81" t="n"/>
-      <c r="DC9" s="81" t="n"/>
-      <c r="DD9" s="81" t="n"/>
-      <c r="DE9" s="81" t="n"/>
-      <c r="DF9" s="81" t="n"/>
-      <c r="DG9" s="81" t="n"/>
-      <c r="DH9" s="81" t="n"/>
-      <c r="DI9" s="81" t="n"/>
-      <c r="DJ9" s="81" t="n"/>
-      <c r="DK9" s="81" t="n"/>
-      <c r="DL9" s="81" t="n"/>
-      <c r="DM9" s="81" t="n"/>
-      <c r="DN9" s="81" t="n"/>
-      <c r="DO9" s="81" t="n"/>
-      <c r="DP9" s="81" t="n"/>
-      <c r="DQ9" s="81" t="n"/>
-      <c r="DR9" s="81" t="n"/>
-      <c r="DS9" s="81" t="n"/>
-      <c r="DT9" s="81" t="n"/>
-      <c r="DU9" s="81" t="n"/>
-      <c r="DV9" s="81" t="n"/>
-      <c r="DW9" s="81" t="n"/>
-      <c r="DX9" s="81" t="n"/>
-      <c r="DY9" s="81" t="n"/>
-      <c r="DZ9" s="81" t="n"/>
-      <c r="EA9" s="81" t="n"/>
-      <c r="EB9" s="81" t="n"/>
-      <c r="EC9" s="81" t="n"/>
-      <c r="ED9" s="81" t="n"/>
-      <c r="EE9" s="81" t="n"/>
-      <c r="EF9" s="81" t="n"/>
-      <c r="EG9" s="81" t="n"/>
-      <c r="EH9" s="81" t="n"/>
-      <c r="EI9" s="81" t="n"/>
-      <c r="EJ9" s="81" t="n"/>
-      <c r="EK9" s="81" t="n"/>
-      <c r="EL9" s="81" t="n"/>
-      <c r="EM9" s="81" t="n"/>
-      <c r="EN9" s="81" t="n"/>
-      <c r="EO9" s="81" t="n"/>
-      <c r="EP9" s="81" t="n"/>
-      <c r="EQ9" s="81" t="n"/>
-      <c r="ER9" s="81" t="n"/>
-      <c r="ES9" s="81" t="n"/>
-      <c r="ET9" s="81" t="n"/>
-      <c r="EU9" s="81" t="n"/>
-      <c r="EV9" s="81" t="n"/>
-      <c r="EW9" s="81" t="n"/>
-      <c r="EX9" s="81" t="n"/>
-      <c r="EY9" s="81" t="n"/>
-      <c r="EZ9" s="81" t="n"/>
-      <c r="FA9" s="81" t="n"/>
-      <c r="FB9" s="81" t="n"/>
-      <c r="FC9" s="81" t="n"/>
-      <c r="FD9" s="81" t="n"/>
-      <c r="FE9" s="81" t="n"/>
-      <c r="FF9" s="81" t="n"/>
-      <c r="FG9" s="81" t="n"/>
-      <c r="FH9" s="81" t="n"/>
-      <c r="FI9" s="81" t="n"/>
-      <c r="FJ9" s="81" t="n"/>
+      <c r="A9" s="41" t="n"/>
+      <c r="B9" s="41" t="n"/>
+      <c r="C9" s="41" t="n"/>
+      <c r="D9" s="41" t="n"/>
+      <c r="E9" s="41" t="n"/>
+      <c r="F9" s="41" t="n"/>
+      <c r="G9" s="41" t="n"/>
+      <c r="H9" s="41" t="n"/>
+      <c r="I9" s="41" t="n"/>
+      <c r="J9" s="41" t="n"/>
+      <c r="K9" s="41" t="n"/>
+      <c r="L9" s="41" t="n"/>
+      <c r="M9" s="41" t="n"/>
+      <c r="N9" s="41" t="n"/>
+      <c r="O9" s="41" t="n"/>
+      <c r="P9" s="41" t="n"/>
+      <c r="Q9" s="41" t="n"/>
+      <c r="R9" s="41" t="n"/>
+      <c r="S9" s="41" t="n"/>
+      <c r="T9" s="41" t="n"/>
+      <c r="U9" s="41" t="n"/>
+      <c r="V9" s="41" t="n"/>
+      <c r="W9" s="41" t="n"/>
+      <c r="X9" s="41" t="n"/>
+      <c r="Y9" s="41" t="n"/>
+      <c r="Z9" s="41" t="n"/>
+      <c r="AA9" s="41" t="n"/>
+      <c r="AB9" s="41" t="n"/>
+      <c r="AC9" s="41" t="n"/>
+      <c r="AD9" s="41" t="n"/>
+      <c r="AE9" s="41" t="n"/>
+      <c r="AF9" s="41" t="n"/>
+      <c r="AG9" s="41" t="n"/>
+      <c r="AH9" s="41" t="n"/>
+      <c r="AI9" s="41" t="n"/>
+      <c r="AJ9" s="41" t="n"/>
+      <c r="AK9" s="41" t="n"/>
+      <c r="AL9" s="41" t="n"/>
+      <c r="AM9" s="41" t="n"/>
+      <c r="AN9" s="41" t="n"/>
+      <c r="AO9" s="41" t="n"/>
+      <c r="AP9" s="41" t="n"/>
+      <c r="AQ9" s="41" t="n"/>
+      <c r="AR9" s="41" t="n"/>
+      <c r="AS9" s="41" t="n"/>
+      <c r="AT9" s="41" t="n"/>
+      <c r="AU9" s="41" t="n"/>
+      <c r="AV9" s="41" t="n"/>
+      <c r="AW9" s="41" t="n"/>
+      <c r="AX9" s="41" t="n"/>
+      <c r="AY9" s="41" t="n"/>
+      <c r="AZ9" s="41" t="n"/>
+      <c r="BA9" s="41" t="n"/>
+      <c r="BB9" s="41" t="n"/>
+      <c r="BC9" s="41" t="n"/>
+      <c r="BD9" s="41" t="n"/>
+      <c r="BE9" s="41" t="n"/>
+      <c r="BF9" s="41" t="n"/>
+      <c r="BG9" s="41" t="n"/>
+      <c r="BH9" s="41" t="n"/>
+      <c r="BI9" s="41" t="n"/>
+      <c r="BJ9" s="41" t="n"/>
+      <c r="BK9" s="41" t="n"/>
+      <c r="BL9" s="41" t="n"/>
+      <c r="BM9" s="41" t="n"/>
+      <c r="BN9" s="41" t="n"/>
+      <c r="BO9" s="41" t="n"/>
+      <c r="BP9" s="41" t="n"/>
+      <c r="BQ9" s="41" t="n"/>
+      <c r="BR9" s="41" t="n"/>
+      <c r="BS9" s="41" t="n"/>
+      <c r="BT9" s="41" t="n"/>
+      <c r="BU9" s="41" t="n"/>
+      <c r="BV9" s="41" t="n"/>
+      <c r="BW9" s="41" t="n"/>
+      <c r="BX9" s="41" t="n"/>
+      <c r="BY9" s="41" t="n"/>
+      <c r="BZ9" s="41" t="n"/>
+      <c r="CA9" s="41" t="n"/>
+      <c r="CB9" s="41" t="n"/>
+      <c r="CC9" s="41" t="n"/>
+      <c r="CD9" s="41" t="n"/>
+      <c r="CE9" s="41" t="n"/>
+      <c r="CF9" s="41" t="n"/>
+      <c r="CG9" s="41" t="n"/>
+      <c r="CH9" s="41" t="n"/>
+      <c r="CI9" s="41" t="n"/>
+      <c r="CJ9" s="41" t="n"/>
+      <c r="CK9" s="41" t="n"/>
+      <c r="CL9" s="41" t="n"/>
+      <c r="CM9" s="41" t="n"/>
+      <c r="CN9" s="41" t="n"/>
+      <c r="CO9" s="41" t="n"/>
+      <c r="CP9" s="41" t="n"/>
+      <c r="CQ9" s="41" t="n"/>
+      <c r="CR9" s="41" t="n"/>
+      <c r="CS9" s="41" t="n"/>
+      <c r="CT9" s="41" t="n"/>
+      <c r="CU9" s="41" t="n"/>
+      <c r="CV9" s="41" t="n"/>
+      <c r="CW9" s="41" t="n"/>
+      <c r="CX9" s="41" t="n"/>
+      <c r="CY9" s="41" t="n"/>
+      <c r="CZ9" s="41" t="n"/>
+      <c r="DA9" s="41" t="n"/>
+      <c r="DB9" s="41" t="n"/>
+      <c r="DC9" s="41" t="n"/>
+      <c r="DD9" s="41" t="n"/>
+      <c r="DE9" s="41" t="n"/>
+      <c r="DF9" s="41" t="n"/>
+      <c r="DG9" s="41" t="n"/>
+      <c r="DH9" s="41" t="n"/>
+      <c r="DI9" s="41" t="n"/>
+      <c r="DJ9" s="41" t="n"/>
+      <c r="DK9" s="41" t="n"/>
+      <c r="DL9" s="41" t="n"/>
+      <c r="DM9" s="41" t="n"/>
+      <c r="DN9" s="41" t="n"/>
+      <c r="DO9" s="41" t="n"/>
+      <c r="DP9" s="41" t="n"/>
+      <c r="DQ9" s="41" t="n"/>
+      <c r="DR9" s="41" t="n"/>
+      <c r="DS9" s="41" t="n"/>
+      <c r="DT9" s="41" t="n"/>
+      <c r="DU9" s="41" t="n"/>
+      <c r="DV9" s="41" t="n"/>
+      <c r="DW9" s="41" t="n"/>
+      <c r="DX9" s="41" t="n"/>
+      <c r="DY9" s="41" t="n"/>
+      <c r="DZ9" s="41" t="n"/>
+      <c r="EA9" s="41" t="n"/>
+      <c r="EB9" s="41" t="n"/>
+      <c r="EC9" s="41" t="n"/>
+      <c r="ED9" s="41" t="n"/>
+      <c r="EE9" s="41" t="n"/>
+      <c r="EF9" s="41" t="n"/>
+      <c r="EG9" s="41" t="n"/>
+      <c r="EH9" s="41" t="n"/>
+      <c r="EI9" s="41" t="n"/>
+      <c r="EJ9" s="41" t="n"/>
+      <c r="EK9" s="41" t="n"/>
+      <c r="EL9" s="41" t="n"/>
+      <c r="EM9" s="41" t="n"/>
+      <c r="EN9" s="41" t="n"/>
+      <c r="EO9" s="41" t="n"/>
+      <c r="EP9" s="41" t="n"/>
+      <c r="EQ9" s="41" t="n"/>
+      <c r="ER9" s="41" t="n"/>
+      <c r="ES9" s="41" t="n"/>
+      <c r="ET9" s="41" t="n"/>
+      <c r="EU9" s="41" t="n"/>
+      <c r="EV9" s="41" t="n"/>
+      <c r="EW9" s="41" t="n"/>
+      <c r="EX9" s="41" t="n"/>
+      <c r="EY9" s="41" t="n"/>
+      <c r="EZ9" s="41" t="n"/>
+      <c r="FA9" s="41" t="n"/>
+      <c r="FB9" s="41" t="n"/>
+      <c r="FC9" s="41" t="n"/>
+      <c r="FD9" s="41" t="n"/>
+      <c r="FE9" s="41" t="n"/>
+      <c r="FF9" s="41" t="n"/>
+      <c r="FG9" s="41" t="n"/>
+      <c r="FH9" s="41" t="n"/>
+      <c r="FI9" s="41" t="n"/>
+      <c r="FJ9" s="41" t="n"/>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="42">
-      <c r="A10" s="81" t="n"/>
-      <c r="B10" s="81" t="n"/>
-      <c r="C10" s="81" t="n"/>
-      <c r="D10" s="81" t="n"/>
-      <c r="E10" s="81" t="n"/>
-      <c r="F10" s="81" t="n"/>
-      <c r="G10" s="81" t="n"/>
-      <c r="H10" s="81" t="n"/>
-      <c r="I10" s="81" t="n"/>
-      <c r="J10" s="81" t="n"/>
-      <c r="K10" s="81" t="n"/>
-      <c r="L10" s="81" t="n"/>
-      <c r="M10" s="81" t="n"/>
-      <c r="N10" s="81" t="n"/>
-      <c r="O10" s="81" t="n"/>
-      <c r="P10" s="81" t="n"/>
-      <c r="Q10" s="81" t="n"/>
-      <c r="R10" s="81" t="n"/>
-      <c r="S10" s="81" t="n"/>
-      <c r="T10" s="81" t="n"/>
-      <c r="U10" s="81" t="n"/>
-      <c r="V10" s="81" t="n"/>
-      <c r="W10" s="81" t="n"/>
-      <c r="X10" s="81" t="n"/>
-      <c r="Y10" s="81" t="n"/>
-      <c r="Z10" s="81" t="n"/>
-      <c r="AA10" s="81" t="n"/>
-      <c r="AB10" s="81" t="n"/>
-      <c r="AC10" s="81" t="n"/>
-      <c r="AD10" s="81" t="n"/>
-      <c r="AE10" s="81" t="n"/>
-      <c r="AF10" s="81" t="n"/>
-      <c r="AG10" s="81" t="n"/>
-      <c r="AH10" s="81" t="n"/>
-      <c r="AI10" s="81" t="n"/>
-      <c r="AJ10" s="81" t="n"/>
-      <c r="AK10" s="81" t="n"/>
-      <c r="AL10" s="81" t="n"/>
-      <c r="AM10" s="81" t="n"/>
-      <c r="AN10" s="81" t="n"/>
-      <c r="AO10" s="81" t="n"/>
-      <c r="AP10" s="81" t="n"/>
-      <c r="AQ10" s="81" t="n"/>
-      <c r="AR10" s="81" t="n"/>
-      <c r="AS10" s="81" t="n"/>
-      <c r="AT10" s="81" t="n"/>
-      <c r="AU10" s="81" t="n"/>
-      <c r="AV10" s="81" t="n"/>
-      <c r="AW10" s="81" t="n"/>
-      <c r="AX10" s="81" t="n"/>
-      <c r="AY10" s="81" t="n"/>
-      <c r="AZ10" s="81" t="n"/>
-      <c r="BA10" s="81" t="n"/>
-      <c r="BB10" s="81" t="n"/>
-      <c r="BC10" s="81" t="n"/>
-      <c r="BD10" s="81" t="n"/>
-      <c r="BE10" s="81" t="n"/>
-      <c r="BF10" s="81" t="n"/>
-      <c r="BG10" s="81" t="n"/>
-      <c r="BH10" s="81" t="n"/>
-      <c r="BI10" s="81" t="n"/>
-      <c r="BJ10" s="81" t="n"/>
-      <c r="BK10" s="81" t="n"/>
-      <c r="BL10" s="81" t="n"/>
-      <c r="BM10" s="81" t="n"/>
-      <c r="BN10" s="81" t="n"/>
-      <c r="BO10" s="81" t="n"/>
-      <c r="BP10" s="81" t="n"/>
-      <c r="BQ10" s="81" t="n"/>
-      <c r="BR10" s="81" t="n"/>
-      <c r="BS10" s="81" t="n"/>
-      <c r="BT10" s="81" t="n"/>
-      <c r="BU10" s="81" t="n"/>
-      <c r="BV10" s="81" t="n"/>
-      <c r="BW10" s="81" t="n"/>
-      <c r="BX10" s="81" t="n"/>
-      <c r="BY10" s="81" t="n"/>
-      <c r="BZ10" s="81" t="n"/>
-      <c r="CA10" s="81" t="n"/>
-      <c r="CB10" s="81" t="n"/>
-      <c r="CC10" s="81" t="n"/>
-      <c r="CD10" s="81" t="n"/>
-      <c r="CE10" s="81" t="n"/>
-      <c r="CF10" s="81" t="n"/>
-      <c r="CG10" s="81" t="n"/>
-      <c r="CH10" s="81" t="n"/>
-      <c r="CI10" s="81" t="n"/>
-      <c r="CJ10" s="81" t="n"/>
-      <c r="CK10" s="81" t="n"/>
-      <c r="CL10" s="81" t="n"/>
-      <c r="CM10" s="81" t="n"/>
-      <c r="CN10" s="81" t="n"/>
-      <c r="CO10" s="81" t="n"/>
-      <c r="CP10" s="81" t="n"/>
-      <c r="CQ10" s="81" t="n"/>
-      <c r="CR10" s="81" t="n"/>
-      <c r="CS10" s="81" t="n"/>
-      <c r="CT10" s="81" t="n"/>
-      <c r="CU10" s="81" t="n"/>
-      <c r="CV10" s="81" t="n"/>
-      <c r="CW10" s="81" t="n"/>
-      <c r="CX10" s="81" t="n"/>
-      <c r="CY10" s="81" t="n"/>
-      <c r="CZ10" s="81" t="n"/>
-      <c r="DA10" s="81" t="n"/>
-      <c r="DB10" s="81" t="n"/>
-      <c r="DC10" s="81" t="n"/>
-      <c r="DD10" s="81" t="n"/>
-      <c r="DE10" s="81" t="n"/>
-      <c r="DF10" s="81" t="n"/>
-      <c r="DG10" s="81" t="n"/>
-      <c r="DH10" s="81" t="n"/>
-      <c r="DI10" s="81" t="n"/>
-      <c r="DJ10" s="81" t="n"/>
-      <c r="DK10" s="81" t="n"/>
-      <c r="DL10" s="81" t="n"/>
-      <c r="DM10" s="81" t="n"/>
-      <c r="DN10" s="81" t="n"/>
-      <c r="DO10" s="81" t="n"/>
-      <c r="DP10" s="81" t="n"/>
-      <c r="DQ10" s="81" t="n"/>
-      <c r="DR10" s="81" t="n"/>
-      <c r="DS10" s="81" t="n"/>
-      <c r="DT10" s="81" t="n"/>
-      <c r="DU10" s="81" t="n"/>
-      <c r="DV10" s="81" t="n"/>
-      <c r="DW10" s="81" t="n"/>
-      <c r="DX10" s="81" t="n"/>
-      <c r="DY10" s="81" t="n"/>
-      <c r="DZ10" s="81" t="n"/>
-      <c r="EA10" s="81" t="n"/>
-      <c r="EB10" s="81" t="n"/>
-      <c r="EC10" s="81" t="n"/>
-      <c r="ED10" s="81" t="n"/>
-      <c r="EE10" s="81" t="n"/>
-      <c r="EF10" s="81" t="n"/>
-      <c r="EG10" s="81" t="n"/>
-      <c r="EH10" s="81" t="n"/>
-      <c r="EI10" s="81" t="n"/>
-      <c r="EJ10" s="81" t="n"/>
-      <c r="EK10" s="81" t="n"/>
-      <c r="EL10" s="81" t="n"/>
-      <c r="EM10" s="81" t="n"/>
-      <c r="EN10" s="81" t="n"/>
-      <c r="EO10" s="81" t="n"/>
-      <c r="EP10" s="81" t="n"/>
-      <c r="EQ10" s="81" t="n"/>
-      <c r="ER10" s="81" t="n"/>
-      <c r="ES10" s="81" t="n"/>
-      <c r="ET10" s="81" t="n"/>
-      <c r="EU10" s="81" t="n"/>
-      <c r="EV10" s="81" t="n"/>
-      <c r="EW10" s="81" t="n"/>
-      <c r="EX10" s="81" t="n"/>
-      <c r="EY10" s="81" t="n"/>
-      <c r="EZ10" s="81" t="n"/>
-      <c r="FA10" s="81" t="n"/>
-      <c r="FB10" s="81" t="n"/>
-      <c r="FC10" s="81" t="n"/>
-      <c r="FD10" s="81" t="n"/>
-      <c r="FE10" s="81" t="n"/>
-      <c r="FF10" s="81" t="n"/>
-      <c r="FG10" s="81" t="n"/>
-      <c r="FH10" s="81" t="n"/>
-      <c r="FI10" s="81" t="n"/>
-      <c r="FJ10" s="81" t="n"/>
+      <c r="A10" s="41" t="n"/>
+      <c r="B10" s="41" t="n"/>
+      <c r="C10" s="41" t="n"/>
+      <c r="D10" s="41" t="n"/>
+      <c r="E10" s="41" t="n"/>
+      <c r="F10" s="41" t="n"/>
+      <c r="G10" s="41" t="n"/>
+      <c r="H10" s="41" t="n"/>
+      <c r="I10" s="41" t="n"/>
+      <c r="J10" s="41" t="n"/>
+      <c r="K10" s="41" t="n"/>
+      <c r="L10" s="41" t="n"/>
+      <c r="M10" s="41" t="n"/>
+      <c r="N10" s="41" t="n"/>
+      <c r="O10" s="41" t="n"/>
+      <c r="P10" s="41" t="n"/>
+      <c r="Q10" s="41" t="n"/>
+      <c r="R10" s="41" t="n"/>
+      <c r="S10" s="41" t="n"/>
+      <c r="T10" s="41" t="n"/>
+      <c r="U10" s="41" t="n"/>
+      <c r="V10" s="41" t="n"/>
+      <c r="W10" s="41" t="n"/>
+      <c r="X10" s="41" t="n"/>
+      <c r="Y10" s="41" t="n"/>
+      <c r="Z10" s="41" t="n"/>
+      <c r="AA10" s="41" t="n"/>
+      <c r="AB10" s="41" t="n"/>
+      <c r="AC10" s="41" t="n"/>
+      <c r="AD10" s="41" t="n"/>
+      <c r="AE10" s="41" t="n"/>
+      <c r="AF10" s="41" t="n"/>
+      <c r="AG10" s="41" t="n"/>
+      <c r="AH10" s="41" t="n"/>
+      <c r="AI10" s="41" t="n"/>
+      <c r="AJ10" s="41" t="n"/>
+      <c r="AK10" s="41" t="n"/>
+      <c r="AL10" s="41" t="n"/>
+      <c r="AM10" s="41" t="n"/>
+      <c r="AN10" s="41" t="n"/>
+      <c r="AO10" s="41" t="n"/>
+      <c r="AP10" s="41" t="n"/>
+      <c r="AQ10" s="41" t="n"/>
+      <c r="AR10" s="41" t="n"/>
+      <c r="AS10" s="41" t="n"/>
+      <c r="AT10" s="41" t="n"/>
+      <c r="AU10" s="41" t="n"/>
+      <c r="AV10" s="41" t="n"/>
+      <c r="AW10" s="41" t="n"/>
+      <c r="AX10" s="41" t="n"/>
+      <c r="AY10" s="41" t="n"/>
+      <c r="AZ10" s="41" t="n"/>
+      <c r="BA10" s="41" t="n"/>
+      <c r="BB10" s="41" t="n"/>
+      <c r="BC10" s="41" t="n"/>
+      <c r="BD10" s="41" t="n"/>
+      <c r="BE10" s="41" t="n"/>
+      <c r="BF10" s="41" t="n"/>
+      <c r="BG10" s="41" t="n"/>
+      <c r="BH10" s="41" t="n"/>
+      <c r="BI10" s="41" t="n"/>
+      <c r="BJ10" s="41" t="n"/>
+      <c r="BK10" s="41" t="n"/>
+      <c r="BL10" s="41" t="n"/>
+      <c r="BM10" s="41" t="n"/>
+      <c r="BN10" s="41" t="n"/>
+      <c r="BO10" s="41" t="n"/>
+      <c r="BP10" s="41" t="n"/>
+      <c r="BQ10" s="41" t="n"/>
+      <c r="BR10" s="41" t="n"/>
+      <c r="BS10" s="41" t="n"/>
+      <c r="BT10" s="41" t="n"/>
+      <c r="BU10" s="41" t="n"/>
+      <c r="BV10" s="41" t="n"/>
+      <c r="BW10" s="41" t="n"/>
+      <c r="BX10" s="41" t="n"/>
+      <c r="BY10" s="41" t="n"/>
+      <c r="BZ10" s="41" t="n"/>
+      <c r="CA10" s="41" t="n"/>
+      <c r="CB10" s="41" t="n"/>
+      <c r="CC10" s="41" t="n"/>
+      <c r="CD10" s="41" t="n"/>
+      <c r="CE10" s="41" t="n"/>
+      <c r="CF10" s="41" t="n"/>
+      <c r="CG10" s="41" t="n"/>
+      <c r="CH10" s="41" t="n"/>
+      <c r="CI10" s="41" t="n"/>
+      <c r="CJ10" s="41" t="n"/>
+      <c r="CK10" s="41" t="n"/>
+      <c r="CL10" s="41" t="n"/>
+      <c r="CM10" s="41" t="n"/>
+      <c r="CN10" s="41" t="n"/>
+      <c r="CO10" s="41" t="n"/>
+      <c r="CP10" s="41" t="n"/>
+      <c r="CQ10" s="41" t="n"/>
+      <c r="CR10" s="41" t="n"/>
+      <c r="CS10" s="41" t="n"/>
+      <c r="CT10" s="41" t="n"/>
+      <c r="CU10" s="41" t="n"/>
+      <c r="CV10" s="41" t="n"/>
+      <c r="CW10" s="41" t="n"/>
+      <c r="CX10" s="41" t="n"/>
+      <c r="CY10" s="41" t="n"/>
+      <c r="CZ10" s="41" t="n"/>
+      <c r="DA10" s="41" t="n"/>
+      <c r="DB10" s="41" t="n"/>
+      <c r="DC10" s="41" t="n"/>
+      <c r="DD10" s="41" t="n"/>
+      <c r="DE10" s="41" t="n"/>
+      <c r="DF10" s="41" t="n"/>
+      <c r="DG10" s="41" t="n"/>
+      <c r="DH10" s="41" t="n"/>
+      <c r="DI10" s="41" t="n"/>
+      <c r="DJ10" s="41" t="n"/>
+      <c r="DK10" s="41" t="n"/>
+      <c r="DL10" s="41" t="n"/>
+      <c r="DM10" s="41" t="n"/>
+      <c r="DN10" s="41" t="n"/>
+      <c r="DO10" s="41" t="n"/>
+      <c r="DP10" s="41" t="n"/>
+      <c r="DQ10" s="41" t="n"/>
+      <c r="DR10" s="41" t="n"/>
+      <c r="DS10" s="41" t="n"/>
+      <c r="DT10" s="41" t="n"/>
+      <c r="DU10" s="41" t="n"/>
+      <c r="DV10" s="41" t="n"/>
+      <c r="DW10" s="41" t="n"/>
+      <c r="DX10" s="41" t="n"/>
+      <c r="DY10" s="41" t="n"/>
+      <c r="DZ10" s="41" t="n"/>
+      <c r="EA10" s="41" t="n"/>
+      <c r="EB10" s="41" t="n"/>
+      <c r="EC10" s="41" t="n"/>
+      <c r="ED10" s="41" t="n"/>
+      <c r="EE10" s="41" t="n"/>
+      <c r="EF10" s="41" t="n"/>
+      <c r="EG10" s="41" t="n"/>
+      <c r="EH10" s="41" t="n"/>
+      <c r="EI10" s="41" t="n"/>
+      <c r="EJ10" s="41" t="n"/>
+      <c r="EK10" s="41" t="n"/>
+      <c r="EL10" s="41" t="n"/>
+      <c r="EM10" s="41" t="n"/>
+      <c r="EN10" s="41" t="n"/>
+      <c r="EO10" s="41" t="n"/>
+      <c r="EP10" s="41" t="n"/>
+      <c r="EQ10" s="41" t="n"/>
+      <c r="ER10" s="41" t="n"/>
+      <c r="ES10" s="41" t="n"/>
+      <c r="ET10" s="41" t="n"/>
+      <c r="EU10" s="41" t="n"/>
+      <c r="EV10" s="41" t="n"/>
+      <c r="EW10" s="41" t="n"/>
+      <c r="EX10" s="41" t="n"/>
+      <c r="EY10" s="41" t="n"/>
+      <c r="EZ10" s="41" t="n"/>
+      <c r="FA10" s="41" t="n"/>
+      <c r="FB10" s="41" t="n"/>
+      <c r="FC10" s="41" t="n"/>
+      <c r="FD10" s="41" t="n"/>
+      <c r="FE10" s="41" t="n"/>
+      <c r="FF10" s="41" t="n"/>
+      <c r="FG10" s="41" t="n"/>
+      <c r="FH10" s="41" t="n"/>
+      <c r="FI10" s="41" t="n"/>
+      <c r="FJ10" s="41" t="n"/>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="42">
-      <c r="A11" s="81" t="n"/>
-      <c r="B11" s="81" t="n"/>
-      <c r="C11" s="81" t="n"/>
-      <c r="D11" s="81" t="n"/>
-      <c r="E11" s="81" t="n"/>
-      <c r="F11" s="81" t="n"/>
-      <c r="G11" s="81" t="n"/>
-      <c r="H11" s="81" t="n"/>
-      <c r="I11" s="81" t="n"/>
-      <c r="J11" s="81" t="n"/>
-      <c r="K11" s="81" t="n"/>
-      <c r="L11" s="81" t="n"/>
-      <c r="M11" s="81" t="n"/>
-      <c r="N11" s="81" t="n"/>
-      <c r="O11" s="81" t="n"/>
-      <c r="P11" s="81" t="n"/>
-      <c r="Q11" s="81" t="n"/>
-      <c r="R11" s="81" t="n"/>
-      <c r="S11" s="81" t="n"/>
-      <c r="T11" s="81" t="n"/>
-      <c r="U11" s="81" t="n"/>
-      <c r="V11" s="81" t="n"/>
-      <c r="W11" s="81" t="n"/>
-      <c r="X11" s="81" t="n"/>
-      <c r="Y11" s="81" t="n"/>
-      <c r="Z11" s="81" t="n"/>
-      <c r="AA11" s="81" t="n"/>
-      <c r="AB11" s="81" t="n"/>
-      <c r="AC11" s="81" t="n"/>
-      <c r="AD11" s="81" t="n"/>
-      <c r="AE11" s="81" t="n"/>
-      <c r="AF11" s="81" t="n"/>
-      <c r="AG11" s="81" t="n"/>
-      <c r="AH11" s="81" t="n"/>
-      <c r="AI11" s="81" t="n"/>
-      <c r="AJ11" s="81" t="n"/>
-      <c r="AK11" s="81" t="n"/>
-      <c r="AL11" s="81" t="n"/>
-      <c r="AM11" s="81" t="n"/>
-      <c r="AN11" s="81" t="n"/>
-      <c r="AO11" s="81" t="n"/>
-      <c r="AP11" s="81" t="n"/>
-      <c r="AQ11" s="81" t="n"/>
-      <c r="AR11" s="81" t="n"/>
-      <c r="AS11" s="81" t="n"/>
-      <c r="AT11" s="81" t="n"/>
-      <c r="AU11" s="81" t="n"/>
-      <c r="AV11" s="81" t="n"/>
-      <c r="AW11" s="81" t="n"/>
-      <c r="AX11" s="81" t="n"/>
-      <c r="AY11" s="81" t="n"/>
-      <c r="AZ11" s="81" t="n"/>
-      <c r="BA11" s="81" t="n"/>
-      <c r="BB11" s="81" t="n"/>
-      <c r="BC11" s="81" t="n"/>
-      <c r="BD11" s="81" t="n"/>
-      <c r="BE11" s="81" t="n"/>
-      <c r="BF11" s="81" t="n"/>
-      <c r="BG11" s="81" t="n"/>
-      <c r="BH11" s="81" t="n"/>
-      <c r="BI11" s="81" t="n"/>
-      <c r="BJ11" s="81" t="n"/>
-      <c r="BK11" s="81" t="n"/>
-      <c r="BL11" s="81" t="n"/>
-      <c r="BM11" s="81" t="n"/>
-      <c r="BN11" s="81" t="n"/>
-      <c r="BO11" s="81" t="n"/>
-      <c r="BP11" s="81" t="n"/>
-      <c r="BQ11" s="81" t="n"/>
-      <c r="BR11" s="81" t="n"/>
-      <c r="BS11" s="81" t="n"/>
-      <c r="BT11" s="81" t="n"/>
-      <c r="BU11" s="81" t="n"/>
-      <c r="BV11" s="81" t="n"/>
-      <c r="BW11" s="81" t="n"/>
-      <c r="BX11" s="81" t="n"/>
-      <c r="BY11" s="81" t="n"/>
-      <c r="BZ11" s="81" t="n"/>
-      <c r="CA11" s="81" t="n"/>
-      <c r="CB11" s="81" t="n"/>
-      <c r="CC11" s="81" t="n"/>
-      <c r="CD11" s="81" t="n"/>
-      <c r="CE11" s="81" t="n"/>
-      <c r="CF11" s="81" t="n"/>
-      <c r="CG11" s="81" t="n"/>
-      <c r="CH11" s="81" t="n"/>
-      <c r="CI11" s="81" t="n"/>
-      <c r="CJ11" s="81" t="n"/>
-      <c r="CK11" s="81" t="n"/>
-      <c r="CL11" s="81" t="n"/>
-      <c r="CM11" s="81" t="n"/>
-      <c r="CN11" s="81" t="n"/>
-      <c r="CO11" s="81" t="n"/>
-      <c r="CP11" s="81" t="n"/>
-      <c r="CQ11" s="81" t="n"/>
-      <c r="CR11" s="81" t="n"/>
-      <c r="CS11" s="81" t="n"/>
-      <c r="CT11" s="81" t="n"/>
-      <c r="CU11" s="81" t="n"/>
-      <c r="CV11" s="81" t="n"/>
-      <c r="CW11" s="81" t="n"/>
-      <c r="CX11" s="81" t="n"/>
-      <c r="CY11" s="81" t="n"/>
-      <c r="CZ11" s="81" t="n"/>
-      <c r="DA11" s="81" t="n"/>
-      <c r="DB11" s="81" t="n"/>
-      <c r="DC11" s="81" t="n"/>
-      <c r="DD11" s="81" t="n"/>
-      <c r="DE11" s="81" t="n"/>
-      <c r="DF11" s="81" t="n"/>
-      <c r="DG11" s="81" t="n"/>
-      <c r="DH11" s="81" t="n"/>
-      <c r="DI11" s="81" t="n"/>
-      <c r="DJ11" s="81" t="n"/>
-      <c r="DK11" s="81" t="n"/>
-      <c r="DL11" s="81" t="n"/>
-      <c r="DM11" s="81" t="n"/>
-      <c r="DN11" s="81" t="n"/>
-      <c r="DO11" s="81" t="n"/>
-      <c r="DP11" s="81" t="n"/>
-      <c r="DQ11" s="81" t="n"/>
-      <c r="DR11" s="81" t="n"/>
-      <c r="DS11" s="81" t="n"/>
-      <c r="DT11" s="81" t="n"/>
-      <c r="DU11" s="81" t="n"/>
-      <c r="DV11" s="81" t="n"/>
-      <c r="DW11" s="81" t="n"/>
-      <c r="DX11" s="81" t="n"/>
-      <c r="DY11" s="81" t="n"/>
-      <c r="DZ11" s="81" t="n"/>
-      <c r="EA11" s="81" t="n"/>
-      <c r="EB11" s="81" t="n"/>
-      <c r="EC11" s="81" t="n"/>
-      <c r="ED11" s="81" t="n"/>
-      <c r="EE11" s="81" t="n"/>
-      <c r="EF11" s="81" t="n"/>
-      <c r="EG11" s="81" t="n"/>
-      <c r="EH11" s="81" t="n"/>
-      <c r="EI11" s="81" t="n"/>
-      <c r="EJ11" s="81" t="n"/>
-      <c r="EK11" s="81" t="n"/>
-      <c r="EL11" s="81" t="n"/>
-      <c r="EM11" s="81" t="n"/>
-      <c r="EN11" s="81" t="n"/>
-      <c r="EO11" s="81" t="n"/>
-      <c r="EP11" s="81" t="n"/>
-      <c r="EQ11" s="81" t="n"/>
-      <c r="ER11" s="81" t="n"/>
-      <c r="ES11" s="81" t="n"/>
-      <c r="ET11" s="81" t="n"/>
-      <c r="EU11" s="81" t="n"/>
-      <c r="EV11" s="81" t="n"/>
-      <c r="EW11" s="81" t="n"/>
-      <c r="EX11" s="81" t="n"/>
-      <c r="EY11" s="81" t="n"/>
-      <c r="EZ11" s="81" t="n"/>
-      <c r="FA11" s="81" t="n"/>
-      <c r="FB11" s="81" t="n"/>
-      <c r="FC11" s="81" t="n"/>
-      <c r="FD11" s="81" t="n"/>
-      <c r="FE11" s="81" t="n"/>
-      <c r="FF11" s="81" t="n"/>
-      <c r="FG11" s="81" t="n"/>
-      <c r="FH11" s="81" t="n"/>
-      <c r="FI11" s="81" t="n"/>
-      <c r="FJ11" s="81" t="n"/>
+      <c r="A11" s="41" t="n"/>
+      <c r="B11" s="41" t="n"/>
+      <c r="C11" s="41" t="n"/>
+      <c r="D11" s="41" t="n"/>
+      <c r="E11" s="41" t="n"/>
+      <c r="F11" s="41" t="n"/>
+      <c r="G11" s="41" t="n"/>
+      <c r="H11" s="41" t="n"/>
+      <c r="I11" s="41" t="n"/>
+      <c r="J11" s="41" t="n"/>
+      <c r="K11" s="41" t="n"/>
+      <c r="L11" s="41" t="n"/>
+      <c r="M11" s="41" t="n"/>
+      <c r="N11" s="41" t="n"/>
+      <c r="O11" s="41" t="n"/>
+      <c r="P11" s="41" t="n"/>
+      <c r="Q11" s="41" t="n"/>
+      <c r="R11" s="41" t="n"/>
+      <c r="S11" s="41" t="n"/>
+      <c r="T11" s="41" t="n"/>
+      <c r="U11" s="41" t="n"/>
+      <c r="V11" s="41" t="n"/>
+      <c r="W11" s="41" t="n"/>
+      <c r="X11" s="41" t="n"/>
+      <c r="Y11" s="41" t="n"/>
+      <c r="Z11" s="41" t="n"/>
+      <c r="AA11" s="41" t="n"/>
+      <c r="AB11" s="41" t="n"/>
+      <c r="AC11" s="41" t="n"/>
+      <c r="AD11" s="41" t="n"/>
+      <c r="AE11" s="41" t="n"/>
+      <c r="AF11" s="41" t="n"/>
+      <c r="AG11" s="41" t="n"/>
+      <c r="AH11" s="41" t="n"/>
+      <c r="AI11" s="41" t="n"/>
+      <c r="AJ11" s="41" t="n"/>
+      <c r="AK11" s="41" t="n"/>
+      <c r="AL11" s="41" t="n"/>
+      <c r="AM11" s="41" t="n"/>
+      <c r="AN11" s="41" t="n"/>
+      <c r="AO11" s="41" t="n"/>
+      <c r="AP11" s="41" t="n"/>
+      <c r="AQ11" s="41" t="n"/>
+      <c r="AR11" s="41" t="n"/>
+      <c r="AS11" s="41" t="n"/>
+      <c r="AT11" s="41" t="n"/>
+      <c r="AU11" s="41" t="n"/>
+      <c r="AV11" s="41" t="n"/>
+      <c r="AW11" s="41" t="n"/>
+      <c r="AX11" s="41" t="n"/>
+      <c r="AY11" s="41" t="n"/>
+      <c r="AZ11" s="41" t="n"/>
+      <c r="BA11" s="41" t="n"/>
+      <c r="BB11" s="41" t="n"/>
+      <c r="BC11" s="41" t="n"/>
+      <c r="BD11" s="41" t="n"/>
+      <c r="BE11" s="41" t="n"/>
+      <c r="BF11" s="41" t="n"/>
+      <c r="BG11" s="41" t="n"/>
+      <c r="BH11" s="41" t="n"/>
+      <c r="BI11" s="41" t="n"/>
+      <c r="BJ11" s="41" t="n"/>
+      <c r="BK11" s="41" t="n"/>
+      <c r="BL11" s="41" t="n"/>
+      <c r="BM11" s="41" t="n"/>
+      <c r="BN11" s="41" t="n"/>
+      <c r="BO11" s="41" t="n"/>
+      <c r="BP11" s="41" t="n"/>
+      <c r="BQ11" s="41" t="n"/>
+      <c r="BR11" s="41" t="n"/>
+      <c r="BS11" s="41" t="n"/>
+      <c r="BT11" s="41" t="n"/>
+      <c r="BU11" s="41" t="n"/>
+      <c r="BV11" s="41" t="n"/>
+      <c r="BW11" s="41" t="n"/>
+      <c r="BX11" s="41" t="n"/>
+      <c r="BY11" s="41" t="n"/>
+      <c r="BZ11" s="41" t="n"/>
+      <c r="CA11" s="41" t="n"/>
+      <c r="CB11" s="41" t="n"/>
+      <c r="CC11" s="41" t="n"/>
+      <c r="CD11" s="41" t="n"/>
+      <c r="CE11" s="41" t="n"/>
+      <c r="CF11" s="41" t="n"/>
+      <c r="CG11" s="41" t="n"/>
+      <c r="CH11" s="41" t="n"/>
+      <c r="CI11" s="41" t="n"/>
+      <c r="CJ11" s="41" t="n"/>
+      <c r="CK11" s="41" t="n"/>
+      <c r="CL11" s="41" t="n"/>
+      <c r="CM11" s="41" t="n"/>
+      <c r="CN11" s="41" t="n"/>
+      <c r="CO11" s="41" t="n"/>
+      <c r="CP11" s="41" t="n"/>
+      <c r="CQ11" s="41" t="n"/>
+      <c r="CR11" s="41" t="n"/>
+      <c r="CS11" s="41" t="n"/>
+      <c r="CT11" s="41" t="n"/>
+      <c r="CU11" s="41" t="n"/>
+      <c r="CV11" s="41" t="n"/>
+      <c r="CW11" s="41" t="n"/>
+      <c r="CX11" s="41" t="n"/>
+      <c r="CY11" s="41" t="n"/>
+      <c r="CZ11" s="41" t="n"/>
+      <c r="DA11" s="41" t="n"/>
+      <c r="DB11" s="41" t="n"/>
+      <c r="DC11" s="41" t="n"/>
+      <c r="DD11" s="41" t="n"/>
+      <c r="DE11" s="41" t="n"/>
+      <c r="DF11" s="41" t="n"/>
+      <c r="DG11" s="41" t="n"/>
+      <c r="DH11" s="41" t="n"/>
+      <c r="DI11" s="41" t="n"/>
+      <c r="DJ11" s="41" t="n"/>
+      <c r="DK11" s="41" t="n"/>
+      <c r="DL11" s="41" t="n"/>
+      <c r="DM11" s="41" t="n"/>
+      <c r="DN11" s="41" t="n"/>
+      <c r="DO11" s="41" t="n"/>
+      <c r="DP11" s="41" t="n"/>
+      <c r="DQ11" s="41" t="n"/>
+      <c r="DR11" s="41" t="n"/>
+      <c r="DS11" s="41" t="n"/>
+      <c r="DT11" s="41" t="n"/>
+      <c r="DU11" s="41" t="n"/>
+      <c r="DV11" s="41" t="n"/>
+      <c r="DW11" s="41" t="n"/>
+      <c r="DX11" s="41" t="n"/>
+      <c r="DY11" s="41" t="n"/>
+      <c r="DZ11" s="41" t="n"/>
+      <c r="EA11" s="41" t="n"/>
+      <c r="EB11" s="41" t="n"/>
+      <c r="EC11" s="41" t="n"/>
+      <c r="ED11" s="41" t="n"/>
+      <c r="EE11" s="41" t="n"/>
+      <c r="EF11" s="41" t="n"/>
+      <c r="EG11" s="41" t="n"/>
+      <c r="EH11" s="41" t="n"/>
+      <c r="EI11" s="41" t="n"/>
+      <c r="EJ11" s="41" t="n"/>
+      <c r="EK11" s="41" t="n"/>
+      <c r="EL11" s="41" t="n"/>
+      <c r="EM11" s="41" t="n"/>
+      <c r="EN11" s="41" t="n"/>
+      <c r="EO11" s="41" t="n"/>
+      <c r="EP11" s="41" t="n"/>
+      <c r="EQ11" s="41" t="n"/>
+      <c r="ER11" s="41" t="n"/>
+      <c r="ES11" s="41" t="n"/>
+      <c r="ET11" s="41" t="n"/>
+      <c r="EU11" s="41" t="n"/>
+      <c r="EV11" s="41" t="n"/>
+      <c r="EW11" s="41" t="n"/>
+      <c r="EX11" s="41" t="n"/>
+      <c r="EY11" s="41" t="n"/>
+      <c r="EZ11" s="41" t="n"/>
+      <c r="FA11" s="41" t="n"/>
+      <c r="FB11" s="41" t="n"/>
+      <c r="FC11" s="41" t="n"/>
+      <c r="FD11" s="41" t="n"/>
+      <c r="FE11" s="41" t="n"/>
+      <c r="FF11" s="41" t="n"/>
+      <c r="FG11" s="41" t="n"/>
+      <c r="FH11" s="41" t="n"/>
+      <c r="FI11" s="41" t="n"/>
+      <c r="FJ11" s="41" t="n"/>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="42">
-      <c r="A12" s="81" t="n"/>
-      <c r="B12" s="81" t="n"/>
-      <c r="C12" s="81" t="n"/>
-      <c r="D12" s="81" t="n"/>
-      <c r="E12" s="81" t="n"/>
-      <c r="F12" s="81" t="n"/>
-      <c r="G12" s="81" t="n"/>
-      <c r="H12" s="81" t="n"/>
-      <c r="I12" s="81" t="n"/>
-      <c r="J12" s="81" t="n"/>
-      <c r="K12" s="81" t="n"/>
-      <c r="L12" s="81" t="n"/>
-      <c r="M12" s="81" t="n"/>
-      <c r="N12" s="81" t="n"/>
-      <c r="O12" s="81" t="n"/>
-      <c r="P12" s="81" t="n"/>
-      <c r="Q12" s="81" t="n"/>
-      <c r="R12" s="81" t="n"/>
-      <c r="S12" s="81" t="n"/>
-      <c r="T12" s="81" t="n"/>
-      <c r="U12" s="81" t="n"/>
-      <c r="V12" s="81" t="n"/>
-      <c r="W12" s="81" t="n"/>
-      <c r="X12" s="81" t="n"/>
-      <c r="Y12" s="81" t="n"/>
-      <c r="Z12" s="81" t="n"/>
-      <c r="AA12" s="81" t="n"/>
-      <c r="AB12" s="81" t="n"/>
-      <c r="AC12" s="81" t="n"/>
-      <c r="AD12" s="81" t="n"/>
-      <c r="AE12" s="81" t="n"/>
-      <c r="AF12" s="81" t="n"/>
-      <c r="AG12" s="81" t="n"/>
-      <c r="AH12" s="81" t="n"/>
-      <c r="AI12" s="81" t="n"/>
-      <c r="AJ12" s="81" t="n"/>
-      <c r="AK12" s="81" t="n"/>
-      <c r="AL12" s="81" t="n"/>
-      <c r="AM12" s="81" t="n"/>
-      <c r="AN12" s="81" t="n"/>
-      <c r="AO12" s="81" t="n"/>
-      <c r="AP12" s="81" t="n"/>
-      <c r="AQ12" s="81" t="n"/>
-      <c r="AR12" s="81" t="n"/>
-      <c r="AS12" s="81" t="n"/>
-      <c r="AT12" s="81" t="n"/>
-      <c r="AU12" s="81" t="n"/>
-      <c r="AV12" s="81" t="n"/>
-      <c r="AW12" s="81" t="n"/>
-      <c r="AX12" s="81" t="n"/>
-      <c r="AY12" s="81" t="n"/>
-      <c r="AZ12" s="81" t="n"/>
-      <c r="BA12" s="81" t="n"/>
-      <c r="BB12" s="81" t="n"/>
-      <c r="BC12" s="81" t="n"/>
-      <c r="BD12" s="81" t="n"/>
-      <c r="BE12" s="81" t="n"/>
-      <c r="BF12" s="81" t="n"/>
-      <c r="BG12" s="81" t="n"/>
-      <c r="BH12" s="81" t="n"/>
-      <c r="BI12" s="81" t="n"/>
-      <c r="BJ12" s="81" t="n"/>
-      <c r="BK12" s="81" t="n"/>
-      <c r="BL12" s="81" t="n"/>
-      <c r="BM12" s="81" t="n"/>
-      <c r="BN12" s="81" t="n"/>
-      <c r="BO12" s="81" t="n"/>
-      <c r="BP12" s="81" t="n"/>
-      <c r="BQ12" s="81" t="n"/>
-      <c r="BR12" s="81" t="n"/>
-      <c r="BS12" s="81" t="n"/>
-      <c r="BT12" s="81" t="n"/>
-      <c r="BU12" s="81" t="n"/>
-      <c r="BV12" s="81" t="n"/>
-      <c r="BW12" s="81" t="n"/>
-      <c r="BX12" s="81" t="n"/>
-      <c r="BY12" s="81" t="n"/>
-      <c r="BZ12" s="81" t="n"/>
-      <c r="CA12" s="81" t="n"/>
-      <c r="CB12" s="81" t="n"/>
-      <c r="CC12" s="81" t="n"/>
-      <c r="CD12" s="81" t="n"/>
-      <c r="CE12" s="81" t="n"/>
-      <c r="CF12" s="81" t="n"/>
-      <c r="CG12" s="81" t="n"/>
-      <c r="CH12" s="81" t="n"/>
-      <c r="CI12" s="81" t="n"/>
-      <c r="CJ12" s="81" t="n"/>
-      <c r="CK12" s="81" t="n"/>
-      <c r="CL12" s="81" t="n"/>
-      <c r="CM12" s="81" t="n"/>
-      <c r="CN12" s="81" t="n"/>
-      <c r="CO12" s="81" t="n"/>
-      <c r="CP12" s="81" t="n"/>
-      <c r="CQ12" s="81" t="n"/>
-      <c r="CR12" s="81" t="n"/>
-      <c r="CS12" s="81" t="n"/>
-      <c r="CT12" s="81" t="n"/>
-      <c r="CU12" s="81" t="n"/>
-      <c r="CV12" s="81" t="n"/>
-      <c r="CW12" s="81" t="n"/>
-      <c r="CX12" s="81" t="n"/>
-      <c r="CY12" s="81" t="n"/>
-      <c r="CZ12" s="81" t="n"/>
-      <c r="DA12" s="81" t="n"/>
-      <c r="DB12" s="81" t="n"/>
-      <c r="DC12" s="81" t="n"/>
-      <c r="DD12" s="81" t="n"/>
-      <c r="DE12" s="81" t="n"/>
-      <c r="DF12" s="81" t="n"/>
-      <c r="DG12" s="81" t="n"/>
-      <c r="DH12" s="81" t="n"/>
-      <c r="DI12" s="81" t="n"/>
-      <c r="DJ12" s="81" t="n"/>
-      <c r="DK12" s="81" t="n"/>
-      <c r="DL12" s="81" t="n"/>
-      <c r="DM12" s="81" t="n"/>
-      <c r="DN12" s="81" t="n"/>
-      <c r="DO12" s="81" t="n"/>
-      <c r="DP12" s="81" t="n"/>
-      <c r="DQ12" s="81" t="n"/>
-      <c r="DR12" s="81" t="n"/>
-      <c r="DS12" s="81" t="n"/>
-      <c r="DT12" s="81" t="n"/>
-      <c r="DU12" s="81" t="n"/>
-      <c r="DV12" s="81" t="n"/>
-      <c r="DW12" s="81" t="n"/>
-      <c r="DX12" s="81" t="n"/>
-      <c r="DY12" s="81" t="n"/>
-      <c r="DZ12" s="81" t="n"/>
-      <c r="EA12" s="81" t="n"/>
-      <c r="EB12" s="81" t="n"/>
-      <c r="EC12" s="81" t="n"/>
-      <c r="ED12" s="81" t="n"/>
-      <c r="EE12" s="81" t="n"/>
-      <c r="EF12" s="81" t="n"/>
-      <c r="EG12" s="81" t="n"/>
-      <c r="EH12" s="81" t="n"/>
-      <c r="EI12" s="81" t="n"/>
-      <c r="EJ12" s="81" t="n"/>
-      <c r="EK12" s="81" t="n"/>
-      <c r="EL12" s="81" t="n"/>
-      <c r="EM12" s="81" t="n"/>
-      <c r="EN12" s="81" t="n"/>
-      <c r="EO12" s="81" t="n"/>
-      <c r="EP12" s="81" t="n"/>
-      <c r="EQ12" s="81" t="n"/>
-      <c r="ER12" s="81" t="n"/>
-      <c r="ES12" s="81" t="n"/>
-      <c r="ET12" s="81" t="n"/>
-      <c r="EU12" s="81" t="n"/>
-      <c r="EV12" s="81" t="n"/>
-      <c r="EW12" s="81" t="n"/>
-      <c r="EX12" s="81" t="n"/>
-      <c r="EY12" s="81" t="n"/>
-      <c r="EZ12" s="81" t="n"/>
-      <c r="FA12" s="81" t="n"/>
-      <c r="FB12" s="81" t="n"/>
-      <c r="FC12" s="81" t="n"/>
-      <c r="FD12" s="81" t="n"/>
-      <c r="FE12" s="81" t="n"/>
-      <c r="FF12" s="81" t="n"/>
-      <c r="FG12" s="81" t="n"/>
-      <c r="FH12" s="81" t="n"/>
-      <c r="FI12" s="81" t="n"/>
-      <c r="FJ12" s="81" t="n"/>
+      <c r="A12" s="41" t="n"/>
+      <c r="B12" s="41" t="n"/>
+      <c r="C12" s="41" t="n"/>
+      <c r="D12" s="41" t="n"/>
+      <c r="E12" s="41" t="n"/>
+      <c r="F12" s="41" t="n"/>
+      <c r="G12" s="41" t="n"/>
+      <c r="H12" s="41" t="n"/>
+      <c r="I12" s="41" t="n"/>
+      <c r="J12" s="41" t="n"/>
+      <c r="K12" s="41" t="n"/>
+      <c r="L12" s="41" t="n"/>
+      <c r="M12" s="41" t="n"/>
+      <c r="N12" s="41" t="n"/>
+      <c r="O12" s="41" t="n"/>
+      <c r="P12" s="41" t="n"/>
+      <c r="Q12" s="41" t="n"/>
+      <c r="R12" s="41" t="n"/>
+      <c r="S12" s="41" t="n"/>
+      <c r="T12" s="41" t="n"/>
+      <c r="U12" s="41" t="n"/>
+      <c r="V12" s="41" t="n"/>
+      <c r="W12" s="41" t="n"/>
+      <c r="X12" s="41" t="n"/>
+      <c r="Y12" s="41" t="n"/>
+      <c r="Z12" s="41" t="n"/>
+      <c r="AA12" s="41" t="n"/>
+      <c r="AB12" s="41" t="n"/>
+      <c r="AC12" s="41" t="n"/>
+      <c r="AD12" s="41" t="n"/>
+      <c r="AE12" s="41" t="n"/>
+      <c r="AF12" s="41" t="n"/>
+      <c r="AG12" s="41" t="n"/>
+      <c r="AH12" s="41" t="n"/>
+      <c r="AI12" s="41" t="n"/>
+      <c r="AJ12" s="41" t="n"/>
+      <c r="AK12" s="41" t="n"/>
+      <c r="AL12" s="41" t="n"/>
+      <c r="AM12" s="41" t="n"/>
+      <c r="AN12" s="41" t="n"/>
+      <c r="AO12" s="41" t="n"/>
+      <c r="AP12" s="41" t="n"/>
+      <c r="AQ12" s="41" t="n"/>
+      <c r="AR12" s="41" t="n"/>
+      <c r="AS12" s="41" t="n"/>
+      <c r="AT12" s="41" t="n"/>
+      <c r="AU12" s="41" t="n"/>
+      <c r="AV12" s="41" t="n"/>
+      <c r="AW12" s="41" t="n"/>
+      <c r="AX12" s="41" t="n"/>
+      <c r="AY12" s="41" t="n"/>
+      <c r="AZ12" s="41" t="n"/>
+      <c r="BA12" s="41" t="n"/>
+      <c r="BB12" s="41" t="n"/>
+      <c r="BC12" s="41" t="n"/>
+      <c r="BD12" s="41" t="n"/>
+      <c r="BE12" s="41" t="n"/>
+      <c r="BF12" s="41" t="n"/>
+      <c r="BG12" s="41" t="n"/>
+      <c r="BH12" s="41" t="n"/>
+      <c r="BI12" s="41" t="n"/>
+      <c r="BJ12" s="41" t="n"/>
+      <c r="BK12" s="41" t="n"/>
+      <c r="BL12" s="41" t="n"/>
+      <c r="BM12" s="41" t="n"/>
+      <c r="BN12" s="41" t="n"/>
+      <c r="BO12" s="41" t="n"/>
+      <c r="BP12" s="41" t="n"/>
+      <c r="BQ12" s="41" t="n"/>
+      <c r="BR12" s="41" t="n"/>
+      <c r="BS12" s="41" t="n"/>
+      <c r="BT12" s="41" t="n"/>
+      <c r="BU12" s="41" t="n"/>
+      <c r="BV12" s="41" t="n"/>
+      <c r="BW12" s="41" t="n"/>
+      <c r="BX12" s="41" t="n"/>
+      <c r="BY12" s="41" t="n"/>
+      <c r="BZ12" s="41" t="n"/>
+      <c r="CA12" s="41" t="n"/>
+      <c r="CB12" s="41" t="n"/>
+      <c r="CC12" s="41" t="n"/>
+      <c r="CD12" s="41" t="n"/>
+      <c r="CE12" s="41" t="n"/>
+      <c r="CF12" s="41" t="n"/>
+      <c r="CG12" s="41" t="n"/>
+      <c r="CH12" s="41" t="n"/>
+      <c r="CI12" s="41" t="n"/>
+      <c r="CJ12" s="41" t="n"/>
+      <c r="CK12" s="41" t="n"/>
+      <c r="CL12" s="41" t="n"/>
+      <c r="CM12" s="41" t="n"/>
+      <c r="CN12" s="41" t="n"/>
+      <c r="CO12" s="41" t="n"/>
+      <c r="CP12" s="41" t="n"/>
+      <c r="CQ12" s="41" t="n"/>
+      <c r="CR12" s="41" t="n"/>
+      <c r="CS12" s="41" t="n"/>
+      <c r="CT12" s="41" t="n"/>
+      <c r="CU12" s="41" t="n"/>
+      <c r="CV12" s="41" t="n"/>
+      <c r="CW12" s="41" t="n"/>
+      <c r="CX12" s="41" t="n"/>
+      <c r="CY12" s="41" t="n"/>
+      <c r="CZ12" s="41" t="n"/>
+      <c r="DA12" s="41" t="n"/>
+      <c r="DB12" s="41" t="n"/>
+      <c r="DC12" s="41" t="n"/>
+      <c r="DD12" s="41" t="n"/>
+      <c r="DE12" s="41" t="n"/>
+      <c r="DF12" s="41" t="n"/>
+      <c r="DG12" s="41" t="n"/>
+      <c r="DH12" s="41" t="n"/>
+      <c r="DI12" s="41" t="n"/>
+      <c r="DJ12" s="41" t="n"/>
+      <c r="DK12" s="41" t="n"/>
+      <c r="DL12" s="41" t="n"/>
+      <c r="DM12" s="41" t="n"/>
+      <c r="DN12" s="41" t="n"/>
+      <c r="DO12" s="41" t="n"/>
+      <c r="DP12" s="41" t="n"/>
+      <c r="DQ12" s="41" t="n"/>
+      <c r="DR12" s="41" t="n"/>
+      <c r="DS12" s="41" t="n"/>
+      <c r="DT12" s="41" t="n"/>
+      <c r="DU12" s="41" t="n"/>
+      <c r="DV12" s="41" t="n"/>
+      <c r="DW12" s="41" t="n"/>
+      <c r="DX12" s="41" t="n"/>
+      <c r="DY12" s="41" t="n"/>
+      <c r="DZ12" s="41" t="n"/>
+      <c r="EA12" s="41" t="n"/>
+      <c r="EB12" s="41" t="n"/>
+      <c r="EC12" s="41" t="n"/>
+      <c r="ED12" s="41" t="n"/>
+      <c r="EE12" s="41" t="n"/>
+      <c r="EF12" s="41" t="n"/>
+      <c r="EG12" s="41" t="n"/>
+      <c r="EH12" s="41" t="n"/>
+      <c r="EI12" s="41" t="n"/>
+      <c r="EJ12" s="41" t="n"/>
+      <c r="EK12" s="41" t="n"/>
+      <c r="EL12" s="41" t="n"/>
+      <c r="EM12" s="41" t="n"/>
+      <c r="EN12" s="41" t="n"/>
+      <c r="EO12" s="41" t="n"/>
+      <c r="EP12" s="41" t="n"/>
+      <c r="EQ12" s="41" t="n"/>
+      <c r="ER12" s="41" t="n"/>
+      <c r="ES12" s="41" t="n"/>
+      <c r="ET12" s="41" t="n"/>
+      <c r="EU12" s="41" t="n"/>
+      <c r="EV12" s="41" t="n"/>
+      <c r="EW12" s="41" t="n"/>
+      <c r="EX12" s="41" t="n"/>
+      <c r="EY12" s="41" t="n"/>
+      <c r="EZ12" s="41" t="n"/>
+      <c r="FA12" s="41" t="n"/>
+      <c r="FB12" s="41" t="n"/>
+      <c r="FC12" s="41" t="n"/>
+      <c r="FD12" s="41" t="n"/>
+      <c r="FE12" s="41" t="n"/>
+      <c r="FF12" s="41" t="n"/>
+      <c r="FG12" s="41" t="n"/>
+      <c r="FH12" s="41" t="n"/>
+      <c r="FI12" s="41" t="n"/>
+      <c r="FJ12" s="41" t="n"/>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="42">
-      <c r="A13" s="81" t="n"/>
-      <c r="B13" s="81" t="n"/>
-      <c r="C13" s="81" t="n"/>
-      <c r="D13" s="81" t="n"/>
-      <c r="E13" s="81" t="n"/>
-      <c r="F13" s="81" t="n"/>
-      <c r="G13" s="81" t="n"/>
-      <c r="H13" s="81" t="n"/>
-      <c r="I13" s="81" t="n"/>
-      <c r="J13" s="81" t="n"/>
-      <c r="K13" s="81" t="n"/>
-      <c r="L13" s="81" t="n"/>
-      <c r="M13" s="81" t="n"/>
-      <c r="N13" s="81" t="n"/>
-      <c r="O13" s="81" t="n"/>
-      <c r="P13" s="81" t="n"/>
-      <c r="Q13" s="81" t="n"/>
-      <c r="R13" s="81" t="n"/>
-      <c r="S13" s="81" t="n"/>
-      <c r="T13" s="81" t="n"/>
-      <c r="U13" s="81" t="n"/>
-      <c r="V13" s="81" t="n"/>
-      <c r="W13" s="81" t="n"/>
-      <c r="X13" s="81" t="n"/>
-      <c r="Y13" s="81" t="n"/>
-      <c r="Z13" s="81" t="n"/>
-      <c r="AA13" s="81" t="n"/>
-      <c r="AB13" s="81" t="n"/>
-      <c r="AC13" s="81" t="n"/>
-      <c r="AD13" s="81" t="n"/>
-      <c r="AE13" s="81" t="n"/>
-      <c r="AF13" s="81" t="n"/>
-      <c r="AG13" s="81" t="n"/>
-      <c r="AH13" s="81" t="n"/>
-      <c r="AI13" s="81" t="n"/>
-      <c r="AJ13" s="81" t="n"/>
-      <c r="AK13" s="81" t="n"/>
-      <c r="AL13" s="81" t="n"/>
-      <c r="AM13" s="81" t="n"/>
-      <c r="AN13" s="81" t="n"/>
-      <c r="AO13" s="81" t="n"/>
-      <c r="AP13" s="81" t="n"/>
-      <c r="AQ13" s="81" t="n"/>
-      <c r="AR13" s="81" t="n"/>
-      <c r="AS13" s="81" t="n"/>
-      <c r="AT13" s="81" t="n"/>
-      <c r="AU13" s="81" t="n"/>
-      <c r="AV13" s="81" t="n"/>
-      <c r="AW13" s="81" t="n"/>
-      <c r="AX13" s="81" t="n"/>
-      <c r="AY13" s="81" t="n"/>
-      <c r="AZ13" s="81" t="n"/>
-      <c r="BA13" s="81" t="n"/>
-      <c r="BB13" s="81" t="n"/>
-      <c r="BC13" s="81" t="n"/>
-      <c r="BD13" s="81" t="n"/>
-      <c r="BE13" s="81" t="n"/>
-      <c r="BF13" s="81" t="n"/>
-      <c r="BG13" s="81" t="n"/>
-      <c r="BH13" s="81" t="n"/>
-      <c r="BI13" s="81" t="n"/>
-      <c r="BJ13" s="81" t="n"/>
-      <c r="BK13" s="81" t="n"/>
-      <c r="BL13" s="81" t="n"/>
-      <c r="BM13" s="81" t="n"/>
-      <c r="BN13" s="81" t="n"/>
-      <c r="BO13" s="81" t="n"/>
-      <c r="BP13" s="81" t="n"/>
-      <c r="BQ13" s="81" t="n"/>
-      <c r="BR13" s="81" t="n"/>
-      <c r="BS13" s="81" t="n"/>
-      <c r="BT13" s="81" t="n"/>
-      <c r="BU13" s="81" t="n"/>
-      <c r="BV13" s="81" t="n"/>
-      <c r="BW13" s="81" t="n"/>
-      <c r="BX13" s="81" t="n"/>
-      <c r="BY13" s="81" t="n"/>
-      <c r="BZ13" s="81" t="n"/>
-      <c r="CA13" s="81" t="n"/>
-      <c r="CB13" s="81" t="n"/>
-      <c r="CC13" s="81" t="n"/>
-      <c r="CD13" s="81" t="n"/>
-      <c r="CE13" s="81" t="n"/>
-      <c r="CF13" s="81" t="n"/>
-      <c r="CG13" s="81" t="n"/>
-      <c r="CH13" s="81" t="n"/>
-      <c r="CI13" s="81" t="n"/>
-      <c r="CJ13" s="81" t="n"/>
-      <c r="CK13" s="81" t="n"/>
-      <c r="CL13" s="81" t="n"/>
-      <c r="CM13" s="81" t="n"/>
-      <c r="CN13" s="81" t="n"/>
-      <c r="CO13" s="81" t="n"/>
-      <c r="CP13" s="81" t="n"/>
-      <c r="CQ13" s="81" t="n"/>
-      <c r="CR13" s="81" t="n"/>
-      <c r="CS13" s="81" t="n"/>
-      <c r="CT13" s="81" t="n"/>
-      <c r="CU13" s="81" t="n"/>
-      <c r="CV13" s="81" t="n"/>
-      <c r="CW13" s="81" t="n"/>
-      <c r="CX13" s="81" t="n"/>
-      <c r="CY13" s="81" t="n"/>
-      <c r="CZ13" s="81" t="n"/>
-      <c r="DA13" s="81" t="n"/>
-      <c r="DB13" s="81" t="n"/>
-      <c r="DC13" s="81" t="n"/>
-      <c r="DD13" s="81" t="n"/>
-      <c r="DE13" s="81" t="n"/>
-      <c r="DF13" s="81" t="n"/>
-      <c r="DG13" s="81" t="n"/>
-      <c r="DH13" s="81" t="n"/>
-      <c r="DI13" s="81" t="n"/>
-      <c r="DJ13" s="81" t="n"/>
-      <c r="DK13" s="81" t="n"/>
-      <c r="DL13" s="81" t="n"/>
-      <c r="DM13" s="81" t="n"/>
-      <c r="DN13" s="81" t="n"/>
-      <c r="DO13" s="81" t="n"/>
-      <c r="DP13" s="81" t="n"/>
-      <c r="DQ13" s="81" t="n"/>
-      <c r="DR13" s="81" t="n"/>
-      <c r="DS13" s="81" t="n"/>
-      <c r="DT13" s="81" t="n"/>
-      <c r="DU13" s="81" t="n"/>
-      <c r="DV13" s="81" t="n"/>
-      <c r="DW13" s="81" t="n"/>
-      <c r="DX13" s="81" t="n"/>
-      <c r="DY13" s="81" t="n"/>
-      <c r="DZ13" s="81" t="n"/>
-      <c r="EA13" s="81" t="n"/>
-      <c r="EB13" s="81" t="n"/>
-      <c r="EC13" s="81" t="n"/>
-      <c r="ED13" s="81" t="n"/>
-      <c r="EE13" s="81" t="n"/>
-      <c r="EF13" s="81" t="n"/>
-      <c r="EG13" s="81" t="n"/>
-      <c r="EH13" s="81" t="n"/>
-      <c r="EI13" s="81" t="n"/>
-      <c r="EJ13" s="81" t="n"/>
-      <c r="EK13" s="81" t="n"/>
-      <c r="EL13" s="81" t="n"/>
-      <c r="EM13" s="81" t="n"/>
-      <c r="EN13" s="81" t="n"/>
-      <c r="EO13" s="81" t="n"/>
-      <c r="EP13" s="81" t="n"/>
-      <c r="EQ13" s="81" t="n"/>
-      <c r="ER13" s="81" t="n"/>
-      <c r="ES13" s="81" t="n"/>
-      <c r="ET13" s="81" t="n"/>
-      <c r="EU13" s="81" t="n"/>
-      <c r="EV13" s="81" t="n"/>
-      <c r="EW13" s="81" t="n"/>
-      <c r="EX13" s="81" t="n"/>
-      <c r="EY13" s="81" t="n"/>
-      <c r="EZ13" s="81" t="n"/>
-      <c r="FA13" s="81" t="n"/>
-      <c r="FB13" s="81" t="n"/>
-      <c r="FC13" s="81" t="n"/>
-      <c r="FD13" s="81" t="n"/>
-      <c r="FE13" s="81" t="n"/>
-      <c r="FF13" s="81" t="n"/>
-      <c r="FG13" s="81" t="n"/>
-      <c r="FH13" s="81" t="n"/>
-      <c r="FI13" s="81" t="n"/>
-      <c r="FJ13" s="81" t="n"/>
+      <c r="A13" s="41" t="n"/>
+      <c r="B13" s="41" t="n"/>
+      <c r="C13" s="41" t="n"/>
+      <c r="D13" s="41" t="n"/>
+      <c r="E13" s="41" t="n"/>
+      <c r="F13" s="41" t="n"/>
+      <c r="G13" s="41" t="n"/>
+      <c r="H13" s="41" t="n"/>
+      <c r="I13" s="41" t="n"/>
+      <c r="J13" s="41" t="n"/>
+      <c r="K13" s="41" t="n"/>
+      <c r="L13" s="41" t="n"/>
+      <c r="M13" s="41" t="n"/>
+      <c r="N13" s="41" t="n"/>
+      <c r="O13" s="41" t="n"/>
+      <c r="P13" s="41" t="n"/>
+      <c r="Q13" s="41" t="n"/>
+      <c r="R13" s="41" t="n"/>
+      <c r="S13" s="41" t="n"/>
+      <c r="T13" s="41" t="n"/>
+      <c r="U13" s="41" t="n"/>
+      <c r="V13" s="41" t="n"/>
+      <c r="W13" s="41" t="n"/>
+      <c r="X13" s="41" t="n"/>
+      <c r="Y13" s="41" t="n"/>
+      <c r="Z13" s="41" t="n"/>
+      <c r="AA13" s="41" t="n"/>
+      <c r="AB13" s="41" t="n"/>
+      <c r="AC13" s="41" t="n"/>
+      <c r="AD13" s="41" t="n"/>
+      <c r="AE13" s="41" t="n"/>
+      <c r="AF13" s="41" t="n"/>
+      <c r="AG13" s="41" t="n"/>
+      <c r="AH13" s="41" t="n"/>
+      <c r="AI13" s="41" t="n"/>
+      <c r="AJ13" s="41" t="n"/>
+      <c r="AK13" s="41" t="n"/>
+      <c r="AL13" s="41" t="n"/>
+      <c r="AM13" s="41" t="n"/>
+      <c r="AN13" s="41" t="n"/>
+      <c r="AO13" s="41" t="n"/>
+      <c r="AP13" s="41" t="n"/>
+      <c r="AQ13" s="41" t="n"/>
+      <c r="AR13" s="41" t="n"/>
+      <c r="AS13" s="41" t="n"/>
+      <c r="AT13" s="41" t="n"/>
+      <c r="AU13" s="41" t="n"/>
+      <c r="AV13" s="41" t="n"/>
+      <c r="AW13" s="41" t="n"/>
+      <c r="AX13" s="41" t="n"/>
+      <c r="AY13" s="41" t="n"/>
+      <c r="AZ13" s="41" t="n"/>
+      <c r="BA13" s="41" t="n"/>
+      <c r="BB13" s="41" t="n"/>
+      <c r="BC13" s="41" t="n"/>
+      <c r="BD13" s="41" t="n"/>
+      <c r="BE13" s="41" t="n"/>
+      <c r="BF13" s="41" t="n"/>
+      <c r="BG13" s="41" t="n"/>
+      <c r="BH13" s="41" t="n"/>
+      <c r="BI13" s="41" t="n"/>
+      <c r="BJ13" s="41" t="n"/>
+      <c r="BK13" s="41" t="n"/>
+      <c r="BL13" s="41" t="n"/>
+      <c r="BM13" s="41" t="n"/>
+      <c r="BN13" s="41" t="n"/>
+      <c r="BO13" s="41" t="n"/>
+      <c r="BP13" s="41" t="n"/>
+      <c r="BQ13" s="41" t="n"/>
+      <c r="BR13" s="41" t="n"/>
+      <c r="BS13" s="41" t="n"/>
+      <c r="BT13" s="41" t="n"/>
+      <c r="BU13" s="41" t="n"/>
+      <c r="BV13" s="41" t="n"/>
+      <c r="BW13" s="41" t="n"/>
+      <c r="BX13" s="41" t="n"/>
+      <c r="BY13" s="41" t="n"/>
+      <c r="BZ13" s="41" t="n"/>
+      <c r="CA13" s="41" t="n"/>
+      <c r="CB13" s="41" t="n"/>
+      <c r="CC13" s="41" t="n"/>
+      <c r="CD13" s="41" t="n"/>
+      <c r="CE13" s="41" t="n"/>
+      <c r="CF13" s="41" t="n"/>
+      <c r="CG13" s="41" t="n"/>
+      <c r="CH13" s="41" t="n"/>
+      <c r="CI13" s="41" t="n"/>
+      <c r="CJ13" s="41" t="n"/>
+      <c r="CK13" s="41" t="n"/>
+      <c r="CL13" s="41" t="n"/>
+      <c r="CM13" s="41" t="n"/>
+      <c r="CN13" s="41" t="n"/>
+      <c r="CO13" s="41" t="n"/>
+      <c r="CP13" s="41" t="n"/>
+      <c r="CQ13" s="41" t="n"/>
+      <c r="CR13" s="41" t="n"/>
+      <c r="CS13" s="41" t="n"/>
+      <c r="CT13" s="41" t="n"/>
+      <c r="CU13" s="41" t="n"/>
+      <c r="CV13" s="41" t="n"/>
+      <c r="CW13" s="41" t="n"/>
+      <c r="CX13" s="41" t="n"/>
+      <c r="CY13" s="41" t="n"/>
+      <c r="CZ13" s="41" t="n"/>
+      <c r="DA13" s="41" t="n"/>
+      <c r="DB13" s="41" t="n"/>
+      <c r="DC13" s="41" t="n"/>
+      <c r="DD13" s="41" t="n"/>
+      <c r="DE13" s="41" t="n"/>
+      <c r="DF13" s="41" t="n"/>
+      <c r="DG13" s="41" t="n"/>
+      <c r="DH13" s="41" t="n"/>
+      <c r="DI13" s="41" t="n"/>
+      <c r="DJ13" s="41" t="n"/>
+      <c r="DK13" s="41" t="n"/>
+      <c r="DL13" s="41" t="n"/>
+      <c r="DM13" s="41" t="n"/>
+      <c r="DN13" s="41" t="n"/>
+      <c r="DO13" s="41" t="n"/>
+      <c r="DP13" s="41" t="n"/>
+      <c r="DQ13" s="41" t="n"/>
+      <c r="DR13" s="41" t="n"/>
+      <c r="DS13" s="41" t="n"/>
+      <c r="DT13" s="41" t="n"/>
+      <c r="DU13" s="41" t="n"/>
+      <c r="DV13" s="41" t="n"/>
+      <c r="DW13" s="41" t="n"/>
+      <c r="DX13" s="41" t="n"/>
+      <c r="DY13" s="41" t="n"/>
+      <c r="DZ13" s="41" t="n"/>
+      <c r="EA13" s="41" t="n"/>
+      <c r="EB13" s="41" t="n"/>
+      <c r="EC13" s="41" t="n"/>
+      <c r="ED13" s="41" t="n"/>
+      <c r="EE13" s="41" t="n"/>
+      <c r="EF13" s="41" t="n"/>
+      <c r="EG13" s="41" t="n"/>
+      <c r="EH13" s="41" t="n"/>
+      <c r="EI13" s="41" t="n"/>
+      <c r="EJ13" s="41" t="n"/>
+      <c r="EK13" s="41" t="n"/>
+      <c r="EL13" s="41" t="n"/>
+      <c r="EM13" s="41" t="n"/>
+      <c r="EN13" s="41" t="n"/>
+      <c r="EO13" s="41" t="n"/>
+      <c r="EP13" s="41" t="n"/>
+      <c r="EQ13" s="41" t="n"/>
+      <c r="ER13" s="41" t="n"/>
+      <c r="ES13" s="41" t="n"/>
+      <c r="ET13" s="41" t="n"/>
+      <c r="EU13" s="41" t="n"/>
+      <c r="EV13" s="41" t="n"/>
+      <c r="EW13" s="41" t="n"/>
+      <c r="EX13" s="41" t="n"/>
+      <c r="EY13" s="41" t="n"/>
+      <c r="EZ13" s="41" t="n"/>
+      <c r="FA13" s="41" t="n"/>
+      <c r="FB13" s="41" t="n"/>
+      <c r="FC13" s="41" t="n"/>
+      <c r="FD13" s="41" t="n"/>
+      <c r="FE13" s="41" t="n"/>
+      <c r="FF13" s="41" t="n"/>
+      <c r="FG13" s="41" t="n"/>
+      <c r="FH13" s="41" t="n"/>
+      <c r="FI13" s="41" t="n"/>
+      <c r="FJ13" s="41" t="n"/>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="42">
-      <c r="A14" s="81" t="n"/>
-      <c r="B14" s="81" t="n"/>
-      <c r="C14" s="81" t="n"/>
-      <c r="D14" s="81" t="n"/>
-      <c r="E14" s="81" t="n"/>
-      <c r="F14" s="81" t="n"/>
-      <c r="G14" s="81" t="n"/>
-      <c r="H14" s="81" t="n"/>
-      <c r="I14" s="81" t="n"/>
-      <c r="J14" s="81" t="n"/>
-      <c r="K14" s="81" t="n"/>
-      <c r="L14" s="81" t="n"/>
-      <c r="M14" s="81" t="n"/>
-      <c r="N14" s="81" t="n"/>
-      <c r="O14" s="81" t="n"/>
-      <c r="P14" s="81" t="n"/>
-      <c r="Q14" s="81" t="n"/>
-      <c r="R14" s="81" t="n"/>
-      <c r="S14" s="81" t="n"/>
-      <c r="T14" s="81" t="n"/>
-      <c r="U14" s="81" t="n"/>
-      <c r="V14" s="81" t="n"/>
-      <c r="W14" s="81" t="n"/>
-      <c r="X14" s="81" t="n"/>
-      <c r="Y14" s="81" t="n"/>
-      <c r="Z14" s="81" t="n"/>
-      <c r="AA14" s="81" t="n"/>
-      <c r="AB14" s="81" t="n"/>
-      <c r="AC14" s="81" t="n"/>
-      <c r="AD14" s="81" t="n"/>
-      <c r="AE14" s="81" t="n"/>
-      <c r="AF14" s="81" t="n"/>
-      <c r="AG14" s="81" t="n"/>
-      <c r="AH14" s="81" t="n"/>
-      <c r="AI14" s="81" t="n"/>
-      <c r="AJ14" s="81" t="n"/>
-      <c r="AK14" s="81" t="n"/>
-      <c r="AL14" s="81" t="n"/>
-      <c r="AM14" s="81" t="n"/>
-      <c r="AN14" s="81" t="n"/>
-      <c r="AO14" s="81" t="n"/>
-      <c r="AP14" s="81" t="n"/>
-      <c r="AQ14" s="81" t="n"/>
-      <c r="AR14" s="81" t="n"/>
-      <c r="AS14" s="81" t="n"/>
-      <c r="AT14" s="81" t="n"/>
-      <c r="AU14" s="81" t="n"/>
-      <c r="AV14" s="81" t="n"/>
-      <c r="AW14" s="81" t="n"/>
-      <c r="AX14" s="81" t="n"/>
-      <c r="AY14" s="81" t="n"/>
-      <c r="AZ14" s="81" t="n"/>
-      <c r="BA14" s="81" t="n"/>
-      <c r="BB14" s="81" t="n"/>
-      <c r="BC14" s="81" t="n"/>
-      <c r="BD14" s="81" t="n"/>
-      <c r="BE14" s="81" t="n"/>
-      <c r="BF14" s="81" t="n"/>
-      <c r="BG14" s="81" t="n"/>
-      <c r="BH14" s="81" t="n"/>
-      <c r="BI14" s="81" t="n"/>
-      <c r="BJ14" s="81" t="n"/>
-      <c r="BK14" s="81" t="n"/>
-      <c r="BL14" s="81" t="n"/>
-      <c r="BM14" s="81" t="n"/>
-      <c r="BN14" s="81" t="n"/>
-      <c r="BO14" s="81" t="n"/>
-      <c r="BP14" s="81" t="n"/>
-      <c r="BQ14" s="81" t="n"/>
-      <c r="BR14" s="81" t="n"/>
-      <c r="BS14" s="81" t="n"/>
-      <c r="BT14" s="81" t="n"/>
-      <c r="BU14" s="81" t="n"/>
-      <c r="BV14" s="81" t="n"/>
-      <c r="BW14" s="81" t="n"/>
-      <c r="BX14" s="81" t="n"/>
-      <c r="BY14" s="81" t="n"/>
-      <c r="BZ14" s="81" t="n"/>
-      <c r="CA14" s="81" t="n"/>
-      <c r="CB14" s="81" t="n"/>
-      <c r="CC14" s="81" t="n"/>
-      <c r="CD14" s="81" t="n"/>
-      <c r="CE14" s="81" t="n"/>
-      <c r="CF14" s="81" t="n"/>
-      <c r="CG14" s="81" t="n"/>
-      <c r="CH14" s="81" t="n"/>
-      <c r="CI14" s="81" t="n"/>
-      <c r="CJ14" s="81" t="n"/>
-      <c r="CK14" s="81" t="n"/>
-      <c r="CL14" s="81" t="n"/>
-      <c r="CM14" s="81" t="n"/>
-      <c r="CN14" s="81" t="n"/>
-      <c r="CO14" s="81" t="n"/>
-      <c r="CP14" s="81" t="n"/>
-      <c r="CQ14" s="81" t="n"/>
-      <c r="CR14" s="81" t="n"/>
-      <c r="CS14" s="81" t="n"/>
-      <c r="CT14" s="81" t="n"/>
-      <c r="CU14" s="81" t="n"/>
-      <c r="CV14" s="81" t="n"/>
-      <c r="CW14" s="81" t="n"/>
-      <c r="CX14" s="81" t="n"/>
-      <c r="CY14" s="81" t="n"/>
-      <c r="CZ14" s="81" t="n"/>
-      <c r="DA14" s="81" t="n"/>
-      <c r="DB14" s="81" t="n"/>
-      <c r="DC14" s="81" t="n"/>
-      <c r="DD14" s="81" t="n"/>
-      <c r="DE14" s="81" t="n"/>
-      <c r="DF14" s="81" t="n"/>
-      <c r="DG14" s="81" t="n"/>
-      <c r="DH14" s="81" t="n"/>
-      <c r="DI14" s="81" t="n"/>
-      <c r="DJ14" s="81" t="n"/>
-      <c r="DK14" s="81" t="n"/>
-      <c r="DL14" s="81" t="n"/>
-      <c r="DM14" s="81" t="n"/>
-      <c r="DN14" s="81" t="n"/>
-      <c r="DO14" s="81" t="n"/>
-      <c r="DP14" s="81" t="n"/>
-      <c r="DQ14" s="81" t="n"/>
-      <c r="DR14" s="81" t="n"/>
-      <c r="DS14" s="81" t="n"/>
-      <c r="DT14" s="81" t="n"/>
-      <c r="DU14" s="81" t="n"/>
-      <c r="DV14" s="81" t="n"/>
-      <c r="DW14" s="81" t="n"/>
-      <c r="DX14" s="81" t="n"/>
-      <c r="DY14" s="81" t="n"/>
-      <c r="DZ14" s="81" t="n"/>
-      <c r="EA14" s="81" t="n"/>
-      <c r="EB14" s="81" t="n"/>
-      <c r="EC14" s="81" t="n"/>
-      <c r="ED14" s="81" t="n"/>
-      <c r="EE14" s="81" t="n"/>
-      <c r="EF14" s="81" t="n"/>
-      <c r="EG14" s="81" t="n"/>
-      <c r="EH14" s="81" t="n"/>
-      <c r="EI14" s="81" t="n"/>
-      <c r="EJ14" s="81" t="n"/>
-      <c r="EK14" s="81" t="n"/>
-      <c r="EL14" s="81" t="n"/>
-      <c r="EM14" s="81" t="n"/>
-      <c r="EN14" s="81" t="n"/>
-      <c r="EO14" s="81" t="n"/>
-      <c r="EP14" s="81" t="n"/>
-      <c r="EQ14" s="81" t="n"/>
-      <c r="ER14" s="81" t="n"/>
-      <c r="ES14" s="81" t="n"/>
-      <c r="ET14" s="81" t="n"/>
-      <c r="EU14" s="81" t="n"/>
-      <c r="EV14" s="81" t="n"/>
-      <c r="EW14" s="81" t="n"/>
-      <c r="EX14" s="81" t="n"/>
-      <c r="EY14" s="81" t="n"/>
-      <c r="EZ14" s="81" t="n"/>
-      <c r="FA14" s="81" t="n"/>
-      <c r="FB14" s="81" t="n"/>
-      <c r="FC14" s="81" t="n"/>
-      <c r="FD14" s="81" t="n"/>
-      <c r="FE14" s="81" t="n"/>
-      <c r="FF14" s="81" t="n"/>
-      <c r="FG14" s="81" t="n"/>
-      <c r="FH14" s="81" t="n"/>
-      <c r="FI14" s="81" t="n"/>
-      <c r="FJ14" s="81" t="n"/>
+      <c r="A14" s="41" t="n"/>
+      <c r="B14" s="41" t="n"/>
+      <c r="C14" s="41" t="n"/>
+      <c r="D14" s="41" t="n"/>
+      <c r="E14" s="41" t="n"/>
+      <c r="F14" s="41" t="n"/>
+      <c r="G14" s="41" t="n"/>
+      <c r="H14" s="41" t="n"/>
+      <c r="I14" s="41" t="n"/>
+      <c r="J14" s="41" t="n"/>
+      <c r="K14" s="41" t="n"/>
+      <c r="L14" s="41" t="n"/>
+      <c r="M14" s="41" t="n"/>
+      <c r="N14" s="41" t="n"/>
+      <c r="O14" s="41" t="n"/>
+      <c r="P14" s="41" t="n"/>
+      <c r="Q14" s="41" t="n"/>
+      <c r="R14" s="41" t="n"/>
+      <c r="S14" s="41" t="n"/>
+      <c r="T14" s="41" t="n"/>
+      <c r="U14" s="41" t="n"/>
+      <c r="V14" s="41" t="n"/>
+      <c r="W14" s="41" t="n"/>
+      <c r="X14" s="41" t="n"/>
+      <c r="Y14" s="41" t="n"/>
+      <c r="Z14" s="41" t="n"/>
+      <c r="AA14" s="41" t="n"/>
+      <c r="AB14" s="41" t="n"/>
+      <c r="AC14" s="41" t="n"/>
+      <c r="AD14" s="41" t="n"/>
+      <c r="AE14" s="41" t="n"/>
+      <c r="AF14" s="41" t="n"/>
+      <c r="AG14" s="41" t="n"/>
+      <c r="AH14" s="41" t="n"/>
+      <c r="AI14" s="41" t="n"/>
+      <c r="AJ14" s="41" t="n"/>
+      <c r="AK14" s="41" t="n"/>
+      <c r="AL14" s="41" t="n"/>
+      <c r="AM14" s="41" t="n"/>
+      <c r="AN14" s="41" t="n"/>
+      <c r="AO14" s="41" t="n"/>
+      <c r="AP14" s="41" t="n"/>
+      <c r="AQ14" s="41" t="n"/>
+      <c r="AR14" s="41" t="n"/>
+      <c r="AS14" s="41" t="n"/>
+      <c r="AT14" s="41" t="n"/>
+      <c r="AU14" s="41" t="n"/>
+      <c r="AV14" s="41" t="n"/>
+      <c r="AW14" s="41" t="n"/>
+      <c r="AX14" s="41" t="n"/>
+      <c r="AY14" s="41" t="n"/>
+      <c r="AZ14" s="41" t="n"/>
+      <c r="BA14" s="41" t="n"/>
+      <c r="BB14" s="41" t="n"/>
+      <c r="BC14" s="41" t="n"/>
+      <c r="BD14" s="41" t="n"/>
+      <c r="BE14" s="41" t="n"/>
+      <c r="BF14" s="41" t="n"/>
+      <c r="BG14" s="41" t="n"/>
+      <c r="BH14" s="41" t="n"/>
+      <c r="BI14" s="41" t="n"/>
+      <c r="BJ14" s="41" t="n"/>
+      <c r="BK14" s="41" t="n"/>
+      <c r="BL14" s="41" t="n"/>
+      <c r="BM14" s="41" t="n"/>
+      <c r="BN14" s="41" t="n"/>
+      <c r="BO14" s="41" t="n"/>
+      <c r="BP14" s="41" t="n"/>
+      <c r="BQ14" s="41" t="n"/>
+      <c r="BR14" s="41" t="n"/>
+      <c r="BS14" s="41" t="n"/>
+      <c r="BT14" s="41" t="n"/>
+      <c r="BU14" s="41" t="n"/>
+      <c r="BV14" s="41" t="n"/>
+      <c r="BW14" s="41" t="n"/>
+      <c r="BX14" s="41" t="n"/>
+      <c r="BY14" s="41" t="n"/>
+      <c r="BZ14" s="41" t="n"/>
+      <c r="CA14" s="41" t="n"/>
+      <c r="CB14" s="41" t="n"/>
+      <c r="CC14" s="41" t="n"/>
+      <c r="CD14" s="41" t="n"/>
+      <c r="CE14" s="41" t="n"/>
+      <c r="CF14" s="41" t="n"/>
+      <c r="CG14" s="41" t="n"/>
+      <c r="CH14" s="41" t="n"/>
+      <c r="CI14" s="41" t="n"/>
+      <c r="CJ14" s="41" t="n"/>
+      <c r="CK14" s="41" t="n"/>
+      <c r="CL14" s="41" t="n"/>
+      <c r="CM14" s="41" t="n"/>
+      <c r="CN14" s="41" t="n"/>
+      <c r="CO14" s="41" t="n"/>
+      <c r="CP14" s="41" t="n"/>
+      <c r="CQ14" s="41" t="n"/>
+      <c r="CR14" s="41" t="n"/>
+      <c r="CS14" s="41" t="n"/>
+      <c r="CT14" s="41" t="n"/>
+      <c r="CU14" s="41" t="n"/>
+      <c r="CV14" s="41" t="n"/>
+      <c r="CW14" s="41" t="n"/>
+      <c r="CX14" s="41" t="n"/>
+      <c r="CY14" s="41" t="n"/>
+      <c r="CZ14" s="41" t="n"/>
+      <c r="DA14" s="41" t="n"/>
+      <c r="DB14" s="41" t="n"/>
+      <c r="DC14" s="41" t="n"/>
+      <c r="DD14" s="41" t="n"/>
+      <c r="DE14" s="41" t="n"/>
+      <c r="DF14" s="41" t="n"/>
+      <c r="DG14" s="41" t="n"/>
+      <c r="DH14" s="41" t="n"/>
+      <c r="DI14" s="41" t="n"/>
+      <c r="DJ14" s="41" t="n"/>
+      <c r="DK14" s="41" t="n"/>
+      <c r="DL14" s="41" t="n"/>
+      <c r="DM14" s="41" t="n"/>
+      <c r="DN14" s="41" t="n"/>
+      <c r="DO14" s="41" t="n"/>
+      <c r="DP14" s="41" t="n"/>
+      <c r="DQ14" s="41" t="n"/>
+      <c r="DR14" s="41" t="n"/>
+      <c r="DS14" s="41" t="n"/>
+      <c r="DT14" s="41" t="n"/>
+      <c r="DU14" s="41" t="n"/>
+      <c r="DV14" s="41" t="n"/>
+      <c r="DW14" s="41" t="n"/>
+      <c r="DX14" s="41" t="n"/>
+      <c r="DY14" s="41" t="n"/>
+      <c r="DZ14" s="41" t="n"/>
+      <c r="EA14" s="41" t="n"/>
+      <c r="EB14" s="41" t="n"/>
+      <c r="EC14" s="41" t="n"/>
+      <c r="ED14" s="41" t="n"/>
+      <c r="EE14" s="41" t="n"/>
+      <c r="EF14" s="41" t="n"/>
+      <c r="EG14" s="41" t="n"/>
+      <c r="EH14" s="41" t="n"/>
+      <c r="EI14" s="41" t="n"/>
+      <c r="EJ14" s="41" t="n"/>
+      <c r="EK14" s="41" t="n"/>
+      <c r="EL14" s="41" t="n"/>
+      <c r="EM14" s="41" t="n"/>
+      <c r="EN14" s="41" t="n"/>
+      <c r="EO14" s="41" t="n"/>
+      <c r="EP14" s="41" t="n"/>
+      <c r="EQ14" s="41" t="n"/>
+      <c r="ER14" s="41" t="n"/>
+      <c r="ES14" s="41" t="n"/>
+      <c r="ET14" s="41" t="n"/>
+      <c r="EU14" s="41" t="n"/>
+      <c r="EV14" s="41" t="n"/>
+      <c r="EW14" s="41" t="n"/>
+      <c r="EX14" s="41" t="n"/>
+      <c r="EY14" s="41" t="n"/>
+      <c r="EZ14" s="41" t="n"/>
+      <c r="FA14" s="41" t="n"/>
+      <c r="FB14" s="41" t="n"/>
+      <c r="FC14" s="41" t="n"/>
+      <c r="FD14" s="41" t="n"/>
+      <c r="FE14" s="41" t="n"/>
+      <c r="FF14" s="41" t="n"/>
+      <c r="FG14" s="41" t="n"/>
+      <c r="FH14" s="41" t="n"/>
+      <c r="FI14" s="41" t="n"/>
+      <c r="FJ14" s="41" t="n"/>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="42">
-      <c r="A15" s="81" t="n"/>
-      <c r="B15" s="81" t="n"/>
-      <c r="C15" s="81" t="n"/>
-      <c r="D15" s="81" t="n"/>
-      <c r="E15" s="81" t="n"/>
-      <c r="F15" s="81" t="n"/>
-      <c r="G15" s="81" t="n"/>
-      <c r="H15" s="81" t="n"/>
-      <c r="I15" s="81" t="n"/>
-      <c r="J15" s="81" t="n"/>
-      <c r="K15" s="81" t="n"/>
-      <c r="L15" s="81" t="n"/>
-      <c r="M15" s="81" t="n"/>
-      <c r="N15" s="81" t="n"/>
-      <c r="O15" s="81" t="n"/>
-      <c r="P15" s="81" t="n"/>
-      <c r="Q15" s="81" t="n"/>
-      <c r="R15" s="81" t="n"/>
-      <c r="S15" s="81" t="n"/>
-      <c r="T15" s="81" t="n"/>
-      <c r="U15" s="81" t="n"/>
-      <c r="V15" s="81" t="n"/>
-      <c r="W15" s="81" t="n"/>
-      <c r="X15" s="81" t="n"/>
-      <c r="Y15" s="81" t="n"/>
-      <c r="Z15" s="81" t="n"/>
-      <c r="AA15" s="81" t="n"/>
-      <c r="AB15" s="81" t="n"/>
-      <c r="AC15" s="81" t="n"/>
-      <c r="AD15" s="81" t="n"/>
-      <c r="AE15" s="81" t="n"/>
-      <c r="AF15" s="81" t="n"/>
-      <c r="AG15" s="81" t="n"/>
-      <c r="AH15" s="81" t="n"/>
-      <c r="AI15" s="81" t="n"/>
-      <c r="AJ15" s="81" t="n"/>
-      <c r="AK15" s="81" t="n"/>
-      <c r="AL15" s="81" t="n"/>
-      <c r="AM15" s="81" t="n"/>
-      <c r="AN15" s="81" t="n"/>
-      <c r="AO15" s="81" t="n"/>
-      <c r="AP15" s="81" t="n"/>
-      <c r="AQ15" s="81" t="n"/>
-      <c r="AR15" s="81" t="n"/>
-      <c r="AS15" s="81" t="n"/>
-      <c r="AT15" s="81" t="n"/>
-      <c r="AU15" s="81" t="n"/>
-      <c r="AV15" s="81" t="n"/>
-      <c r="AW15" s="81" t="n"/>
-      <c r="AX15" s="81" t="n"/>
-      <c r="AY15" s="81" t="n"/>
-      <c r="AZ15" s="81" t="n"/>
-      <c r="BA15" s="81" t="n"/>
-      <c r="BB15" s="81" t="n"/>
-      <c r="BC15" s="81" t="n"/>
-      <c r="BD15" s="81" t="n"/>
-      <c r="BE15" s="81" t="n"/>
-      <c r="BF15" s="81" t="n"/>
-      <c r="BG15" s="81" t="n"/>
-      <c r="BH15" s="81" t="n"/>
-      <c r="BI15" s="81" t="n"/>
-      <c r="BJ15" s="81" t="n"/>
-      <c r="BK15" s="81" t="n"/>
-      <c r="BL15" s="81" t="n"/>
-      <c r="BM15" s="81" t="n"/>
-      <c r="BN15" s="81" t="n"/>
-      <c r="BO15" s="81" t="n"/>
-      <c r="BP15" s="81" t="n"/>
-      <c r="BQ15" s="81" t="n"/>
-      <c r="BR15" s="81" t="n"/>
-      <c r="BS15" s="81" t="n"/>
-      <c r="BT15" s="81" t="n"/>
-      <c r="BU15" s="81" t="n"/>
-      <c r="BV15" s="81" t="n"/>
-      <c r="BW15" s="81" t="n"/>
-      <c r="BX15" s="81" t="n"/>
-      <c r="BY15" s="81" t="n"/>
-      <c r="BZ15" s="81" t="n"/>
-      <c r="CA15" s="81" t="n"/>
-      <c r="CB15" s="81" t="n"/>
-      <c r="CC15" s="81" t="n"/>
-      <c r="CD15" s="81" t="n"/>
-      <c r="CE15" s="81" t="n"/>
-      <c r="CF15" s="81" t="n"/>
-      <c r="CG15" s="81" t="n"/>
-      <c r="CH15" s="81" t="n"/>
-      <c r="CI15" s="81" t="n"/>
-      <c r="CJ15" s="81" t="n"/>
-      <c r="CK15" s="81" t="n"/>
-      <c r="CL15" s="81" t="n"/>
-      <c r="CM15" s="81" t="n"/>
-      <c r="CN15" s="81" t="n"/>
-      <c r="CO15" s="81" t="n"/>
-      <c r="CP15" s="81" t="n"/>
-      <c r="CQ15" s="81" t="n"/>
-      <c r="CR15" s="81" t="n"/>
-      <c r="CS15" s="81" t="n"/>
-      <c r="CT15" s="81" t="n"/>
-      <c r="CU15" s="81" t="n"/>
-      <c r="CV15" s="81" t="n"/>
-      <c r="CW15" s="81" t="n"/>
-      <c r="CX15" s="81" t="n"/>
-      <c r="CY15" s="81" t="n"/>
-      <c r="CZ15" s="81" t="n"/>
-      <c r="DA15" s="81" t="n"/>
-      <c r="DB15" s="81" t="n"/>
-      <c r="DC15" s="81" t="n"/>
-      <c r="DD15" s="81" t="n"/>
-      <c r="DE15" s="81" t="n"/>
-      <c r="DF15" s="81" t="n"/>
-      <c r="DG15" s="81" t="n"/>
-      <c r="DH15" s="81" t="n"/>
-      <c r="DI15" s="81" t="n"/>
-      <c r="DJ15" s="81" t="n"/>
-      <c r="DK15" s="81" t="n"/>
-      <c r="DL15" s="81" t="n"/>
-      <c r="DM15" s="81" t="n"/>
-      <c r="DN15" s="81" t="n"/>
-      <c r="DO15" s="81" t="n"/>
-      <c r="DP15" s="81" t="n"/>
-      <c r="DQ15" s="81" t="n"/>
-      <c r="DR15" s="81" t="n"/>
-      <c r="DS15" s="81" t="n"/>
-      <c r="DT15" s="81" t="n"/>
-      <c r="DU15" s="81" t="n"/>
-      <c r="DV15" s="81" t="n"/>
-      <c r="DW15" s="81" t="n"/>
-      <c r="DX15" s="81" t="n"/>
-      <c r="DY15" s="81" t="n"/>
-      <c r="DZ15" s="81" t="n"/>
-      <c r="EA15" s="81" t="n"/>
-      <c r="EB15" s="81" t="n"/>
-      <c r="EC15" s="81" t="n"/>
-      <c r="ED15" s="81" t="n"/>
-      <c r="EE15" s="81" t="n"/>
-      <c r="EF15" s="81" t="n"/>
-      <c r="EG15" s="81" t="n"/>
-      <c r="EH15" s="81" t="n"/>
-      <c r="EI15" s="81" t="n"/>
-      <c r="EJ15" s="81" t="n"/>
-      <c r="EK15" s="81" t="n"/>
-      <c r="EL15" s="81" t="n"/>
-      <c r="EM15" s="81" t="n"/>
-      <c r="EN15" s="81" t="n"/>
-      <c r="EO15" s="81" t="n"/>
-      <c r="EP15" s="81" t="n"/>
-      <c r="EQ15" s="81" t="n"/>
-      <c r="ER15" s="81" t="n"/>
-      <c r="ES15" s="81" t="n"/>
-      <c r="ET15" s="81" t="n"/>
-      <c r="EU15" s="81" t="n"/>
-      <c r="EV15" s="81" t="n"/>
-      <c r="EW15" s="81" t="n"/>
-      <c r="EX15" s="81" t="n"/>
-      <c r="EY15" s="81" t="n"/>
-      <c r="EZ15" s="81" t="n"/>
-      <c r="FA15" s="81" t="n"/>
-      <c r="FB15" s="81" t="n"/>
-      <c r="FC15" s="81" t="n"/>
-      <c r="FD15" s="81" t="n"/>
-      <c r="FE15" s="81" t="n"/>
-      <c r="FF15" s="81" t="n"/>
-      <c r="FG15" s="81" t="n"/>
-      <c r="FH15" s="81" t="n"/>
-      <c r="FI15" s="81" t="n"/>
-      <c r="FJ15" s="81" t="n"/>
+      <c r="A15" s="41" t="n"/>
+      <c r="B15" s="41" t="n"/>
+      <c r="C15" s="41" t="n"/>
+      <c r="D15" s="41" t="n"/>
+      <c r="E15" s="41" t="n"/>
+      <c r="F15" s="41" t="n"/>
+      <c r="G15" s="41" t="n"/>
+      <c r="H15" s="41" t="n"/>
+      <c r="I15" s="41" t="n"/>
+      <c r="J15" s="41" t="n"/>
+      <c r="K15" s="41" t="n"/>
+      <c r="L15" s="41" t="n"/>
+      <c r="M15" s="41" t="n"/>
+      <c r="N15" s="41" t="n"/>
+      <c r="O15" s="41" t="n"/>
+      <c r="P15" s="41" t="n"/>
+      <c r="Q15" s="41" t="n"/>
+      <c r="R15" s="41" t="n"/>
+      <c r="S15" s="41" t="n"/>
+      <c r="T15" s="41" t="n"/>
+      <c r="U15" s="41" t="n"/>
+      <c r="V15" s="41" t="n"/>
+      <c r="W15" s="41" t="n"/>
+      <c r="X15" s="41" t="n"/>
+      <c r="Y15" s="41" t="n"/>
+      <c r="Z15" s="41" t="n"/>
+      <c r="AA15" s="41" t="n"/>
+      <c r="AB15" s="41" t="n"/>
+      <c r="AC15" s="41" t="n"/>
+      <c r="AD15" s="41" t="n"/>
+      <c r="AE15" s="41" t="n"/>
+      <c r="AF15" s="41" t="n"/>
+      <c r="AG15" s="41" t="n"/>
+      <c r="AH15" s="41" t="n"/>
+      <c r="AI15" s="41" t="n"/>
+      <c r="AJ15" s="41" t="n"/>
+      <c r="AK15" s="41" t="n"/>
+      <c r="AL15" s="41" t="n"/>
+      <c r="AM15" s="41" t="n"/>
+      <c r="AN15" s="41" t="n"/>
+      <c r="AO15" s="41" t="n"/>
+      <c r="AP15" s="41" t="n"/>
+      <c r="AQ15" s="41" t="n"/>
+      <c r="AR15" s="41" t="n"/>
+      <c r="AS15" s="41" t="n"/>
+      <c r="AT15" s="41" t="n"/>
+      <c r="AU15" s="41" t="n"/>
+      <c r="AV15" s="41" t="n"/>
+      <c r="AW15" s="41" t="n"/>
+      <c r="AX15" s="41" t="n"/>
+      <c r="AY15" s="41" t="n"/>
+      <c r="AZ15" s="41" t="n"/>
+      <c r="BA15" s="41" t="n"/>
+      <c r="BB15" s="41" t="n"/>
+      <c r="BC15" s="41" t="n"/>
+      <c r="BD15" s="41" t="n"/>
+      <c r="BE15" s="41" t="n"/>
+      <c r="BF15" s="41" t="n"/>
+      <c r="BG15" s="41" t="n"/>
+      <c r="BH15" s="41" t="n"/>
+      <c r="BI15" s="41" t="n"/>
+      <c r="BJ15" s="41" t="n"/>
+      <c r="BK15" s="41" t="n"/>
+      <c r="BL15" s="41" t="n"/>
+      <c r="BM15" s="41" t="n"/>
+      <c r="BN15" s="41" t="n"/>
+      <c r="BO15" s="41" t="n"/>
+      <c r="BP15" s="41" t="n"/>
+      <c r="BQ15" s="41" t="n"/>
+      <c r="BR15" s="41" t="n"/>
+      <c r="BS15" s="41" t="n"/>
+      <c r="BT15" s="41" t="n"/>
+      <c r="BU15" s="41" t="n"/>
+      <c r="BV15" s="41" t="n"/>
+      <c r="BW15" s="41" t="n"/>
+      <c r="BX15" s="41" t="n"/>
+      <c r="BY15" s="41" t="n"/>
+      <c r="BZ15" s="41" t="n"/>
+      <c r="CA15" s="41" t="n"/>
+      <c r="CB15" s="41" t="n"/>
+      <c r="CC15" s="41" t="n"/>
+      <c r="CD15" s="41" t="n"/>
+      <c r="CE15" s="41" t="n"/>
+      <c r="CF15" s="41" t="n"/>
+      <c r="CG15" s="41" t="n"/>
+      <c r="CH15" s="41" t="n"/>
+      <c r="CI15" s="41" t="n"/>
+      <c r="CJ15" s="41" t="n"/>
+      <c r="CK15" s="41" t="n"/>
+      <c r="CL15" s="41" t="n"/>
+      <c r="CM15" s="41" t="n"/>
+      <c r="CN15" s="41" t="n"/>
+      <c r="CO15" s="41" t="n"/>
+      <c r="CP15" s="41" t="n"/>
+      <c r="CQ15" s="41" t="n"/>
+      <c r="CR15" s="41" t="n"/>
+      <c r="CS15" s="41" t="n"/>
+      <c r="CT15" s="41" t="n"/>
+      <c r="CU15" s="41" t="n"/>
+      <c r="CV15" s="41" t="n"/>
+      <c r="CW15" s="41" t="n"/>
+      <c r="CX15" s="41" t="n"/>
+      <c r="CY15" s="41" t="n"/>
+      <c r="CZ15" s="41" t="n"/>
+      <c r="DA15" s="41" t="n"/>
+      <c r="DB15" s="41" t="n"/>
+      <c r="DC15" s="41" t="n"/>
+      <c r="DD15" s="41" t="n"/>
+      <c r="DE15" s="41" t="n"/>
+      <c r="DF15" s="41" t="n"/>
+      <c r="DG15" s="41" t="n"/>
+      <c r="DH15" s="41" t="n"/>
+      <c r="DI15" s="41" t="n"/>
+      <c r="DJ15" s="41" t="n"/>
+      <c r="DK15" s="41" t="n"/>
+      <c r="DL15" s="41" t="n"/>
+      <c r="DM15" s="41" t="n"/>
+      <c r="DN15" s="41" t="n"/>
+      <c r="DO15" s="41" t="n"/>
+      <c r="DP15" s="41" t="n"/>
+      <c r="DQ15" s="41" t="n"/>
+      <c r="DR15" s="41" t="n"/>
+      <c r="DS15" s="41" t="n"/>
+      <c r="DT15" s="41" t="n"/>
+      <c r="DU15" s="41" t="n"/>
+      <c r="DV15" s="41" t="n"/>
+      <c r="DW15" s="41" t="n"/>
+      <c r="DX15" s="41" t="n"/>
+      <c r="DY15" s="41" t="n"/>
+      <c r="DZ15" s="41" t="n"/>
+      <c r="EA15" s="41" t="n"/>
+      <c r="EB15" s="41" t="n"/>
+      <c r="EC15" s="41" t="n"/>
+      <c r="ED15" s="41" t="n"/>
+      <c r="EE15" s="41" t="n"/>
+      <c r="EF15" s="41" t="n"/>
+      <c r="EG15" s="41" t="n"/>
+      <c r="EH15" s="41" t="n"/>
+      <c r="EI15" s="41" t="n"/>
+      <c r="EJ15" s="41" t="n"/>
+      <c r="EK15" s="41" t="n"/>
+      <c r="EL15" s="41" t="n"/>
+      <c r="EM15" s="41" t="n"/>
+      <c r="EN15" s="41" t="n"/>
+      <c r="EO15" s="41" t="n"/>
+      <c r="EP15" s="41" t="n"/>
+      <c r="EQ15" s="41" t="n"/>
+      <c r="ER15" s="41" t="n"/>
+      <c r="ES15" s="41" t="n"/>
+      <c r="ET15" s="41" t="n"/>
+      <c r="EU15" s="41" t="n"/>
+      <c r="EV15" s="41" t="n"/>
+      <c r="EW15" s="41" t="n"/>
+      <c r="EX15" s="41" t="n"/>
+      <c r="EY15" s="41" t="n"/>
+      <c r="EZ15" s="41" t="n"/>
+      <c r="FA15" s="41" t="n"/>
+      <c r="FB15" s="41" t="n"/>
+      <c r="FC15" s="41" t="n"/>
+      <c r="FD15" s="41" t="n"/>
+      <c r="FE15" s="41" t="n"/>
+      <c r="FF15" s="41" t="n"/>
+      <c r="FG15" s="41" t="n"/>
+      <c r="FH15" s="41" t="n"/>
+      <c r="FI15" s="41" t="n"/>
+      <c r="FJ15" s="41" t="n"/>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="42">
-      <c r="A16" s="81" t="n"/>
-      <c r="B16" s="81" t="n"/>
-      <c r="C16" s="81" t="n"/>
-      <c r="D16" s="81" t="n"/>
-      <c r="E16" s="81" t="n"/>
-      <c r="F16" s="81" t="n"/>
-      <c r="G16" s="81" t="n"/>
-      <c r="H16" s="81" t="n"/>
-      <c r="I16" s="81" t="n"/>
-      <c r="J16" s="81" t="n"/>
-      <c r="K16" s="81" t="n"/>
-      <c r="L16" s="81" t="n"/>
-      <c r="M16" s="81" t="n"/>
-      <c r="N16" s="81" t="n"/>
-      <c r="O16" s="81" t="n"/>
-      <c r="P16" s="81" t="n"/>
-      <c r="Q16" s="81" t="n"/>
-      <c r="R16" s="81" t="n"/>
-      <c r="S16" s="81" t="n"/>
-      <c r="T16" s="81" t="n"/>
-      <c r="U16" s="81" t="n"/>
-      <c r="V16" s="81" t="n"/>
-      <c r="W16" s="81" t="n"/>
-      <c r="X16" s="81" t="n"/>
-      <c r="Y16" s="81" t="n"/>
-      <c r="Z16" s="81" t="n"/>
-      <c r="AA16" s="81" t="n"/>
-      <c r="AB16" s="81" t="n"/>
-      <c r="AC16" s="81" t="n"/>
-      <c r="AD16" s="81" t="n"/>
-      <c r="AE16" s="81" t="n"/>
-      <c r="AF16" s="81" t="n"/>
-      <c r="AG16" s="81" t="n"/>
-      <c r="AH16" s="81" t="n"/>
-      <c r="AI16" s="81" t="n"/>
-      <c r="AJ16" s="81" t="n"/>
-      <c r="AK16" s="81" t="n"/>
-      <c r="AL16" s="81" t="n"/>
-      <c r="AM16" s="81" t="n"/>
-      <c r="AN16" s="81" t="n"/>
-      <c r="AO16" s="81" t="n"/>
-      <c r="AP16" s="81" t="n"/>
-      <c r="AQ16" s="81" t="n"/>
-      <c r="AR16" s="81" t="n"/>
-      <c r="AS16" s="81" t="n"/>
-      <c r="AT16" s="81" t="n"/>
-      <c r="AU16" s="81" t="n"/>
-      <c r="AV16" s="81" t="n"/>
-      <c r="AW16" s="81" t="n"/>
-      <c r="AX16" s="81" t="n"/>
-      <c r="AY16" s="81" t="n"/>
-      <c r="AZ16" s="81" t="n"/>
-      <c r="BA16" s="81" t="n"/>
-      <c r="BB16" s="81" t="n"/>
-      <c r="BC16" s="81" t="n"/>
-      <c r="BD16" s="81" t="n"/>
-      <c r="BE16" s="81" t="n"/>
-      <c r="BF16" s="81" t="n"/>
-      <c r="BG16" s="81" t="n"/>
-      <c r="BH16" s="81" t="n"/>
-      <c r="BI16" s="81" t="n"/>
-      <c r="BJ16" s="81" t="n"/>
-      <c r="BK16" s="81" t="n"/>
-      <c r="BL16" s="81" t="n"/>
-      <c r="BM16" s="81" t="n"/>
-      <c r="BN16" s="81" t="n"/>
-      <c r="BO16" s="81" t="n"/>
-      <c r="BP16" s="81" t="n"/>
-      <c r="BQ16" s="81" t="n"/>
-      <c r="BR16" s="81" t="n"/>
-      <c r="BS16" s="81" t="n"/>
-      <c r="BT16" s="81" t="n"/>
-      <c r="BU16" s="81" t="n"/>
-      <c r="BV16" s="81" t="n"/>
-      <c r="BW16" s="81" t="n"/>
-      <c r="BX16" s="81" t="n"/>
-      <c r="BY16" s="81" t="n"/>
-      <c r="BZ16" s="81" t="n"/>
-      <c r="CA16" s="81" t="n"/>
-      <c r="CB16" s="81" t="n"/>
-      <c r="CC16" s="81" t="n"/>
-      <c r="CD16" s="81" t="n"/>
-      <c r="CE16" s="81" t="n"/>
-      <c r="CF16" s="81" t="n"/>
-      <c r="CG16" s="81" t="n"/>
-      <c r="CH16" s="81" t="n"/>
-      <c r="CI16" s="81" t="n"/>
-      <c r="CJ16" s="81" t="n"/>
-      <c r="CK16" s="81" t="n"/>
-      <c r="CL16" s="81" t="n"/>
-      <c r="CM16" s="81" t="n"/>
-      <c r="CN16" s="81" t="n"/>
-      <c r="CO16" s="81" t="n"/>
-      <c r="CP16" s="81" t="n"/>
-      <c r="CQ16" s="81" t="n"/>
-      <c r="CR16" s="81" t="n"/>
-      <c r="CS16" s="81" t="n"/>
-      <c r="CT16" s="81" t="n"/>
-      <c r="CU16" s="81" t="n"/>
-      <c r="CV16" s="81" t="n"/>
-      <c r="CW16" s="81" t="n"/>
-      <c r="CX16" s="81" t="n"/>
-      <c r="CY16" s="81" t="n"/>
-      <c r="CZ16" s="81" t="n"/>
-      <c r="DA16" s="81" t="n"/>
-      <c r="DB16" s="81" t="n"/>
-      <c r="DC16" s="81" t="n"/>
-      <c r="DD16" s="81" t="n"/>
-      <c r="DE16" s="81" t="n"/>
-      <c r="DF16" s="81" t="n"/>
-      <c r="DG16" s="81" t="n"/>
-      <c r="DH16" s="81" t="n"/>
-      <c r="DI16" s="81" t="n"/>
-      <c r="DJ16" s="81" t="n"/>
-      <c r="DK16" s="81" t="n"/>
-      <c r="DL16" s="81" t="n"/>
-      <c r="DM16" s="81" t="n"/>
-      <c r="DN16" s="81" t="n"/>
-      <c r="DO16" s="81" t="n"/>
-      <c r="DP16" s="81" t="n"/>
-      <c r="DQ16" s="81" t="n"/>
-      <c r="DR16" s="81" t="n"/>
-      <c r="DS16" s="81" t="n"/>
-      <c r="DT16" s="81" t="n"/>
-      <c r="DU16" s="81" t="n"/>
-      <c r="DV16" s="81" t="n"/>
-      <c r="DW16" s="81" t="n"/>
-      <c r="DX16" s="81" t="n"/>
-      <c r="DY16" s="81" t="n"/>
-      <c r="DZ16" s="81" t="n"/>
-      <c r="EA16" s="81" t="n"/>
-      <c r="EB16" s="81" t="n"/>
-      <c r="EC16" s="81" t="n"/>
-      <c r="ED16" s="81" t="n"/>
-      <c r="EE16" s="81" t="n"/>
-      <c r="EF16" s="81" t="n"/>
-      <c r="EG16" s="81" t="n"/>
-      <c r="EH16" s="81" t="n"/>
-      <c r="EI16" s="81" t="n"/>
-      <c r="EJ16" s="81" t="n"/>
-      <c r="EK16" s="81" t="n"/>
-      <c r="EL16" s="81" t="n"/>
-      <c r="EM16" s="81" t="n"/>
-      <c r="EN16" s="81" t="n"/>
-      <c r="EO16" s="81" t="n"/>
-      <c r="EP16" s="81" t="n"/>
-      <c r="EQ16" s="81" t="n"/>
-      <c r="ER16" s="81" t="n"/>
-      <c r="ES16" s="81" t="n"/>
-      <c r="ET16" s="81" t="n"/>
-      <c r="EU16" s="81" t="n"/>
-      <c r="EV16" s="81" t="n"/>
-      <c r="EW16" s="81" t="n"/>
-      <c r="EX16" s="81" t="n"/>
-      <c r="EY16" s="81" t="n"/>
-      <c r="EZ16" s="81" t="n"/>
-      <c r="FA16" s="81" t="n"/>
-      <c r="FB16" s="81" t="n"/>
-      <c r="FC16" s="81" t="n"/>
-      <c r="FD16" s="81" t="n"/>
-      <c r="FE16" s="81" t="n"/>
-      <c r="FF16" s="81" t="n"/>
-      <c r="FG16" s="81" t="n"/>
-      <c r="FH16" s="81" t="n"/>
-      <c r="FI16" s="81" t="n"/>
-      <c r="FJ16" s="81" t="n"/>
+      <c r="A16" s="41" t="n"/>
+      <c r="B16" s="41" t="n"/>
+      <c r="C16" s="41" t="n"/>
+      <c r="D16" s="41" t="n"/>
+      <c r="E16" s="41" t="n"/>
+      <c r="F16" s="41" t="n"/>
+      <c r="G16" s="41" t="n"/>
+      <c r="H16" s="41" t="n"/>
+      <c r="I16" s="41" t="n"/>
+      <c r="J16" s="41" t="n"/>
+      <c r="K16" s="41" t="n"/>
+      <c r="L16" s="41" t="n"/>
+      <c r="M16" s="41" t="n"/>
+      <c r="N16" s="41" t="n"/>
+      <c r="O16" s="41" t="n"/>
+      <c r="P16" s="41" t="n"/>
+      <c r="Q16" s="41" t="n"/>
+      <c r="R16" s="41" t="n"/>
+      <c r="S16" s="41" t="n"/>
+      <c r="T16" s="41" t="n"/>
+      <c r="U16" s="41" t="n"/>
+      <c r="V16" s="41" t="n"/>
+      <c r="W16" s="41" t="n"/>
+      <c r="X16" s="41" t="n"/>
+      <c r="Y16" s="41" t="n"/>
+      <c r="Z16" s="41" t="n"/>
+      <c r="AA16" s="41" t="n"/>
+      <c r="AB16" s="41" t="n"/>
+      <c r="AC16" s="41" t="n"/>
+      <c r="AD16" s="41" t="n"/>
+      <c r="AE16" s="41" t="n"/>
+      <c r="AF16" s="41" t="n"/>
+      <c r="AG16" s="41" t="n"/>
+      <c r="AH16" s="41" t="n"/>
+      <c r="AI16" s="41" t="n"/>
+      <c r="AJ16" s="41" t="n"/>
+      <c r="AK16" s="41" t="n"/>
+      <c r="AL16" s="41" t="n"/>
+      <c r="AM16" s="41" t="n"/>
+      <c r="AN16" s="41" t="n"/>
+      <c r="AO16" s="41" t="n"/>
+      <c r="AP16" s="41" t="n"/>
+      <c r="AQ16" s="41" t="n"/>
+      <c r="AR16" s="41" t="n"/>
+      <c r="AS16" s="41" t="n"/>
+      <c r="AT16" s="41" t="n"/>
+      <c r="AU16" s="41" t="n"/>
+      <c r="AV16" s="41" t="n"/>
+      <c r="AW16" s="41" t="n"/>
+      <c r="AX16" s="41" t="n"/>
+      <c r="AY16" s="41" t="n"/>
+      <c r="AZ16" s="41" t="n"/>
+      <c r="BA16" s="41" t="n"/>
+      <c r="BB16" s="41" t="n"/>
+      <c r="BC16" s="41" t="n"/>
+      <c r="BD16" s="41" t="n"/>
+      <c r="BE16" s="41" t="n"/>
+      <c r="BF16" s="41" t="n"/>
+      <c r="BG16" s="41" t="n"/>
+      <c r="BH16" s="41" t="n"/>
+      <c r="BI16" s="41" t="n"/>
+      <c r="BJ16" s="41" t="n"/>
+      <c r="BK16" s="41" t="n"/>
+      <c r="BL16" s="41" t="n"/>
+      <c r="BM16" s="41" t="n"/>
+      <c r="BN16" s="41" t="n"/>
+      <c r="BO16" s="41" t="n"/>
+      <c r="BP16" s="41" t="n"/>
+      <c r="BQ16" s="41" t="n"/>
+      <c r="BR16" s="41" t="n"/>
+      <c r="BS16" s="41" t="n"/>
+      <c r="BT16" s="41" t="n"/>
+      <c r="BU16" s="41" t="n"/>
+      <c r="BV16" s="41" t="n"/>
+      <c r="BW16" s="41" t="n"/>
+      <c r="BX16" s="41" t="n"/>
+      <c r="BY16" s="41" t="n"/>
+      <c r="BZ16" s="41" t="n"/>
+      <c r="CA16" s="41" t="n"/>
+      <c r="CB16" s="41" t="n"/>
+      <c r="CC16" s="41" t="n"/>
+      <c r="CD16" s="41" t="n"/>
+      <c r="CE16" s="41" t="n"/>
+      <c r="CF16" s="41" t="n"/>
+      <c r="CG16" s="41" t="n"/>
+      <c r="CH16" s="41" t="n"/>
+      <c r="CI16" s="41" t="n"/>
+      <c r="CJ16" s="41" t="n"/>
+      <c r="CK16" s="41" t="n"/>
+      <c r="CL16" s="41" t="n"/>
+      <c r="CM16" s="41" t="n"/>
+      <c r="CN16" s="41" t="n"/>
+      <c r="CO16" s="41" t="n"/>
+      <c r="CP16" s="41" t="n"/>
+      <c r="CQ16" s="41" t="n"/>
+      <c r="CR16" s="41" t="n"/>
+      <c r="CS16" s="41" t="n"/>
+      <c r="CT16" s="41" t="n"/>
+      <c r="CU16" s="41" t="n"/>
+      <c r="CV16" s="41" t="n"/>
+      <c r="CW16" s="41" t="n"/>
+      <c r="CX16" s="41" t="n"/>
+      <c r="CY16" s="41" t="n"/>
+      <c r="CZ16" s="41" t="n"/>
+      <c r="DA16" s="41" t="n"/>
+      <c r="DB16" s="41" t="n"/>
+      <c r="DC16" s="41" t="n"/>
+      <c r="DD16" s="41" t="n"/>
+      <c r="DE16" s="41" t="n"/>
+      <c r="DF16" s="41" t="n"/>
+      <c r="DG16" s="41" t="n"/>
+      <c r="DH16" s="41" t="n"/>
+      <c r="DI16" s="41" t="n"/>
+      <c r="DJ16" s="41" t="n"/>
+      <c r="DK16" s="41" t="n"/>
+      <c r="DL16" s="41" t="n"/>
+      <c r="DM16" s="41" t="n"/>
+      <c r="DN16" s="41" t="n"/>
+      <c r="DO16" s="41" t="n"/>
+      <c r="DP16" s="41" t="n"/>
+      <c r="DQ16" s="41" t="n"/>
+      <c r="DR16" s="41" t="n"/>
+      <c r="DS16" s="41" t="n"/>
+      <c r="DT16" s="41" t="n"/>
+      <c r="DU16" s="41" t="n"/>
+      <c r="DV16" s="41" t="n"/>
+      <c r="DW16" s="41" t="n"/>
+      <c r="DX16" s="41" t="n"/>
+      <c r="DY16" s="41" t="n"/>
+      <c r="DZ16" s="41" t="n"/>
+      <c r="EA16" s="41" t="n"/>
+      <c r="EB16" s="41" t="n"/>
+      <c r="EC16" s="41" t="n"/>
+      <c r="ED16" s="41" t="n"/>
+      <c r="EE16" s="41" t="n"/>
+      <c r="EF16" s="41" t="n"/>
+      <c r="EG16" s="41" t="n"/>
+      <c r="EH16" s="41" t="n"/>
+      <c r="EI16" s="41" t="n"/>
+      <c r="EJ16" s="41" t="n"/>
+      <c r="EK16" s="41" t="n"/>
+      <c r="EL16" s="41" t="n"/>
+      <c r="EM16" s="41" t="n"/>
+      <c r="EN16" s="41" t="n"/>
+      <c r="EO16" s="41" t="n"/>
+      <c r="EP16" s="41" t="n"/>
+      <c r="EQ16" s="41" t="n"/>
+      <c r="ER16" s="41" t="n"/>
+      <c r="ES16" s="41" t="n"/>
+      <c r="ET16" s="41" t="n"/>
+      <c r="EU16" s="41" t="n"/>
+      <c r="EV16" s="41" t="n"/>
+      <c r="EW16" s="41" t="n"/>
+      <c r="EX16" s="41" t="n"/>
+      <c r="EY16" s="41" t="n"/>
+      <c r="EZ16" s="41" t="n"/>
+      <c r="FA16" s="41" t="n"/>
+      <c r="FB16" s="41" t="n"/>
+      <c r="FC16" s="41" t="n"/>
+      <c r="FD16" s="41" t="n"/>
+      <c r="FE16" s="41" t="n"/>
+      <c r="FF16" s="41" t="n"/>
+      <c r="FG16" s="41" t="n"/>
+      <c r="FH16" s="41" t="n"/>
+      <c r="FI16" s="41" t="n"/>
+      <c r="FJ16" s="41" t="n"/>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="42">
-      <c r="A17" s="81" t="n"/>
-      <c r="B17" s="81" t="n"/>
-      <c r="C17" s="81" t="n"/>
-      <c r="D17" s="81" t="n"/>
-      <c r="E17" s="81" t="n"/>
-      <c r="F17" s="81" t="n"/>
-      <c r="G17" s="81" t="n"/>
-      <c r="H17" s="81" t="n"/>
-      <c r="I17" s="81" t="n"/>
-      <c r="J17" s="81" t="n"/>
-      <c r="K17" s="81" t="n"/>
-      <c r="L17" s="81" t="n"/>
-      <c r="M17" s="81" t="n"/>
-      <c r="N17" s="81" t="n"/>
-      <c r="O17" s="81" t="n"/>
-      <c r="P17" s="81" t="n"/>
-      <c r="Q17" s="81" t="n"/>
-      <c r="R17" s="81" t="n"/>
-      <c r="S17" s="81" t="n"/>
-      <c r="T17" s="81" t="n"/>
-      <c r="U17" s="81" t="n"/>
-      <c r="V17" s="81" t="n"/>
-      <c r="W17" s="81" t="n"/>
-      <c r="X17" s="81" t="n"/>
-      <c r="Y17" s="81" t="n"/>
-      <c r="Z17" s="81" t="n"/>
-      <c r="AA17" s="81" t="n"/>
-      <c r="AB17" s="81" t="n"/>
-      <c r="AC17" s="81" t="n"/>
-      <c r="AD17" s="81" t="n"/>
-      <c r="AE17" s="81" t="n"/>
-      <c r="AF17" s="81" t="n"/>
-      <c r="AG17" s="81" t="n"/>
-      <c r="AH17" s="81" t="n"/>
-      <c r="AI17" s="81" t="n"/>
-      <c r="AJ17" s="81" t="n"/>
-      <c r="AK17" s="81" t="n"/>
-      <c r="AL17" s="81" t="n"/>
-      <c r="AM17" s="81" t="n"/>
-      <c r="AN17" s="81" t="n"/>
-      <c r="AO17" s="81" t="n"/>
-      <c r="AP17" s="81" t="n"/>
-      <c r="AQ17" s="81" t="n"/>
-      <c r="AR17" s="81" t="n"/>
-      <c r="AS17" s="81" t="n"/>
-      <c r="AT17" s="81" t="n"/>
-      <c r="AU17" s="81" t="n"/>
-      <c r="AV17" s="81" t="n"/>
-      <c r="AW17" s="81" t="n"/>
-      <c r="AX17" s="81" t="n"/>
-      <c r="AY17" s="81" t="n"/>
-      <c r="AZ17" s="81" t="n"/>
-      <c r="BA17" s="81" t="n"/>
-      <c r="BB17" s="81" t="n"/>
-      <c r="BC17" s="81" t="n"/>
-      <c r="BD17" s="81" t="n"/>
-      <c r="BE17" s="81" t="n"/>
-      <c r="BF17" s="81" t="n"/>
-      <c r="BG17" s="81" t="n"/>
-      <c r="BH17" s="81" t="n"/>
-      <c r="BI17" s="81" t="n"/>
-      <c r="BJ17" s="81" t="n"/>
-      <c r="BK17" s="81" t="n"/>
-      <c r="BL17" s="81" t="n"/>
-      <c r="BM17" s="81" t="n"/>
-      <c r="BN17" s="81" t="n"/>
-      <c r="BO17" s="81" t="n"/>
-      <c r="BP17" s="81" t="n"/>
-      <c r="BQ17" s="81" t="n"/>
-      <c r="BR17" s="81" t="n"/>
-      <c r="BS17" s="81" t="n"/>
-      <c r="BT17" s="81" t="n"/>
-      <c r="BU17" s="81" t="n"/>
-      <c r="BV17" s="81" t="n"/>
-      <c r="BW17" s="81" t="n"/>
-      <c r="BX17" s="81" t="n"/>
-      <c r="BY17" s="81" t="n"/>
-      <c r="BZ17" s="81" t="n"/>
-      <c r="CA17" s="81" t="n"/>
-      <c r="CB17" s="81" t="n"/>
-      <c r="CC17" s="81" t="n"/>
-      <c r="CD17" s="81" t="n"/>
-      <c r="CE17" s="81" t="n"/>
-      <c r="CF17" s="81" t="n"/>
-      <c r="CG17" s="81" t="n"/>
-      <c r="CH17" s="81" t="n"/>
-      <c r="CI17" s="81" t="n"/>
-      <c r="CJ17" s="81" t="n"/>
-      <c r="CK17" s="81" t="n"/>
-      <c r="CL17" s="81" t="n"/>
-      <c r="CM17" s="81" t="n"/>
-      <c r="CN17" s="81" t="n"/>
-      <c r="CO17" s="81" t="n"/>
-      <c r="CP17" s="81" t="n"/>
-      <c r="CQ17" s="81" t="n"/>
-      <c r="CR17" s="81" t="n"/>
-      <c r="CS17" s="81" t="n"/>
-      <c r="CT17" s="81" t="n"/>
-      <c r="CU17" s="81" t="n"/>
-      <c r="CV17" s="81" t="n"/>
-      <c r="CW17" s="81" t="n"/>
-      <c r="CX17" s="81" t="n"/>
-      <c r="CY17" s="81" t="n"/>
-      <c r="CZ17" s="81" t="n"/>
-      <c r="DA17" s="81" t="n"/>
-      <c r="DB17" s="81" t="n"/>
-      <c r="DC17" s="81" t="n"/>
-      <c r="DD17" s="81" t="n"/>
-      <c r="DE17" s="81" t="n"/>
-      <c r="DF17" s="81" t="n"/>
-      <c r="DG17" s="81" t="n"/>
-      <c r="DH17" s="81" t="n"/>
-      <c r="DI17" s="81" t="n"/>
-      <c r="DJ17" s="81" t="n"/>
-      <c r="DK17" s="81" t="n"/>
-      <c r="DL17" s="81" t="n"/>
-      <c r="DM17" s="81" t="n"/>
-      <c r="DN17" s="81" t="n"/>
-      <c r="DO17" s="81" t="n"/>
-      <c r="DP17" s="81" t="n"/>
-      <c r="DQ17" s="81" t="n"/>
-      <c r="DR17" s="81" t="n"/>
-      <c r="DS17" s="81" t="n"/>
-      <c r="DT17" s="81" t="n"/>
-      <c r="DU17" s="81" t="n"/>
-      <c r="DV17" s="81" t="n"/>
-      <c r="DW17" s="81" t="n"/>
-      <c r="DX17" s="81" t="n"/>
-      <c r="DY17" s="81" t="n"/>
-      <c r="DZ17" s="81" t="n"/>
-      <c r="EA17" s="81" t="n"/>
-      <c r="EB17" s="81" t="n"/>
-      <c r="EC17" s="81" t="n"/>
-      <c r="ED17" s="81" t="n"/>
-      <c r="EE17" s="81" t="n"/>
-      <c r="EF17" s="81" t="n"/>
-      <c r="EG17" s="81" t="n"/>
-      <c r="EH17" s="81" t="n"/>
-      <c r="EI17" s="81" t="n"/>
-      <c r="EJ17" s="81" t="n"/>
-      <c r="EK17" s="81" t="n"/>
-      <c r="EL17" s="81" t="n"/>
-      <c r="EM17" s="81" t="n"/>
-      <c r="EN17" s="81" t="n"/>
-      <c r="EO17" s="81" t="n"/>
-      <c r="EP17" s="81" t="n"/>
-      <c r="EQ17" s="81" t="n"/>
-      <c r="ER17" s="81" t="n"/>
-      <c r="ES17" s="81" t="n"/>
-      <c r="ET17" s="81" t="n"/>
-      <c r="EU17" s="81" t="n"/>
-      <c r="EV17" s="81" t="n"/>
-      <c r="EW17" s="81" t="n"/>
-      <c r="EX17" s="81" t="n"/>
-      <c r="EY17" s="81" t="n"/>
-      <c r="EZ17" s="81" t="n"/>
-      <c r="FA17" s="81" t="n"/>
-      <c r="FB17" s="81" t="n"/>
-      <c r="FC17" s="81" t="n"/>
-      <c r="FD17" s="81" t="n"/>
-      <c r="FE17" s="81" t="n"/>
-      <c r="FF17" s="81" t="n"/>
-      <c r="FG17" s="81" t="n"/>
-      <c r="FH17" s="81" t="n"/>
-      <c r="FI17" s="81" t="n"/>
-      <c r="FJ17" s="81" t="n"/>
+      <c r="A17" s="41" t="n"/>
+      <c r="B17" s="41" t="n"/>
+      <c r="C17" s="41" t="n"/>
+      <c r="D17" s="41" t="n"/>
+      <c r="E17" s="41" t="n"/>
+      <c r="F17" s="41" t="n"/>
+      <c r="G17" s="41" t="n"/>
+      <c r="H17" s="41" t="n"/>
+      <c r="I17" s="41" t="n"/>
+      <c r="J17" s="41" t="n"/>
+      <c r="K17" s="41" t="n"/>
+      <c r="L17" s="41" t="n"/>
+      <c r="M17" s="41" t="n"/>
+      <c r="N17" s="41" t="n"/>
+      <c r="O17" s="41" t="n"/>
+      <c r="P17" s="41" t="n"/>
+      <c r="Q17" s="41" t="n"/>
+      <c r="R17" s="41" t="n"/>
+      <c r="S17" s="41" t="n"/>
+      <c r="T17" s="41" t="n"/>
+      <c r="U17" s="41" t="n"/>
+      <c r="V17" s="41" t="n"/>
+      <c r="W17" s="41" t="n"/>
+      <c r="X17" s="41" t="n"/>
+      <c r="Y17" s="41" t="n"/>
+      <c r="Z17" s="41" t="n"/>
+      <c r="AA17" s="41" t="n"/>
+      <c r="AB17" s="41" t="n"/>
+      <c r="AC17" s="41" t="n"/>
+      <c r="AD17" s="41" t="n"/>
+      <c r="AE17" s="41" t="n"/>
+      <c r="AF17" s="41" t="n"/>
+      <c r="AG17" s="41" t="n"/>
+      <c r="AH17" s="41" t="n"/>
+      <c r="AI17" s="41" t="n"/>
+      <c r="AJ17" s="41" t="n"/>
+      <c r="AK17" s="41" t="n"/>
+      <c r="AL17" s="41" t="n"/>
+      <c r="AM17" s="41" t="n"/>
+      <c r="AN17" s="41" t="n"/>
+      <c r="AO17" s="41" t="n"/>
+      <c r="AP17" s="41" t="n"/>
+      <c r="AQ17" s="41" t="n"/>
+      <c r="AR17" s="41" t="n"/>
+      <c r="AS17" s="41" t="n"/>
+      <c r="AT17" s="41" t="n"/>
+      <c r="AU17" s="41" t="n"/>
+      <c r="AV17" s="41" t="n"/>
+      <c r="AW17" s="41" t="n"/>
+      <c r="AX17" s="41" t="n"/>
+      <c r="AY17" s="41" t="n"/>
+      <c r="AZ17" s="41" t="n"/>
+      <c r="BA17" s="41" t="n"/>
+      <c r="BB17" s="41" t="n"/>
+      <c r="BC17" s="41" t="n"/>
+      <c r="BD17" s="41" t="n"/>
+      <c r="BE17" s="41" t="n"/>
+      <c r="BF17" s="41" t="n"/>
+      <c r="BG17" s="41" t="n"/>
+      <c r="BH17" s="41" t="n"/>
+      <c r="BI17" s="41" t="n"/>
+      <c r="BJ17" s="41" t="n"/>
+      <c r="BK17" s="41" t="n"/>
+      <c r="BL17" s="41" t="n"/>
+      <c r="BM17" s="41" t="n"/>
+      <c r="BN17" s="41" t="n"/>
+      <c r="BO17" s="41" t="n"/>
+      <c r="BP17" s="41" t="n"/>
+      <c r="BQ17" s="41" t="n"/>
+      <c r="BR17" s="41" t="n"/>
+      <c r="BS17" s="41" t="n"/>
+      <c r="BT17" s="41" t="n"/>
+      <c r="BU17" s="41" t="n"/>
+      <c r="BV17" s="41" t="n"/>
+      <c r="BW17" s="41" t="n"/>
+      <c r="BX17" s="41" t="n"/>
+      <c r="BY17" s="41" t="n"/>
+      <c r="BZ17" s="41" t="n"/>
+      <c r="CA17" s="41" t="n"/>
+      <c r="CB17" s="41" t="n"/>
+      <c r="CC17" s="41" t="n"/>
+      <c r="CD17" s="41" t="n"/>
+      <c r="CE17" s="41" t="n"/>
+      <c r="CF17" s="41" t="n"/>
+      <c r="CG17" s="41" t="n"/>
+      <c r="CH17" s="41" t="n"/>
+      <c r="CI17" s="41" t="n"/>
+      <c r="CJ17" s="41" t="n"/>
+      <c r="CK17" s="41" t="n"/>
+      <c r="CL17" s="41" t="n"/>
+      <c r="CM17" s="41" t="n"/>
+      <c r="CN17" s="41" t="n"/>
+      <c r="CO17" s="41" t="n"/>
+      <c r="CP17" s="41" t="n"/>
+      <c r="CQ17" s="41" t="n"/>
+      <c r="CR17" s="41" t="n"/>
+      <c r="CS17" s="41" t="n"/>
+      <c r="CT17" s="41" t="n"/>
+      <c r="CU17" s="41" t="n"/>
+      <c r="CV17" s="41" t="n"/>
+      <c r="CW17" s="41" t="n"/>
+      <c r="CX17" s="41" t="n"/>
+      <c r="CY17" s="41" t="n"/>
+      <c r="CZ17" s="41" t="n"/>
+      <c r="DA17" s="41" t="n"/>
+      <c r="DB17" s="41" t="n"/>
+      <c r="DC17" s="41" t="n"/>
+      <c r="DD17" s="41" t="n"/>
+      <c r="DE17" s="41" t="n"/>
+      <c r="DF17" s="41" t="n"/>
+      <c r="DG17" s="41" t="n"/>
+      <c r="DH17" s="41" t="n"/>
+      <c r="DI17" s="41" t="n"/>
+      <c r="DJ17" s="41" t="n"/>
+      <c r="DK17" s="41" t="n"/>
+      <c r="DL17" s="41" t="n"/>
+      <c r="DM17" s="41" t="n"/>
+      <c r="DN17" s="41" t="n"/>
+      <c r="DO17" s="41" t="n"/>
+      <c r="DP17" s="41" t="n"/>
+      <c r="DQ17" s="41" t="n"/>
+      <c r="DR17" s="41" t="n"/>
+      <c r="DS17" s="41" t="n"/>
+      <c r="DT17" s="41" t="n"/>
+      <c r="DU17" s="41" t="n"/>
+      <c r="DV17" s="41" t="n"/>
+      <c r="DW17" s="41" t="n"/>
+      <c r="DX17" s="41" t="n"/>
+      <c r="DY17" s="41" t="n"/>
+      <c r="DZ17" s="41" t="n"/>
+      <c r="EA17" s="41" t="n"/>
+      <c r="EB17" s="41" t="n"/>
+      <c r="EC17" s="41" t="n"/>
+      <c r="ED17" s="41" t="n"/>
+      <c r="EE17" s="41" t="n"/>
+      <c r="EF17" s="41" t="n"/>
+      <c r="EG17" s="41" t="n"/>
+      <c r="EH17" s="41" t="n"/>
+      <c r="EI17" s="41" t="n"/>
+      <c r="EJ17" s="41" t="n"/>
+      <c r="EK17" s="41" t="n"/>
+      <c r="EL17" s="41" t="n"/>
+      <c r="EM17" s="41" t="n"/>
+      <c r="EN17" s="41" t="n"/>
+      <c r="EO17" s="41" t="n"/>
+      <c r="EP17" s="41" t="n"/>
+      <c r="EQ17" s="41" t="n"/>
+      <c r="ER17" s="41" t="n"/>
+      <c r="ES17" s="41" t="n"/>
+      <c r="ET17" s="41" t="n"/>
+      <c r="EU17" s="41" t="n"/>
+      <c r="EV17" s="41" t="n"/>
+      <c r="EW17" s="41" t="n"/>
+      <c r="EX17" s="41" t="n"/>
+      <c r="EY17" s="41" t="n"/>
+      <c r="EZ17" s="41" t="n"/>
+      <c r="FA17" s="41" t="n"/>
+      <c r="FB17" s="41" t="n"/>
+      <c r="FC17" s="41" t="n"/>
+      <c r="FD17" s="41" t="n"/>
+      <c r="FE17" s="41" t="n"/>
+      <c r="FF17" s="41" t="n"/>
+      <c r="FG17" s="41" t="n"/>
+      <c r="FH17" s="41" t="n"/>
+      <c r="FI17" s="41" t="n"/>
+      <c r="FJ17" s="41" t="n"/>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="42">
-      <c r="A18" s="81" t="n"/>
-      <c r="B18" s="81" t="n"/>
-      <c r="C18" s="81" t="n"/>
-      <c r="D18" s="81" t="n"/>
-      <c r="E18" s="81" t="n"/>
-      <c r="F18" s="81" t="n"/>
-      <c r="G18" s="81" t="n"/>
-      <c r="H18" s="81" t="n"/>
-      <c r="I18" s="81" t="n"/>
-      <c r="J18" s="81" t="n"/>
-      <c r="K18" s="81" t="n"/>
-      <c r="L18" s="81" t="n"/>
-      <c r="M18" s="81" t="n"/>
-      <c r="N18" s="81" t="n"/>
-      <c r="O18" s="81" t="n"/>
-      <c r="P18" s="81" t="n"/>
-      <c r="Q18" s="81" t="n"/>
-      <c r="R18" s="81" t="n"/>
-      <c r="S18" s="81" t="n"/>
-      <c r="T18" s="81" t="n"/>
-      <c r="U18" s="81" t="n"/>
-      <c r="V18" s="81" t="n"/>
-      <c r="W18" s="81" t="n"/>
-      <c r="X18" s="81" t="n"/>
-      <c r="Y18" s="81" t="n"/>
-      <c r="Z18" s="81" t="n"/>
-      <c r="AA18" s="81" t="n"/>
-      <c r="AB18" s="81" t="n"/>
-      <c r="AC18" s="81" t="n"/>
-      <c r="AD18" s="81" t="n"/>
-      <c r="AE18" s="81" t="n"/>
-      <c r="AF18" s="81" t="n"/>
-      <c r="AG18" s="81" t="n"/>
-      <c r="AH18" s="81" t="n"/>
-      <c r="AI18" s="81" t="n"/>
-      <c r="AJ18" s="81" t="n"/>
-      <c r="AK18" s="81" t="n"/>
-      <c r="AL18" s="81" t="n"/>
-      <c r="AM18" s="81" t="n"/>
-      <c r="AN18" s="81" t="n"/>
-      <c r="AO18" s="81" t="n"/>
-      <c r="AP18" s="81" t="n"/>
-      <c r="AQ18" s="81" t="n"/>
-      <c r="AR18" s="81" t="n"/>
-      <c r="AS18" s="81" t="n"/>
-      <c r="AT18" s="81" t="n"/>
-      <c r="AU18" s="81" t="n"/>
-      <c r="AV18" s="81" t="n"/>
-      <c r="AW18" s="81" t="n"/>
-      <c r="AX18" s="81" t="n"/>
-      <c r="AY18" s="81" t="n"/>
-      <c r="AZ18" s="81" t="n"/>
-      <c r="BA18" s="81" t="n"/>
-      <c r="BB18" s="81" t="n"/>
-      <c r="BC18" s="81" t="n"/>
-      <c r="BD18" s="81" t="n"/>
-      <c r="BE18" s="81" t="n"/>
-      <c r="BF18" s="81" t="n"/>
-      <c r="BG18" s="81" t="n"/>
-      <c r="BH18" s="81" t="n"/>
-      <c r="BI18" s="81" t="n"/>
-      <c r="BJ18" s="81" t="n"/>
-      <c r="BK18" s="81" t="n"/>
-      <c r="BL18" s="81" t="n"/>
-      <c r="BM18" s="81" t="n"/>
-      <c r="BN18" s="81" t="n"/>
-      <c r="BO18" s="81" t="n"/>
-      <c r="BP18" s="81" t="n"/>
-      <c r="BQ18" s="81" t="n"/>
-      <c r="BR18" s="81" t="n"/>
-      <c r="BS18" s="81" t="n"/>
-      <c r="BT18" s="81" t="n"/>
-      <c r="BU18" s="81" t="n"/>
-      <c r="BV18" s="81" t="n"/>
-      <c r="BW18" s="81" t="n"/>
-      <c r="BX18" s="81" t="n"/>
-      <c r="BY18" s="81" t="n"/>
-      <c r="BZ18" s="81" t="n"/>
-      <c r="CA18" s="81" t="n"/>
-      <c r="CB18" s="81" t="n"/>
-      <c r="CC18" s="81" t="n"/>
-      <c r="CD18" s="81" t="n"/>
-      <c r="CE18" s="81" t="n"/>
-      <c r="CF18" s="81" t="n"/>
-      <c r="CG18" s="81" t="n"/>
-      <c r="CH18" s="81" t="n"/>
-      <c r="CI18" s="81" t="n"/>
-      <c r="CJ18" s="81" t="n"/>
-      <c r="CK18" s="81" t="n"/>
-      <c r="CL18" s="81" t="n"/>
-      <c r="CM18" s="81" t="n"/>
-      <c r="CN18" s="81" t="n"/>
-      <c r="CO18" s="81" t="n"/>
-      <c r="CP18" s="81" t="n"/>
-      <c r="CQ18" s="81" t="n"/>
-      <c r="CR18" s="81" t="n"/>
-      <c r="CS18" s="81" t="n"/>
-      <c r="CT18" s="81" t="n"/>
-      <c r="CU18" s="81" t="n"/>
-      <c r="CV18" s="81" t="n"/>
-      <c r="CW18" s="81" t="n"/>
-      <c r="CX18" s="81" t="n"/>
-      <c r="CY18" s="81" t="n"/>
-      <c r="CZ18" s="81" t="n"/>
-      <c r="DA18" s="81" t="n"/>
-      <c r="DB18" s="81" t="n"/>
-      <c r="DC18" s="81" t="n"/>
-      <c r="DD18" s="81" t="n"/>
-      <c r="DE18" s="81" t="n"/>
-      <c r="DF18" s="81" t="n"/>
-      <c r="DG18" s="81" t="n"/>
-      <c r="DH18" s="81" t="n"/>
-      <c r="DI18" s="81" t="n"/>
-      <c r="DJ18" s="81" t="n"/>
-      <c r="DK18" s="81" t="n"/>
-      <c r="DL18" s="81" t="n"/>
-      <c r="DM18" s="81" t="n"/>
-      <c r="DN18" s="81" t="n"/>
-      <c r="DO18" s="81" t="n"/>
-      <c r="DP18" s="81" t="n"/>
-      <c r="DQ18" s="81" t="n"/>
-      <c r="DR18" s="81" t="n"/>
-      <c r="DS18" s="81" t="n"/>
-      <c r="DT18" s="81" t="n"/>
-      <c r="DU18" s="81" t="n"/>
-      <c r="DV18" s="81" t="n"/>
-      <c r="DW18" s="81" t="n"/>
-      <c r="DX18" s="81" t="n"/>
-      <c r="DY18" s="81" t="n"/>
-      <c r="DZ18" s="81" t="n"/>
-      <c r="EA18" s="81" t="n"/>
-      <c r="EB18" s="81" t="n"/>
-      <c r="EC18" s="81" t="n"/>
-      <c r="ED18" s="81" t="n"/>
-      <c r="EE18" s="81" t="n"/>
-      <c r="EF18" s="81" t="n"/>
-      <c r="EG18" s="81" t="n"/>
-      <c r="EH18" s="81" t="n"/>
-      <c r="EI18" s="81" t="n"/>
-      <c r="EJ18" s="81" t="n"/>
-      <c r="EK18" s="81" t="n"/>
-      <c r="EL18" s="81" t="n"/>
-      <c r="EM18" s="81" t="n"/>
-      <c r="EN18" s="81" t="n"/>
-      <c r="EO18" s="81" t="n"/>
-      <c r="EP18" s="81" t="n"/>
-      <c r="EQ18" s="81" t="n"/>
-      <c r="ER18" s="81" t="n"/>
-      <c r="ES18" s="81" t="n"/>
-      <c r="ET18" s="81" t="n"/>
-      <c r="EU18" s="81" t="n"/>
-      <c r="EV18" s="81" t="n"/>
-      <c r="EW18" s="81" t="n"/>
-      <c r="EX18" s="81" t="n"/>
-      <c r="EY18" s="81" t="n"/>
-      <c r="EZ18" s="81" t="n"/>
-      <c r="FA18" s="81" t="n"/>
-      <c r="FB18" s="81" t="n"/>
-      <c r="FC18" s="81" t="n"/>
-      <c r="FD18" s="81" t="n"/>
-      <c r="FE18" s="81" t="n"/>
-      <c r="FF18" s="81" t="n"/>
-      <c r="FG18" s="81" t="n"/>
-      <c r="FH18" s="81" t="n"/>
-      <c r="FI18" s="81" t="n"/>
-      <c r="FJ18" s="81" t="n"/>
+      <c r="A18" s="41" t="n"/>
+      <c r="B18" s="41" t="n"/>
+      <c r="C18" s="41" t="n"/>
+      <c r="D18" s="41" t="n"/>
+      <c r="E18" s="41" t="n"/>
+      <c r="F18" s="41" t="n"/>
+      <c r="G18" s="41" t="n"/>
+      <c r="H18" s="41" t="n"/>
+      <c r="I18" s="41" t="n"/>
+      <c r="J18" s="41" t="n"/>
+      <c r="K18" s="41" t="n"/>
+      <c r="L18" s="41" t="n"/>
+      <c r="M18" s="41" t="n"/>
+      <c r="N18" s="41" t="n"/>
+      <c r="O18" s="41" t="n"/>
+      <c r="P18" s="41" t="n"/>
+      <c r="Q18" s="41" t="n"/>
+      <c r="R18" s="41" t="n"/>
+      <c r="S18" s="41" t="n"/>
+      <c r="T18" s="41" t="n"/>
+      <c r="U18" s="41" t="n"/>
+      <c r="V18" s="41" t="n"/>
+      <c r="W18" s="41" t="n"/>
+      <c r="X18" s="41" t="n"/>
+      <c r="Y18" s="41" t="n"/>
+      <c r="Z18" s="41" t="n"/>
+      <c r="AA18" s="41" t="n"/>
+      <c r="AB18" s="41" t="n"/>
+      <c r="AC18" s="41" t="n"/>
+      <c r="AD18" s="41" t="n"/>
+      <c r="AE18" s="41" t="n"/>
+      <c r="AF18" s="41" t="n"/>
+      <c r="AG18" s="41" t="n"/>
+      <c r="AH18" s="41" t="n"/>
+      <c r="AI18" s="41" t="n"/>
+      <c r="AJ18" s="41" t="n"/>
+      <c r="AK18" s="41" t="n"/>
+      <c r="AL18" s="41" t="n"/>
+      <c r="AM18" s="41" t="n"/>
+      <c r="AN18" s="41" t="n"/>
+      <c r="AO18" s="41" t="n"/>
+      <c r="AP18" s="41" t="n"/>
+      <c r="AQ18" s="41" t="n"/>
+      <c r="AR18" s="41" t="n"/>
+      <c r="AS18" s="41" t="n"/>
+      <c r="AT18" s="41" t="n"/>
+      <c r="AU18" s="41" t="n"/>
+      <c r="AV18" s="41" t="n"/>
+      <c r="AW18" s="41" t="n"/>
+      <c r="AX18" s="41" t="n"/>
+      <c r="AY18" s="41" t="n"/>
+      <c r="AZ18" s="41" t="n"/>
+      <c r="BA18" s="41" t="n"/>
+      <c r="BB18" s="41" t="n"/>
+      <c r="BC18" s="41" t="n"/>
+      <c r="BD18" s="41" t="n"/>
+      <c r="BE18" s="41" t="n"/>
+      <c r="BF18" s="41" t="n"/>
+      <c r="BG18" s="41" t="n"/>
+      <c r="BH18" s="41" t="n"/>
+      <c r="BI18" s="41" t="n"/>
+      <c r="BJ18" s="41" t="n"/>
+      <c r="BK18" s="41" t="n"/>
+      <c r="BL18" s="41" t="n"/>
+      <c r="BM18" s="41" t="n"/>
+      <c r="BN18" s="41" t="n"/>
+      <c r="BO18" s="41" t="n"/>
+      <c r="BP18" s="41" t="n"/>
+      <c r="BQ18" s="41" t="n"/>
+      <c r="BR18" s="41" t="n"/>
+      <c r="BS18" s="41" t="n"/>
+      <c r="BT18" s="41" t="n"/>
+      <c r="BU18" s="41" t="n"/>
+      <c r="BV18" s="41" t="n"/>
+      <c r="BW18" s="41" t="n"/>
+      <c r="BX18" s="41" t="n"/>
+      <c r="BY18" s="41" t="n"/>
+      <c r="BZ18" s="41" t="n"/>
+      <c r="CA18" s="41" t="n"/>
+      <c r="CB18" s="41" t="n"/>
+      <c r="CC18" s="41" t="n"/>
+      <c r="CD18" s="41" t="n"/>
+      <c r="CE18" s="41" t="n"/>
+      <c r="CF18" s="41" t="n"/>
+      <c r="CG18" s="41" t="n"/>
+      <c r="CH18" s="41" t="n"/>
+      <c r="CI18" s="41" t="n"/>
+      <c r="CJ18" s="41" t="n"/>
+      <c r="CK18" s="41" t="n"/>
+      <c r="CL18" s="41" t="n"/>
+      <c r="CM18" s="41" t="n"/>
+      <c r="CN18" s="41" t="n"/>
+      <c r="CO18" s="41" t="n"/>
+      <c r="CP18" s="41" t="n"/>
+      <c r="CQ18" s="41" t="n"/>
+      <c r="CR18" s="41" t="n"/>
+      <c r="CS18" s="41" t="n"/>
+      <c r="CT18" s="41" t="n"/>
+      <c r="CU18" s="41" t="n"/>
+      <c r="CV18" s="41" t="n"/>
+      <c r="CW18" s="41" t="n"/>
+      <c r="CX18" s="41" t="n"/>
+      <c r="CY18" s="41" t="n"/>
+      <c r="CZ18" s="41" t="n"/>
+      <c r="DA18" s="41" t="n"/>
+      <c r="DB18" s="41" t="n"/>
+      <c r="DC18" s="41" t="n"/>
+      <c r="DD18" s="41" t="n"/>
+      <c r="DE18" s="41" t="n"/>
+      <c r="DF18" s="41" t="n"/>
+      <c r="DG18" s="41" t="n"/>
+      <c r="DH18" s="41" t="n"/>
+      <c r="DI18" s="41" t="n"/>
+      <c r="DJ18" s="41" t="n"/>
+      <c r="DK18" s="41" t="n"/>
+      <c r="DL18" s="41" t="n"/>
+      <c r="DM18" s="41" t="n"/>
+      <c r="DN18" s="41" t="n"/>
+      <c r="DO18" s="41" t="n"/>
+      <c r="DP18" s="41" t="n"/>
+      <c r="DQ18" s="41" t="n"/>
+      <c r="DR18" s="41" t="n"/>
+      <c r="DS18" s="41" t="n"/>
+      <c r="DT18" s="41" t="n"/>
+      <c r="DU18" s="41" t="n"/>
+      <c r="DV18" s="41" t="n"/>
+      <c r="DW18" s="41" t="n"/>
+      <c r="DX18" s="41" t="n"/>
+      <c r="DY18" s="41" t="n"/>
+      <c r="DZ18" s="41" t="n"/>
+      <c r="EA18" s="41" t="n"/>
+      <c r="EB18" s="41" t="n"/>
+      <c r="EC18" s="41" t="n"/>
+      <c r="ED18" s="41" t="n"/>
+      <c r="EE18" s="41" t="n"/>
+      <c r="EF18" s="41" t="n"/>
+      <c r="EG18" s="41" t="n"/>
+      <c r="EH18" s="41" t="n"/>
+      <c r="EI18" s="41" t="n"/>
+      <c r="EJ18" s="41" t="n"/>
+      <c r="EK18" s="41" t="n"/>
+      <c r="EL18" s="41" t="n"/>
+      <c r="EM18" s="41" t="n"/>
+      <c r="EN18" s="41" t="n"/>
+      <c r="EO18" s="41" t="n"/>
+      <c r="EP18" s="41" t="n"/>
+      <c r="EQ18" s="41" t="n"/>
+      <c r="ER18" s="41" t="n"/>
+      <c r="ES18" s="41" t="n"/>
+      <c r="ET18" s="41" t="n"/>
+      <c r="EU18" s="41" t="n"/>
+      <c r="EV18" s="41" t="n"/>
+      <c r="EW18" s="41" t="n"/>
+      <c r="EX18" s="41" t="n"/>
+      <c r="EY18" s="41" t="n"/>
+      <c r="EZ18" s="41" t="n"/>
+      <c r="FA18" s="41" t="n"/>
+      <c r="FB18" s="41" t="n"/>
+      <c r="FC18" s="41" t="n"/>
+      <c r="FD18" s="41" t="n"/>
+      <c r="FE18" s="41" t="n"/>
+      <c r="FF18" s="41" t="n"/>
+      <c r="FG18" s="41" t="n"/>
+      <c r="FH18" s="41" t="n"/>
+      <c r="FI18" s="41" t="n"/>
+      <c r="FJ18" s="41" t="n"/>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="42">
-      <c r="A19" s="81" t="n"/>
-      <c r="B19" s="81" t="n"/>
-      <c r="C19" s="81" t="n"/>
-      <c r="D19" s="81" t="n"/>
-      <c r="E19" s="81" t="n"/>
-      <c r="F19" s="81" t="n"/>
-      <c r="G19" s="81" t="n"/>
-      <c r="H19" s="81" t="n"/>
-      <c r="I19" s="81" t="n"/>
-      <c r="J19" s="81" t="n"/>
-      <c r="K19" s="81" t="n"/>
-      <c r="L19" s="81" t="n"/>
-      <c r="M19" s="81" t="n"/>
-      <c r="N19" s="81" t="n"/>
-      <c r="O19" s="81" t="n"/>
-      <c r="P19" s="81" t="n"/>
-      <c r="Q19" s="81" t="n"/>
-      <c r="R19" s="81" t="n"/>
-      <c r="S19" s="81" t="n"/>
-      <c r="T19" s="81" t="n"/>
-      <c r="U19" s="81" t="n"/>
-      <c r="V19" s="81" t="n"/>
-      <c r="W19" s="81" t="n"/>
-      <c r="X19" s="81" t="n"/>
-      <c r="Y19" s="81" t="n"/>
-      <c r="Z19" s="81" t="n"/>
-      <c r="AA19" s="81" t="n"/>
-      <c r="AB19" s="81" t="n"/>
-      <c r="AC19" s="81" t="n"/>
-      <c r="AD19" s="81" t="n"/>
-      <c r="AE19" s="81" t="n"/>
-      <c r="AF19" s="81" t="n"/>
-      <c r="AG19" s="81" t="n"/>
-      <c r="AH19" s="81" t="n"/>
-      <c r="AI19" s="81" t="n"/>
-      <c r="AJ19" s="81" t="n"/>
-      <c r="AK19" s="81" t="n"/>
-      <c r="AL19" s="81" t="n"/>
-      <c r="AM19" s="81" t="n"/>
-      <c r="AN19" s="81" t="n"/>
-      <c r="AO19" s="81" t="n"/>
-      <c r="AP19" s="81" t="n"/>
-      <c r="AQ19" s="81" t="n"/>
-      <c r="AR19" s="81" t="n"/>
-      <c r="AS19" s="81" t="n"/>
-      <c r="AT19" s="81" t="n"/>
-      <c r="AU19" s="81" t="n"/>
-      <c r="AV19" s="81" t="n"/>
-      <c r="AW19" s="81" t="n"/>
-      <c r="AX19" s="81" t="n"/>
-      <c r="AY19" s="81" t="n"/>
-      <c r="AZ19" s="81" t="n"/>
-      <c r="BA19" s="81" t="n"/>
-      <c r="BB19" s="81" t="n"/>
-      <c r="BC19" s="81" t="n"/>
-      <c r="BD19" s="81" t="n"/>
-      <c r="BE19" s="81" t="n"/>
-      <c r="BF19" s="81" t="n"/>
-      <c r="BG19" s="81" t="n"/>
-      <c r="BH19" s="81" t="n"/>
-      <c r="BI19" s="81" t="n"/>
-      <c r="BJ19" s="81" t="n"/>
-      <c r="BK19" s="81" t="n"/>
-      <c r="BL19" s="81" t="n"/>
-      <c r="BM19" s="81" t="n"/>
-      <c r="BN19" s="81" t="n"/>
-      <c r="BO19" s="81" t="n"/>
-      <c r="BP19" s="81" t="n"/>
-      <c r="BQ19" s="81" t="n"/>
-      <c r="BR19" s="81" t="n"/>
-      <c r="BS19" s="81" t="n"/>
-      <c r="BT19" s="81" t="n"/>
-      <c r="BU19" s="81" t="n"/>
-      <c r="BV19" s="81" t="n"/>
-      <c r="BW19" s="81" t="n"/>
-      <c r="BX19" s="81" t="n"/>
-      <c r="BY19" s="81" t="n"/>
-      <c r="BZ19" s="81" t="n"/>
-      <c r="CA19" s="81" t="n"/>
-      <c r="CB19" s="81" t="n"/>
-      <c r="CC19" s="81" t="n"/>
-      <c r="CD19" s="81" t="n"/>
-      <c r="CE19" s="81" t="n"/>
-      <c r="CF19" s="81" t="n"/>
-      <c r="CG19" s="81" t="n"/>
-      <c r="CH19" s="81" t="n"/>
-      <c r="CI19" s="81" t="n"/>
-      <c r="CJ19" s="81" t="n"/>
-      <c r="CK19" s="81" t="n"/>
-      <c r="CL19" s="81" t="n"/>
-      <c r="CM19" s="81" t="n"/>
-      <c r="CN19" s="81" t="n"/>
-      <c r="CO19" s="81" t="n"/>
-      <c r="CP19" s="81" t="n"/>
-      <c r="CQ19" s="81" t="n"/>
-      <c r="CR19" s="81" t="n"/>
-      <c r="CS19" s="81" t="n"/>
-      <c r="CT19" s="81" t="n"/>
-      <c r="CU19" s="81" t="n"/>
-      <c r="CV19" s="81" t="n"/>
-      <c r="CW19" s="81" t="n"/>
-      <c r="CX19" s="81" t="n"/>
-      <c r="CY19" s="81" t="n"/>
-      <c r="CZ19" s="81" t="n"/>
-      <c r="DA19" s="81" t="n"/>
-      <c r="DB19" s="81" t="n"/>
-      <c r="DC19" s="81" t="n"/>
-      <c r="DD19" s="81" t="n"/>
-      <c r="DE19" s="81" t="n"/>
-      <c r="DF19" s="81" t="n"/>
-      <c r="DG19" s="81" t="n"/>
-      <c r="DH19" s="81" t="n"/>
-      <c r="DI19" s="81" t="n"/>
-      <c r="DJ19" s="81" t="n"/>
-      <c r="DK19" s="81" t="n"/>
-      <c r="DL19" s="81" t="n"/>
-      <c r="DM19" s="81" t="n"/>
-      <c r="DN19" s="81" t="n"/>
-      <c r="DO19" s="81" t="n"/>
-      <c r="DP19" s="81" t="n"/>
-      <c r="DQ19" s="81" t="n"/>
-      <c r="DR19" s="81" t="n"/>
-      <c r="DS19" s="81" t="n"/>
-      <c r="DT19" s="81" t="n"/>
-      <c r="DU19" s="81" t="n"/>
-      <c r="DV19" s="81" t="n"/>
-      <c r="DW19" s="81" t="n"/>
-      <c r="DX19" s="81" t="n"/>
-      <c r="DY19" s="81" t="n"/>
-      <c r="DZ19" s="81" t="n"/>
-      <c r="EA19" s="81" t="n"/>
-      <c r="EB19" s="81" t="n"/>
-      <c r="EC19" s="81" t="n"/>
-      <c r="ED19" s="81" t="n"/>
-      <c r="EE19" s="81" t="n"/>
-      <c r="EF19" s="81" t="n"/>
-      <c r="EG19" s="81" t="n"/>
-      <c r="EH19" s="81" t="n"/>
-      <c r="EI19" s="81" t="n"/>
-      <c r="EJ19" s="81" t="n"/>
-      <c r="EK19" s="81" t="n"/>
-      <c r="EL19" s="81" t="n"/>
-      <c r="EM19" s="81" t="n"/>
-      <c r="EN19" s="81" t="n"/>
-      <c r="EO19" s="81" t="n"/>
-      <c r="EP19" s="81" t="n"/>
-      <c r="EQ19" s="81" t="n"/>
-      <c r="ER19" s="81" t="n"/>
-      <c r="ES19" s="81" t="n"/>
-      <c r="ET19" s="81" t="n"/>
-      <c r="EU19" s="81" t="n"/>
-      <c r="EV19" s="81" t="n"/>
-      <c r="EW19" s="81" t="n"/>
-      <c r="EX19" s="81" t="n"/>
-      <c r="EY19" s="81" t="n"/>
-      <c r="EZ19" s="81" t="n"/>
-      <c r="FA19" s="81" t="n"/>
-      <c r="FB19" s="81" t="n"/>
-      <c r="FC19" s="81" t="n"/>
-      <c r="FD19" s="81" t="n"/>
-      <c r="FE19" s="81" t="n"/>
-      <c r="FF19" s="81" t="n"/>
-      <c r="FG19" s="81" t="n"/>
-      <c r="FH19" s="81" t="n"/>
-      <c r="FI19" s="81" t="n"/>
-      <c r="FJ19" s="81" t="n"/>
+      <c r="A19" s="41" t="n"/>
+      <c r="B19" s="41" t="n"/>
+      <c r="C19" s="41" t="n"/>
+      <c r="D19" s="41" t="n"/>
+      <c r="E19" s="41" t="n"/>
+      <c r="F19" s="41" t="n"/>
+      <c r="G19" s="41" t="n"/>
+      <c r="H19" s="41" t="n"/>
+      <c r="I19" s="41" t="n"/>
+      <c r="J19" s="41" t="n"/>
+      <c r="K19" s="41" t="n"/>
+      <c r="L19" s="41" t="n"/>
+      <c r="M19" s="41" t="n"/>
+      <c r="N19" s="41" t="n"/>
+      <c r="O19" s="41" t="n"/>
+      <c r="P19" s="41" t="n"/>
+      <c r="Q19" s="41" t="n"/>
+      <c r="R19" s="41" t="n"/>
+      <c r="S19" s="41" t="n"/>
+      <c r="T19" s="41" t="n"/>
+      <c r="U19" s="41" t="n"/>
+      <c r="V19" s="41" t="n"/>
+      <c r="W19" s="41" t="n"/>
+      <c r="X19" s="41" t="n"/>
+      <c r="Y19" s="41" t="n"/>
+      <c r="Z19" s="41" t="n"/>
+      <c r="AA19" s="41" t="n"/>
+      <c r="AB19" s="41" t="n"/>
+      <c r="AC19" s="41" t="n"/>
+      <c r="AD19" s="41" t="n"/>
+      <c r="AE19" s="41" t="n"/>
+      <c r="AF19" s="41" t="n"/>
+      <c r="AG19" s="41" t="n"/>
+      <c r="AH19" s="41" t="n"/>
+      <c r="AI19" s="41" t="n"/>
+      <c r="AJ19" s="41" t="n"/>
+      <c r="AK19" s="41" t="n"/>
+      <c r="AL19" s="41" t="n"/>
+      <c r="AM19" s="41" t="n"/>
+      <c r="AN19" s="41" t="n"/>
+      <c r="AO19" s="41" t="n"/>
+      <c r="AP19" s="41" t="n"/>
+      <c r="AQ19" s="41" t="n"/>
+      <c r="AR19" s="41" t="n"/>
+      <c r="AS19" s="41" t="n"/>
+      <c r="AT19" s="41" t="n"/>
+      <c r="AU19" s="41" t="n"/>
+      <c r="AV19" s="41" t="n"/>
+      <c r="AW19" s="41" t="n"/>
+      <c r="AX19" s="41" t="n"/>
+      <c r="AY19" s="41" t="n"/>
+      <c r="AZ19" s="41" t="n"/>
+      <c r="BA19" s="41" t="n"/>
+      <c r="BB19" s="41" t="n"/>
+      <c r="BC19" s="41" t="n"/>
+      <c r="BD19" s="41" t="n"/>
+      <c r="BE19" s="41" t="n"/>
+      <c r="BF19" s="41" t="n"/>
+      <c r="BG19" s="41" t="n"/>
+      <c r="BH19" s="41" t="n"/>
+      <c r="BI19" s="41" t="n"/>
+      <c r="BJ19" s="41" t="n"/>
+      <c r="BK19" s="41" t="n"/>
+      <c r="BL19" s="41" t="n"/>
+      <c r="BM19" s="41" t="n"/>
+      <c r="BN19" s="41" t="n"/>
+      <c r="BO19" s="41" t="n"/>
+      <c r="BP19" s="41" t="n"/>
+      <c r="BQ19" s="41" t="n"/>
+      <c r="BR19" s="41" t="n"/>
+      <c r="BS19" s="41" t="n"/>
+      <c r="BT19" s="41" t="n"/>
+      <c r="BU19" s="41" t="n"/>
+      <c r="BV19" s="41" t="n"/>
+      <c r="BW19" s="41" t="n"/>
+      <c r="BX19" s="41" t="n"/>
+      <c r="BY19" s="41" t="n"/>
+      <c r="BZ19" s="41" t="n"/>
+      <c r="CA19" s="41" t="n"/>
+      <c r="CB19" s="41" t="n"/>
+      <c r="CC19" s="41" t="n"/>
+      <c r="CD19" s="41" t="n"/>
+      <c r="CE19" s="41" t="n"/>
+      <c r="CF19" s="41" t="n"/>
+      <c r="CG19" s="41" t="n"/>
+      <c r="CH19" s="41" t="n"/>
+      <c r="CI19" s="41" t="n"/>
+      <c r="CJ19" s="41" t="n"/>
+      <c r="CK19" s="41" t="n"/>
+      <c r="CL19" s="41" t="n"/>
+      <c r="CM19" s="41" t="n"/>
+      <c r="CN19" s="41" t="n"/>
+      <c r="CO19" s="41" t="n"/>
+      <c r="CP19" s="41" t="n"/>
+      <c r="CQ19" s="41" t="n"/>
+      <c r="CR19" s="41" t="n"/>
+      <c r="CS19" s="41" t="n"/>
+      <c r="CT19" s="41" t="n"/>
+      <c r="CU19" s="41" t="n"/>
+      <c r="CV19" s="41" t="n"/>
+      <c r="CW19" s="41" t="n"/>
+      <c r="CX19" s="41" t="n"/>
+      <c r="CY19" s="41" t="n"/>
+      <c r="CZ19" s="41" t="n"/>
+      <c r="DA19" s="41" t="n"/>
+      <c r="DB19" s="41" t="n"/>
+      <c r="DC19" s="41" t="n"/>
+      <c r="DD19" s="41" t="n"/>
+      <c r="DE19" s="41" t="n"/>
+      <c r="DF19" s="41" t="n"/>
+      <c r="DG19" s="41" t="n"/>
+      <c r="DH19" s="41" t="n"/>
+      <c r="DI19" s="41" t="n"/>
+      <c r="DJ19" s="41" t="n"/>
+      <c r="DK19" s="41" t="n"/>
+      <c r="DL19" s="41" t="n"/>
+      <c r="DM19" s="41" t="n"/>
+      <c r="DN19" s="41" t="n"/>
+      <c r="DO19" s="41" t="n"/>
+      <c r="DP19" s="41" t="n"/>
+      <c r="DQ19" s="41" t="n"/>
+      <c r="DR19" s="41" t="n"/>
+      <c r="DS19" s="41" t="n"/>
+      <c r="DT19" s="41" t="n"/>
+      <c r="DU19" s="41" t="n"/>
+      <c r="DV19" s="41" t="n"/>
+      <c r="DW19" s="41" t="n"/>
+      <c r="DX19" s="41" t="n"/>
+      <c r="DY19" s="41" t="n"/>
+      <c r="DZ19" s="41" t="n"/>
+      <c r="EA19" s="41" t="n"/>
+      <c r="EB19" s="41" t="n"/>
+      <c r="EC19" s="41" t="n"/>
+      <c r="ED19" s="41" t="n"/>
+      <c r="EE19" s="41" t="n"/>
+      <c r="EF19" s="41" t="n"/>
+      <c r="EG19" s="41" t="n"/>
+      <c r="EH19" s="41" t="n"/>
+      <c r="EI19" s="41" t="n"/>
+      <c r="EJ19" s="41" t="n"/>
+      <c r="EK19" s="41" t="n"/>
+      <c r="EL19" s="41" t="n"/>
+      <c r="EM19" s="41" t="n"/>
+      <c r="EN19" s="41" t="n"/>
+      <c r="EO19" s="41" t="n"/>
+      <c r="EP19" s="41" t="n"/>
+      <c r="EQ19" s="41" t="n"/>
+      <c r="ER19" s="41" t="n"/>
+      <c r="ES19" s="41" t="n"/>
+      <c r="ET19" s="41" t="n"/>
+      <c r="EU19" s="41" t="n"/>
+      <c r="EV19" s="41" t="n"/>
+      <c r="EW19" s="41" t="n"/>
+      <c r="EX19" s="41" t="n"/>
+      <c r="EY19" s="41" t="n"/>
+      <c r="EZ19" s="41" t="n"/>
+      <c r="FA19" s="41" t="n"/>
+      <c r="FB19" s="41" t="n"/>
+      <c r="FC19" s="41" t="n"/>
+      <c r="FD19" s="41" t="n"/>
+      <c r="FE19" s="41" t="n"/>
+      <c r="FF19" s="41" t="n"/>
+      <c r="FG19" s="41" t="n"/>
+      <c r="FH19" s="41" t="n"/>
+      <c r="FI19" s="41" t="n"/>
+      <c r="FJ19" s="41" t="n"/>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="42">
-      <c r="A20" s="81" t="n"/>
-      <c r="B20" s="81" t="n"/>
-      <c r="C20" s="81" t="n"/>
-      <c r="D20" s="81" t="n"/>
-      <c r="E20" s="81" t="n"/>
-      <c r="F20" s="81" t="n"/>
-      <c r="G20" s="81" t="n"/>
-      <c r="H20" s="81" t="n"/>
-      <c r="I20" s="81" t="n"/>
-      <c r="J20" s="81" t="n"/>
-      <c r="K20" s="81" t="n"/>
-      <c r="L20" s="81" t="n"/>
-      <c r="M20" s="81" t="n"/>
-      <c r="N20" s="81" t="n"/>
-      <c r="O20" s="81" t="n"/>
-      <c r="P20" s="81" t="n"/>
-      <c r="Q20" s="81" t="n"/>
-      <c r="R20" s="81" t="n"/>
-      <c r="S20" s="81" t="n"/>
-      <c r="T20" s="81" t="n"/>
-      <c r="U20" s="81" t="n"/>
-      <c r="V20" s="81" t="n"/>
-      <c r="W20" s="81" t="n"/>
-      <c r="X20" s="81" t="n"/>
-      <c r="Y20" s="81" t="n"/>
-      <c r="Z20" s="81" t="n"/>
-      <c r="AA20" s="81" t="n"/>
-      <c r="AB20" s="81" t="n"/>
-      <c r="AC20" s="81" t="n"/>
-      <c r="AD20" s="81" t="n"/>
-      <c r="AE20" s="81" t="n"/>
-      <c r="AF20" s="81" t="n"/>
-      <c r="AG20" s="81" t="n"/>
-      <c r="AH20" s="81" t="n"/>
-      <c r="AI20" s="81" t="n"/>
-      <c r="AJ20" s="81" t="n"/>
-      <c r="AK20" s="81" t="n"/>
-      <c r="AL20" s="81" t="n"/>
-      <c r="AM20" s="81" t="n"/>
-      <c r="AN20" s="81" t="n"/>
-      <c r="AO20" s="81" t="n"/>
-      <c r="AP20" s="81" t="n"/>
-      <c r="AQ20" s="81" t="n"/>
-      <c r="AR20" s="81" t="n"/>
-      <c r="AS20" s="81" t="n"/>
-      <c r="AT20" s="81" t="n"/>
-      <c r="AU20" s="81" t="n"/>
-      <c r="AV20" s="81" t="n"/>
-      <c r="AW20" s="81" t="n"/>
-      <c r="AX20" s="81" t="n"/>
-      <c r="AY20" s="81" t="n"/>
-      <c r="AZ20" s="81" t="n"/>
-      <c r="BA20" s="81" t="n"/>
-      <c r="BB20" s="81" t="n"/>
-      <c r="BC20" s="81" t="n"/>
-      <c r="BD20" s="81" t="n"/>
-      <c r="BE20" s="81" t="n"/>
-      <c r="BF20" s="81" t="n"/>
-      <c r="BG20" s="81" t="n"/>
-      <c r="BH20" s="81" t="n"/>
-      <c r="BI20" s="81" t="n"/>
-      <c r="BJ20" s="81" t="n"/>
-      <c r="BK20" s="81" t="n"/>
-      <c r="BL20" s="81" t="n"/>
-      <c r="BM20" s="81" t="n"/>
-      <c r="BN20" s="81" t="n"/>
-      <c r="BO20" s="81" t="n"/>
-      <c r="BP20" s="81" t="n"/>
-      <c r="BQ20" s="81" t="n"/>
-      <c r="BR20" s="81" t="n"/>
-      <c r="BS20" s="81" t="n"/>
-      <c r="BT20" s="81" t="n"/>
-      <c r="BU20" s="81" t="n"/>
-      <c r="BV20" s="81" t="n"/>
-      <c r="BW20" s="81" t="n"/>
-      <c r="BX20" s="81" t="n"/>
-      <c r="BY20" s="81" t="n"/>
-      <c r="BZ20" s="81" t="n"/>
-      <c r="CA20" s="81" t="n"/>
-      <c r="CB20" s="81" t="n"/>
-      <c r="CC20" s="81" t="n"/>
-      <c r="CD20" s="81" t="n"/>
-      <c r="CE20" s="81" t="n"/>
-      <c r="CF20" s="81" t="n"/>
-      <c r="CG20" s="81" t="n"/>
-      <c r="CH20" s="81" t="n"/>
-      <c r="CI20" s="81" t="n"/>
-      <c r="CJ20" s="81" t="n"/>
-      <c r="CK20" s="81" t="n"/>
-      <c r="CL20" s="81" t="n"/>
-      <c r="CM20" s="81" t="n"/>
-      <c r="CN20" s="81" t="n"/>
-      <c r="CO20" s="81" t="n"/>
-      <c r="CP20" s="81" t="n"/>
-      <c r="CQ20" s="81" t="n"/>
-      <c r="CR20" s="81" t="n"/>
-      <c r="CS20" s="81" t="n"/>
-      <c r="CT20" s="81" t="n"/>
-      <c r="CU20" s="81" t="n"/>
-      <c r="CV20" s="81" t="n"/>
-      <c r="CW20" s="81" t="n"/>
-      <c r="CX20" s="81" t="n"/>
-      <c r="CY20" s="81" t="n"/>
-      <c r="CZ20" s="81" t="n"/>
-      <c r="DA20" s="81" t="n"/>
-      <c r="DB20" s="81" t="n"/>
-      <c r="DC20" s="81" t="n"/>
-      <c r="DD20" s="81" t="n"/>
-      <c r="DE20" s="81" t="n"/>
-      <c r="DF20" s="81" t="n"/>
-      <c r="DG20" s="81" t="n"/>
-      <c r="DH20" s="81" t="n"/>
-      <c r="DI20" s="81" t="n"/>
-      <c r="DJ20" s="81" t="n"/>
-      <c r="DK20" s="81" t="n"/>
-      <c r="DL20" s="81" t="n"/>
-      <c r="DM20" s="81" t="n"/>
-      <c r="DN20" s="81" t="n"/>
-      <c r="DO20" s="81" t="n"/>
-      <c r="DP20" s="81" t="n"/>
-      <c r="DQ20" s="81" t="n"/>
-      <c r="DR20" s="81" t="n"/>
-      <c r="DS20" s="81" t="n"/>
-      <c r="DT20" s="81" t="n"/>
-      <c r="DU20" s="81" t="n"/>
-      <c r="DV20" s="81" t="n"/>
-      <c r="DW20" s="81" t="n"/>
-      <c r="DX20" s="81" t="n"/>
-      <c r="DY20" s="81" t="n"/>
-      <c r="DZ20" s="81" t="n"/>
-      <c r="EA20" s="81" t="n"/>
-      <c r="EB20" s="81" t="n"/>
-      <c r="EC20" s="81" t="n"/>
-      <c r="ED20" s="81" t="n"/>
-      <c r="EE20" s="81" t="n"/>
-      <c r="EF20" s="81" t="n"/>
-      <c r="EG20" s="81" t="n"/>
-      <c r="EH20" s="81" t="n"/>
-      <c r="EI20" s="81" t="n"/>
-      <c r="EJ20" s="81" t="n"/>
-      <c r="EK20" s="81" t="n"/>
-      <c r="EL20" s="81" t="n"/>
-      <c r="EM20" s="81" t="n"/>
-      <c r="EN20" s="81" t="n"/>
-      <c r="EO20" s="81" t="n"/>
-      <c r="EP20" s="81" t="n"/>
-      <c r="EQ20" s="81" t="n"/>
-      <c r="ER20" s="81" t="n"/>
-      <c r="ES20" s="81" t="n"/>
-      <c r="ET20" s="81" t="n"/>
-      <c r="EU20" s="81" t="n"/>
-      <c r="EV20" s="81" t="n"/>
-      <c r="EW20" s="81" t="n"/>
-      <c r="EX20" s="81" t="n"/>
-      <c r="EY20" s="81" t="n"/>
-      <c r="EZ20" s="81" t="n"/>
-      <c r="FA20" s="81" t="n"/>
-      <c r="FB20" s="81" t="n"/>
-      <c r="FC20" s="81" t="n"/>
-      <c r="FD20" s="81" t="n"/>
-      <c r="FE20" s="81" t="n"/>
-      <c r="FF20" s="81" t="n"/>
-      <c r="FG20" s="81" t="n"/>
-      <c r="FH20" s="81" t="n"/>
-      <c r="FI20" s="81" t="n"/>
-      <c r="FJ20" s="81" t="n"/>
+      <c r="A20" s="41" t="n"/>
+      <c r="B20" s="41" t="n"/>
+      <c r="C20" s="41" t="n"/>
+      <c r="D20" s="41" t="n"/>
+      <c r="E20" s="41" t="n"/>
+      <c r="F20" s="41" t="n"/>
+      <c r="G20" s="41" t="n"/>
+      <c r="H20" s="41" t="n"/>
+      <c r="I20" s="41" t="n"/>
+      <c r="J20" s="41" t="n"/>
+      <c r="K20" s="41" t="n"/>
+      <c r="L20" s="41" t="n"/>
+      <c r="M20" s="41" t="n"/>
+      <c r="N20" s="41" t="n"/>
+      <c r="O20" s="41" t="n"/>
+      <c r="P20" s="41" t="n"/>
+      <c r="Q20" s="41" t="n"/>
+      <c r="R20" s="41" t="n"/>
+      <c r="S20" s="41" t="n"/>
+      <c r="T20" s="41" t="n"/>
+      <c r="U20" s="41" t="n"/>
+      <c r="V20" s="41" t="n"/>
+      <c r="W20" s="41" t="n"/>
+      <c r="X20" s="41" t="n"/>
+      <c r="Y20" s="41" t="n"/>
+      <c r="Z20" s="41" t="n"/>
+      <c r="AA20" s="41" t="n"/>
+      <c r="AB20" s="41" t="n"/>
+      <c r="AC20" s="41" t="n"/>
+      <c r="AD20" s="41" t="n"/>
+      <c r="AE20" s="41" t="n"/>
+      <c r="AF20" s="41" t="n"/>
+      <c r="AG20" s="41" t="n"/>
+      <c r="AH20" s="41" t="n"/>
+      <c r="AI20" s="41" t="n"/>
+      <c r="AJ20" s="41" t="n"/>
+      <c r="AK20" s="41" t="n"/>
+      <c r="AL20" s="41" t="n"/>
+      <c r="AM20" s="41" t="n"/>
+      <c r="AN20" s="41" t="n"/>
+      <c r="AO20" s="41" t="n"/>
+      <c r="AP20" s="41" t="n"/>
+      <c r="AQ20" s="41" t="n"/>
+      <c r="AR20" s="41" t="n"/>
+      <c r="AS20" s="41" t="n"/>
+      <c r="AT20" s="41" t="n"/>
+      <c r="AU20" s="41" t="n"/>
+      <c r="AV20" s="41" t="n"/>
+      <c r="AW20" s="41" t="n"/>
+      <c r="AX20" s="41" t="n"/>
+      <c r="AY20" s="41" t="n"/>
+      <c r="AZ20" s="41" t="n"/>
+      <c r="BA20" s="41" t="n"/>
+      <c r="BB20" s="41" t="n"/>
+      <c r="BC20" s="41" t="n"/>
+      <c r="BD20" s="41" t="n"/>
+      <c r="BE20" s="41" t="n"/>
+      <c r="BF20" s="41" t="n"/>
+      <c r="BG20" s="41" t="n"/>
+      <c r="BH20" s="41" t="n"/>
+      <c r="BI20" s="41" t="n"/>
+      <c r="BJ20" s="41" t="n"/>
+      <c r="BK20" s="41" t="n"/>
+      <c r="BL20" s="41" t="n"/>
+      <c r="BM20" s="41" t="n"/>
+      <c r="BN20" s="41" t="n"/>
+      <c r="BO20" s="41" t="n"/>
+      <c r="BP20" s="41" t="n"/>
+      <c r="BQ20" s="41" t="n"/>
+      <c r="BR20" s="41" t="n"/>
+      <c r="BS20" s="41" t="n"/>
+      <c r="BT20" s="41" t="n"/>
+      <c r="BU20" s="41" t="n"/>
+      <c r="BV20" s="41" t="n"/>
+      <c r="BW20" s="41" t="n"/>
+      <c r="BX20" s="41" t="n"/>
+      <c r="BY20" s="41" t="n"/>
+      <c r="BZ20" s="41" t="n"/>
+      <c r="CA20" s="41" t="n"/>
+      <c r="CB20" s="41" t="n"/>
+      <c r="CC20" s="41" t="n"/>
+      <c r="CD20" s="41" t="n"/>
+      <c r="CE20" s="41" t="n"/>
+      <c r="CF20" s="41" t="n"/>
+      <c r="CG20" s="41" t="n"/>
+      <c r="CH20" s="41" t="n"/>
+      <c r="CI20" s="41" t="n"/>
+      <c r="CJ20" s="41" t="n"/>
+      <c r="CK20" s="41" t="n"/>
+      <c r="CL20" s="41" t="n"/>
+      <c r="CM20" s="41" t="n"/>
+      <c r="CN20" s="41" t="n"/>
+      <c r="CO20" s="41" t="n"/>
+      <c r="CP20" s="41" t="n"/>
+      <c r="CQ20" s="41" t="n"/>
+      <c r="CR20" s="41" t="n"/>
+      <c r="CS20" s="41" t="n"/>
+      <c r="CT20" s="41" t="n"/>
+      <c r="CU20" s="41" t="n"/>
+      <c r="CV20" s="41" t="n"/>
+      <c r="CW20" s="41" t="n"/>
+      <c r="CX20" s="41" t="n"/>
+      <c r="CY20" s="41" t="n"/>
+      <c r="CZ20" s="41" t="n"/>
+      <c r="DA20" s="41" t="n"/>
+      <c r="DB20" s="41" t="n"/>
+      <c r="DC20" s="41" t="n"/>
+      <c r="DD20" s="41" t="n"/>
+      <c r="DE20" s="41" t="n"/>
+      <c r="DF20" s="41" t="n"/>
+      <c r="DG20" s="41" t="n"/>
+      <c r="DH20" s="41" t="n"/>
+      <c r="DI20" s="41" t="n"/>
+      <c r="DJ20" s="41" t="n"/>
+      <c r="DK20" s="41" t="n"/>
+      <c r="DL20" s="41" t="n"/>
+      <c r="DM20" s="41" t="n"/>
+      <c r="DN20" s="41" t="n"/>
+      <c r="DO20" s="41" t="n"/>
+      <c r="DP20" s="41" t="n"/>
+      <c r="DQ20" s="41" t="n"/>
+      <c r="DR20" s="41" t="n"/>
+      <c r="DS20" s="41" t="n"/>
+      <c r="DT20" s="41" t="n"/>
+      <c r="DU20" s="41" t="n"/>
+      <c r="DV20" s="41" t="n"/>
+      <c r="DW20" s="41" t="n"/>
+      <c r="DX20" s="41" t="n"/>
+      <c r="DY20" s="41" t="n"/>
+      <c r="DZ20" s="41" t="n"/>
+      <c r="EA20" s="41" t="n"/>
+      <c r="EB20" s="41" t="n"/>
+      <c r="EC20" s="41" t="n"/>
+      <c r="ED20" s="41" t="n"/>
+      <c r="EE20" s="41" t="n"/>
+      <c r="EF20" s="41" t="n"/>
+      <c r="EG20" s="41" t="n"/>
+      <c r="EH20" s="41" t="n"/>
+      <c r="EI20" s="41" t="n"/>
+      <c r="EJ20" s="41" t="n"/>
+      <c r="EK20" s="41" t="n"/>
+      <c r="EL20" s="41" t="n"/>
+      <c r="EM20" s="41" t="n"/>
+      <c r="EN20" s="41" t="n"/>
+      <c r="EO20" s="41" t="n"/>
+      <c r="EP20" s="41" t="n"/>
+      <c r="EQ20" s="41" t="n"/>
+      <c r="ER20" s="41" t="n"/>
+      <c r="ES20" s="41" t="n"/>
+      <c r="ET20" s="41" t="n"/>
+      <c r="EU20" s="41" t="n"/>
+      <c r="EV20" s="41" t="n"/>
+      <c r="EW20" s="41" t="n"/>
+      <c r="EX20" s="41" t="n"/>
+      <c r="EY20" s="41" t="n"/>
+      <c r="EZ20" s="41" t="n"/>
+      <c r="FA20" s="41" t="n"/>
+      <c r="FB20" s="41" t="n"/>
+      <c r="FC20" s="41" t="n"/>
+      <c r="FD20" s="41" t="n"/>
+      <c r="FE20" s="41" t="n"/>
+      <c r="FF20" s="41" t="n"/>
+      <c r="FG20" s="41" t="n"/>
+      <c r="FH20" s="41" t="n"/>
+      <c r="FI20" s="41" t="n"/>
+      <c r="FJ20" s="41" t="n"/>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="42">
-      <c r="A21" s="81" t="n"/>
-      <c r="B21" s="81" t="n"/>
-      <c r="C21" s="81" t="n"/>
-      <c r="D21" s="81" t="n"/>
-      <c r="E21" s="81" t="n"/>
-      <c r="F21" s="81" t="n"/>
-      <c r="G21" s="81" t="n"/>
-      <c r="H21" s="81" t="n"/>
-      <c r="I21" s="81" t="n"/>
-      <c r="J21" s="81" t="n"/>
-      <c r="K21" s="81" t="n"/>
-      <c r="L21" s="81" t="n"/>
-      <c r="M21" s="81" t="n"/>
-      <c r="N21" s="81" t="n"/>
-      <c r="O21" s="81" t="n"/>
-      <c r="P21" s="81" t="n"/>
-      <c r="Q21" s="81" t="n"/>
-      <c r="R21" s="81" t="n"/>
-      <c r="S21" s="81" t="n"/>
-      <c r="T21" s="81" t="n"/>
-      <c r="U21" s="81" t="n"/>
-      <c r="V21" s="81" t="n"/>
-      <c r="W21" s="81" t="n"/>
-      <c r="X21" s="81" t="n"/>
-      <c r="Y21" s="81" t="n"/>
-      <c r="Z21" s="81" t="n"/>
-      <c r="AA21" s="81" t="n"/>
-      <c r="AB21" s="81" t="n"/>
-      <c r="AC21" s="81" t="n"/>
-      <c r="AD21" s="81" t="n"/>
-      <c r="AE21" s="81" t="n"/>
-      <c r="AF21" s="81" t="n"/>
-      <c r="AG21" s="81" t="n"/>
-      <c r="AH21" s="81" t="n"/>
-      <c r="AI21" s="81" t="n"/>
-      <c r="AJ21" s="81" t="n"/>
-      <c r="AK21" s="81" t="n"/>
-      <c r="AL21" s="81" t="n"/>
-      <c r="AM21" s="81" t="n"/>
-      <c r="AN21" s="81" t="n"/>
-      <c r="AO21" s="81" t="n"/>
-      <c r="AP21" s="81" t="n"/>
-      <c r="AQ21" s="81" t="n"/>
-      <c r="AR21" s="81" t="n"/>
-      <c r="AS21" s="81" t="n"/>
-      <c r="AT21" s="81" t="n"/>
-      <c r="AU21" s="81" t="n"/>
-      <c r="AV21" s="81" t="n"/>
-      <c r="AW21" s="81" t="n"/>
-      <c r="AX21" s="81" t="n"/>
-      <c r="AY21" s="81" t="n"/>
-      <c r="AZ21" s="81" t="n"/>
-      <c r="BA21" s="81" t="n"/>
-      <c r="BB21" s="81" t="n"/>
-      <c r="BC21" s="81" t="n"/>
-      <c r="BD21" s="81" t="n"/>
-      <c r="BE21" s="81" t="n"/>
-      <c r="BF21" s="81" t="n"/>
-      <c r="BG21" s="81" t="n"/>
-      <c r="BH21" s="81" t="n"/>
-      <c r="BI21" s="81" t="n"/>
-      <c r="BJ21" s="81" t="n"/>
-      <c r="BK21" s="81" t="n"/>
-      <c r="BL21" s="81" t="n"/>
-      <c r="BM21" s="81" t="n"/>
-      <c r="BN21" s="81" t="n"/>
-      <c r="BO21" s="81" t="n"/>
-      <c r="BP21" s="81" t="n"/>
-      <c r="BQ21" s="81" t="n"/>
-      <c r="BR21" s="81" t="n"/>
-      <c r="BS21" s="81" t="n"/>
-      <c r="BT21" s="81" t="n"/>
-      <c r="BU21" s="81" t="n"/>
-      <c r="BV21" s="81" t="n"/>
-      <c r="BW21" s="81" t="n"/>
-      <c r="BX21" s="81" t="n"/>
-      <c r="BY21" s="81" t="n"/>
-      <c r="BZ21" s="81" t="n"/>
-      <c r="CA21" s="81" t="n"/>
-      <c r="CB21" s="81" t="n"/>
-      <c r="CC21" s="81" t="n"/>
-      <c r="CD21" s="81" t="n"/>
-      <c r="CE21" s="81" t="n"/>
-      <c r="CF21" s="81" t="n"/>
-      <c r="CG21" s="81" t="n"/>
-      <c r="CH21" s="81" t="n"/>
-      <c r="CI21" s="81" t="n"/>
-      <c r="CJ21" s="81" t="n"/>
-      <c r="CK21" s="81" t="n"/>
-      <c r="CL21" s="81" t="n"/>
-      <c r="CM21" s="81" t="n"/>
-      <c r="CN21" s="81" t="n"/>
-      <c r="CO21" s="81" t="n"/>
-      <c r="CP21" s="81" t="n"/>
-      <c r="CQ21" s="81" t="n"/>
-      <c r="CR21" s="81" t="n"/>
-      <c r="CS21" s="81" t="n"/>
-      <c r="CT21" s="81" t="n"/>
-      <c r="CU21" s="81" t="n"/>
-      <c r="CV21" s="81" t="n"/>
-      <c r="CW21" s="81" t="n"/>
-      <c r="CX21" s="81" t="n"/>
-      <c r="CY21" s="81" t="n"/>
-      <c r="CZ21" s="81" t="n"/>
-      <c r="DA21" s="81" t="n"/>
-      <c r="DB21" s="81" t="n"/>
-      <c r="DC21" s="81" t="n"/>
-      <c r="DD21" s="81" t="n"/>
-      <c r="DE21" s="81" t="n"/>
-      <c r="DF21" s="81" t="n"/>
-      <c r="DG21" s="81" t="n"/>
-      <c r="DH21" s="81" t="n"/>
-      <c r="DI21" s="81" t="n"/>
-      <c r="DJ21" s="81" t="n"/>
-      <c r="DK21" s="81" t="n"/>
-      <c r="DL21" s="81" t="n"/>
-      <c r="DM21" s="81" t="n"/>
-      <c r="DN21" s="81" t="n"/>
-      <c r="DO21" s="81" t="n"/>
-      <c r="DP21" s="81" t="n"/>
-      <c r="DQ21" s="81" t="n"/>
-      <c r="DR21" s="81" t="n"/>
-      <c r="DS21" s="81" t="n"/>
-      <c r="DT21" s="81" t="n"/>
-      <c r="DU21" s="81" t="n"/>
-      <c r="DV21" s="81" t="n"/>
-      <c r="DW21" s="81" t="n"/>
-      <c r="DX21" s="81" t="n"/>
-      <c r="DY21" s="81" t="n"/>
-      <c r="DZ21" s="81" t="n"/>
-      <c r="EA21" s="81" t="n"/>
-      <c r="EB21" s="81" t="n"/>
-      <c r="EC21" s="81" t="n"/>
-      <c r="ED21" s="81" t="n"/>
-      <c r="EE21" s="81" t="n"/>
-      <c r="EF21" s="81" t="n"/>
-      <c r="EG21" s="81" t="n"/>
-      <c r="EH21" s="81" t="n"/>
-      <c r="EI21" s="81" t="n"/>
-      <c r="EJ21" s="81" t="n"/>
-      <c r="EK21" s="81" t="n"/>
-      <c r="EL21" s="81" t="n"/>
-      <c r="EM21" s="81" t="n"/>
-      <c r="EN21" s="81" t="n"/>
-      <c r="EO21" s="81" t="n"/>
-      <c r="EP21" s="81" t="n"/>
-      <c r="EQ21" s="81" t="n"/>
-      <c r="ER21" s="81" t="n"/>
-      <c r="ES21" s="81" t="n"/>
-      <c r="ET21" s="81" t="n"/>
-      <c r="EU21" s="81" t="n"/>
-      <c r="EV21" s="81" t="n"/>
-      <c r="EW21" s="81" t="n"/>
-      <c r="EX21" s="81" t="n"/>
-      <c r="EY21" s="81" t="n"/>
-      <c r="EZ21" s="81" t="n"/>
-      <c r="FA21" s="81" t="n"/>
-      <c r="FB21" s="81" t="n"/>
-      <c r="FC21" s="81" t="n"/>
-      <c r="FD21" s="81" t="n"/>
-      <c r="FE21" s="81" t="n"/>
-      <c r="FF21" s="81" t="n"/>
-      <c r="FG21" s="81" t="n"/>
-      <c r="FH21" s="81" t="n"/>
-      <c r="FI21" s="81" t="n"/>
-      <c r="FJ21" s="81" t="n"/>
+      <c r="A21" s="41" t="n"/>
+      <c r="B21" s="41" t="n"/>
+      <c r="C21" s="41" t="n"/>
+      <c r="D21" s="41" t="n"/>
+      <c r="E21" s="41" t="n"/>
+      <c r="F21" s="41" t="n"/>
+      <c r="G21" s="41" t="n"/>
+      <c r="H21" s="41" t="n"/>
+      <c r="I21" s="41" t="n"/>
+      <c r="J21" s="41" t="n"/>
+      <c r="K21" s="41" t="n"/>
+      <c r="L21" s="41" t="n"/>
+      <c r="M21" s="41" t="n"/>
+      <c r="N21" s="41" t="n"/>
+      <c r="O21" s="41" t="n"/>
+      <c r="P21" s="41" t="n"/>
+      <c r="Q21" s="41" t="n"/>
+      <c r="R21" s="41" t="n"/>
+      <c r="S21" s="41" t="n"/>
+      <c r="T21" s="41" t="n"/>
+      <c r="U21" s="41" t="n"/>
+      <c r="V21" s="41" t="n"/>
+      <c r="W21" s="41" t="n"/>
+      <c r="X21" s="41" t="n"/>
+      <c r="Y21" s="41" t="n"/>
+      <c r="Z21" s="41" t="n"/>
+      <c r="AA21" s="41" t="n"/>
+      <c r="AB21" s="41" t="n"/>
+      <c r="AC21" s="41" t="n"/>
+      <c r="AD21" s="41" t="n"/>
+      <c r="AE21" s="41" t="n"/>
+      <c r="AF21" s="41" t="n"/>
+      <c r="AG21" s="41" t="n"/>
+      <c r="AH21" s="41" t="n"/>
+      <c r="AI21" s="41" t="n"/>
+      <c r="AJ21" s="41" t="n"/>
+      <c r="AK21" s="41" t="n"/>
+      <c r="AL21" s="41" t="n"/>
+      <c r="AM21" s="41" t="n"/>
+      <c r="AN21" s="41" t="n"/>
+      <c r="AO21" s="41" t="n"/>
+      <c r="AP21" s="41" t="n"/>
+      <c r="AQ21" s="41" t="n"/>
+      <c r="AR21" s="41" t="n"/>
+      <c r="AS21" s="41" t="n"/>
+      <c r="AT21" s="41" t="n"/>
+      <c r="AU21" s="41" t="n"/>
+      <c r="AV21" s="41" t="n"/>
+      <c r="AW21" s="41" t="n"/>
+      <c r="AX21" s="41" t="n"/>
+      <c r="AY21" s="41" t="n"/>
+      <c r="AZ21" s="41" t="n"/>
+      <c r="BA21" s="41" t="n"/>
+      <c r="BB21" s="41" t="n"/>
+      <c r="BC21" s="41" t="n"/>
+      <c r="BD21" s="41" t="n"/>
+      <c r="BE21" s="41" t="n"/>
+      <c r="BF21" s="41" t="n"/>
+      <c r="BG21" s="41" t="n"/>
+      <c r="BH21" s="41" t="n"/>
+      <c r="BI21" s="41" t="n"/>
+      <c r="BJ21" s="41" t="n"/>
+      <c r="BK21" s="41" t="n"/>
+      <c r="BL21" s="41" t="n"/>
+      <c r="BM21" s="41" t="n"/>
+      <c r="BN21" s="41" t="n"/>
+      <c r="BO21" s="41" t="n"/>
+      <c r="BP21" s="41" t="n"/>
+      <c r="BQ21" s="41" t="n"/>
+      <c r="BR21" s="41" t="n"/>
+      <c r="BS21" s="41" t="n"/>
+      <c r="BT21" s="41" t="n"/>
+      <c r="BU21" s="41" t="n"/>
+      <c r="BV21" s="41" t="n"/>
+      <c r="BW21" s="41" t="n"/>
+      <c r="BX21" s="41" t="n"/>
+      <c r="BY21" s="41" t="n"/>
+      <c r="BZ21" s="41" t="n"/>
+      <c r="CA21" s="41" t="n"/>
+      <c r="CB21" s="41" t="n"/>
+      <c r="CC21" s="41" t="n"/>
+      <c r="CD21" s="41" t="n"/>
+      <c r="CE21" s="41" t="n"/>
+      <c r="CF21" s="41" t="n"/>
+      <c r="CG21" s="41" t="n"/>
+      <c r="CH21" s="41" t="n"/>
+      <c r="CI21" s="41" t="n"/>
+      <c r="CJ21" s="41" t="n"/>
+      <c r="CK21" s="41" t="n"/>
+      <c r="CL21" s="41" t="n"/>
+      <c r="CM21" s="41" t="n"/>
+      <c r="CN21" s="41" t="n"/>
+      <c r="CO21" s="41" t="n"/>
+      <c r="CP21" s="41" t="n"/>
+      <c r="CQ21" s="41" t="n"/>
+      <c r="CR21" s="41" t="n"/>
+      <c r="CS21" s="41" t="n"/>
+      <c r="CT21" s="41" t="n"/>
+      <c r="CU21" s="41" t="n"/>
+      <c r="CV21" s="41" t="n"/>
+      <c r="CW21" s="41" t="n"/>
+      <c r="CX21" s="41" t="n"/>
+      <c r="CY21" s="41" t="n"/>
+      <c r="CZ21" s="41" t="n"/>
+      <c r="DA21" s="41" t="n"/>
+      <c r="DB21" s="41" t="n"/>
+      <c r="DC21" s="41" t="n"/>
+      <c r="DD21" s="41" t="n"/>
+      <c r="DE21" s="41" t="n"/>
+      <c r="DF21" s="41" t="n"/>
+      <c r="DG21" s="41" t="n"/>
+      <c r="DH21" s="41" t="n"/>
+      <c r="DI21" s="41" t="n"/>
+      <c r="DJ21" s="41" t="n"/>
+      <c r="DK21" s="41" t="n"/>
+      <c r="DL21" s="41" t="n"/>
+      <c r="DM21" s="41" t="n"/>
+      <c r="DN21" s="41" t="n"/>
+      <c r="DO21" s="41" t="n"/>
+      <c r="DP21" s="41" t="n"/>
+      <c r="DQ21" s="41" t="n"/>
+      <c r="DR21" s="41" t="n"/>
+      <c r="DS21" s="41" t="n"/>
+      <c r="DT21" s="41" t="n"/>
+      <c r="DU21" s="41" t="n"/>
+      <c r="DV21" s="41" t="n"/>
+      <c r="DW21" s="41" t="n"/>
+      <c r="DX21" s="41" t="n"/>
+      <c r="DY21" s="41" t="n"/>
+      <c r="DZ21" s="41" t="n"/>
+      <c r="EA21" s="41" t="n"/>
+      <c r="EB21" s="41" t="n"/>
+      <c r="EC21" s="41" t="n"/>
+      <c r="ED21" s="41" t="n"/>
+      <c r="EE21" s="41" t="n"/>
+      <c r="EF21" s="41" t="n"/>
+      <c r="EG21" s="41" t="n"/>
+      <c r="EH21" s="41" t="n"/>
+      <c r="EI21" s="41" t="n"/>
+      <c r="EJ21" s="41" t="n"/>
+      <c r="EK21" s="41" t="n"/>
+      <c r="EL21" s="41" t="n"/>
+      <c r="EM21" s="41" t="n"/>
+      <c r="EN21" s="41" t="n"/>
+      <c r="EO21" s="41" t="n"/>
+      <c r="EP21" s="41" t="n"/>
+      <c r="EQ21" s="41" t="n"/>
+      <c r="ER21" s="41" t="n"/>
+      <c r="ES21" s="41" t="n"/>
+      <c r="ET21" s="41" t="n"/>
+      <c r="EU21" s="41" t="n"/>
+      <c r="EV21" s="41" t="n"/>
+      <c r="EW21" s="41" t="n"/>
+      <c r="EX21" s="41" t="n"/>
+      <c r="EY21" s="41" t="n"/>
+      <c r="EZ21" s="41" t="n"/>
+      <c r="FA21" s="41" t="n"/>
+      <c r="FB21" s="41" t="n"/>
+      <c r="FC21" s="41" t="n"/>
+      <c r="FD21" s="41" t="n"/>
+      <c r="FE21" s="41" t="n"/>
+      <c r="FF21" s="41" t="n"/>
+      <c r="FG21" s="41" t="n"/>
+      <c r="FH21" s="41" t="n"/>
+      <c r="FI21" s="41" t="n"/>
+      <c r="FJ21" s="41" t="n"/>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="42">
-      <c r="A22" s="81" t="n"/>
-      <c r="B22" s="81" t="n"/>
-      <c r="C22" s="81" t="n"/>
-      <c r="D22" s="81" t="n"/>
-      <c r="E22" s="81" t="n"/>
-      <c r="F22" s="81" t="n"/>
-      <c r="G22" s="81" t="n"/>
-      <c r="H22" s="81" t="n"/>
-      <c r="I22" s="81" t="n"/>
-      <c r="J22" s="81" t="n"/>
-      <c r="K22" s="81" t="n"/>
-      <c r="L22" s="81" t="n"/>
-      <c r="M22" s="81" t="n"/>
-      <c r="N22" s="81" t="n"/>
-      <c r="O22" s="81" t="n"/>
-      <c r="P22" s="81" t="n"/>
-      <c r="Q22" s="81" t="n"/>
-      <c r="R22" s="81" t="n"/>
-      <c r="S22" s="81" t="n"/>
-      <c r="T22" s="81" t="n"/>
-      <c r="U22" s="81" t="n"/>
-      <c r="V22" s="81" t="n"/>
-      <c r="W22" s="81" t="n"/>
-      <c r="X22" s="81" t="n"/>
-      <c r="Y22" s="81" t="n"/>
-      <c r="Z22" s="81" t="n"/>
-      <c r="AA22" s="81" t="n"/>
-      <c r="AB22" s="81" t="n"/>
-      <c r="AC22" s="81" t="n"/>
-      <c r="AD22" s="81" t="n"/>
-      <c r="AE22" s="81" t="n"/>
-      <c r="AF22" s="81" t="n"/>
-      <c r="AG22" s="81" t="n"/>
-      <c r="AH22" s="81" t="n"/>
-      <c r="AI22" s="81" t="n"/>
-      <c r="AJ22" s="81" t="n"/>
-      <c r="AK22" s="81" t="n"/>
-      <c r="AL22" s="81" t="n"/>
-      <c r="AM22" s="81" t="n"/>
-      <c r="AN22" s="81" t="n"/>
-      <c r="AO22" s="81" t="n"/>
-      <c r="AP22" s="81" t="n"/>
-      <c r="AQ22" s="81" t="n"/>
-      <c r="AR22" s="81" t="n"/>
-      <c r="AS22" s="81" t="n"/>
-      <c r="AT22" s="81" t="n"/>
-      <c r="AU22" s="81" t="n"/>
-      <c r="AV22" s="81" t="n"/>
-      <c r="AW22" s="81" t="n"/>
-      <c r="AX22" s="81" t="n"/>
-      <c r="AY22" s="81" t="n"/>
-      <c r="AZ22" s="81" t="n"/>
-      <c r="BA22" s="81" t="n"/>
-      <c r="BB22" s="81" t="n"/>
-      <c r="BC22" s="81" t="n"/>
-      <c r="BD22" s="81" t="n"/>
-      <c r="BE22" s="81" t="n"/>
-      <c r="BF22" s="81" t="n"/>
-      <c r="BG22" s="81" t="n"/>
-      <c r="BH22" s="81" t="n"/>
-      <c r="BI22" s="81" t="n"/>
-      <c r="BJ22" s="81" t="n"/>
-      <c r="BK22" s="81" t="n"/>
-      <c r="BL22" s="81" t="n"/>
-      <c r="BM22" s="81" t="n"/>
-      <c r="BN22" s="81" t="n"/>
-      <c r="BO22" s="81" t="n"/>
-      <c r="BP22" s="81" t="n"/>
-      <c r="BQ22" s="81" t="n"/>
-      <c r="BR22" s="81" t="n"/>
-      <c r="BS22" s="81" t="n"/>
-      <c r="BT22" s="81" t="n"/>
-      <c r="BU22" s="81" t="n"/>
-      <c r="BV22" s="81" t="n"/>
-      <c r="BW22" s="81" t="n"/>
-      <c r="BX22" s="81" t="n"/>
-      <c r="BY22" s="81" t="n"/>
-      <c r="BZ22" s="81" t="n"/>
-      <c r="CA22" s="81" t="n"/>
-      <c r="CB22" s="81" t="n"/>
-      <c r="CC22" s="81" t="n"/>
-      <c r="CD22" s="81" t="n"/>
-      <c r="CE22" s="81" t="n"/>
-      <c r="CF22" s="81" t="n"/>
-      <c r="CG22" s="81" t="n"/>
-      <c r="CH22" s="81" t="n"/>
-      <c r="CI22" s="81" t="n"/>
-      <c r="CJ22" s="81" t="n"/>
-      <c r="CK22" s="81" t="n"/>
-      <c r="CL22" s="81" t="n"/>
-      <c r="CM22" s="81" t="n"/>
-      <c r="CN22" s="81" t="n"/>
-      <c r="CO22" s="81" t="n"/>
-      <c r="CP22" s="81" t="n"/>
-      <c r="CQ22" s="81" t="n"/>
-      <c r="CR22" s="81" t="n"/>
-      <c r="CS22" s="81" t="n"/>
-      <c r="CT22" s="81" t="n"/>
-      <c r="CU22" s="81" t="n"/>
-      <c r="CV22" s="81" t="n"/>
-      <c r="CW22" s="81" t="n"/>
-      <c r="CX22" s="81" t="n"/>
-      <c r="CY22" s="81" t="n"/>
-      <c r="CZ22" s="81" t="n"/>
-      <c r="DA22" s="81" t="n"/>
-      <c r="DB22" s="81" t="n"/>
-      <c r="DC22" s="81" t="n"/>
-      <c r="DD22" s="81" t="n"/>
-      <c r="DE22" s="81" t="n"/>
-      <c r="DF22" s="81" t="n"/>
-      <c r="DG22" s="81" t="n"/>
-      <c r="DH22" s="81" t="n"/>
-      <c r="DI22" s="81" t="n"/>
-      <c r="DJ22" s="81" t="n"/>
-      <c r="DK22" s="81" t="n"/>
-      <c r="DL22" s="81" t="n"/>
-      <c r="DM22" s="81" t="n"/>
-      <c r="DN22" s="81" t="n"/>
-      <c r="DO22" s="81" t="n"/>
-      <c r="DP22" s="81" t="n"/>
-      <c r="DQ22" s="81" t="n"/>
-      <c r="DR22" s="81" t="n"/>
-      <c r="DS22" s="81" t="n"/>
-      <c r="DT22" s="81" t="n"/>
-      <c r="DU22" s="81" t="n"/>
-      <c r="DV22" s="81" t="n"/>
-      <c r="DW22" s="81" t="n"/>
-      <c r="DX22" s="81" t="n"/>
-      <c r="DY22" s="81" t="n"/>
-      <c r="DZ22" s="81" t="n"/>
-      <c r="EA22" s="81" t="n"/>
-      <c r="EB22" s="81" t="n"/>
-      <c r="EC22" s="81" t="n"/>
-      <c r="ED22" s="81" t="n"/>
-      <c r="EE22" s="81" t="n"/>
-      <c r="EF22" s="81" t="n"/>
-      <c r="EG22" s="81" t="n"/>
-      <c r="EH22" s="81" t="n"/>
-      <c r="EI22" s="81" t="n"/>
-      <c r="EJ22" s="81" t="n"/>
-      <c r="EK22" s="81" t="n"/>
-      <c r="EL22" s="81" t="n"/>
-      <c r="EM22" s="81" t="n"/>
-      <c r="EN22" s="81" t="n"/>
-      <c r="EO22" s="81" t="n"/>
-      <c r="EP22" s="81" t="n"/>
-      <c r="EQ22" s="81" t="n"/>
-      <c r="ER22" s="81" t="n"/>
-      <c r="ES22" s="81" t="n"/>
-      <c r="ET22" s="81" t="n"/>
-      <c r="EU22" s="81" t="n"/>
-      <c r="EV22" s="81" t="n"/>
-      <c r="EW22" s="81" t="n"/>
-      <c r="EX22" s="81" t="n"/>
-      <c r="EY22" s="81" t="n"/>
-      <c r="EZ22" s="81" t="n"/>
-      <c r="FA22" s="81" t="n"/>
-      <c r="FB22" s="81" t="n"/>
-      <c r="FC22" s="81" t="n"/>
-      <c r="FD22" s="81" t="n"/>
-      <c r="FE22" s="81" t="n"/>
-      <c r="FF22" s="81" t="n"/>
-      <c r="FG22" s="81" t="n"/>
-      <c r="FH22" s="81" t="n"/>
-      <c r="FI22" s="81" t="n"/>
-      <c r="FJ22" s="81" t="n"/>
+      <c r="A22" s="41" t="n"/>
+      <c r="B22" s="41" t="n"/>
+      <c r="C22" s="41" t="n"/>
+      <c r="D22" s="41" t="n"/>
+      <c r="E22" s="41" t="n"/>
+      <c r="F22" s="41" t="n"/>
+      <c r="G22" s="41" t="n"/>
+      <c r="H22" s="41" t="n"/>
+      <c r="I22" s="41" t="n"/>
+      <c r="J22" s="41" t="n"/>
+      <c r="K22" s="41" t="n"/>
+      <c r="L22" s="41" t="n"/>
+      <c r="M22" s="41" t="n"/>
+      <c r="N22" s="41" t="n"/>
+      <c r="O22" s="41" t="n"/>
+      <c r="P22" s="41" t="n"/>
+      <c r="Q22" s="41" t="n"/>
+      <c r="R22" s="41" t="n"/>
+      <c r="S22" s="41" t="n"/>
+      <c r="T22" s="41" t="n"/>
+      <c r="U22" s="41" t="n"/>
+      <c r="V22" s="41" t="n"/>
+      <c r="W22" s="41" t="n"/>
+      <c r="X22" s="41" t="n"/>
+      <c r="Y22" s="41" t="n"/>
+      <c r="Z22" s="41" t="n"/>
+      <c r="AA22" s="41" t="n"/>
+      <c r="AB22" s="41" t="n"/>
+      <c r="AC22" s="41" t="n"/>
+      <c r="AD22" s="41" t="n"/>
+      <c r="AE22" s="41" t="n"/>
+      <c r="AF22" s="41" t="n"/>
+      <c r="AG22" s="41" t="n"/>
+      <c r="AH22" s="41" t="n"/>
+      <c r="AI22" s="41" t="n"/>
+      <c r="AJ22" s="41" t="n"/>
+      <c r="AK22" s="41" t="n"/>
+      <c r="AL22" s="41" t="n"/>
+      <c r="AM22" s="41" t="n"/>
+      <c r="AN22" s="41" t="n"/>
+      <c r="AO22" s="41" t="n"/>
+      <c r="AP22" s="41" t="n"/>
+      <c r="AQ22" s="41" t="n"/>
+      <c r="AR22" s="41" t="n"/>
+      <c r="AS22" s="41" t="n"/>
+      <c r="AT22" s="41" t="n"/>
+      <c r="AU22" s="41" t="n"/>
+      <c r="AV22" s="41" t="n"/>
+      <c r="AW22" s="41" t="n"/>
+      <c r="AX22" s="41" t="n"/>
+      <c r="AY22" s="41" t="n"/>
+      <c r="AZ22" s="41" t="n"/>
+      <c r="BA22" s="41" t="n"/>
+      <c r="BB22" s="41" t="n"/>
+      <c r="BC22" s="41" t="n"/>
+      <c r="BD22" s="41" t="n"/>
+      <c r="BE22" s="41" t="n"/>
+      <c r="BF22" s="41" t="n"/>
+      <c r="BG22" s="41" t="n"/>
+      <c r="BH22" s="41" t="n"/>
+      <c r="BI22" s="41" t="n"/>
+      <c r="BJ22" s="41" t="n"/>
+      <c r="BK22" s="41" t="n"/>
+      <c r="BL22" s="41" t="n"/>
+      <c r="BM22" s="41" t="n"/>
+      <c r="BN22" s="41" t="n"/>
+      <c r="BO22" s="41" t="n"/>
+      <c r="BP22" s="41" t="n"/>
+      <c r="BQ22" s="41" t="n"/>
+      <c r="BR22" s="41" t="n"/>
+      <c r="BS22" s="41" t="n"/>
+      <c r="BT22" s="41" t="n"/>
+      <c r="BU22" s="41" t="n"/>
+      <c r="BV22" s="41" t="n"/>
+      <c r="BW22" s="41" t="n"/>
+      <c r="BX22" s="41" t="n"/>
+      <c r="BY22" s="41" t="n"/>
+      <c r="BZ22" s="41" t="n"/>
+      <c r="CA22" s="41" t="n"/>
+      <c r="CB22" s="41" t="n"/>
+      <c r="CC22" s="41" t="n"/>
+      <c r="CD22" s="41" t="n"/>
+      <c r="CE22" s="41" t="n"/>
+      <c r="CF22" s="41" t="n"/>
+      <c r="CG22" s="41" t="n"/>
+      <c r="CH22" s="41" t="n"/>
+      <c r="CI22" s="41" t="n"/>
+      <c r="CJ22" s="41" t="n"/>
+      <c r="CK22" s="41" t="n"/>
+      <c r="CL22" s="41" t="n"/>
+      <c r="CM22" s="41" t="n"/>
+      <c r="CN22" s="41" t="n"/>
+      <c r="CO22" s="41" t="n"/>
+      <c r="CP22" s="41" t="n"/>
+      <c r="CQ22" s="41" t="n"/>
+      <c r="CR22" s="41" t="n"/>
+      <c r="CS22" s="41" t="n"/>
+      <c r="CT22" s="41" t="n"/>
+      <c r="CU22" s="41" t="n"/>
+      <c r="CV22" s="41" t="n"/>
+      <c r="CW22" s="41" t="n"/>
+      <c r="CX22" s="41" t="n"/>
+      <c r="CY22" s="41" t="n"/>
+      <c r="CZ22" s="41" t="n"/>
+      <c r="DA22" s="41" t="n"/>
+      <c r="DB22" s="41" t="n"/>
+      <c r="DC22" s="41" t="n"/>
+      <c r="DD22" s="41" t="n"/>
+      <c r="DE22" s="41" t="n"/>
+      <c r="DF22" s="41" t="n"/>
+      <c r="DG22" s="41" t="n"/>
+      <c r="DH22" s="41" t="n"/>
+      <c r="DI22" s="41" t="n"/>
+      <c r="DJ22" s="41" t="n"/>
+      <c r="DK22" s="41" t="n"/>
+      <c r="DL22" s="41" t="n"/>
+      <c r="DM22" s="41" t="n"/>
+      <c r="DN22" s="41" t="n"/>
+      <c r="DO22" s="41" t="n"/>
+      <c r="DP22" s="41" t="n"/>
+      <c r="DQ22" s="41" t="n"/>
+      <c r="DR22" s="41" t="n"/>
+      <c r="DS22" s="41" t="n"/>
+      <c r="DT22" s="41" t="n"/>
+      <c r="DU22" s="41" t="n"/>
+      <c r="DV22" s="41" t="n"/>
+      <c r="DW22" s="41" t="n"/>
+      <c r="DX22" s="41" t="n"/>
+      <c r="DY22" s="41" t="n"/>
+      <c r="DZ22" s="41" t="n"/>
+      <c r="EA22" s="41" t="n"/>
+      <c r="EB22" s="41" t="n"/>
+      <c r="EC22" s="41" t="n"/>
+      <c r="ED22" s="41" t="n"/>
+      <c r="EE22" s="41" t="n"/>
+      <c r="EF22" s="41" t="n"/>
+      <c r="EG22" s="41" t="n"/>
+      <c r="EH22" s="41" t="n"/>
+      <c r="EI22" s="41" t="n"/>
+      <c r="EJ22" s="41" t="n"/>
+      <c r="EK22" s="41" t="n"/>
+      <c r="EL22" s="41" t="n"/>
+      <c r="EM22" s="41" t="n"/>
+      <c r="EN22" s="41" t="n"/>
+      <c r="EO22" s="41" t="n"/>
+      <c r="EP22" s="41" t="n"/>
+      <c r="EQ22" s="41" t="n"/>
+      <c r="ER22" s="41" t="n"/>
+      <c r="ES22" s="41" t="n"/>
+      <c r="ET22" s="41" t="n"/>
+      <c r="EU22" s="41" t="n"/>
+      <c r="EV22" s="41" t="n"/>
+      <c r="EW22" s="41" t="n"/>
+      <c r="EX22" s="41" t="n"/>
+      <c r="EY22" s="41" t="n"/>
+      <c r="EZ22" s="41" t="n"/>
+      <c r="FA22" s="41" t="n"/>
+      <c r="FB22" s="41" t="n"/>
+      <c r="FC22" s="41" t="n"/>
+      <c r="FD22" s="41" t="n"/>
+      <c r="FE22" s="41" t="n"/>
+      <c r="FF22" s="41" t="n"/>
+      <c r="FG22" s="41" t="n"/>
+      <c r="FH22" s="41" t="n"/>
+      <c r="FI22" s="41" t="n"/>
+      <c r="FJ22" s="41" t="n"/>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="42">
-      <c r="A23" s="81" t="n"/>
-      <c r="B23" s="81" t="n"/>
-      <c r="C23" s="81" t="n"/>
-      <c r="D23" s="81" t="n"/>
-      <c r="E23" s="81" t="n"/>
-      <c r="F23" s="81" t="n"/>
-      <c r="G23" s="81" t="n"/>
-      <c r="H23" s="81" t="n"/>
-      <c r="I23" s="81" t="n"/>
-      <c r="J23" s="81" t="n"/>
-      <c r="K23" s="81" t="n"/>
-      <c r="L23" s="81" t="n"/>
-      <c r="M23" s="81" t="n"/>
-      <c r="N23" s="81" t="n"/>
-      <c r="O23" s="81" t="n"/>
-      <c r="P23" s="81" t="n"/>
-      <c r="Q23" s="81" t="n"/>
-      <c r="R23" s="81" t="n"/>
-      <c r="S23" s="81" t="n"/>
-      <c r="T23" s="81" t="n"/>
-      <c r="U23" s="81" t="n"/>
-      <c r="V23" s="81" t="n"/>
-      <c r="W23" s="81" t="n"/>
-      <c r="X23" s="81" t="n"/>
-      <c r="Y23" s="81" t="n"/>
-      <c r="Z23" s="81" t="n"/>
-      <c r="AA23" s="81" t="n"/>
-      <c r="AB23" s="81" t="n"/>
-      <c r="AC23" s="81" t="n"/>
-      <c r="AD23" s="81" t="n"/>
-      <c r="AE23" s="81" t="n"/>
-      <c r="AF23" s="81" t="n"/>
-      <c r="AG23" s="81" t="n"/>
-      <c r="AH23" s="81" t="n"/>
-      <c r="AI23" s="81" t="n"/>
-      <c r="AJ23" s="81" t="n"/>
-      <c r="AK23" s="81" t="n"/>
-      <c r="AL23" s="81" t="n"/>
-      <c r="AM23" s="81" t="n"/>
-      <c r="AN23" s="81" t="n"/>
-      <c r="AO23" s="81" t="n"/>
-      <c r="AP23" s="81" t="n"/>
-      <c r="AQ23" s="81" t="n"/>
-      <c r="AR23" s="81" t="n"/>
-      <c r="AS23" s="81" t="n"/>
-      <c r="AT23" s="81" t="n"/>
-      <c r="AU23" s="81" t="n"/>
-      <c r="AV23" s="81" t="n"/>
-      <c r="AW23" s="81" t="n"/>
-      <c r="AX23" s="81" t="n"/>
-      <c r="AY23" s="81" t="n"/>
-      <c r="AZ23" s="81" t="n"/>
-      <c r="BA23" s="81" t="n"/>
-      <c r="BB23" s="81" t="n"/>
-      <c r="BC23" s="81" t="n"/>
-      <c r="BD23" s="81" t="n"/>
-      <c r="BE23" s="81" t="n"/>
-      <c r="BF23" s="81" t="n"/>
-      <c r="BG23" s="81" t="n"/>
-      <c r="BH23" s="81" t="n"/>
-      <c r="BI23" s="81" t="n"/>
-      <c r="BJ23" s="81" t="n"/>
-      <c r="BK23" s="81" t="n"/>
-      <c r="BL23" s="81" t="n"/>
-      <c r="BM23" s="81" t="n"/>
-      <c r="BN23" s="81" t="n"/>
-      <c r="BO23" s="81" t="n"/>
-      <c r="BP23" s="81" t="n"/>
-      <c r="BQ23" s="81" t="n"/>
-      <c r="BR23" s="81" t="n"/>
-      <c r="BS23" s="81" t="n"/>
-      <c r="BT23" s="81" t="n"/>
-      <c r="BU23" s="81" t="n"/>
-      <c r="BV23" s="81" t="n"/>
-      <c r="BW23" s="81" t="n"/>
-      <c r="BX23" s="81" t="n"/>
-      <c r="BY23" s="81" t="n"/>
-      <c r="BZ23" s="81" t="n"/>
-      <c r="CA23" s="81" t="n"/>
-      <c r="CB23" s="81" t="n"/>
-      <c r="CC23" s="81" t="n"/>
-      <c r="CD23" s="81" t="n"/>
-      <c r="CE23" s="81" t="n"/>
-      <c r="CF23" s="81" t="n"/>
-      <c r="CG23" s="81" t="n"/>
-      <c r="CH23" s="81" t="n"/>
-      <c r="CI23" s="81" t="n"/>
-      <c r="CJ23" s="81" t="n"/>
-      <c r="CK23" s="81" t="n"/>
-      <c r="CL23" s="81" t="n"/>
-      <c r="CM23" s="81" t="n"/>
-      <c r="CN23" s="81" t="n"/>
-      <c r="CO23" s="81" t="n"/>
-      <c r="CP23" s="81" t="n"/>
-      <c r="CQ23" s="81" t="n"/>
-      <c r="CR23" s="81" t="n"/>
-      <c r="CS23" s="81" t="n"/>
-      <c r="CT23" s="81" t="n"/>
-      <c r="CU23" s="81" t="n"/>
-      <c r="CV23" s="81" t="n"/>
-      <c r="CW23" s="81" t="n"/>
-      <c r="CX23" s="81" t="n"/>
-      <c r="CY23" s="81" t="n"/>
-      <c r="CZ23" s="81" t="n"/>
-      <c r="DA23" s="81" t="n"/>
-      <c r="DB23" s="81" t="n"/>
-      <c r="DC23" s="81" t="n"/>
-      <c r="DD23" s="81" t="n"/>
-      <c r="DE23" s="81" t="n"/>
-      <c r="DF23" s="81" t="n"/>
-      <c r="DG23" s="81" t="n"/>
-      <c r="DH23" s="81" t="n"/>
-      <c r="DI23" s="81" t="n"/>
-      <c r="DJ23" s="81" t="n"/>
-      <c r="DK23" s="81" t="n"/>
-      <c r="DL23" s="81" t="n"/>
-      <c r="DM23" s="81" t="n"/>
-      <c r="DN23" s="81" t="n"/>
-      <c r="DO23" s="81" t="n"/>
-      <c r="DP23" s="81" t="n"/>
-      <c r="DQ23" s="81" t="n"/>
-      <c r="DR23" s="81" t="n"/>
-      <c r="DS23" s="81" t="n"/>
-      <c r="DT23" s="81" t="n"/>
-      <c r="DU23" s="81" t="n"/>
-      <c r="DV23" s="81" t="n"/>
-      <c r="DW23" s="81" t="n"/>
-      <c r="DX23" s="81" t="n"/>
-      <c r="DY23" s="81" t="n"/>
-      <c r="DZ23" s="81" t="n"/>
-      <c r="EA23" s="81" t="n"/>
-      <c r="EB23" s="81" t="n"/>
-      <c r="EC23" s="81" t="n"/>
-      <c r="ED23" s="81" t="n"/>
-      <c r="EE23" s="81" t="n"/>
-      <c r="EF23" s="81" t="n"/>
-      <c r="EG23" s="81" t="n"/>
-      <c r="EH23" s="81" t="n"/>
-      <c r="EI23" s="81" t="n"/>
-      <c r="EJ23" s="81" t="n"/>
-      <c r="EK23" s="81" t="n"/>
-      <c r="EL23" s="81" t="n"/>
-      <c r="EM23" s="81" t="n"/>
-      <c r="EN23" s="81" t="n"/>
-      <c r="EO23" s="81" t="n"/>
-      <c r="EP23" s="81" t="n"/>
-      <c r="EQ23" s="81" t="n"/>
-      <c r="ER23" s="81" t="n"/>
-      <c r="ES23" s="81" t="n"/>
-      <c r="ET23" s="81" t="n"/>
-      <c r="EU23" s="81" t="n"/>
-      <c r="EV23" s="81" t="n"/>
-      <c r="EW23" s="81" t="n"/>
-      <c r="EX23" s="81" t="n"/>
-      <c r="EY23" s="81" t="n"/>
-      <c r="EZ23" s="81" t="n"/>
-      <c r="FA23" s="81" t="n"/>
-      <c r="FB23" s="81" t="n"/>
-      <c r="FC23" s="81" t="n"/>
-      <c r="FD23" s="81" t="n"/>
-      <c r="FE23" s="81" t="n"/>
-      <c r="FF23" s="81" t="n"/>
-      <c r="FG23" s="81" t="n"/>
-      <c r="FH23" s="81" t="n"/>
-      <c r="FI23" s="81" t="n"/>
-      <c r="FJ23" s="81" t="n"/>
+      <c r="A23" s="41" t="n"/>
+      <c r="B23" s="41" t="n"/>
+      <c r="C23" s="41" t="n"/>
+      <c r="D23" s="41" t="n"/>
+      <c r="E23" s="41" t="n"/>
+      <c r="F23" s="41" t="n"/>
+      <c r="G23" s="41" t="n"/>
+      <c r="H23" s="41" t="n"/>
+      <c r="I23" s="41" t="n"/>
+      <c r="J23" s="41" t="n"/>
+      <c r="K23" s="41" t="n"/>
+      <c r="L23" s="41" t="n"/>
+      <c r="M23" s="41" t="n"/>
+      <c r="N23" s="41" t="n"/>
+      <c r="O23" s="41" t="n"/>
+      <c r="P23" s="41" t="n"/>
+      <c r="Q23" s="41" t="n"/>
+      <c r="R23" s="41" t="n"/>
+      <c r="S23" s="41" t="n"/>
+      <c r="T23" s="41" t="n"/>
+      <c r="U23" s="41" t="n"/>
+      <c r="V23" s="41" t="n"/>
+      <c r="W23" s="41" t="n"/>
+      <c r="X23" s="41" t="n"/>
+      <c r="Y23" s="41" t="n"/>
+      <c r="Z23" s="41" t="n"/>
+      <c r="AA23" s="41" t="n"/>
+      <c r="AB23" s="41" t="n"/>
+      <c r="AC23" s="41" t="n"/>
+      <c r="AD23" s="41" t="n"/>
+      <c r="AE23" s="41" t="n"/>
+      <c r="AF23" s="41" t="n"/>
+      <c r="AG23" s="41" t="n"/>
+      <c r="AH23" s="41" t="n"/>
+      <c r="AI23" s="41" t="n"/>
+      <c r="AJ23" s="41" t="n"/>
+      <c r="AK23" s="41" t="n"/>
+      <c r="AL23" s="41" t="n"/>
+      <c r="AM23" s="41" t="n"/>
+      <c r="AN23" s="41" t="n"/>
+      <c r="AO23" s="41" t="n"/>
+      <c r="AP23" s="41" t="n"/>
+      <c r="AQ23" s="41" t="n"/>
+      <c r="AR23" s="41" t="n"/>
+      <c r="AS23" s="41" t="n"/>
+      <c r="AT23" s="41" t="n"/>
+      <c r="AU23" s="41" t="n"/>
+      <c r="AV23" s="41" t="n"/>
+      <c r="AW23" s="41" t="n"/>
+      <c r="AX23" s="41" t="n"/>
+      <c r="AY23" s="41" t="n"/>
+      <c r="AZ23" s="41" t="n"/>
+      <c r="BA23" s="41" t="n"/>
+      <c r="BB23" s="41" t="n"/>
+      <c r="BC23" s="41" t="n"/>
+      <c r="BD23" s="41" t="n"/>
+      <c r="BE23" s="41" t="n"/>
+      <c r="BF23" s="41" t="n"/>
+      <c r="BG23" s="41" t="n"/>
+      <c r="BH23" s="41" t="n"/>
+      <c r="BI23" s="41" t="n"/>
+      <c r="BJ23" s="41" t="n"/>
+      <c r="BK23" s="41" t="n"/>
+      <c r="BL23" s="41" t="n"/>
+      <c r="BM23" s="41" t="n"/>
+      <c r="BN23" s="41" t="n"/>
+      <c r="BO23" s="41" t="n"/>
+      <c r="BP23" s="41" t="n"/>
+      <c r="BQ23" s="41" t="n"/>
+      <c r="BR23" s="41" t="n"/>
+      <c r="BS23" s="41" t="n"/>
+      <c r="BT23" s="41" t="n"/>
+      <c r="BU23" s="41" t="n"/>
+      <c r="BV23" s="41" t="n"/>
+      <c r="BW23" s="41" t="n"/>
+      <c r="BX23" s="41" t="n"/>
+      <c r="BY23" s="41" t="n"/>
+      <c r="BZ23" s="41" t="n"/>
+      <c r="CA23" s="41" t="n"/>
+      <c r="CB23" s="41" t="n"/>
+      <c r="CC23" s="41" t="n"/>
+      <c r="CD23" s="41" t="n"/>
+      <c r="CE23" s="41" t="n"/>
+      <c r="CF23" s="41" t="n"/>
+      <c r="CG23" s="41" t="n"/>
+      <c r="CH23" s="41" t="n"/>
+      <c r="CI23" s="41" t="n"/>
+      <c r="CJ23" s="41" t="n"/>
+      <c r="CK23" s="41" t="n"/>
+      <c r="CL23" s="41" t="n"/>
+      <c r="CM23" s="41" t="n"/>
+      <c r="CN23" s="41" t="n"/>
+      <c r="CO23" s="41" t="n"/>
+      <c r="CP23" s="41" t="n"/>
+      <c r="CQ23" s="41" t="n"/>
+      <c r="CR23" s="41" t="n"/>
+      <c r="CS23" s="41" t="n"/>
+      <c r="CT23" s="41" t="n"/>
+      <c r="CU23" s="41" t="n"/>
+      <c r="CV23" s="41" t="n"/>
+      <c r="CW23" s="41" t="n"/>
+      <c r="CX23" s="41" t="n"/>
+      <c r="CY23" s="41" t="n"/>
+      <c r="CZ23" s="41" t="n"/>
+      <c r="DA23" s="41" t="n"/>
+      <c r="DB23" s="41" t="n"/>
+      <c r="DC23" s="41" t="n"/>
+      <c r="DD23" s="41" t="n"/>
+      <c r="DE23" s="41" t="n"/>
+      <c r="DF23" s="41" t="n"/>
+      <c r="DG23" s="41" t="n"/>
+      <c r="DH23" s="41" t="n"/>
+      <c r="DI23" s="41" t="n"/>
+      <c r="DJ23" s="41" t="n"/>
+      <c r="DK23" s="41" t="n"/>
+      <c r="DL23" s="41" t="n"/>
+      <c r="DM23" s="41" t="n"/>
+      <c r="DN23" s="41" t="n"/>
+      <c r="DO23" s="41" t="n"/>
+      <c r="DP23" s="41" t="n"/>
+      <c r="DQ23" s="41" t="n"/>
+      <c r="DR23" s="41" t="n"/>
+      <c r="DS23" s="41" t="n"/>
+      <c r="DT23" s="41" t="n"/>
+      <c r="DU23" s="41" t="n"/>
+      <c r="DV23" s="41" t="n"/>
+      <c r="DW23" s="41" t="n"/>
+      <c r="DX23" s="41" t="n"/>
+      <c r="DY23" s="41" t="n"/>
+      <c r="DZ23" s="41" t="n"/>
+      <c r="EA23" s="41" t="n"/>
+      <c r="EB23" s="41" t="n"/>
+      <c r="EC23" s="41" t="n"/>
+      <c r="ED23" s="41" t="n"/>
+      <c r="EE23" s="41" t="n"/>
+      <c r="EF23" s="41" t="n"/>
+      <c r="EG23" s="41" t="n"/>
+      <c r="EH23" s="41" t="n"/>
+      <c r="EI23" s="41" t="n"/>
+      <c r="EJ23" s="41" t="n"/>
+      <c r="EK23" s="41" t="n"/>
+      <c r="EL23" s="41" t="n"/>
+      <c r="EM23" s="41" t="n"/>
+      <c r="EN23" s="41" t="n"/>
+      <c r="EO23" s="41" t="n"/>
+      <c r="EP23" s="41" t="n"/>
+      <c r="EQ23" s="41" t="n"/>
+      <c r="ER23" s="41" t="n"/>
+      <c r="ES23" s="41" t="n"/>
+      <c r="ET23" s="41" t="n"/>
+      <c r="EU23" s="41" t="n"/>
+      <c r="EV23" s="41" t="n"/>
+      <c r="EW23" s="41" t="n"/>
+      <c r="EX23" s="41" t="n"/>
+      <c r="EY23" s="41" t="n"/>
+      <c r="EZ23" s="41" t="n"/>
+      <c r="FA23" s="41" t="n"/>
+      <c r="FB23" s="41" t="n"/>
+      <c r="FC23" s="41" t="n"/>
+      <c r="FD23" s="41" t="n"/>
+      <c r="FE23" s="41" t="n"/>
+      <c r="FF23" s="41" t="n"/>
+      <c r="FG23" s="41" t="n"/>
+      <c r="FH23" s="41" t="n"/>
+      <c r="FI23" s="41" t="n"/>
+      <c r="FJ23" s="41" t="n"/>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="42">
-      <c r="A24" s="81" t="n"/>
-      <c r="B24" s="81" t="n"/>
-      <c r="C24" s="81" t="n"/>
-      <c r="D24" s="81" t="n"/>
-      <c r="E24" s="81" t="n"/>
-      <c r="F24" s="81" t="n"/>
-      <c r="G24" s="81" t="n"/>
-      <c r="H24" s="81" t="n"/>
-      <c r="I24" s="81" t="n"/>
-      <c r="J24" s="81" t="n"/>
-      <c r="K24" s="81" t="n"/>
-      <c r="L24" s="81" t="n"/>
-      <c r="M24" s="81" t="n"/>
-      <c r="N24" s="81" t="n"/>
-      <c r="O24" s="81" t="n"/>
-      <c r="P24" s="81" t="n"/>
-      <c r="Q24" s="81" t="n"/>
-      <c r="R24" s="81" t="n"/>
-      <c r="S24" s="81" t="n"/>
-      <c r="T24" s="81" t="n"/>
-      <c r="U24" s="81" t="n"/>
-      <c r="V24" s="81" t="n"/>
-      <c r="W24" s="81" t="n"/>
-      <c r="X24" s="81" t="n"/>
-      <c r="Y24" s="81" t="n"/>
-      <c r="Z24" s="81" t="n"/>
-      <c r="AA24" s="81" t="n"/>
-      <c r="AB24" s="81" t="n"/>
-      <c r="AC24" s="81" t="n"/>
-      <c r="AD24" s="81" t="n"/>
-      <c r="AE24" s="81" t="n"/>
-      <c r="AF24" s="81" t="n"/>
-      <c r="AG24" s="81" t="n"/>
-      <c r="AH24" s="81" t="n"/>
-      <c r="AI24" s="81" t="n"/>
-      <c r="AJ24" s="81" t="n"/>
-      <c r="AK24" s="81" t="n"/>
-      <c r="AL24" s="81" t="n"/>
-      <c r="AM24" s="81" t="n"/>
-      <c r="AN24" s="81" t="n"/>
-      <c r="AO24" s="81" t="n"/>
-      <c r="AP24" s="81" t="n"/>
-      <c r="AQ24" s="81" t="n"/>
-      <c r="AR24" s="81" t="n"/>
-      <c r="AS24" s="81" t="n"/>
-      <c r="AT24" s="81" t="n"/>
-      <c r="AU24" s="81" t="n"/>
-      <c r="AV24" s="81" t="n"/>
-      <c r="AW24" s="81" t="n"/>
-      <c r="AX24" s="81" t="n"/>
-      <c r="AY24" s="81" t="n"/>
-      <c r="AZ24" s="81" t="n"/>
-      <c r="BA24" s="81" t="n"/>
-      <c r="BB24" s="81" t="n"/>
-      <c r="BC24" s="81" t="n"/>
-      <c r="BD24" s="81" t="n"/>
-      <c r="BE24" s="81" t="n"/>
-      <c r="BF24" s="81" t="n"/>
-      <c r="BG24" s="81" t="n"/>
-      <c r="BH24" s="81" t="n"/>
-      <c r="BI24" s="81" t="n"/>
-      <c r="BJ24" s="81" t="n"/>
-      <c r="BK24" s="81" t="n"/>
-      <c r="BL24" s="81" t="n"/>
-      <c r="BM24" s="81" t="n"/>
-      <c r="BN24" s="81" t="n"/>
-      <c r="BO24" s="81" t="n"/>
-      <c r="BP24" s="81" t="n"/>
-      <c r="BQ24" s="81" t="n"/>
-      <c r="BR24" s="81" t="n"/>
-      <c r="BS24" s="81" t="n"/>
-      <c r="BT24" s="81" t="n"/>
-      <c r="BU24" s="81" t="n"/>
-      <c r="BV24" s="81" t="n"/>
-      <c r="BW24" s="81" t="n"/>
-      <c r="BX24" s="81" t="n"/>
-      <c r="BY24" s="81" t="n"/>
-      <c r="BZ24" s="81" t="n"/>
-      <c r="CA24" s="81" t="n"/>
-      <c r="CB24" s="81" t="n"/>
-      <c r="CC24" s="81" t="n"/>
-      <c r="CD24" s="81" t="n"/>
-      <c r="CE24" s="81" t="n"/>
-      <c r="CF24" s="81" t="n"/>
-      <c r="CG24" s="81" t="n"/>
-      <c r="CH24" s="81" t="n"/>
-      <c r="CI24" s="81" t="n"/>
-      <c r="CJ24" s="81" t="n"/>
-      <c r="CK24" s="81" t="n"/>
-      <c r="CL24" s="81" t="n"/>
-      <c r="CM24" s="81" t="n"/>
-      <c r="CN24" s="81" t="n"/>
-      <c r="CO24" s="81" t="n"/>
-      <c r="CP24" s="81" t="n"/>
-      <c r="CQ24" s="81" t="n"/>
-      <c r="CR24" s="81" t="n"/>
-      <c r="CS24" s="81" t="n"/>
-      <c r="CT24" s="81" t="n"/>
-      <c r="CU24" s="81" t="n"/>
-      <c r="CV24" s="81" t="n"/>
-      <c r="CW24" s="81" t="n"/>
-      <c r="CX24" s="81" t="n"/>
-      <c r="CY24" s="81" t="n"/>
-      <c r="CZ24" s="81" t="n"/>
-      <c r="DA24" s="81" t="n"/>
-      <c r="DB24" s="81" t="n"/>
-      <c r="DC24" s="81" t="n"/>
-      <c r="DD24" s="81" t="n"/>
-      <c r="DE24" s="81" t="n"/>
-      <c r="DF24" s="81" t="n"/>
-      <c r="DG24" s="81" t="n"/>
-      <c r="DH24" s="81" t="n"/>
-      <c r="DI24" s="81" t="n"/>
-      <c r="DJ24" s="81" t="n"/>
-      <c r="DK24" s="81" t="n"/>
-      <c r="DL24" s="81" t="n"/>
-      <c r="DM24" s="81" t="n"/>
-      <c r="DN24" s="81" t="n"/>
-      <c r="DO24" s="81" t="n"/>
-      <c r="DP24" s="81" t="n"/>
-      <c r="DQ24" s="81" t="n"/>
-      <c r="DR24" s="81" t="n"/>
-      <c r="DS24" s="81" t="n"/>
-      <c r="DT24" s="81" t="n"/>
-      <c r="DU24" s="81" t="n"/>
-      <c r="DV24" s="81" t="n"/>
-      <c r="DW24" s="81" t="n"/>
-      <c r="DX24" s="81" t="n"/>
-      <c r="DY24" s="81" t="n"/>
-      <c r="DZ24" s="81" t="n"/>
-      <c r="EA24" s="81" t="n"/>
-      <c r="EB24" s="81" t="n"/>
-      <c r="EC24" s="81" t="n"/>
-      <c r="ED24" s="81" t="n"/>
-      <c r="EE24" s="81" t="n"/>
-      <c r="EF24" s="81" t="n"/>
-      <c r="EG24" s="81" t="n"/>
-      <c r="EH24" s="81" t="n"/>
-      <c r="EI24" s="81" t="n"/>
-      <c r="EJ24" s="81" t="n"/>
-      <c r="EK24" s="81" t="n"/>
-      <c r="EL24" s="81" t="n"/>
-      <c r="EM24" s="81" t="n"/>
-      <c r="EN24" s="81" t="n"/>
-      <c r="EO24" s="81" t="n"/>
-      <c r="EP24" s="81" t="n"/>
-      <c r="EQ24" s="81" t="n"/>
-      <c r="ER24" s="81" t="n"/>
-      <c r="ES24" s="81" t="n"/>
-      <c r="ET24" s="81" t="n"/>
-      <c r="EU24" s="81" t="n"/>
-      <c r="EV24" s="81" t="n"/>
-      <c r="EW24" s="81" t="n"/>
-      <c r="EX24" s="81" t="n"/>
-      <c r="EY24" s="81" t="n"/>
-      <c r="EZ24" s="81" t="n"/>
-      <c r="FA24" s="81" t="n"/>
-      <c r="FB24" s="81" t="n"/>
-      <c r="FC24" s="81" t="n"/>
-      <c r="FD24" s="81" t="n"/>
-      <c r="FE24" s="81" t="n"/>
-      <c r="FF24" s="81" t="n"/>
-      <c r="FG24" s="81" t="n"/>
-      <c r="FH24" s="81" t="n"/>
-      <c r="FI24" s="81" t="n"/>
-      <c r="FJ24" s="81" t="n"/>
+      <c r="A24" s="41" t="n"/>
+      <c r="B24" s="41" t="n"/>
+      <c r="C24" s="41" t="n"/>
+      <c r="D24" s="41" t="n"/>
+      <c r="E24" s="41" t="n"/>
+      <c r="F24" s="41" t="n"/>
+      <c r="G24" s="41" t="n"/>
+      <c r="H24" s="41" t="n"/>
+      <c r="I24" s="41" t="n"/>
+      <c r="J24" s="41" t="n"/>
+      <c r="K24" s="41" t="n"/>
+      <c r="L24" s="41" t="n"/>
+      <c r="M24" s="41" t="n"/>
+      <c r="N24" s="41" t="n"/>
+      <c r="O24" s="41" t="n"/>
+      <c r="P24" s="41" t="n"/>
+      <c r="Q24" s="41" t="n"/>
+      <c r="R24" s="41" t="n"/>
+      <c r="S24" s="41" t="n"/>
+      <c r="T24" s="41" t="n"/>
+      <c r="U24" s="41" t="n"/>
+      <c r="V24" s="41" t="n"/>
+      <c r="W24" s="41" t="n"/>
+      <c r="X24" s="41" t="n"/>
+      <c r="Y24" s="41" t="n"/>
+      <c r="Z24" s="41" t="n"/>
+      <c r="AA24" s="41" t="n"/>
+      <c r="AB24" s="41" t="n"/>
+      <c r="AC24" s="41" t="n"/>
+      <c r="AD24" s="41" t="n"/>
+      <c r="AE24" s="41" t="n"/>
+      <c r="AF24" s="41" t="n"/>
+      <c r="AG24" s="41" t="n"/>
+      <c r="AH24" s="41" t="n"/>
+      <c r="AI24" s="41" t="n"/>
+      <c r="AJ24" s="41" t="n"/>
+      <c r="AK24" s="41" t="n"/>
+      <c r="AL24" s="41" t="n"/>
+      <c r="AM24" s="41" t="n"/>
+      <c r="AN24" s="41" t="n"/>
+      <c r="AO24" s="41" t="n"/>
+      <c r="AP24" s="41" t="n"/>
+      <c r="AQ24" s="41" t="n"/>
+      <c r="AR24" s="41" t="n"/>
+      <c r="AS24" s="41" t="n"/>
+      <c r="AT24" s="41" t="n"/>
+      <c r="AU24" s="41" t="n"/>
+      <c r="AV24" s="41" t="n"/>
+      <c r="AW24" s="41" t="n"/>
+      <c r="AX24" s="41" t="n"/>
+      <c r="AY24" s="41" t="n"/>
+      <c r="AZ24" s="41" t="n"/>
+      <c r="BA24" s="41" t="n"/>
+      <c r="BB24" s="41" t="n"/>
+      <c r="BC24" s="41" t="n"/>
+      <c r="BD24" s="41" t="n"/>
+      <c r="BE24" s="41" t="n"/>
+      <c r="BF24" s="41" t="n"/>
+      <c r="BG24" s="41" t="n"/>
+      <c r="BH24" s="41" t="n"/>
+      <c r="BI24" s="41" t="n"/>
+      <c r="BJ24" s="41" t="n"/>
+      <c r="BK24" s="41" t="n"/>
+      <c r="BL24" s="41" t="n"/>
+      <c r="BM24" s="41" t="n"/>
+      <c r="BN24" s="41" t="n"/>
+      <c r="BO24" s="41" t="n"/>
+      <c r="BP24" s="41" t="n"/>
+      <c r="BQ24" s="41" t="n"/>
+      <c r="BR24" s="41" t="n"/>
+      <c r="BS24" s="41" t="n"/>
+      <c r="BT24" s="41" t="n"/>
+      <c r="BU24" s="41" t="n"/>
+      <c r="BV24" s="41" t="n"/>
+      <c r="BW24" s="41" t="n"/>
+      <c r="BX24" s="41" t="n"/>
+      <c r="BY24" s="41" t="n"/>
+      <c r="BZ24" s="41" t="n"/>
+      <c r="CA24" s="41" t="n"/>
+      <c r="CB24" s="41" t="n"/>
+      <c r="CC24" s="41" t="n"/>
+      <c r="CD24" s="41" t="n"/>
+      <c r="CE24" s="41" t="n"/>
+      <c r="CF24" s="41" t="n"/>
+      <c r="CG24" s="41" t="n"/>
+      <c r="CH24" s="41" t="n"/>
+      <c r="CI24" s="41" t="n"/>
+      <c r="CJ24" s="41" t="n"/>
+      <c r="CK24" s="41" t="n"/>
+      <c r="CL24" s="41" t="n"/>
+      <c r="CM24" s="41" t="n"/>
+      <c r="CN24" s="41" t="n"/>
+      <c r="CO24" s="41" t="n"/>
+      <c r="CP24" s="41" t="n"/>
+      <c r="CQ24" s="41" t="n"/>
+      <c r="CR24" s="41" t="n"/>
+      <c r="CS24" s="41" t="n"/>
+      <c r="CT24" s="41" t="n"/>
+      <c r="CU24" s="41" t="n"/>
+      <c r="CV24" s="41" t="n"/>
+      <c r="CW24" s="41" t="n"/>
+      <c r="CX24" s="41" t="n"/>
+      <c r="CY24" s="41" t="n"/>
+      <c r="CZ24" s="41" t="n"/>
+      <c r="DA24" s="41" t="n"/>
+      <c r="DB24" s="41" t="n"/>
+      <c r="DC24" s="41" t="n"/>
+      <c r="DD24" s="41" t="n"/>
+      <c r="DE24" s="41" t="n"/>
+      <c r="DF24" s="41" t="n"/>
+      <c r="DG24" s="41" t="n"/>
+      <c r="DH24" s="41" t="n"/>
+      <c r="DI24" s="41" t="n"/>
+      <c r="DJ24" s="41" t="n"/>
+      <c r="DK24" s="41" t="n"/>
+      <c r="DL24" s="41" t="n"/>
+      <c r="DM24" s="41" t="n"/>
+      <c r="DN24" s="41" t="n"/>
+      <c r="DO24" s="41" t="n"/>
+      <c r="DP24" s="41" t="n"/>
+      <c r="DQ24" s="41" t="n"/>
+      <c r="DR24" s="41" t="n"/>
+      <c r="DS24" s="41" t="n"/>
+      <c r="DT24" s="41" t="n"/>
+      <c r="DU24" s="41" t="n"/>
+      <c r="DV24" s="41" t="n"/>
+      <c r="DW24" s="41" t="n"/>
+      <c r="DX24" s="41" t="n"/>
+      <c r="DY24" s="41" t="n"/>
+      <c r="DZ24" s="41" t="n"/>
+      <c r="EA24" s="41" t="n"/>
+      <c r="EB24" s="41" t="n"/>
+      <c r="EC24" s="41" t="n"/>
+      <c r="ED24" s="41" t="n"/>
+      <c r="EE24" s="41" t="n"/>
+      <c r="EF24" s="41" t="n"/>
+      <c r="EG24" s="41" t="n"/>
+      <c r="EH24" s="41" t="n"/>
+      <c r="EI24" s="41" t="n"/>
+      <c r="EJ24" s="41" t="n"/>
+      <c r="EK24" s="41" t="n"/>
+      <c r="EL24" s="41" t="n"/>
+      <c r="EM24" s="41" t="n"/>
+      <c r="EN24" s="41" t="n"/>
+      <c r="EO24" s="41" t="n"/>
+      <c r="EP24" s="41" t="n"/>
+      <c r="EQ24" s="41" t="n"/>
+      <c r="ER24" s="41" t="n"/>
+      <c r="ES24" s="41" t="n"/>
+      <c r="ET24" s="41" t="n"/>
+      <c r="EU24" s="41" t="n"/>
+      <c r="EV24" s="41" t="n"/>
+      <c r="EW24" s="41" t="n"/>
+      <c r="EX24" s="41" t="n"/>
+      <c r="EY24" s="41" t="n"/>
+      <c r="EZ24" s="41" t="n"/>
+      <c r="FA24" s="41" t="n"/>
+      <c r="FB24" s="41" t="n"/>
+      <c r="FC24" s="41" t="n"/>
+      <c r="FD24" s="41" t="n"/>
+      <c r="FE24" s="41" t="n"/>
+      <c r="FF24" s="41" t="n"/>
+      <c r="FG24" s="41" t="n"/>
+      <c r="FH24" s="41" t="n"/>
+      <c r="FI24" s="41" t="n"/>
+      <c r="FJ24" s="41" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -9231,10 +9231,10 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:FJ6 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -166,6 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -279,9 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -770,13 +770,15 @@
   </sheetPr>
   <dimension ref="A1:FX24"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="FD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:FJ6"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="FJ4" activeCellId="0" sqref="A4:FJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="18.47" customWidth="1" style="41" min="7" max="7"/>
+    <col width="12.96" customWidth="1" style="41" min="1" max="6"/>
+    <col width="12.96" customWidth="1" style="41" min="7" max="7"/>
+    <col width="12.96" customWidth="1" style="41" min="8" max="166"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" s="42">
@@ -3827,7 +3829,7 @@
       </c>
       <c r="AD4" s="80" t="inlineStr">
         <is>
-          <t>30/04/2021</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="AE4" s="80" t="inlineStr">
@@ -4660,7 +4662,7 @@
       </c>
       <c r="AD5" s="80" t="inlineStr">
         <is>
-          <t>30/04/2021</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="AE5" s="80" t="inlineStr">
@@ -5245,7 +5247,7 @@
       </c>
       <c r="EQ5" s="80" t="inlineStr">
         <is>
-          <t>15/04/2021</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="ER5" s="80" t="inlineStr">
@@ -5493,7 +5495,7 @@
       </c>
       <c r="AD6" s="80" t="inlineStr">
         <is>
-          <t>19/04/2021</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="AE6" s="80" t="inlineStr">
@@ -6078,7 +6080,7 @@
       </c>
       <c r="EQ6" s="80" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>2021-03-23</t>
         </is>
       </c>
       <c r="ER6" s="80" t="inlineStr">
@@ -6108,7 +6110,7 @@
       </c>
       <c r="EW6" s="80" t="inlineStr">
         <is>
-          <t>25/01/2021</t>
+          <t>2021-01-25</t>
         </is>
       </c>
       <c r="EX6" s="80" t="inlineStr">
@@ -6366,7 +6368,6 @@
       <c r="D8" s="41" t="n"/>
       <c r="E8" s="41" t="n"/>
       <c r="F8" s="41" t="n"/>
-      <c r="G8" s="41" t="n"/>
       <c r="H8" s="41" t="n"/>
       <c r="I8" s="41" t="n"/>
       <c r="J8" s="41" t="n"/>
@@ -6534,7 +6535,6 @@
       <c r="D9" s="41" t="n"/>
       <c r="E9" s="41" t="n"/>
       <c r="F9" s="41" t="n"/>
-      <c r="G9" s="41" t="n"/>
       <c r="H9" s="41" t="n"/>
       <c r="I9" s="41" t="n"/>
       <c r="J9" s="41" t="n"/>
@@ -6702,7 +6702,6 @@
       <c r="D10" s="41" t="n"/>
       <c r="E10" s="41" t="n"/>
       <c r="F10" s="41" t="n"/>
-      <c r="G10" s="41" t="n"/>
       <c r="H10" s="41" t="n"/>
       <c r="I10" s="41" t="n"/>
       <c r="J10" s="41" t="n"/>
@@ -6870,7 +6869,6 @@
       <c r="D11" s="41" t="n"/>
       <c r="E11" s="41" t="n"/>
       <c r="F11" s="41" t="n"/>
-      <c r="G11" s="41" t="n"/>
       <c r="H11" s="41" t="n"/>
       <c r="I11" s="41" t="n"/>
       <c r="J11" s="41" t="n"/>
@@ -7038,7 +7036,6 @@
       <c r="D12" s="41" t="n"/>
       <c r="E12" s="41" t="n"/>
       <c r="F12" s="41" t="n"/>
-      <c r="G12" s="41" t="n"/>
       <c r="H12" s="41" t="n"/>
       <c r="I12" s="41" t="n"/>
       <c r="J12" s="41" t="n"/>
@@ -7206,7 +7203,6 @@
       <c r="D13" s="41" t="n"/>
       <c r="E13" s="41" t="n"/>
       <c r="F13" s="41" t="n"/>
-      <c r="G13" s="41" t="n"/>
       <c r="H13" s="41" t="n"/>
       <c r="I13" s="41" t="n"/>
       <c r="J13" s="41" t="n"/>
@@ -7374,7 +7370,6 @@
       <c r="D14" s="41" t="n"/>
       <c r="E14" s="41" t="n"/>
       <c r="F14" s="41" t="n"/>
-      <c r="G14" s="41" t="n"/>
       <c r="H14" s="41" t="n"/>
       <c r="I14" s="41" t="n"/>
       <c r="J14" s="41" t="n"/>
@@ -7542,7 +7537,6 @@
       <c r="D15" s="41" t="n"/>
       <c r="E15" s="41" t="n"/>
       <c r="F15" s="41" t="n"/>
-      <c r="G15" s="41" t="n"/>
       <c r="H15" s="41" t="n"/>
       <c r="I15" s="41" t="n"/>
       <c r="J15" s="41" t="n"/>
@@ -7710,7 +7704,6 @@
       <c r="D16" s="41" t="n"/>
       <c r="E16" s="41" t="n"/>
       <c r="F16" s="41" t="n"/>
-      <c r="G16" s="41" t="n"/>
       <c r="H16" s="41" t="n"/>
       <c r="I16" s="41" t="n"/>
       <c r="J16" s="41" t="n"/>
@@ -7878,7 +7871,6 @@
       <c r="D17" s="41" t="n"/>
       <c r="E17" s="41" t="n"/>
       <c r="F17" s="41" t="n"/>
-      <c r="G17" s="41" t="n"/>
       <c r="H17" s="41" t="n"/>
       <c r="I17" s="41" t="n"/>
       <c r="J17" s="41" t="n"/>
@@ -8046,7 +8038,6 @@
       <c r="D18" s="41" t="n"/>
       <c r="E18" s="41" t="n"/>
       <c r="F18" s="41" t="n"/>
-      <c r="G18" s="41" t="n"/>
       <c r="H18" s="41" t="n"/>
       <c r="I18" s="41" t="n"/>
       <c r="J18" s="41" t="n"/>
@@ -8214,7 +8205,6 @@
       <c r="D19" s="41" t="n"/>
       <c r="E19" s="41" t="n"/>
       <c r="F19" s="41" t="n"/>
-      <c r="G19" s="41" t="n"/>
       <c r="H19" s="41" t="n"/>
       <c r="I19" s="41" t="n"/>
       <c r="J19" s="41" t="n"/>
@@ -8382,7 +8372,6 @@
       <c r="D20" s="41" t="n"/>
       <c r="E20" s="41" t="n"/>
       <c r="F20" s="41" t="n"/>
-      <c r="G20" s="41" t="n"/>
       <c r="H20" s="41" t="n"/>
       <c r="I20" s="41" t="n"/>
       <c r="J20" s="41" t="n"/>
@@ -8550,7 +8539,6 @@
       <c r="D21" s="41" t="n"/>
       <c r="E21" s="41" t="n"/>
       <c r="F21" s="41" t="n"/>
-      <c r="G21" s="41" t="n"/>
       <c r="H21" s="41" t="n"/>
       <c r="I21" s="41" t="n"/>
       <c r="J21" s="41" t="n"/>
@@ -8718,7 +8706,6 @@
       <c r="D22" s="41" t="n"/>
       <c r="E22" s="41" t="n"/>
       <c r="F22" s="41" t="n"/>
-      <c r="G22" s="41" t="n"/>
       <c r="H22" s="41" t="n"/>
       <c r="I22" s="41" t="n"/>
       <c r="J22" s="41" t="n"/>
@@ -8886,7 +8873,6 @@
       <c r="D23" s="41" t="n"/>
       <c r="E23" s="41" t="n"/>
       <c r="F23" s="41" t="n"/>
-      <c r="G23" s="41" t="n"/>
       <c r="H23" s="41" t="n"/>
       <c r="I23" s="41" t="n"/>
       <c r="J23" s="41" t="n"/>
@@ -9054,7 +9040,6 @@
       <c r="D24" s="41" t="n"/>
       <c r="E24" s="41" t="n"/>
       <c r="F24" s="41" t="n"/>
-      <c r="G24" s="41" t="n"/>
       <c r="H24" s="41" t="n"/>
       <c r="I24" s="41" t="n"/>
       <c r="J24" s="41" t="n"/>
@@ -9234,7 +9219,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:FJ6 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -768,17 +768,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:FX24"/>
+  <dimension ref="A1:FX7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="FJ4" activeCellId="0" sqref="A4:FJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12.96" customWidth="1" style="41" min="1" max="6"/>
-    <col width="12.96" customWidth="1" style="41" min="7" max="7"/>
-    <col width="12.96" customWidth="1" style="41" min="8" max="166"/>
+    <col width="12.96" customWidth="1" style="41" min="1" max="166"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" s="42">
@@ -4464,27 +4462,27 @@
       </c>
       <c r="FA4" s="80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>98</t>
         </is>
       </c>
       <c r="FB4" s="80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>99</t>
         </is>
       </c>
       <c r="FC4" s="80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="FD4" s="80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="FE4" s="80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="FF4" s="80" t="inlineStr">
@@ -4492,16 +4490,8 @@
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="FG4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FH4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+      <c r="FG4" s="80" t="inlineStr"/>
+      <c r="FH4" s="80" t="inlineStr"/>
       <c r="FI4" s="80" t="inlineStr">
         <is>
           <t>98</t>
@@ -5297,27 +5287,27 @@
       </c>
       <c r="FA5" s="80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>98</t>
         </is>
       </c>
       <c r="FB5" s="80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>99</t>
         </is>
       </c>
       <c r="FC5" s="80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="FD5" s="80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="FE5" s="80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="FF5" s="80" t="inlineStr">
@@ -5325,16 +5315,8 @@
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="FG5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FH5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+      <c r="FG5" s="80" t="inlineStr"/>
+      <c r="FH5" s="80" t="inlineStr"/>
       <c r="FI5" s="80" t="inlineStr">
         <is>
           <t>98</t>
@@ -6130,27 +6112,27 @@
       </c>
       <c r="FA6" s="80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>98</t>
         </is>
       </c>
       <c r="FB6" s="80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>99</t>
         </is>
       </c>
       <c r="FC6" s="80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="FD6" s="80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="FE6" s="80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="FF6" s="80" t="inlineStr">
@@ -6158,16 +6140,8 @@
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="FG6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FH6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+      <c r="FG6" s="80" t="inlineStr"/>
+      <c r="FH6" s="80" t="inlineStr"/>
       <c r="FI6" s="80" t="inlineStr">
         <is>
           <t>98</t>
@@ -6194,3012 +6168,26 @@
       <c r="FX6" s="79" t="n"/>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="42">
-      <c r="A7" s="41" t="n"/>
-      <c r="B7" s="41" t="n"/>
-      <c r="C7" s="41" t="n"/>
-      <c r="D7" s="41" t="n"/>
-      <c r="E7" s="41" t="n"/>
-      <c r="F7" s="41" t="n"/>
       <c r="G7" s="81" t="n"/>
-      <c r="H7" s="41" t="n"/>
-      <c r="I7" s="41" t="n"/>
-      <c r="J7" s="41" t="n"/>
       <c r="K7" s="81" t="n"/>
-      <c r="L7" s="41" t="n"/>
-      <c r="M7" s="41" t="n"/>
-      <c r="N7" s="41" t="n"/>
-      <c r="O7" s="41" t="n"/>
-      <c r="P7" s="41" t="n"/>
-      <c r="Q7" s="41" t="n"/>
-      <c r="R7" s="41" t="n"/>
-      <c r="S7" s="41" t="n"/>
-      <c r="T7" s="41" t="n"/>
-      <c r="U7" s="41" t="n"/>
-      <c r="V7" s="41" t="n"/>
-      <c r="W7" s="41" t="n"/>
-      <c r="X7" s="41" t="n"/>
-      <c r="Y7" s="41" t="n"/>
-      <c r="Z7" s="41" t="n"/>
-      <c r="AA7" s="41" t="n"/>
-      <c r="AB7" s="41" t="n"/>
-      <c r="AC7" s="41" t="n"/>
-      <c r="AD7" s="41" t="n"/>
-      <c r="AE7" s="41" t="n"/>
-      <c r="AF7" s="41" t="n"/>
-      <c r="AG7" s="41" t="n"/>
-      <c r="AH7" s="41" t="n"/>
-      <c r="AI7" s="41" t="n"/>
-      <c r="AJ7" s="41" t="n"/>
-      <c r="AK7" s="41" t="n"/>
-      <c r="AL7" s="41" t="n"/>
-      <c r="AM7" s="41" t="n"/>
-      <c r="AN7" s="41" t="n"/>
-      <c r="AO7" s="41" t="n"/>
-      <c r="AP7" s="41" t="n"/>
-      <c r="AQ7" s="41" t="n"/>
-      <c r="AR7" s="41" t="n"/>
-      <c r="AS7" s="41" t="n"/>
-      <c r="AT7" s="41" t="n"/>
-      <c r="AU7" s="41" t="n"/>
-      <c r="AV7" s="41" t="n"/>
-      <c r="AW7" s="41" t="n"/>
-      <c r="AX7" s="41" t="n"/>
-      <c r="AY7" s="41" t="n"/>
-      <c r="AZ7" s="41" t="n"/>
-      <c r="BA7" s="41" t="n"/>
-      <c r="BB7" s="41" t="n"/>
-      <c r="BC7" s="41" t="n"/>
-      <c r="BD7" s="41" t="n"/>
-      <c r="BE7" s="41" t="n"/>
-      <c r="BF7" s="41" t="n"/>
-      <c r="BG7" s="41" t="n"/>
-      <c r="BH7" s="41" t="n"/>
-      <c r="BI7" s="41" t="n"/>
-      <c r="BJ7" s="41" t="n"/>
-      <c r="BK7" s="41" t="n"/>
-      <c r="BL7" s="41" t="n"/>
-      <c r="BM7" s="41" t="n"/>
-      <c r="BN7" s="41" t="n"/>
-      <c r="BO7" s="41" t="n"/>
-      <c r="BP7" s="41" t="n"/>
-      <c r="BQ7" s="41" t="n"/>
-      <c r="BR7" s="41" t="n"/>
-      <c r="BS7" s="41" t="n"/>
-      <c r="BT7" s="41" t="n"/>
-      <c r="BU7" s="41" t="n"/>
-      <c r="BV7" s="41" t="n"/>
-      <c r="BW7" s="41" t="n"/>
-      <c r="BX7" s="41" t="n"/>
-      <c r="BY7" s="41" t="n"/>
-      <c r="BZ7" s="41" t="n"/>
-      <c r="CA7" s="41" t="n"/>
-      <c r="CB7" s="41" t="n"/>
-      <c r="CC7" s="41" t="n"/>
-      <c r="CD7" s="41" t="n"/>
-      <c r="CE7" s="41" t="n"/>
-      <c r="CF7" s="41" t="n"/>
-      <c r="CG7" s="41" t="n"/>
-      <c r="CH7" s="41" t="n"/>
-      <c r="CI7" s="41" t="n"/>
-      <c r="CJ7" s="41" t="n"/>
-      <c r="CK7" s="41" t="n"/>
-      <c r="CL7" s="41" t="n"/>
-      <c r="CM7" s="41" t="n"/>
-      <c r="CN7" s="41" t="n"/>
-      <c r="CO7" s="41" t="n"/>
-      <c r="CP7" s="41" t="n"/>
-      <c r="CQ7" s="41" t="n"/>
-      <c r="CR7" s="41" t="n"/>
-      <c r="CS7" s="41" t="n"/>
-      <c r="CT7" s="41" t="n"/>
-      <c r="CU7" s="41" t="n"/>
-      <c r="CV7" s="41" t="n"/>
-      <c r="CW7" s="41" t="n"/>
-      <c r="CX7" s="41" t="n"/>
-      <c r="CY7" s="41" t="n"/>
-      <c r="CZ7" s="41" t="n"/>
-      <c r="DA7" s="41" t="n"/>
-      <c r="DB7" s="41" t="n"/>
-      <c r="DC7" s="41" t="n"/>
-      <c r="DD7" s="41" t="n"/>
-      <c r="DE7" s="41" t="n"/>
-      <c r="DF7" s="41" t="n"/>
-      <c r="DG7" s="41" t="n"/>
-      <c r="DH7" s="41" t="n"/>
-      <c r="DI7" s="41" t="n"/>
-      <c r="DJ7" s="41" t="n"/>
-      <c r="DK7" s="41" t="n"/>
-      <c r="DL7" s="41" t="n"/>
-      <c r="DM7" s="41" t="n"/>
-      <c r="DN7" s="41" t="n"/>
-      <c r="DO7" s="41" t="n"/>
-      <c r="DP7" s="41" t="n"/>
-      <c r="DQ7" s="41" t="n"/>
-      <c r="DR7" s="41" t="n"/>
-      <c r="DS7" s="41" t="n"/>
-      <c r="DT7" s="41" t="n"/>
-      <c r="DU7" s="41" t="n"/>
-      <c r="DV7" s="41" t="n"/>
-      <c r="DW7" s="41" t="n"/>
-      <c r="DX7" s="41" t="n"/>
-      <c r="DY7" s="41" t="n"/>
-      <c r="DZ7" s="41" t="n"/>
-      <c r="EA7" s="41" t="n"/>
-      <c r="EB7" s="41" t="n"/>
-      <c r="EC7" s="41" t="n"/>
-      <c r="ED7" s="41" t="n"/>
-      <c r="EE7" s="41" t="n"/>
-      <c r="EF7" s="41" t="n"/>
-      <c r="EG7" s="41" t="n"/>
-      <c r="EH7" s="41" t="n"/>
-      <c r="EI7" s="41" t="n"/>
-      <c r="EJ7" s="41" t="n"/>
-      <c r="EK7" s="41" t="n"/>
-      <c r="EL7" s="41" t="n"/>
-      <c r="EM7" s="41" t="n"/>
-      <c r="EN7" s="41" t="n"/>
-      <c r="EO7" s="41" t="n"/>
-      <c r="EP7" s="41" t="n"/>
-      <c r="EQ7" s="41" t="n"/>
-      <c r="ER7" s="41" t="n"/>
-      <c r="ES7" s="41" t="n"/>
-      <c r="ET7" s="41" t="n"/>
-      <c r="EU7" s="41" t="n"/>
-      <c r="EV7" s="41" t="n"/>
-      <c r="EW7" s="41" t="n"/>
-      <c r="EX7" s="41" t="n"/>
-      <c r="EY7" s="41" t="n"/>
-      <c r="EZ7" s="41" t="n"/>
-      <c r="FA7" s="41" t="n"/>
-      <c r="FB7" s="41" t="n"/>
-      <c r="FC7" s="41" t="n"/>
-      <c r="FD7" s="41" t="n"/>
-      <c r="FE7" s="41" t="n"/>
-      <c r="FF7" s="41" t="n"/>
-      <c r="FG7" s="41" t="n"/>
-      <c r="FH7" s="41" t="n"/>
-      <c r="FI7" s="41" t="n"/>
-      <c r="FJ7" s="41" t="n"/>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="42">
-      <c r="A8" s="41" t="n"/>
-      <c r="B8" s="41" t="n"/>
-      <c r="C8" s="41" t="n"/>
-      <c r="D8" s="41" t="n"/>
-      <c r="E8" s="41" t="n"/>
-      <c r="F8" s="41" t="n"/>
-      <c r="H8" s="41" t="n"/>
-      <c r="I8" s="41" t="n"/>
-      <c r="J8" s="41" t="n"/>
-      <c r="K8" s="41" t="n"/>
-      <c r="L8" s="41" t="n"/>
-      <c r="M8" s="41" t="n"/>
-      <c r="N8" s="41" t="n"/>
-      <c r="O8" s="41" t="n"/>
-      <c r="P8" s="41" t="n"/>
-      <c r="Q8" s="41" t="n"/>
-      <c r="R8" s="41" t="n"/>
-      <c r="S8" s="41" t="n"/>
-      <c r="T8" s="41" t="n"/>
-      <c r="U8" s="41" t="n"/>
-      <c r="V8" s="41" t="n"/>
-      <c r="W8" s="41" t="n"/>
-      <c r="X8" s="41" t="n"/>
-      <c r="Y8" s="41" t="n"/>
-      <c r="Z8" s="41" t="n"/>
-      <c r="AA8" s="41" t="n"/>
-      <c r="AB8" s="41" t="n"/>
-      <c r="AC8" s="41" t="n"/>
-      <c r="AD8" s="41" t="n"/>
-      <c r="AE8" s="41" t="n"/>
-      <c r="AF8" s="41" t="n"/>
-      <c r="AG8" s="41" t="n"/>
-      <c r="AH8" s="41" t="n"/>
-      <c r="AI8" s="41" t="n"/>
-      <c r="AJ8" s="41" t="n"/>
-      <c r="AK8" s="41" t="n"/>
-      <c r="AL8" s="41" t="n"/>
-      <c r="AM8" s="41" t="n"/>
-      <c r="AN8" s="41" t="n"/>
-      <c r="AO8" s="41" t="n"/>
-      <c r="AP8" s="41" t="n"/>
-      <c r="AQ8" s="41" t="n"/>
-      <c r="AR8" s="41" t="n"/>
-      <c r="AS8" s="41" t="n"/>
-      <c r="AT8" s="41" t="n"/>
-      <c r="AU8" s="41" t="n"/>
-      <c r="AV8" s="41" t="n"/>
-      <c r="AW8" s="41" t="n"/>
-      <c r="AX8" s="41" t="n"/>
-      <c r="AY8" s="41" t="n"/>
-      <c r="AZ8" s="41" t="n"/>
-      <c r="BA8" s="41" t="n"/>
-      <c r="BB8" s="41" t="n"/>
-      <c r="BC8" s="41" t="n"/>
-      <c r="BD8" s="41" t="n"/>
-      <c r="BE8" s="41" t="n"/>
-      <c r="BF8" s="41" t="n"/>
-      <c r="BG8" s="41" t="n"/>
-      <c r="BH8" s="41" t="n"/>
-      <c r="BI8" s="41" t="n"/>
-      <c r="BJ8" s="41" t="n"/>
-      <c r="BK8" s="41" t="n"/>
-      <c r="BL8" s="41" t="n"/>
-      <c r="BM8" s="41" t="n"/>
-      <c r="BN8" s="41" t="n"/>
-      <c r="BO8" s="41" t="n"/>
-      <c r="BP8" s="41" t="n"/>
-      <c r="BQ8" s="41" t="n"/>
-      <c r="BR8" s="41" t="n"/>
-      <c r="BS8" s="41" t="n"/>
-      <c r="BT8" s="41" t="n"/>
-      <c r="BU8" s="41" t="n"/>
-      <c r="BV8" s="41" t="n"/>
-      <c r="BW8" s="41" t="n"/>
-      <c r="BX8" s="41" t="n"/>
-      <c r="BY8" s="41" t="n"/>
-      <c r="BZ8" s="41" t="n"/>
-      <c r="CA8" s="41" t="n"/>
-      <c r="CB8" s="41" t="n"/>
-      <c r="CC8" s="41" t="n"/>
-      <c r="CD8" s="41" t="n"/>
-      <c r="CE8" s="41" t="n"/>
-      <c r="CF8" s="41" t="n"/>
-      <c r="CG8" s="41" t="n"/>
-      <c r="CH8" s="41" t="n"/>
-      <c r="CI8" s="41" t="n"/>
-      <c r="CJ8" s="41" t="n"/>
-      <c r="CK8" s="41" t="n"/>
-      <c r="CL8" s="41" t="n"/>
-      <c r="CM8" s="41" t="n"/>
-      <c r="CN8" s="41" t="n"/>
-      <c r="CO8" s="41" t="n"/>
-      <c r="CP8" s="41" t="n"/>
-      <c r="CQ8" s="41" t="n"/>
-      <c r="CR8" s="41" t="n"/>
-      <c r="CS8" s="41" t="n"/>
-      <c r="CT8" s="41" t="n"/>
-      <c r="CU8" s="41" t="n"/>
-      <c r="CV8" s="41" t="n"/>
-      <c r="CW8" s="41" t="n"/>
-      <c r="CX8" s="41" t="n"/>
-      <c r="CY8" s="41" t="n"/>
-      <c r="CZ8" s="41" t="n"/>
-      <c r="DA8" s="41" t="n"/>
-      <c r="DB8" s="41" t="n"/>
-      <c r="DC8" s="41" t="n"/>
-      <c r="DD8" s="41" t="n"/>
-      <c r="DE8" s="41" t="n"/>
-      <c r="DF8" s="41" t="n"/>
-      <c r="DG8" s="41" t="n"/>
-      <c r="DH8" s="41" t="n"/>
-      <c r="DI8" s="41" t="n"/>
-      <c r="DJ8" s="41" t="n"/>
-      <c r="DK8" s="41" t="n"/>
-      <c r="DL8" s="41" t="n"/>
-      <c r="DM8" s="41" t="n"/>
-      <c r="DN8" s="41" t="n"/>
-      <c r="DO8" s="41" t="n"/>
-      <c r="DP8" s="41" t="n"/>
-      <c r="DQ8" s="41" t="n"/>
-      <c r="DR8" s="41" t="n"/>
-      <c r="DS8" s="41" t="n"/>
-      <c r="DT8" s="41" t="n"/>
-      <c r="DU8" s="41" t="n"/>
-      <c r="DV8" s="41" t="n"/>
-      <c r="DW8" s="41" t="n"/>
-      <c r="DX8" s="41" t="n"/>
-      <c r="DY8" s="41" t="n"/>
-      <c r="DZ8" s="41" t="n"/>
-      <c r="EA8" s="41" t="n"/>
-      <c r="EB8" s="41" t="n"/>
-      <c r="EC8" s="41" t="n"/>
-      <c r="ED8" s="41" t="n"/>
-      <c r="EE8" s="41" t="n"/>
-      <c r="EF8" s="41" t="n"/>
-      <c r="EG8" s="41" t="n"/>
-      <c r="EH8" s="41" t="n"/>
-      <c r="EI8" s="41" t="n"/>
-      <c r="EJ8" s="41" t="n"/>
-      <c r="EK8" s="41" t="n"/>
-      <c r="EL8" s="41" t="n"/>
-      <c r="EM8" s="41" t="n"/>
-      <c r="EN8" s="41" t="n"/>
-      <c r="EO8" s="41" t="n"/>
-      <c r="EP8" s="41" t="n"/>
-      <c r="EQ8" s="41" t="n"/>
-      <c r="ER8" s="41" t="n"/>
-      <c r="ES8" s="41" t="n"/>
-      <c r="ET8" s="41" t="n"/>
-      <c r="EU8" s="41" t="n"/>
-      <c r="EV8" s="41" t="n"/>
-      <c r="EW8" s="41" t="n"/>
-      <c r="EX8" s="41" t="n"/>
-      <c r="EY8" s="41" t="n"/>
-      <c r="EZ8" s="41" t="n"/>
-      <c r="FA8" s="41" t="n"/>
-      <c r="FB8" s="41" t="n"/>
-      <c r="FC8" s="41" t="n"/>
-      <c r="FD8" s="41" t="n"/>
-      <c r="FE8" s="41" t="n"/>
-      <c r="FF8" s="41" t="n"/>
-      <c r="FG8" s="41" t="n"/>
-      <c r="FH8" s="41" t="n"/>
-      <c r="FI8" s="41" t="n"/>
-      <c r="FJ8" s="41" t="n"/>
-    </row>
-    <row r="9" ht="13.8" customHeight="1" s="42">
-      <c r="A9" s="41" t="n"/>
-      <c r="B9" s="41" t="n"/>
-      <c r="C9" s="41" t="n"/>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="41" t="n"/>
-      <c r="F9" s="41" t="n"/>
-      <c r="H9" s="41" t="n"/>
-      <c r="I9" s="41" t="n"/>
-      <c r="J9" s="41" t="n"/>
-      <c r="K9" s="41" t="n"/>
-      <c r="L9" s="41" t="n"/>
-      <c r="M9" s="41" t="n"/>
-      <c r="N9" s="41" t="n"/>
-      <c r="O9" s="41" t="n"/>
-      <c r="P9" s="41" t="n"/>
-      <c r="Q9" s="41" t="n"/>
-      <c r="R9" s="41" t="n"/>
-      <c r="S9" s="41" t="n"/>
-      <c r="T9" s="41" t="n"/>
-      <c r="U9" s="41" t="n"/>
-      <c r="V9" s="41" t="n"/>
-      <c r="W9" s="41" t="n"/>
-      <c r="X9" s="41" t="n"/>
-      <c r="Y9" s="41" t="n"/>
-      <c r="Z9" s="41" t="n"/>
-      <c r="AA9" s="41" t="n"/>
-      <c r="AB9" s="41" t="n"/>
-      <c r="AC9" s="41" t="n"/>
-      <c r="AD9" s="41" t="n"/>
-      <c r="AE9" s="41" t="n"/>
-      <c r="AF9" s="41" t="n"/>
-      <c r="AG9" s="41" t="n"/>
-      <c r="AH9" s="41" t="n"/>
-      <c r="AI9" s="41" t="n"/>
-      <c r="AJ9" s="41" t="n"/>
-      <c r="AK9" s="41" t="n"/>
-      <c r="AL9" s="41" t="n"/>
-      <c r="AM9" s="41" t="n"/>
-      <c r="AN9" s="41" t="n"/>
-      <c r="AO9" s="41" t="n"/>
-      <c r="AP9" s="41" t="n"/>
-      <c r="AQ9" s="41" t="n"/>
-      <c r="AR9" s="41" t="n"/>
-      <c r="AS9" s="41" t="n"/>
-      <c r="AT9" s="41" t="n"/>
-      <c r="AU9" s="41" t="n"/>
-      <c r="AV9" s="41" t="n"/>
-      <c r="AW9" s="41" t="n"/>
-      <c r="AX9" s="41" t="n"/>
-      <c r="AY9" s="41" t="n"/>
-      <c r="AZ9" s="41" t="n"/>
-      <c r="BA9" s="41" t="n"/>
-      <c r="BB9" s="41" t="n"/>
-      <c r="BC9" s="41" t="n"/>
-      <c r="BD9" s="41" t="n"/>
-      <c r="BE9" s="41" t="n"/>
-      <c r="BF9" s="41" t="n"/>
-      <c r="BG9" s="41" t="n"/>
-      <c r="BH9" s="41" t="n"/>
-      <c r="BI9" s="41" t="n"/>
-      <c r="BJ9" s="41" t="n"/>
-      <c r="BK9" s="41" t="n"/>
-      <c r="BL9" s="41" t="n"/>
-      <c r="BM9" s="41" t="n"/>
-      <c r="BN9" s="41" t="n"/>
-      <c r="BO9" s="41" t="n"/>
-      <c r="BP9" s="41" t="n"/>
-      <c r="BQ9" s="41" t="n"/>
-      <c r="BR9" s="41" t="n"/>
-      <c r="BS9" s="41" t="n"/>
-      <c r="BT9" s="41" t="n"/>
-      <c r="BU9" s="41" t="n"/>
-      <c r="BV9" s="41" t="n"/>
-      <c r="BW9" s="41" t="n"/>
-      <c r="BX9" s="41" t="n"/>
-      <c r="BY9" s="41" t="n"/>
-      <c r="BZ9" s="41" t="n"/>
-      <c r="CA9" s="41" t="n"/>
-      <c r="CB9" s="41" t="n"/>
-      <c r="CC9" s="41" t="n"/>
-      <c r="CD9" s="41" t="n"/>
-      <c r="CE9" s="41" t="n"/>
-      <c r="CF9" s="41" t="n"/>
-      <c r="CG9" s="41" t="n"/>
-      <c r="CH9" s="41" t="n"/>
-      <c r="CI9" s="41" t="n"/>
-      <c r="CJ9" s="41" t="n"/>
-      <c r="CK9" s="41" t="n"/>
-      <c r="CL9" s="41" t="n"/>
-      <c r="CM9" s="41" t="n"/>
-      <c r="CN9" s="41" t="n"/>
-      <c r="CO9" s="41" t="n"/>
-      <c r="CP9" s="41" t="n"/>
-      <c r="CQ9" s="41" t="n"/>
-      <c r="CR9" s="41" t="n"/>
-      <c r="CS9" s="41" t="n"/>
-      <c r="CT9" s="41" t="n"/>
-      <c r="CU9" s="41" t="n"/>
-      <c r="CV9" s="41" t="n"/>
-      <c r="CW9" s="41" t="n"/>
-      <c r="CX9" s="41" t="n"/>
-      <c r="CY9" s="41" t="n"/>
-      <c r="CZ9" s="41" t="n"/>
-      <c r="DA9" s="41" t="n"/>
-      <c r="DB9" s="41" t="n"/>
-      <c r="DC9" s="41" t="n"/>
-      <c r="DD9" s="41" t="n"/>
-      <c r="DE9" s="41" t="n"/>
-      <c r="DF9" s="41" t="n"/>
-      <c r="DG9" s="41" t="n"/>
-      <c r="DH9" s="41" t="n"/>
-      <c r="DI9" s="41" t="n"/>
-      <c r="DJ9" s="41" t="n"/>
-      <c r="DK9" s="41" t="n"/>
-      <c r="DL9" s="41" t="n"/>
-      <c r="DM9" s="41" t="n"/>
-      <c r="DN9" s="41" t="n"/>
-      <c r="DO9" s="41" t="n"/>
-      <c r="DP9" s="41" t="n"/>
-      <c r="DQ9" s="41" t="n"/>
-      <c r="DR9" s="41" t="n"/>
-      <c r="DS9" s="41" t="n"/>
-      <c r="DT9" s="41" t="n"/>
-      <c r="DU9" s="41" t="n"/>
-      <c r="DV9" s="41" t="n"/>
-      <c r="DW9" s="41" t="n"/>
-      <c r="DX9" s="41" t="n"/>
-      <c r="DY9" s="41" t="n"/>
-      <c r="DZ9" s="41" t="n"/>
-      <c r="EA9" s="41" t="n"/>
-      <c r="EB9" s="41" t="n"/>
-      <c r="EC9" s="41" t="n"/>
-      <c r="ED9" s="41" t="n"/>
-      <c r="EE9" s="41" t="n"/>
-      <c r="EF9" s="41" t="n"/>
-      <c r="EG9" s="41" t="n"/>
-      <c r="EH9" s="41" t="n"/>
-      <c r="EI9" s="41" t="n"/>
-      <c r="EJ9" s="41" t="n"/>
-      <c r="EK9" s="41" t="n"/>
-      <c r="EL9" s="41" t="n"/>
-      <c r="EM9" s="41" t="n"/>
-      <c r="EN9" s="41" t="n"/>
-      <c r="EO9" s="41" t="n"/>
-      <c r="EP9" s="41" t="n"/>
-      <c r="EQ9" s="41" t="n"/>
-      <c r="ER9" s="41" t="n"/>
-      <c r="ES9" s="41" t="n"/>
-      <c r="ET9" s="41" t="n"/>
-      <c r="EU9" s="41" t="n"/>
-      <c r="EV9" s="41" t="n"/>
-      <c r="EW9" s="41" t="n"/>
-      <c r="EX9" s="41" t="n"/>
-      <c r="EY9" s="41" t="n"/>
-      <c r="EZ9" s="41" t="n"/>
-      <c r="FA9" s="41" t="n"/>
-      <c r="FB9" s="41" t="n"/>
-      <c r="FC9" s="41" t="n"/>
-      <c r="FD9" s="41" t="n"/>
-      <c r="FE9" s="41" t="n"/>
-      <c r="FF9" s="41" t="n"/>
-      <c r="FG9" s="41" t="n"/>
-      <c r="FH9" s="41" t="n"/>
-      <c r="FI9" s="41" t="n"/>
-      <c r="FJ9" s="41" t="n"/>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="42">
-      <c r="A10" s="41" t="n"/>
-      <c r="B10" s="41" t="n"/>
-      <c r="C10" s="41" t="n"/>
-      <c r="D10" s="41" t="n"/>
-      <c r="E10" s="41" t="n"/>
-      <c r="F10" s="41" t="n"/>
-      <c r="H10" s="41" t="n"/>
-      <c r="I10" s="41" t="n"/>
-      <c r="J10" s="41" t="n"/>
-      <c r="K10" s="41" t="n"/>
-      <c r="L10" s="41" t="n"/>
-      <c r="M10" s="41" t="n"/>
-      <c r="N10" s="41" t="n"/>
-      <c r="O10" s="41" t="n"/>
-      <c r="P10" s="41" t="n"/>
-      <c r="Q10" s="41" t="n"/>
-      <c r="R10" s="41" t="n"/>
-      <c r="S10" s="41" t="n"/>
-      <c r="T10" s="41" t="n"/>
-      <c r="U10" s="41" t="n"/>
-      <c r="V10" s="41" t="n"/>
-      <c r="W10" s="41" t="n"/>
-      <c r="X10" s="41" t="n"/>
-      <c r="Y10" s="41" t="n"/>
-      <c r="Z10" s="41" t="n"/>
-      <c r="AA10" s="41" t="n"/>
-      <c r="AB10" s="41" t="n"/>
-      <c r="AC10" s="41" t="n"/>
-      <c r="AD10" s="41" t="n"/>
-      <c r="AE10" s="41" t="n"/>
-      <c r="AF10" s="41" t="n"/>
-      <c r="AG10" s="41" t="n"/>
-      <c r="AH10" s="41" t="n"/>
-      <c r="AI10" s="41" t="n"/>
-      <c r="AJ10" s="41" t="n"/>
-      <c r="AK10" s="41" t="n"/>
-      <c r="AL10" s="41" t="n"/>
-      <c r="AM10" s="41" t="n"/>
-      <c r="AN10" s="41" t="n"/>
-      <c r="AO10" s="41" t="n"/>
-      <c r="AP10" s="41" t="n"/>
-      <c r="AQ10" s="41" t="n"/>
-      <c r="AR10" s="41" t="n"/>
-      <c r="AS10" s="41" t="n"/>
-      <c r="AT10" s="41" t="n"/>
-      <c r="AU10" s="41" t="n"/>
-      <c r="AV10" s="41" t="n"/>
-      <c r="AW10" s="41" t="n"/>
-      <c r="AX10" s="41" t="n"/>
-      <c r="AY10" s="41" t="n"/>
-      <c r="AZ10" s="41" t="n"/>
-      <c r="BA10" s="41" t="n"/>
-      <c r="BB10" s="41" t="n"/>
-      <c r="BC10" s="41" t="n"/>
-      <c r="BD10" s="41" t="n"/>
-      <c r="BE10" s="41" t="n"/>
-      <c r="BF10" s="41" t="n"/>
-      <c r="BG10" s="41" t="n"/>
-      <c r="BH10" s="41" t="n"/>
-      <c r="BI10" s="41" t="n"/>
-      <c r="BJ10" s="41" t="n"/>
-      <c r="BK10" s="41" t="n"/>
-      <c r="BL10" s="41" t="n"/>
-      <c r="BM10" s="41" t="n"/>
-      <c r="BN10" s="41" t="n"/>
-      <c r="BO10" s="41" t="n"/>
-      <c r="BP10" s="41" t="n"/>
-      <c r="BQ10" s="41" t="n"/>
-      <c r="BR10" s="41" t="n"/>
-      <c r="BS10" s="41" t="n"/>
-      <c r="BT10" s="41" t="n"/>
-      <c r="BU10" s="41" t="n"/>
-      <c r="BV10" s="41" t="n"/>
-      <c r="BW10" s="41" t="n"/>
-      <c r="BX10" s="41" t="n"/>
-      <c r="BY10" s="41" t="n"/>
-      <c r="BZ10" s="41" t="n"/>
-      <c r="CA10" s="41" t="n"/>
-      <c r="CB10" s="41" t="n"/>
-      <c r="CC10" s="41" t="n"/>
-      <c r="CD10" s="41" t="n"/>
-      <c r="CE10" s="41" t="n"/>
-      <c r="CF10" s="41" t="n"/>
-      <c r="CG10" s="41" t="n"/>
-      <c r="CH10" s="41" t="n"/>
-      <c r="CI10" s="41" t="n"/>
-      <c r="CJ10" s="41" t="n"/>
-      <c r="CK10" s="41" t="n"/>
-      <c r="CL10" s="41" t="n"/>
-      <c r="CM10" s="41" t="n"/>
-      <c r="CN10" s="41" t="n"/>
-      <c r="CO10" s="41" t="n"/>
-      <c r="CP10" s="41" t="n"/>
-      <c r="CQ10" s="41" t="n"/>
-      <c r="CR10" s="41" t="n"/>
-      <c r="CS10" s="41" t="n"/>
-      <c r="CT10" s="41" t="n"/>
-      <c r="CU10" s="41" t="n"/>
-      <c r="CV10" s="41" t="n"/>
-      <c r="CW10" s="41" t="n"/>
-      <c r="CX10" s="41" t="n"/>
-      <c r="CY10" s="41" t="n"/>
-      <c r="CZ10" s="41" t="n"/>
-      <c r="DA10" s="41" t="n"/>
-      <c r="DB10" s="41" t="n"/>
-      <c r="DC10" s="41" t="n"/>
-      <c r="DD10" s="41" t="n"/>
-      <c r="DE10" s="41" t="n"/>
-      <c r="DF10" s="41" t="n"/>
-      <c r="DG10" s="41" t="n"/>
-      <c r="DH10" s="41" t="n"/>
-      <c r="DI10" s="41" t="n"/>
-      <c r="DJ10" s="41" t="n"/>
-      <c r="DK10" s="41" t="n"/>
-      <c r="DL10" s="41" t="n"/>
-      <c r="DM10" s="41" t="n"/>
-      <c r="DN10" s="41" t="n"/>
-      <c r="DO10" s="41" t="n"/>
-      <c r="DP10" s="41" t="n"/>
-      <c r="DQ10" s="41" t="n"/>
-      <c r="DR10" s="41" t="n"/>
-      <c r="DS10" s="41" t="n"/>
-      <c r="DT10" s="41" t="n"/>
-      <c r="DU10" s="41" t="n"/>
-      <c r="DV10" s="41" t="n"/>
-      <c r="DW10" s="41" t="n"/>
-      <c r="DX10" s="41" t="n"/>
-      <c r="DY10" s="41" t="n"/>
-      <c r="DZ10" s="41" t="n"/>
-      <c r="EA10" s="41" t="n"/>
-      <c r="EB10" s="41" t="n"/>
-      <c r="EC10" s="41" t="n"/>
-      <c r="ED10" s="41" t="n"/>
-      <c r="EE10" s="41" t="n"/>
-      <c r="EF10" s="41" t="n"/>
-      <c r="EG10" s="41" t="n"/>
-      <c r="EH10" s="41" t="n"/>
-      <c r="EI10" s="41" t="n"/>
-      <c r="EJ10" s="41" t="n"/>
-      <c r="EK10" s="41" t="n"/>
-      <c r="EL10" s="41" t="n"/>
-      <c r="EM10" s="41" t="n"/>
-      <c r="EN10" s="41" t="n"/>
-      <c r="EO10" s="41" t="n"/>
-      <c r="EP10" s="41" t="n"/>
-      <c r="EQ10" s="41" t="n"/>
-      <c r="ER10" s="41" t="n"/>
-      <c r="ES10" s="41" t="n"/>
-      <c r="ET10" s="41" t="n"/>
-      <c r="EU10" s="41" t="n"/>
-      <c r="EV10" s="41" t="n"/>
-      <c r="EW10" s="41" t="n"/>
-      <c r="EX10" s="41" t="n"/>
-      <c r="EY10" s="41" t="n"/>
-      <c r="EZ10" s="41" t="n"/>
-      <c r="FA10" s="41" t="n"/>
-      <c r="FB10" s="41" t="n"/>
-      <c r="FC10" s="41" t="n"/>
-      <c r="FD10" s="41" t="n"/>
-      <c r="FE10" s="41" t="n"/>
-      <c r="FF10" s="41" t="n"/>
-      <c r="FG10" s="41" t="n"/>
-      <c r="FH10" s="41" t="n"/>
-      <c r="FI10" s="41" t="n"/>
-      <c r="FJ10" s="41" t="n"/>
-    </row>
-    <row r="11" ht="13.8" customHeight="1" s="42">
-      <c r="A11" s="41" t="n"/>
-      <c r="B11" s="41" t="n"/>
-      <c r="C11" s="41" t="n"/>
-      <c r="D11" s="41" t="n"/>
-      <c r="E11" s="41" t="n"/>
-      <c r="F11" s="41" t="n"/>
-      <c r="H11" s="41" t="n"/>
-      <c r="I11" s="41" t="n"/>
-      <c r="J11" s="41" t="n"/>
-      <c r="K11" s="41" t="n"/>
-      <c r="L11" s="41" t="n"/>
-      <c r="M11" s="41" t="n"/>
-      <c r="N11" s="41" t="n"/>
-      <c r="O11" s="41" t="n"/>
-      <c r="P11" s="41" t="n"/>
-      <c r="Q11" s="41" t="n"/>
-      <c r="R11" s="41" t="n"/>
-      <c r="S11" s="41" t="n"/>
-      <c r="T11" s="41" t="n"/>
-      <c r="U11" s="41" t="n"/>
-      <c r="V11" s="41" t="n"/>
-      <c r="W11" s="41" t="n"/>
-      <c r="X11" s="41" t="n"/>
-      <c r="Y11" s="41" t="n"/>
-      <c r="Z11" s="41" t="n"/>
-      <c r="AA11" s="41" t="n"/>
-      <c r="AB11" s="41" t="n"/>
-      <c r="AC11" s="41" t="n"/>
-      <c r="AD11" s="41" t="n"/>
-      <c r="AE11" s="41" t="n"/>
-      <c r="AF11" s="41" t="n"/>
-      <c r="AG11" s="41" t="n"/>
-      <c r="AH11" s="41" t="n"/>
-      <c r="AI11" s="41" t="n"/>
-      <c r="AJ11" s="41" t="n"/>
-      <c r="AK11" s="41" t="n"/>
-      <c r="AL11" s="41" t="n"/>
-      <c r="AM11" s="41" t="n"/>
-      <c r="AN11" s="41" t="n"/>
-      <c r="AO11" s="41" t="n"/>
-      <c r="AP11" s="41" t="n"/>
-      <c r="AQ11" s="41" t="n"/>
-      <c r="AR11" s="41" t="n"/>
-      <c r="AS11" s="41" t="n"/>
-      <c r="AT11" s="41" t="n"/>
-      <c r="AU11" s="41" t="n"/>
-      <c r="AV11" s="41" t="n"/>
-      <c r="AW11" s="41" t="n"/>
-      <c r="AX11" s="41" t="n"/>
-      <c r="AY11" s="41" t="n"/>
-      <c r="AZ11" s="41" t="n"/>
-      <c r="BA11" s="41" t="n"/>
-      <c r="BB11" s="41" t="n"/>
-      <c r="BC11" s="41" t="n"/>
-      <c r="BD11" s="41" t="n"/>
-      <c r="BE11" s="41" t="n"/>
-      <c r="BF11" s="41" t="n"/>
-      <c r="BG11" s="41" t="n"/>
-      <c r="BH11" s="41" t="n"/>
-      <c r="BI11" s="41" t="n"/>
-      <c r="BJ11" s="41" t="n"/>
-      <c r="BK11" s="41" t="n"/>
-      <c r="BL11" s="41" t="n"/>
-      <c r="BM11" s="41" t="n"/>
-      <c r="BN11" s="41" t="n"/>
-      <c r="BO11" s="41" t="n"/>
-      <c r="BP11" s="41" t="n"/>
-      <c r="BQ11" s="41" t="n"/>
-      <c r="BR11" s="41" t="n"/>
-      <c r="BS11" s="41" t="n"/>
-      <c r="BT11" s="41" t="n"/>
-      <c r="BU11" s="41" t="n"/>
-      <c r="BV11" s="41" t="n"/>
-      <c r="BW11" s="41" t="n"/>
-      <c r="BX11" s="41" t="n"/>
-      <c r="BY11" s="41" t="n"/>
-      <c r="BZ11" s="41" t="n"/>
-      <c r="CA11" s="41" t="n"/>
-      <c r="CB11" s="41" t="n"/>
-      <c r="CC11" s="41" t="n"/>
-      <c r="CD11" s="41" t="n"/>
-      <c r="CE11" s="41" t="n"/>
-      <c r="CF11" s="41" t="n"/>
-      <c r="CG11" s="41" t="n"/>
-      <c r="CH11" s="41" t="n"/>
-      <c r="CI11" s="41" t="n"/>
-      <c r="CJ11" s="41" t="n"/>
-      <c r="CK11" s="41" t="n"/>
-      <c r="CL11" s="41" t="n"/>
-      <c r="CM11" s="41" t="n"/>
-      <c r="CN11" s="41" t="n"/>
-      <c r="CO11" s="41" t="n"/>
-      <c r="CP11" s="41" t="n"/>
-      <c r="CQ11" s="41" t="n"/>
-      <c r="CR11" s="41" t="n"/>
-      <c r="CS11" s="41" t="n"/>
-      <c r="CT11" s="41" t="n"/>
-      <c r="CU11" s="41" t="n"/>
-      <c r="CV11" s="41" t="n"/>
-      <c r="CW11" s="41" t="n"/>
-      <c r="CX11" s="41" t="n"/>
-      <c r="CY11" s="41" t="n"/>
-      <c r="CZ11" s="41" t="n"/>
-      <c r="DA11" s="41" t="n"/>
-      <c r="DB11" s="41" t="n"/>
-      <c r="DC11" s="41" t="n"/>
-      <c r="DD11" s="41" t="n"/>
-      <c r="DE11" s="41" t="n"/>
-      <c r="DF11" s="41" t="n"/>
-      <c r="DG11" s="41" t="n"/>
-      <c r="DH11" s="41" t="n"/>
-      <c r="DI11" s="41" t="n"/>
-      <c r="DJ11" s="41" t="n"/>
-      <c r="DK11" s="41" t="n"/>
-      <c r="DL11" s="41" t="n"/>
-      <c r="DM11" s="41" t="n"/>
-      <c r="DN11" s="41" t="n"/>
-      <c r="DO11" s="41" t="n"/>
-      <c r="DP11" s="41" t="n"/>
-      <c r="DQ11" s="41" t="n"/>
-      <c r="DR11" s="41" t="n"/>
-      <c r="DS11" s="41" t="n"/>
-      <c r="DT11" s="41" t="n"/>
-      <c r="DU11" s="41" t="n"/>
-      <c r="DV11" s="41" t="n"/>
-      <c r="DW11" s="41" t="n"/>
-      <c r="DX11" s="41" t="n"/>
-      <c r="DY11" s="41" t="n"/>
-      <c r="DZ11" s="41" t="n"/>
-      <c r="EA11" s="41" t="n"/>
-      <c r="EB11" s="41" t="n"/>
-      <c r="EC11" s="41" t="n"/>
-      <c r="ED11" s="41" t="n"/>
-      <c r="EE11" s="41" t="n"/>
-      <c r="EF11" s="41" t="n"/>
-      <c r="EG11" s="41" t="n"/>
-      <c r="EH11" s="41" t="n"/>
-      <c r="EI11" s="41" t="n"/>
-      <c r="EJ11" s="41" t="n"/>
-      <c r="EK11" s="41" t="n"/>
-      <c r="EL11" s="41" t="n"/>
-      <c r="EM11" s="41" t="n"/>
-      <c r="EN11" s="41" t="n"/>
-      <c r="EO11" s="41" t="n"/>
-      <c r="EP11" s="41" t="n"/>
-      <c r="EQ11" s="41" t="n"/>
-      <c r="ER11" s="41" t="n"/>
-      <c r="ES11" s="41" t="n"/>
-      <c r="ET11" s="41" t="n"/>
-      <c r="EU11" s="41" t="n"/>
-      <c r="EV11" s="41" t="n"/>
-      <c r="EW11" s="41" t="n"/>
-      <c r="EX11" s="41" t="n"/>
-      <c r="EY11" s="41" t="n"/>
-      <c r="EZ11" s="41" t="n"/>
-      <c r="FA11" s="41" t="n"/>
-      <c r="FB11" s="41" t="n"/>
-      <c r="FC11" s="41" t="n"/>
-      <c r="FD11" s="41" t="n"/>
-      <c r="FE11" s="41" t="n"/>
-      <c r="FF11" s="41" t="n"/>
-      <c r="FG11" s="41" t="n"/>
-      <c r="FH11" s="41" t="n"/>
-      <c r="FI11" s="41" t="n"/>
-      <c r="FJ11" s="41" t="n"/>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" s="42">
-      <c r="A12" s="41" t="n"/>
-      <c r="B12" s="41" t="n"/>
-      <c r="C12" s="41" t="n"/>
-      <c r="D12" s="41" t="n"/>
-      <c r="E12" s="41" t="n"/>
-      <c r="F12" s="41" t="n"/>
-      <c r="H12" s="41" t="n"/>
-      <c r="I12" s="41" t="n"/>
-      <c r="J12" s="41" t="n"/>
-      <c r="K12" s="41" t="n"/>
-      <c r="L12" s="41" t="n"/>
-      <c r="M12" s="41" t="n"/>
-      <c r="N12" s="41" t="n"/>
-      <c r="O12" s="41" t="n"/>
-      <c r="P12" s="41" t="n"/>
-      <c r="Q12" s="41" t="n"/>
-      <c r="R12" s="41" t="n"/>
-      <c r="S12" s="41" t="n"/>
-      <c r="T12" s="41" t="n"/>
-      <c r="U12" s="41" t="n"/>
-      <c r="V12" s="41" t="n"/>
-      <c r="W12" s="41" t="n"/>
-      <c r="X12" s="41" t="n"/>
-      <c r="Y12" s="41" t="n"/>
-      <c r="Z12" s="41" t="n"/>
-      <c r="AA12" s="41" t="n"/>
-      <c r="AB12" s="41" t="n"/>
-      <c r="AC12" s="41" t="n"/>
-      <c r="AD12" s="41" t="n"/>
-      <c r="AE12" s="41" t="n"/>
-      <c r="AF12" s="41" t="n"/>
-      <c r="AG12" s="41" t="n"/>
-      <c r="AH12" s="41" t="n"/>
-      <c r="AI12" s="41" t="n"/>
-      <c r="AJ12" s="41" t="n"/>
-      <c r="AK12" s="41" t="n"/>
-      <c r="AL12" s="41" t="n"/>
-      <c r="AM12" s="41" t="n"/>
-      <c r="AN12" s="41" t="n"/>
-      <c r="AO12" s="41" t="n"/>
-      <c r="AP12" s="41" t="n"/>
-      <c r="AQ12" s="41" t="n"/>
-      <c r="AR12" s="41" t="n"/>
-      <c r="AS12" s="41" t="n"/>
-      <c r="AT12" s="41" t="n"/>
-      <c r="AU12" s="41" t="n"/>
-      <c r="AV12" s="41" t="n"/>
-      <c r="AW12" s="41" t="n"/>
-      <c r="AX12" s="41" t="n"/>
-      <c r="AY12" s="41" t="n"/>
-      <c r="AZ12" s="41" t="n"/>
-      <c r="BA12" s="41" t="n"/>
-      <c r="BB12" s="41" t="n"/>
-      <c r="BC12" s="41" t="n"/>
-      <c r="BD12" s="41" t="n"/>
-      <c r="BE12" s="41" t="n"/>
-      <c r="BF12" s="41" t="n"/>
-      <c r="BG12" s="41" t="n"/>
-      <c r="BH12" s="41" t="n"/>
-      <c r="BI12" s="41" t="n"/>
-      <c r="BJ12" s="41" t="n"/>
-      <c r="BK12" s="41" t="n"/>
-      <c r="BL12" s="41" t="n"/>
-      <c r="BM12" s="41" t="n"/>
-      <c r="BN12" s="41" t="n"/>
-      <c r="BO12" s="41" t="n"/>
-      <c r="BP12" s="41" t="n"/>
-      <c r="BQ12" s="41" t="n"/>
-      <c r="BR12" s="41" t="n"/>
-      <c r="BS12" s="41" t="n"/>
-      <c r="BT12" s="41" t="n"/>
-      <c r="BU12" s="41" t="n"/>
-      <c r="BV12" s="41" t="n"/>
-      <c r="BW12" s="41" t="n"/>
-      <c r="BX12" s="41" t="n"/>
-      <c r="BY12" s="41" t="n"/>
-      <c r="BZ12" s="41" t="n"/>
-      <c r="CA12" s="41" t="n"/>
-      <c r="CB12" s="41" t="n"/>
-      <c r="CC12" s="41" t="n"/>
-      <c r="CD12" s="41" t="n"/>
-      <c r="CE12" s="41" t="n"/>
-      <c r="CF12" s="41" t="n"/>
-      <c r="CG12" s="41" t="n"/>
-      <c r="CH12" s="41" t="n"/>
-      <c r="CI12" s="41" t="n"/>
-      <c r="CJ12" s="41" t="n"/>
-      <c r="CK12" s="41" t="n"/>
-      <c r="CL12" s="41" t="n"/>
-      <c r="CM12" s="41" t="n"/>
-      <c r="CN12" s="41" t="n"/>
-      <c r="CO12" s="41" t="n"/>
-      <c r="CP12" s="41" t="n"/>
-      <c r="CQ12" s="41" t="n"/>
-      <c r="CR12" s="41" t="n"/>
-      <c r="CS12" s="41" t="n"/>
-      <c r="CT12" s="41" t="n"/>
-      <c r="CU12" s="41" t="n"/>
-      <c r="CV12" s="41" t="n"/>
-      <c r="CW12" s="41" t="n"/>
-      <c r="CX12" s="41" t="n"/>
-      <c r="CY12" s="41" t="n"/>
-      <c r="CZ12" s="41" t="n"/>
-      <c r="DA12" s="41" t="n"/>
-      <c r="DB12" s="41" t="n"/>
-      <c r="DC12" s="41" t="n"/>
-      <c r="DD12" s="41" t="n"/>
-      <c r="DE12" s="41" t="n"/>
-      <c r="DF12" s="41" t="n"/>
-      <c r="DG12" s="41" t="n"/>
-      <c r="DH12" s="41" t="n"/>
-      <c r="DI12" s="41" t="n"/>
-      <c r="DJ12" s="41" t="n"/>
-      <c r="DK12" s="41" t="n"/>
-      <c r="DL12" s="41" t="n"/>
-      <c r="DM12" s="41" t="n"/>
-      <c r="DN12" s="41" t="n"/>
-      <c r="DO12" s="41" t="n"/>
-      <c r="DP12" s="41" t="n"/>
-      <c r="DQ12" s="41" t="n"/>
-      <c r="DR12" s="41" t="n"/>
-      <c r="DS12" s="41" t="n"/>
-      <c r="DT12" s="41" t="n"/>
-      <c r="DU12" s="41" t="n"/>
-      <c r="DV12" s="41" t="n"/>
-      <c r="DW12" s="41" t="n"/>
-      <c r="DX12" s="41" t="n"/>
-      <c r="DY12" s="41" t="n"/>
-      <c r="DZ12" s="41" t="n"/>
-      <c r="EA12" s="41" t="n"/>
-      <c r="EB12" s="41" t="n"/>
-      <c r="EC12" s="41" t="n"/>
-      <c r="ED12" s="41" t="n"/>
-      <c r="EE12" s="41" t="n"/>
-      <c r="EF12" s="41" t="n"/>
-      <c r="EG12" s="41" t="n"/>
-      <c r="EH12" s="41" t="n"/>
-      <c r="EI12" s="41" t="n"/>
-      <c r="EJ12" s="41" t="n"/>
-      <c r="EK12" s="41" t="n"/>
-      <c r="EL12" s="41" t="n"/>
-      <c r="EM12" s="41" t="n"/>
-      <c r="EN12" s="41" t="n"/>
-      <c r="EO12" s="41" t="n"/>
-      <c r="EP12" s="41" t="n"/>
-      <c r="EQ12" s="41" t="n"/>
-      <c r="ER12" s="41" t="n"/>
-      <c r="ES12" s="41" t="n"/>
-      <c r="ET12" s="41" t="n"/>
-      <c r="EU12" s="41" t="n"/>
-      <c r="EV12" s="41" t="n"/>
-      <c r="EW12" s="41" t="n"/>
-      <c r="EX12" s="41" t="n"/>
-      <c r="EY12" s="41" t="n"/>
-      <c r="EZ12" s="41" t="n"/>
-      <c r="FA12" s="41" t="n"/>
-      <c r="FB12" s="41" t="n"/>
-      <c r="FC12" s="41" t="n"/>
-      <c r="FD12" s="41" t="n"/>
-      <c r="FE12" s="41" t="n"/>
-      <c r="FF12" s="41" t="n"/>
-      <c r="FG12" s="41" t="n"/>
-      <c r="FH12" s="41" t="n"/>
-      <c r="FI12" s="41" t="n"/>
-      <c r="FJ12" s="41" t="n"/>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="42">
-      <c r="A13" s="41" t="n"/>
-      <c r="B13" s="41" t="n"/>
-      <c r="C13" s="41" t="n"/>
-      <c r="D13" s="41" t="n"/>
-      <c r="E13" s="41" t="n"/>
-      <c r="F13" s="41" t="n"/>
-      <c r="H13" s="41" t="n"/>
-      <c r="I13" s="41" t="n"/>
-      <c r="J13" s="41" t="n"/>
-      <c r="K13" s="41" t="n"/>
-      <c r="L13" s="41" t="n"/>
-      <c r="M13" s="41" t="n"/>
-      <c r="N13" s="41" t="n"/>
-      <c r="O13" s="41" t="n"/>
-      <c r="P13" s="41" t="n"/>
-      <c r="Q13" s="41" t="n"/>
-      <c r="R13" s="41" t="n"/>
-      <c r="S13" s="41" t="n"/>
-      <c r="T13" s="41" t="n"/>
-      <c r="U13" s="41" t="n"/>
-      <c r="V13" s="41" t="n"/>
-      <c r="W13" s="41" t="n"/>
-      <c r="X13" s="41" t="n"/>
-      <c r="Y13" s="41" t="n"/>
-      <c r="Z13" s="41" t="n"/>
-      <c r="AA13" s="41" t="n"/>
-      <c r="AB13" s="41" t="n"/>
-      <c r="AC13" s="41" t="n"/>
-      <c r="AD13" s="41" t="n"/>
-      <c r="AE13" s="41" t="n"/>
-      <c r="AF13" s="41" t="n"/>
-      <c r="AG13" s="41" t="n"/>
-      <c r="AH13" s="41" t="n"/>
-      <c r="AI13" s="41" t="n"/>
-      <c r="AJ13" s="41" t="n"/>
-      <c r="AK13" s="41" t="n"/>
-      <c r="AL13" s="41" t="n"/>
-      <c r="AM13" s="41" t="n"/>
-      <c r="AN13" s="41" t="n"/>
-      <c r="AO13" s="41" t="n"/>
-      <c r="AP13" s="41" t="n"/>
-      <c r="AQ13" s="41" t="n"/>
-      <c r="AR13" s="41" t="n"/>
-      <c r="AS13" s="41" t="n"/>
-      <c r="AT13" s="41" t="n"/>
-      <c r="AU13" s="41" t="n"/>
-      <c r="AV13" s="41" t="n"/>
-      <c r="AW13" s="41" t="n"/>
-      <c r="AX13" s="41" t="n"/>
-      <c r="AY13" s="41" t="n"/>
-      <c r="AZ13" s="41" t="n"/>
-      <c r="BA13" s="41" t="n"/>
-      <c r="BB13" s="41" t="n"/>
-      <c r="BC13" s="41" t="n"/>
-      <c r="BD13" s="41" t="n"/>
-      <c r="BE13" s="41" t="n"/>
-      <c r="BF13" s="41" t="n"/>
-      <c r="BG13" s="41" t="n"/>
-      <c r="BH13" s="41" t="n"/>
-      <c r="BI13" s="41" t="n"/>
-      <c r="BJ13" s="41" t="n"/>
-      <c r="BK13" s="41" t="n"/>
-      <c r="BL13" s="41" t="n"/>
-      <c r="BM13" s="41" t="n"/>
-      <c r="BN13" s="41" t="n"/>
-      <c r="BO13" s="41" t="n"/>
-      <c r="BP13" s="41" t="n"/>
-      <c r="BQ13" s="41" t="n"/>
-      <c r="BR13" s="41" t="n"/>
-      <c r="BS13" s="41" t="n"/>
-      <c r="BT13" s="41" t="n"/>
-      <c r="BU13" s="41" t="n"/>
-      <c r="BV13" s="41" t="n"/>
-      <c r="BW13" s="41" t="n"/>
-      <c r="BX13" s="41" t="n"/>
-      <c r="BY13" s="41" t="n"/>
-      <c r="BZ13" s="41" t="n"/>
-      <c r="CA13" s="41" t="n"/>
-      <c r="CB13" s="41" t="n"/>
-      <c r="CC13" s="41" t="n"/>
-      <c r="CD13" s="41" t="n"/>
-      <c r="CE13" s="41" t="n"/>
-      <c r="CF13" s="41" t="n"/>
-      <c r="CG13" s="41" t="n"/>
-      <c r="CH13" s="41" t="n"/>
-      <c r="CI13" s="41" t="n"/>
-      <c r="CJ13" s="41" t="n"/>
-      <c r="CK13" s="41" t="n"/>
-      <c r="CL13" s="41" t="n"/>
-      <c r="CM13" s="41" t="n"/>
-      <c r="CN13" s="41" t="n"/>
-      <c r="CO13" s="41" t="n"/>
-      <c r="CP13" s="41" t="n"/>
-      <c r="CQ13" s="41" t="n"/>
-      <c r="CR13" s="41" t="n"/>
-      <c r="CS13" s="41" t="n"/>
-      <c r="CT13" s="41" t="n"/>
-      <c r="CU13" s="41" t="n"/>
-      <c r="CV13" s="41" t="n"/>
-      <c r="CW13" s="41" t="n"/>
-      <c r="CX13" s="41" t="n"/>
-      <c r="CY13" s="41" t="n"/>
-      <c r="CZ13" s="41" t="n"/>
-      <c r="DA13" s="41" t="n"/>
-      <c r="DB13" s="41" t="n"/>
-      <c r="DC13" s="41" t="n"/>
-      <c r="DD13" s="41" t="n"/>
-      <c r="DE13" s="41" t="n"/>
-      <c r="DF13" s="41" t="n"/>
-      <c r="DG13" s="41" t="n"/>
-      <c r="DH13" s="41" t="n"/>
-      <c r="DI13" s="41" t="n"/>
-      <c r="DJ13" s="41" t="n"/>
-      <c r="DK13" s="41" t="n"/>
-      <c r="DL13" s="41" t="n"/>
-      <c r="DM13" s="41" t="n"/>
-      <c r="DN13" s="41" t="n"/>
-      <c r="DO13" s="41" t="n"/>
-      <c r="DP13" s="41" t="n"/>
-      <c r="DQ13" s="41" t="n"/>
-      <c r="DR13" s="41" t="n"/>
-      <c r="DS13" s="41" t="n"/>
-      <c r="DT13" s="41" t="n"/>
-      <c r="DU13" s="41" t="n"/>
-      <c r="DV13" s="41" t="n"/>
-      <c r="DW13" s="41" t="n"/>
-      <c r="DX13" s="41" t="n"/>
-      <c r="DY13" s="41" t="n"/>
-      <c r="DZ13" s="41" t="n"/>
-      <c r="EA13" s="41" t="n"/>
-      <c r="EB13" s="41" t="n"/>
-      <c r="EC13" s="41" t="n"/>
-      <c r="ED13" s="41" t="n"/>
-      <c r="EE13" s="41" t="n"/>
-      <c r="EF13" s="41" t="n"/>
-      <c r="EG13" s="41" t="n"/>
-      <c r="EH13" s="41" t="n"/>
-      <c r="EI13" s="41" t="n"/>
-      <c r="EJ13" s="41" t="n"/>
-      <c r="EK13" s="41" t="n"/>
-      <c r="EL13" s="41" t="n"/>
-      <c r="EM13" s="41" t="n"/>
-      <c r="EN13" s="41" t="n"/>
-      <c r="EO13" s="41" t="n"/>
-      <c r="EP13" s="41" t="n"/>
-      <c r="EQ13" s="41" t="n"/>
-      <c r="ER13" s="41" t="n"/>
-      <c r="ES13" s="41" t="n"/>
-      <c r="ET13" s="41" t="n"/>
-      <c r="EU13" s="41" t="n"/>
-      <c r="EV13" s="41" t="n"/>
-      <c r="EW13" s="41" t="n"/>
-      <c r="EX13" s="41" t="n"/>
-      <c r="EY13" s="41" t="n"/>
-      <c r="EZ13" s="41" t="n"/>
-      <c r="FA13" s="41" t="n"/>
-      <c r="FB13" s="41" t="n"/>
-      <c r="FC13" s="41" t="n"/>
-      <c r="FD13" s="41" t="n"/>
-      <c r="FE13" s="41" t="n"/>
-      <c r="FF13" s="41" t="n"/>
-      <c r="FG13" s="41" t="n"/>
-      <c r="FH13" s="41" t="n"/>
-      <c r="FI13" s="41" t="n"/>
-      <c r="FJ13" s="41" t="n"/>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="42">
-      <c r="A14" s="41" t="n"/>
-      <c r="B14" s="41" t="n"/>
-      <c r="C14" s="41" t="n"/>
-      <c r="D14" s="41" t="n"/>
-      <c r="E14" s="41" t="n"/>
-      <c r="F14" s="41" t="n"/>
-      <c r="H14" s="41" t="n"/>
-      <c r="I14" s="41" t="n"/>
-      <c r="J14" s="41" t="n"/>
-      <c r="K14" s="41" t="n"/>
-      <c r="L14" s="41" t="n"/>
-      <c r="M14" s="41" t="n"/>
-      <c r="N14" s="41" t="n"/>
-      <c r="O14" s="41" t="n"/>
-      <c r="P14" s="41" t="n"/>
-      <c r="Q14" s="41" t="n"/>
-      <c r="R14" s="41" t="n"/>
-      <c r="S14" s="41" t="n"/>
-      <c r="T14" s="41" t="n"/>
-      <c r="U14" s="41" t="n"/>
-      <c r="V14" s="41" t="n"/>
-      <c r="W14" s="41" t="n"/>
-      <c r="X14" s="41" t="n"/>
-      <c r="Y14" s="41" t="n"/>
-      <c r="Z14" s="41" t="n"/>
-      <c r="AA14" s="41" t="n"/>
-      <c r="AB14" s="41" t="n"/>
-      <c r="AC14" s="41" t="n"/>
-      <c r="AD14" s="41" t="n"/>
-      <c r="AE14" s="41" t="n"/>
-      <c r="AF14" s="41" t="n"/>
-      <c r="AG14" s="41" t="n"/>
-      <c r="AH14" s="41" t="n"/>
-      <c r="AI14" s="41" t="n"/>
-      <c r="AJ14" s="41" t="n"/>
-      <c r="AK14" s="41" t="n"/>
-      <c r="AL14" s="41" t="n"/>
-      <c r="AM14" s="41" t="n"/>
-      <c r="AN14" s="41" t="n"/>
-      <c r="AO14" s="41" t="n"/>
-      <c r="AP14" s="41" t="n"/>
-      <c r="AQ14" s="41" t="n"/>
-      <c r="AR14" s="41" t="n"/>
-      <c r="AS14" s="41" t="n"/>
-      <c r="AT14" s="41" t="n"/>
-      <c r="AU14" s="41" t="n"/>
-      <c r="AV14" s="41" t="n"/>
-      <c r="AW14" s="41" t="n"/>
-      <c r="AX14" s="41" t="n"/>
-      <c r="AY14" s="41" t="n"/>
-      <c r="AZ14" s="41" t="n"/>
-      <c r="BA14" s="41" t="n"/>
-      <c r="BB14" s="41" t="n"/>
-      <c r="BC14" s="41" t="n"/>
-      <c r="BD14" s="41" t="n"/>
-      <c r="BE14" s="41" t="n"/>
-      <c r="BF14" s="41" t="n"/>
-      <c r="BG14" s="41" t="n"/>
-      <c r="BH14" s="41" t="n"/>
-      <c r="BI14" s="41" t="n"/>
-      <c r="BJ14" s="41" t="n"/>
-      <c r="BK14" s="41" t="n"/>
-      <c r="BL14" s="41" t="n"/>
-      <c r="BM14" s="41" t="n"/>
-      <c r="BN14" s="41" t="n"/>
-      <c r="BO14" s="41" t="n"/>
-      <c r="BP14" s="41" t="n"/>
-      <c r="BQ14" s="41" t="n"/>
-      <c r="BR14" s="41" t="n"/>
-      <c r="BS14" s="41" t="n"/>
-      <c r="BT14" s="41" t="n"/>
-      <c r="BU14" s="41" t="n"/>
-      <c r="BV14" s="41" t="n"/>
-      <c r="BW14" s="41" t="n"/>
-      <c r="BX14" s="41" t="n"/>
-      <c r="BY14" s="41" t="n"/>
-      <c r="BZ14" s="41" t="n"/>
-      <c r="CA14" s="41" t="n"/>
-      <c r="CB14" s="41" t="n"/>
-      <c r="CC14" s="41" t="n"/>
-      <c r="CD14" s="41" t="n"/>
-      <c r="CE14" s="41" t="n"/>
-      <c r="CF14" s="41" t="n"/>
-      <c r="CG14" s="41" t="n"/>
-      <c r="CH14" s="41" t="n"/>
-      <c r="CI14" s="41" t="n"/>
-      <c r="CJ14" s="41" t="n"/>
-      <c r="CK14" s="41" t="n"/>
-      <c r="CL14" s="41" t="n"/>
-      <c r="CM14" s="41" t="n"/>
-      <c r="CN14" s="41" t="n"/>
-      <c r="CO14" s="41" t="n"/>
-      <c r="CP14" s="41" t="n"/>
-      <c r="CQ14" s="41" t="n"/>
-      <c r="CR14" s="41" t="n"/>
-      <c r="CS14" s="41" t="n"/>
-      <c r="CT14" s="41" t="n"/>
-      <c r="CU14" s="41" t="n"/>
-      <c r="CV14" s="41" t="n"/>
-      <c r="CW14" s="41" t="n"/>
-      <c r="CX14" s="41" t="n"/>
-      <c r="CY14" s="41" t="n"/>
-      <c r="CZ14" s="41" t="n"/>
-      <c r="DA14" s="41" t="n"/>
-      <c r="DB14" s="41" t="n"/>
-      <c r="DC14" s="41" t="n"/>
-      <c r="DD14" s="41" t="n"/>
-      <c r="DE14" s="41" t="n"/>
-      <c r="DF14" s="41" t="n"/>
-      <c r="DG14" s="41" t="n"/>
-      <c r="DH14" s="41" t="n"/>
-      <c r="DI14" s="41" t="n"/>
-      <c r="DJ14" s="41" t="n"/>
-      <c r="DK14" s="41" t="n"/>
-      <c r="DL14" s="41" t="n"/>
-      <c r="DM14" s="41" t="n"/>
-      <c r="DN14" s="41" t="n"/>
-      <c r="DO14" s="41" t="n"/>
-      <c r="DP14" s="41" t="n"/>
-      <c r="DQ14" s="41" t="n"/>
-      <c r="DR14" s="41" t="n"/>
-      <c r="DS14" s="41" t="n"/>
-      <c r="DT14" s="41" t="n"/>
-      <c r="DU14" s="41" t="n"/>
-      <c r="DV14" s="41" t="n"/>
-      <c r="DW14" s="41" t="n"/>
-      <c r="DX14" s="41" t="n"/>
-      <c r="DY14" s="41" t="n"/>
-      <c r="DZ14" s="41" t="n"/>
-      <c r="EA14" s="41" t="n"/>
-      <c r="EB14" s="41" t="n"/>
-      <c r="EC14" s="41" t="n"/>
-      <c r="ED14" s="41" t="n"/>
-      <c r="EE14" s="41" t="n"/>
-      <c r="EF14" s="41" t="n"/>
-      <c r="EG14" s="41" t="n"/>
-      <c r="EH14" s="41" t="n"/>
-      <c r="EI14" s="41" t="n"/>
-      <c r="EJ14" s="41" t="n"/>
-      <c r="EK14" s="41" t="n"/>
-      <c r="EL14" s="41" t="n"/>
-      <c r="EM14" s="41" t="n"/>
-      <c r="EN14" s="41" t="n"/>
-      <c r="EO14" s="41" t="n"/>
-      <c r="EP14" s="41" t="n"/>
-      <c r="EQ14" s="41" t="n"/>
-      <c r="ER14" s="41" t="n"/>
-      <c r="ES14" s="41" t="n"/>
-      <c r="ET14" s="41" t="n"/>
-      <c r="EU14" s="41" t="n"/>
-      <c r="EV14" s="41" t="n"/>
-      <c r="EW14" s="41" t="n"/>
-      <c r="EX14" s="41" t="n"/>
-      <c r="EY14" s="41" t="n"/>
-      <c r="EZ14" s="41" t="n"/>
-      <c r="FA14" s="41" t="n"/>
-      <c r="FB14" s="41" t="n"/>
-      <c r="FC14" s="41" t="n"/>
-      <c r="FD14" s="41" t="n"/>
-      <c r="FE14" s="41" t="n"/>
-      <c r="FF14" s="41" t="n"/>
-      <c r="FG14" s="41" t="n"/>
-      <c r="FH14" s="41" t="n"/>
-      <c r="FI14" s="41" t="n"/>
-      <c r="FJ14" s="41" t="n"/>
-    </row>
-    <row r="15" ht="13.8" customHeight="1" s="42">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="41" t="n"/>
-      <c r="C15" s="41" t="n"/>
-      <c r="D15" s="41" t="n"/>
-      <c r="E15" s="41" t="n"/>
-      <c r="F15" s="41" t="n"/>
-      <c r="H15" s="41" t="n"/>
-      <c r="I15" s="41" t="n"/>
-      <c r="J15" s="41" t="n"/>
-      <c r="K15" s="41" t="n"/>
-      <c r="L15" s="41" t="n"/>
-      <c r="M15" s="41" t="n"/>
-      <c r="N15" s="41" t="n"/>
-      <c r="O15" s="41" t="n"/>
-      <c r="P15" s="41" t="n"/>
-      <c r="Q15" s="41" t="n"/>
-      <c r="R15" s="41" t="n"/>
-      <c r="S15" s="41" t="n"/>
-      <c r="T15" s="41" t="n"/>
-      <c r="U15" s="41" t="n"/>
-      <c r="V15" s="41" t="n"/>
-      <c r="W15" s="41" t="n"/>
-      <c r="X15" s="41" t="n"/>
-      <c r="Y15" s="41" t="n"/>
-      <c r="Z15" s="41" t="n"/>
-      <c r="AA15" s="41" t="n"/>
-      <c r="AB15" s="41" t="n"/>
-      <c r="AC15" s="41" t="n"/>
-      <c r="AD15" s="41" t="n"/>
-      <c r="AE15" s="41" t="n"/>
-      <c r="AF15" s="41" t="n"/>
-      <c r="AG15" s="41" t="n"/>
-      <c r="AH15" s="41" t="n"/>
-      <c r="AI15" s="41" t="n"/>
-      <c r="AJ15" s="41" t="n"/>
-      <c r="AK15" s="41" t="n"/>
-      <c r="AL15" s="41" t="n"/>
-      <c r="AM15" s="41" t="n"/>
-      <c r="AN15" s="41" t="n"/>
-      <c r="AO15" s="41" t="n"/>
-      <c r="AP15" s="41" t="n"/>
-      <c r="AQ15" s="41" t="n"/>
-      <c r="AR15" s="41" t="n"/>
-      <c r="AS15" s="41" t="n"/>
-      <c r="AT15" s="41" t="n"/>
-      <c r="AU15" s="41" t="n"/>
-      <c r="AV15" s="41" t="n"/>
-      <c r="AW15" s="41" t="n"/>
-      <c r="AX15" s="41" t="n"/>
-      <c r="AY15" s="41" t="n"/>
-      <c r="AZ15" s="41" t="n"/>
-      <c r="BA15" s="41" t="n"/>
-      <c r="BB15" s="41" t="n"/>
-      <c r="BC15" s="41" t="n"/>
-      <c r="BD15" s="41" t="n"/>
-      <c r="BE15" s="41" t="n"/>
-      <c r="BF15" s="41" t="n"/>
-      <c r="BG15" s="41" t="n"/>
-      <c r="BH15" s="41" t="n"/>
-      <c r="BI15" s="41" t="n"/>
-      <c r="BJ15" s="41" t="n"/>
-      <c r="BK15" s="41" t="n"/>
-      <c r="BL15" s="41" t="n"/>
-      <c r="BM15" s="41" t="n"/>
-      <c r="BN15" s="41" t="n"/>
-      <c r="BO15" s="41" t="n"/>
-      <c r="BP15" s="41" t="n"/>
-      <c r="BQ15" s="41" t="n"/>
-      <c r="BR15" s="41" t="n"/>
-      <c r="BS15" s="41" t="n"/>
-      <c r="BT15" s="41" t="n"/>
-      <c r="BU15" s="41" t="n"/>
-      <c r="BV15" s="41" t="n"/>
-      <c r="BW15" s="41" t="n"/>
-      <c r="BX15" s="41" t="n"/>
-      <c r="BY15" s="41" t="n"/>
-      <c r="BZ15" s="41" t="n"/>
-      <c r="CA15" s="41" t="n"/>
-      <c r="CB15" s="41" t="n"/>
-      <c r="CC15" s="41" t="n"/>
-      <c r="CD15" s="41" t="n"/>
-      <c r="CE15" s="41" t="n"/>
-      <c r="CF15" s="41" t="n"/>
-      <c r="CG15" s="41" t="n"/>
-      <c r="CH15" s="41" t="n"/>
-      <c r="CI15" s="41" t="n"/>
-      <c r="CJ15" s="41" t="n"/>
-      <c r="CK15" s="41" t="n"/>
-      <c r="CL15" s="41" t="n"/>
-      <c r="CM15" s="41" t="n"/>
-      <c r="CN15" s="41" t="n"/>
-      <c r="CO15" s="41" t="n"/>
-      <c r="CP15" s="41" t="n"/>
-      <c r="CQ15" s="41" t="n"/>
-      <c r="CR15" s="41" t="n"/>
-      <c r="CS15" s="41" t="n"/>
-      <c r="CT15" s="41" t="n"/>
-      <c r="CU15" s="41" t="n"/>
-      <c r="CV15" s="41" t="n"/>
-      <c r="CW15" s="41" t="n"/>
-      <c r="CX15" s="41" t="n"/>
-      <c r="CY15" s="41" t="n"/>
-      <c r="CZ15" s="41" t="n"/>
-      <c r="DA15" s="41" t="n"/>
-      <c r="DB15" s="41" t="n"/>
-      <c r="DC15" s="41" t="n"/>
-      <c r="DD15" s="41" t="n"/>
-      <c r="DE15" s="41" t="n"/>
-      <c r="DF15" s="41" t="n"/>
-      <c r="DG15" s="41" t="n"/>
-      <c r="DH15" s="41" t="n"/>
-      <c r="DI15" s="41" t="n"/>
-      <c r="DJ15" s="41" t="n"/>
-      <c r="DK15" s="41" t="n"/>
-      <c r="DL15" s="41" t="n"/>
-      <c r="DM15" s="41" t="n"/>
-      <c r="DN15" s="41" t="n"/>
-      <c r="DO15" s="41" t="n"/>
-      <c r="DP15" s="41" t="n"/>
-      <c r="DQ15" s="41" t="n"/>
-      <c r="DR15" s="41" t="n"/>
-      <c r="DS15" s="41" t="n"/>
-      <c r="DT15" s="41" t="n"/>
-      <c r="DU15" s="41" t="n"/>
-      <c r="DV15" s="41" t="n"/>
-      <c r="DW15" s="41" t="n"/>
-      <c r="DX15" s="41" t="n"/>
-      <c r="DY15" s="41" t="n"/>
-      <c r="DZ15" s="41" t="n"/>
-      <c r="EA15" s="41" t="n"/>
-      <c r="EB15" s="41" t="n"/>
-      <c r="EC15" s="41" t="n"/>
-      <c r="ED15" s="41" t="n"/>
-      <c r="EE15" s="41" t="n"/>
-      <c r="EF15" s="41" t="n"/>
-      <c r="EG15" s="41" t="n"/>
-      <c r="EH15" s="41" t="n"/>
-      <c r="EI15" s="41" t="n"/>
-      <c r="EJ15" s="41" t="n"/>
-      <c r="EK15" s="41" t="n"/>
-      <c r="EL15" s="41" t="n"/>
-      <c r="EM15" s="41" t="n"/>
-      <c r="EN15" s="41" t="n"/>
-      <c r="EO15" s="41" t="n"/>
-      <c r="EP15" s="41" t="n"/>
-      <c r="EQ15" s="41" t="n"/>
-      <c r="ER15" s="41" t="n"/>
-      <c r="ES15" s="41" t="n"/>
-      <c r="ET15" s="41" t="n"/>
-      <c r="EU15" s="41" t="n"/>
-      <c r="EV15" s="41" t="n"/>
-      <c r="EW15" s="41" t="n"/>
-      <c r="EX15" s="41" t="n"/>
-      <c r="EY15" s="41" t="n"/>
-      <c r="EZ15" s="41" t="n"/>
-      <c r="FA15" s="41" t="n"/>
-      <c r="FB15" s="41" t="n"/>
-      <c r="FC15" s="41" t="n"/>
-      <c r="FD15" s="41" t="n"/>
-      <c r="FE15" s="41" t="n"/>
-      <c r="FF15" s="41" t="n"/>
-      <c r="FG15" s="41" t="n"/>
-      <c r="FH15" s="41" t="n"/>
-      <c r="FI15" s="41" t="n"/>
-      <c r="FJ15" s="41" t="n"/>
-    </row>
-    <row r="16" ht="13.8" customHeight="1" s="42">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="41" t="n"/>
-      <c r="C16" s="41" t="n"/>
-      <c r="D16" s="41" t="n"/>
-      <c r="E16" s="41" t="n"/>
-      <c r="F16" s="41" t="n"/>
-      <c r="H16" s="41" t="n"/>
-      <c r="I16" s="41" t="n"/>
-      <c r="J16" s="41" t="n"/>
-      <c r="K16" s="41" t="n"/>
-      <c r="L16" s="41" t="n"/>
-      <c r="M16" s="41" t="n"/>
-      <c r="N16" s="41" t="n"/>
-      <c r="O16" s="41" t="n"/>
-      <c r="P16" s="41" t="n"/>
-      <c r="Q16" s="41" t="n"/>
-      <c r="R16" s="41" t="n"/>
-      <c r="S16" s="41" t="n"/>
-      <c r="T16" s="41" t="n"/>
-      <c r="U16" s="41" t="n"/>
-      <c r="V16" s="41" t="n"/>
-      <c r="W16" s="41" t="n"/>
-      <c r="X16" s="41" t="n"/>
-      <c r="Y16" s="41" t="n"/>
-      <c r="Z16" s="41" t="n"/>
-      <c r="AA16" s="41" t="n"/>
-      <c r="AB16" s="41" t="n"/>
-      <c r="AC16" s="41" t="n"/>
-      <c r="AD16" s="41" t="n"/>
-      <c r="AE16" s="41" t="n"/>
-      <c r="AF16" s="41" t="n"/>
-      <c r="AG16" s="41" t="n"/>
-      <c r="AH16" s="41" t="n"/>
-      <c r="AI16" s="41" t="n"/>
-      <c r="AJ16" s="41" t="n"/>
-      <c r="AK16" s="41" t="n"/>
-      <c r="AL16" s="41" t="n"/>
-      <c r="AM16" s="41" t="n"/>
-      <c r="AN16" s="41" t="n"/>
-      <c r="AO16" s="41" t="n"/>
-      <c r="AP16" s="41" t="n"/>
-      <c r="AQ16" s="41" t="n"/>
-      <c r="AR16" s="41" t="n"/>
-      <c r="AS16" s="41" t="n"/>
-      <c r="AT16" s="41" t="n"/>
-      <c r="AU16" s="41" t="n"/>
-      <c r="AV16" s="41" t="n"/>
-      <c r="AW16" s="41" t="n"/>
-      <c r="AX16" s="41" t="n"/>
-      <c r="AY16" s="41" t="n"/>
-      <c r="AZ16" s="41" t="n"/>
-      <c r="BA16" s="41" t="n"/>
-      <c r="BB16" s="41" t="n"/>
-      <c r="BC16" s="41" t="n"/>
-      <c r="BD16" s="41" t="n"/>
-      <c r="BE16" s="41" t="n"/>
-      <c r="BF16" s="41" t="n"/>
-      <c r="BG16" s="41" t="n"/>
-      <c r="BH16" s="41" t="n"/>
-      <c r="BI16" s="41" t="n"/>
-      <c r="BJ16" s="41" t="n"/>
-      <c r="BK16" s="41" t="n"/>
-      <c r="BL16" s="41" t="n"/>
-      <c r="BM16" s="41" t="n"/>
-      <c r="BN16" s="41" t="n"/>
-      <c r="BO16" s="41" t="n"/>
-      <c r="BP16" s="41" t="n"/>
-      <c r="BQ16" s="41" t="n"/>
-      <c r="BR16" s="41" t="n"/>
-      <c r="BS16" s="41" t="n"/>
-      <c r="BT16" s="41" t="n"/>
-      <c r="BU16" s="41" t="n"/>
-      <c r="BV16" s="41" t="n"/>
-      <c r="BW16" s="41" t="n"/>
-      <c r="BX16" s="41" t="n"/>
-      <c r="BY16" s="41" t="n"/>
-      <c r="BZ16" s="41" t="n"/>
-      <c r="CA16" s="41" t="n"/>
-      <c r="CB16" s="41" t="n"/>
-      <c r="CC16" s="41" t="n"/>
-      <c r="CD16" s="41" t="n"/>
-      <c r="CE16" s="41" t="n"/>
-      <c r="CF16" s="41" t="n"/>
-      <c r="CG16" s="41" t="n"/>
-      <c r="CH16" s="41" t="n"/>
-      <c r="CI16" s="41" t="n"/>
-      <c r="CJ16" s="41" t="n"/>
-      <c r="CK16" s="41" t="n"/>
-      <c r="CL16" s="41" t="n"/>
-      <c r="CM16" s="41" t="n"/>
-      <c r="CN16" s="41" t="n"/>
-      <c r="CO16" s="41" t="n"/>
-      <c r="CP16" s="41" t="n"/>
-      <c r="CQ16" s="41" t="n"/>
-      <c r="CR16" s="41" t="n"/>
-      <c r="CS16" s="41" t="n"/>
-      <c r="CT16" s="41" t="n"/>
-      <c r="CU16" s="41" t="n"/>
-      <c r="CV16" s="41" t="n"/>
-      <c r="CW16" s="41" t="n"/>
-      <c r="CX16" s="41" t="n"/>
-      <c r="CY16" s="41" t="n"/>
-      <c r="CZ16" s="41" t="n"/>
-      <c r="DA16" s="41" t="n"/>
-      <c r="DB16" s="41" t="n"/>
-      <c r="DC16" s="41" t="n"/>
-      <c r="DD16" s="41" t="n"/>
-      <c r="DE16" s="41" t="n"/>
-      <c r="DF16" s="41" t="n"/>
-      <c r="DG16" s="41" t="n"/>
-      <c r="DH16" s="41" t="n"/>
-      <c r="DI16" s="41" t="n"/>
-      <c r="DJ16" s="41" t="n"/>
-      <c r="DK16" s="41" t="n"/>
-      <c r="DL16" s="41" t="n"/>
-      <c r="DM16" s="41" t="n"/>
-      <c r="DN16" s="41" t="n"/>
-      <c r="DO16" s="41" t="n"/>
-      <c r="DP16" s="41" t="n"/>
-      <c r="DQ16" s="41" t="n"/>
-      <c r="DR16" s="41" t="n"/>
-      <c r="DS16" s="41" t="n"/>
-      <c r="DT16" s="41" t="n"/>
-      <c r="DU16" s="41" t="n"/>
-      <c r="DV16" s="41" t="n"/>
-      <c r="DW16" s="41" t="n"/>
-      <c r="DX16" s="41" t="n"/>
-      <c r="DY16" s="41" t="n"/>
-      <c r="DZ16" s="41" t="n"/>
-      <c r="EA16" s="41" t="n"/>
-      <c r="EB16" s="41" t="n"/>
-      <c r="EC16" s="41" t="n"/>
-      <c r="ED16" s="41" t="n"/>
-      <c r="EE16" s="41" t="n"/>
-      <c r="EF16" s="41" t="n"/>
-      <c r="EG16" s="41" t="n"/>
-      <c r="EH16" s="41" t="n"/>
-      <c r="EI16" s="41" t="n"/>
-      <c r="EJ16" s="41" t="n"/>
-      <c r="EK16" s="41" t="n"/>
-      <c r="EL16" s="41" t="n"/>
-      <c r="EM16" s="41" t="n"/>
-      <c r="EN16" s="41" t="n"/>
-      <c r="EO16" s="41" t="n"/>
-      <c r="EP16" s="41" t="n"/>
-      <c r="EQ16" s="41" t="n"/>
-      <c r="ER16" s="41" t="n"/>
-      <c r="ES16" s="41" t="n"/>
-      <c r="ET16" s="41" t="n"/>
-      <c r="EU16" s="41" t="n"/>
-      <c r="EV16" s="41" t="n"/>
-      <c r="EW16" s="41" t="n"/>
-      <c r="EX16" s="41" t="n"/>
-      <c r="EY16" s="41" t="n"/>
-      <c r="EZ16" s="41" t="n"/>
-      <c r="FA16" s="41" t="n"/>
-      <c r="FB16" s="41" t="n"/>
-      <c r="FC16" s="41" t="n"/>
-      <c r="FD16" s="41" t="n"/>
-      <c r="FE16" s="41" t="n"/>
-      <c r="FF16" s="41" t="n"/>
-      <c r="FG16" s="41" t="n"/>
-      <c r="FH16" s="41" t="n"/>
-      <c r="FI16" s="41" t="n"/>
-      <c r="FJ16" s="41" t="n"/>
-    </row>
-    <row r="17" ht="13.8" customHeight="1" s="42">
-      <c r="A17" s="41" t="n"/>
-      <c r="B17" s="41" t="n"/>
-      <c r="C17" s="41" t="n"/>
-      <c r="D17" s="41" t="n"/>
-      <c r="E17" s="41" t="n"/>
-      <c r="F17" s="41" t="n"/>
-      <c r="H17" s="41" t="n"/>
-      <c r="I17" s="41" t="n"/>
-      <c r="J17" s="41" t="n"/>
-      <c r="K17" s="41" t="n"/>
-      <c r="L17" s="41" t="n"/>
-      <c r="M17" s="41" t="n"/>
-      <c r="N17" s="41" t="n"/>
-      <c r="O17" s="41" t="n"/>
-      <c r="P17" s="41" t="n"/>
-      <c r="Q17" s="41" t="n"/>
-      <c r="R17" s="41" t="n"/>
-      <c r="S17" s="41" t="n"/>
-      <c r="T17" s="41" t="n"/>
-      <c r="U17" s="41" t="n"/>
-      <c r="V17" s="41" t="n"/>
-      <c r="W17" s="41" t="n"/>
-      <c r="X17" s="41" t="n"/>
-      <c r="Y17" s="41" t="n"/>
-      <c r="Z17" s="41" t="n"/>
-      <c r="AA17" s="41" t="n"/>
-      <c r="AB17" s="41" t="n"/>
-      <c r="AC17" s="41" t="n"/>
-      <c r="AD17" s="41" t="n"/>
-      <c r="AE17" s="41" t="n"/>
-      <c r="AF17" s="41" t="n"/>
-      <c r="AG17" s="41" t="n"/>
-      <c r="AH17" s="41" t="n"/>
-      <c r="AI17" s="41" t="n"/>
-      <c r="AJ17" s="41" t="n"/>
-      <c r="AK17" s="41" t="n"/>
-      <c r="AL17" s="41" t="n"/>
-      <c r="AM17" s="41" t="n"/>
-      <c r="AN17" s="41" t="n"/>
-      <c r="AO17" s="41" t="n"/>
-      <c r="AP17" s="41" t="n"/>
-      <c r="AQ17" s="41" t="n"/>
-      <c r="AR17" s="41" t="n"/>
-      <c r="AS17" s="41" t="n"/>
-      <c r="AT17" s="41" t="n"/>
-      <c r="AU17" s="41" t="n"/>
-      <c r="AV17" s="41" t="n"/>
-      <c r="AW17" s="41" t="n"/>
-      <c r="AX17" s="41" t="n"/>
-      <c r="AY17" s="41" t="n"/>
-      <c r="AZ17" s="41" t="n"/>
-      <c r="BA17" s="41" t="n"/>
-      <c r="BB17" s="41" t="n"/>
-      <c r="BC17" s="41" t="n"/>
-      <c r="BD17" s="41" t="n"/>
-      <c r="BE17" s="41" t="n"/>
-      <c r="BF17" s="41" t="n"/>
-      <c r="BG17" s="41" t="n"/>
-      <c r="BH17" s="41" t="n"/>
-      <c r="BI17" s="41" t="n"/>
-      <c r="BJ17" s="41" t="n"/>
-      <c r="BK17" s="41" t="n"/>
-      <c r="BL17" s="41" t="n"/>
-      <c r="BM17" s="41" t="n"/>
-      <c r="BN17" s="41" t="n"/>
-      <c r="BO17" s="41" t="n"/>
-      <c r="BP17" s="41" t="n"/>
-      <c r="BQ17" s="41" t="n"/>
-      <c r="BR17" s="41" t="n"/>
-      <c r="BS17" s="41" t="n"/>
-      <c r="BT17" s="41" t="n"/>
-      <c r="BU17" s="41" t="n"/>
-      <c r="BV17" s="41" t="n"/>
-      <c r="BW17" s="41" t="n"/>
-      <c r="BX17" s="41" t="n"/>
-      <c r="BY17" s="41" t="n"/>
-      <c r="BZ17" s="41" t="n"/>
-      <c r="CA17" s="41" t="n"/>
-      <c r="CB17" s="41" t="n"/>
-      <c r="CC17" s="41" t="n"/>
-      <c r="CD17" s="41" t="n"/>
-      <c r="CE17" s="41" t="n"/>
-      <c r="CF17" s="41" t="n"/>
-      <c r="CG17" s="41" t="n"/>
-      <c r="CH17" s="41" t="n"/>
-      <c r="CI17" s="41" t="n"/>
-      <c r="CJ17" s="41" t="n"/>
-      <c r="CK17" s="41" t="n"/>
-      <c r="CL17" s="41" t="n"/>
-      <c r="CM17" s="41" t="n"/>
-      <c r="CN17" s="41" t="n"/>
-      <c r="CO17" s="41" t="n"/>
-      <c r="CP17" s="41" t="n"/>
-      <c r="CQ17" s="41" t="n"/>
-      <c r="CR17" s="41" t="n"/>
-      <c r="CS17" s="41" t="n"/>
-      <c r="CT17" s="41" t="n"/>
-      <c r="CU17" s="41" t="n"/>
-      <c r="CV17" s="41" t="n"/>
-      <c r="CW17" s="41" t="n"/>
-      <c r="CX17" s="41" t="n"/>
-      <c r="CY17" s="41" t="n"/>
-      <c r="CZ17" s="41" t="n"/>
-      <c r="DA17" s="41" t="n"/>
-      <c r="DB17" s="41" t="n"/>
-      <c r="DC17" s="41" t="n"/>
-      <c r="DD17" s="41" t="n"/>
-      <c r="DE17" s="41" t="n"/>
-      <c r="DF17" s="41" t="n"/>
-      <c r="DG17" s="41" t="n"/>
-      <c r="DH17" s="41" t="n"/>
-      <c r="DI17" s="41" t="n"/>
-      <c r="DJ17" s="41" t="n"/>
-      <c r="DK17" s="41" t="n"/>
-      <c r="DL17" s="41" t="n"/>
-      <c r="DM17" s="41" t="n"/>
-      <c r="DN17" s="41" t="n"/>
-      <c r="DO17" s="41" t="n"/>
-      <c r="DP17" s="41" t="n"/>
-      <c r="DQ17" s="41" t="n"/>
-      <c r="DR17" s="41" t="n"/>
-      <c r="DS17" s="41" t="n"/>
-      <c r="DT17" s="41" t="n"/>
-      <c r="DU17" s="41" t="n"/>
-      <c r="DV17" s="41" t="n"/>
-      <c r="DW17" s="41" t="n"/>
-      <c r="DX17" s="41" t="n"/>
-      <c r="DY17" s="41" t="n"/>
-      <c r="DZ17" s="41" t="n"/>
-      <c r="EA17" s="41" t="n"/>
-      <c r="EB17" s="41" t="n"/>
-      <c r="EC17" s="41" t="n"/>
-      <c r="ED17" s="41" t="n"/>
-      <c r="EE17" s="41" t="n"/>
-      <c r="EF17" s="41" t="n"/>
-      <c r="EG17" s="41" t="n"/>
-      <c r="EH17" s="41" t="n"/>
-      <c r="EI17" s="41" t="n"/>
-      <c r="EJ17" s="41" t="n"/>
-      <c r="EK17" s="41" t="n"/>
-      <c r="EL17" s="41" t="n"/>
-      <c r="EM17" s="41" t="n"/>
-      <c r="EN17" s="41" t="n"/>
-      <c r="EO17" s="41" t="n"/>
-      <c r="EP17" s="41" t="n"/>
-      <c r="EQ17" s="41" t="n"/>
-      <c r="ER17" s="41" t="n"/>
-      <c r="ES17" s="41" t="n"/>
-      <c r="ET17" s="41" t="n"/>
-      <c r="EU17" s="41" t="n"/>
-      <c r="EV17" s="41" t="n"/>
-      <c r="EW17" s="41" t="n"/>
-      <c r="EX17" s="41" t="n"/>
-      <c r="EY17" s="41" t="n"/>
-      <c r="EZ17" s="41" t="n"/>
-      <c r="FA17" s="41" t="n"/>
-      <c r="FB17" s="41" t="n"/>
-      <c r="FC17" s="41" t="n"/>
-      <c r="FD17" s="41" t="n"/>
-      <c r="FE17" s="41" t="n"/>
-      <c r="FF17" s="41" t="n"/>
-      <c r="FG17" s="41" t="n"/>
-      <c r="FH17" s="41" t="n"/>
-      <c r="FI17" s="41" t="n"/>
-      <c r="FJ17" s="41" t="n"/>
-    </row>
-    <row r="18" ht="13.8" customHeight="1" s="42">
-      <c r="A18" s="41" t="n"/>
-      <c r="B18" s="41" t="n"/>
-      <c r="C18" s="41" t="n"/>
-      <c r="D18" s="41" t="n"/>
-      <c r="E18" s="41" t="n"/>
-      <c r="F18" s="41" t="n"/>
-      <c r="H18" s="41" t="n"/>
-      <c r="I18" s="41" t="n"/>
-      <c r="J18" s="41" t="n"/>
-      <c r="K18" s="41" t="n"/>
-      <c r="L18" s="41" t="n"/>
-      <c r="M18" s="41" t="n"/>
-      <c r="N18" s="41" t="n"/>
-      <c r="O18" s="41" t="n"/>
-      <c r="P18" s="41" t="n"/>
-      <c r="Q18" s="41" t="n"/>
-      <c r="R18" s="41" t="n"/>
-      <c r="S18" s="41" t="n"/>
-      <c r="T18" s="41" t="n"/>
-      <c r="U18" s="41" t="n"/>
-      <c r="V18" s="41" t="n"/>
-      <c r="W18" s="41" t="n"/>
-      <c r="X18" s="41" t="n"/>
-      <c r="Y18" s="41" t="n"/>
-      <c r="Z18" s="41" t="n"/>
-      <c r="AA18" s="41" t="n"/>
-      <c r="AB18" s="41" t="n"/>
-      <c r="AC18" s="41" t="n"/>
-      <c r="AD18" s="41" t="n"/>
-      <c r="AE18" s="41" t="n"/>
-      <c r="AF18" s="41" t="n"/>
-      <c r="AG18" s="41" t="n"/>
-      <c r="AH18" s="41" t="n"/>
-      <c r="AI18" s="41" t="n"/>
-      <c r="AJ18" s="41" t="n"/>
-      <c r="AK18" s="41" t="n"/>
-      <c r="AL18" s="41" t="n"/>
-      <c r="AM18" s="41" t="n"/>
-      <c r="AN18" s="41" t="n"/>
-      <c r="AO18" s="41" t="n"/>
-      <c r="AP18" s="41" t="n"/>
-      <c r="AQ18" s="41" t="n"/>
-      <c r="AR18" s="41" t="n"/>
-      <c r="AS18" s="41" t="n"/>
-      <c r="AT18" s="41" t="n"/>
-      <c r="AU18" s="41" t="n"/>
-      <c r="AV18" s="41" t="n"/>
-      <c r="AW18" s="41" t="n"/>
-      <c r="AX18" s="41" t="n"/>
-      <c r="AY18" s="41" t="n"/>
-      <c r="AZ18" s="41" t="n"/>
-      <c r="BA18" s="41" t="n"/>
-      <c r="BB18" s="41" t="n"/>
-      <c r="BC18" s="41" t="n"/>
-      <c r="BD18" s="41" t="n"/>
-      <c r="BE18" s="41" t="n"/>
-      <c r="BF18" s="41" t="n"/>
-      <c r="BG18" s="41" t="n"/>
-      <c r="BH18" s="41" t="n"/>
-      <c r="BI18" s="41" t="n"/>
-      <c r="BJ18" s="41" t="n"/>
-      <c r="BK18" s="41" t="n"/>
-      <c r="BL18" s="41" t="n"/>
-      <c r="BM18" s="41" t="n"/>
-      <c r="BN18" s="41" t="n"/>
-      <c r="BO18" s="41" t="n"/>
-      <c r="BP18" s="41" t="n"/>
-      <c r="BQ18" s="41" t="n"/>
-      <c r="BR18" s="41" t="n"/>
-      <c r="BS18" s="41" t="n"/>
-      <c r="BT18" s="41" t="n"/>
-      <c r="BU18" s="41" t="n"/>
-      <c r="BV18" s="41" t="n"/>
-      <c r="BW18" s="41" t="n"/>
-      <c r="BX18" s="41" t="n"/>
-      <c r="BY18" s="41" t="n"/>
-      <c r="BZ18" s="41" t="n"/>
-      <c r="CA18" s="41" t="n"/>
-      <c r="CB18" s="41" t="n"/>
-      <c r="CC18" s="41" t="n"/>
-      <c r="CD18" s="41" t="n"/>
-      <c r="CE18" s="41" t="n"/>
-      <c r="CF18" s="41" t="n"/>
-      <c r="CG18" s="41" t="n"/>
-      <c r="CH18" s="41" t="n"/>
-      <c r="CI18" s="41" t="n"/>
-      <c r="CJ18" s="41" t="n"/>
-      <c r="CK18" s="41" t="n"/>
-      <c r="CL18" s="41" t="n"/>
-      <c r="CM18" s="41" t="n"/>
-      <c r="CN18" s="41" t="n"/>
-      <c r="CO18" s="41" t="n"/>
-      <c r="CP18" s="41" t="n"/>
-      <c r="CQ18" s="41" t="n"/>
-      <c r="CR18" s="41" t="n"/>
-      <c r="CS18" s="41" t="n"/>
-      <c r="CT18" s="41" t="n"/>
-      <c r="CU18" s="41" t="n"/>
-      <c r="CV18" s="41" t="n"/>
-      <c r="CW18" s="41" t="n"/>
-      <c r="CX18" s="41" t="n"/>
-      <c r="CY18" s="41" t="n"/>
-      <c r="CZ18" s="41" t="n"/>
-      <c r="DA18" s="41" t="n"/>
-      <c r="DB18" s="41" t="n"/>
-      <c r="DC18" s="41" t="n"/>
-      <c r="DD18" s="41" t="n"/>
-      <c r="DE18" s="41" t="n"/>
-      <c r="DF18" s="41" t="n"/>
-      <c r="DG18" s="41" t="n"/>
-      <c r="DH18" s="41" t="n"/>
-      <c r="DI18" s="41" t="n"/>
-      <c r="DJ18" s="41" t="n"/>
-      <c r="DK18" s="41" t="n"/>
-      <c r="DL18" s="41" t="n"/>
-      <c r="DM18" s="41" t="n"/>
-      <c r="DN18" s="41" t="n"/>
-      <c r="DO18" s="41" t="n"/>
-      <c r="DP18" s="41" t="n"/>
-      <c r="DQ18" s="41" t="n"/>
-      <c r="DR18" s="41" t="n"/>
-      <c r="DS18" s="41" t="n"/>
-      <c r="DT18" s="41" t="n"/>
-      <c r="DU18" s="41" t="n"/>
-      <c r="DV18" s="41" t="n"/>
-      <c r="DW18" s="41" t="n"/>
-      <c r="DX18" s="41" t="n"/>
-      <c r="DY18" s="41" t="n"/>
-      <c r="DZ18" s="41" t="n"/>
-      <c r="EA18" s="41" t="n"/>
-      <c r="EB18" s="41" t="n"/>
-      <c r="EC18" s="41" t="n"/>
-      <c r="ED18" s="41" t="n"/>
-      <c r="EE18" s="41" t="n"/>
-      <c r="EF18" s="41" t="n"/>
-      <c r="EG18" s="41" t="n"/>
-      <c r="EH18" s="41" t="n"/>
-      <c r="EI18" s="41" t="n"/>
-      <c r="EJ18" s="41" t="n"/>
-      <c r="EK18" s="41" t="n"/>
-      <c r="EL18" s="41" t="n"/>
-      <c r="EM18" s="41" t="n"/>
-      <c r="EN18" s="41" t="n"/>
-      <c r="EO18" s="41" t="n"/>
-      <c r="EP18" s="41" t="n"/>
-      <c r="EQ18" s="41" t="n"/>
-      <c r="ER18" s="41" t="n"/>
-      <c r="ES18" s="41" t="n"/>
-      <c r="ET18" s="41" t="n"/>
-      <c r="EU18" s="41" t="n"/>
-      <c r="EV18" s="41" t="n"/>
-      <c r="EW18" s="41" t="n"/>
-      <c r="EX18" s="41" t="n"/>
-      <c r="EY18" s="41" t="n"/>
-      <c r="EZ18" s="41" t="n"/>
-      <c r="FA18" s="41" t="n"/>
-      <c r="FB18" s="41" t="n"/>
-      <c r="FC18" s="41" t="n"/>
-      <c r="FD18" s="41" t="n"/>
-      <c r="FE18" s="41" t="n"/>
-      <c r="FF18" s="41" t="n"/>
-      <c r="FG18" s="41" t="n"/>
-      <c r="FH18" s="41" t="n"/>
-      <c r="FI18" s="41" t="n"/>
-      <c r="FJ18" s="41" t="n"/>
-    </row>
-    <row r="19" ht="13.8" customHeight="1" s="42">
-      <c r="A19" s="41" t="n"/>
-      <c r="B19" s="41" t="n"/>
-      <c r="C19" s="41" t="n"/>
-      <c r="D19" s="41" t="n"/>
-      <c r="E19" s="41" t="n"/>
-      <c r="F19" s="41" t="n"/>
-      <c r="H19" s="41" t="n"/>
-      <c r="I19" s="41" t="n"/>
-      <c r="J19" s="41" t="n"/>
-      <c r="K19" s="41" t="n"/>
-      <c r="L19" s="41" t="n"/>
-      <c r="M19" s="41" t="n"/>
-      <c r="N19" s="41" t="n"/>
-      <c r="O19" s="41" t="n"/>
-      <c r="P19" s="41" t="n"/>
-      <c r="Q19" s="41" t="n"/>
-      <c r="R19" s="41" t="n"/>
-      <c r="S19" s="41" t="n"/>
-      <c r="T19" s="41" t="n"/>
-      <c r="U19" s="41" t="n"/>
-      <c r="V19" s="41" t="n"/>
-      <c r="W19" s="41" t="n"/>
-      <c r="X19" s="41" t="n"/>
-      <c r="Y19" s="41" t="n"/>
-      <c r="Z19" s="41" t="n"/>
-      <c r="AA19" s="41" t="n"/>
-      <c r="AB19" s="41" t="n"/>
-      <c r="AC19" s="41" t="n"/>
-      <c r="AD19" s="41" t="n"/>
-      <c r="AE19" s="41" t="n"/>
-      <c r="AF19" s="41" t="n"/>
-      <c r="AG19" s="41" t="n"/>
-      <c r="AH19" s="41" t="n"/>
-      <c r="AI19" s="41" t="n"/>
-      <c r="AJ19" s="41" t="n"/>
-      <c r="AK19" s="41" t="n"/>
-      <c r="AL19" s="41" t="n"/>
-      <c r="AM19" s="41" t="n"/>
-      <c r="AN19" s="41" t="n"/>
-      <c r="AO19" s="41" t="n"/>
-      <c r="AP19" s="41" t="n"/>
-      <c r="AQ19" s="41" t="n"/>
-      <c r="AR19" s="41" t="n"/>
-      <c r="AS19" s="41" t="n"/>
-      <c r="AT19" s="41" t="n"/>
-      <c r="AU19" s="41" t="n"/>
-      <c r="AV19" s="41" t="n"/>
-      <c r="AW19" s="41" t="n"/>
-      <c r="AX19" s="41" t="n"/>
-      <c r="AY19" s="41" t="n"/>
-      <c r="AZ19" s="41" t="n"/>
-      <c r="BA19" s="41" t="n"/>
-      <c r="BB19" s="41" t="n"/>
-      <c r="BC19" s="41" t="n"/>
-      <c r="BD19" s="41" t="n"/>
-      <c r="BE19" s="41" t="n"/>
-      <c r="BF19" s="41" t="n"/>
-      <c r="BG19" s="41" t="n"/>
-      <c r="BH19" s="41" t="n"/>
-      <c r="BI19" s="41" t="n"/>
-      <c r="BJ19" s="41" t="n"/>
-      <c r="BK19" s="41" t="n"/>
-      <c r="BL19" s="41" t="n"/>
-      <c r="BM19" s="41" t="n"/>
-      <c r="BN19" s="41" t="n"/>
-      <c r="BO19" s="41" t="n"/>
-      <c r="BP19" s="41" t="n"/>
-      <c r="BQ19" s="41" t="n"/>
-      <c r="BR19" s="41" t="n"/>
-      <c r="BS19" s="41" t="n"/>
-      <c r="BT19" s="41" t="n"/>
-      <c r="BU19" s="41" t="n"/>
-      <c r="BV19" s="41" t="n"/>
-      <c r="BW19" s="41" t="n"/>
-      <c r="BX19" s="41" t="n"/>
-      <c r="BY19" s="41" t="n"/>
-      <c r="BZ19" s="41" t="n"/>
-      <c r="CA19" s="41" t="n"/>
-      <c r="CB19" s="41" t="n"/>
-      <c r="CC19" s="41" t="n"/>
-      <c r="CD19" s="41" t="n"/>
-      <c r="CE19" s="41" t="n"/>
-      <c r="CF19" s="41" t="n"/>
-      <c r="CG19" s="41" t="n"/>
-      <c r="CH19" s="41" t="n"/>
-      <c r="CI19" s="41" t="n"/>
-      <c r="CJ19" s="41" t="n"/>
-      <c r="CK19" s="41" t="n"/>
-      <c r="CL19" s="41" t="n"/>
-      <c r="CM19" s="41" t="n"/>
-      <c r="CN19" s="41" t="n"/>
-      <c r="CO19" s="41" t="n"/>
-      <c r="CP19" s="41" t="n"/>
-      <c r="CQ19" s="41" t="n"/>
-      <c r="CR19" s="41" t="n"/>
-      <c r="CS19" s="41" t="n"/>
-      <c r="CT19" s="41" t="n"/>
-      <c r="CU19" s="41" t="n"/>
-      <c r="CV19" s="41" t="n"/>
-      <c r="CW19" s="41" t="n"/>
-      <c r="CX19" s="41" t="n"/>
-      <c r="CY19" s="41" t="n"/>
-      <c r="CZ19" s="41" t="n"/>
-      <c r="DA19" s="41" t="n"/>
-      <c r="DB19" s="41" t="n"/>
-      <c r="DC19" s="41" t="n"/>
-      <c r="DD19" s="41" t="n"/>
-      <c r="DE19" s="41" t="n"/>
-      <c r="DF19" s="41" t="n"/>
-      <c r="DG19" s="41" t="n"/>
-      <c r="DH19" s="41" t="n"/>
-      <c r="DI19" s="41" t="n"/>
-      <c r="DJ19" s="41" t="n"/>
-      <c r="DK19" s="41" t="n"/>
-      <c r="DL19" s="41" t="n"/>
-      <c r="DM19" s="41" t="n"/>
-      <c r="DN19" s="41" t="n"/>
-      <c r="DO19" s="41" t="n"/>
-      <c r="DP19" s="41" t="n"/>
-      <c r="DQ19" s="41" t="n"/>
-      <c r="DR19" s="41" t="n"/>
-      <c r="DS19" s="41" t="n"/>
-      <c r="DT19" s="41" t="n"/>
-      <c r="DU19" s="41" t="n"/>
-      <c r="DV19" s="41" t="n"/>
-      <c r="DW19" s="41" t="n"/>
-      <c r="DX19" s="41" t="n"/>
-      <c r="DY19" s="41" t="n"/>
-      <c r="DZ19" s="41" t="n"/>
-      <c r="EA19" s="41" t="n"/>
-      <c r="EB19" s="41" t="n"/>
-      <c r="EC19" s="41" t="n"/>
-      <c r="ED19" s="41" t="n"/>
-      <c r="EE19" s="41" t="n"/>
-      <c r="EF19" s="41" t="n"/>
-      <c r="EG19" s="41" t="n"/>
-      <c r="EH19" s="41" t="n"/>
-      <c r="EI19" s="41" t="n"/>
-      <c r="EJ19" s="41" t="n"/>
-      <c r="EK19" s="41" t="n"/>
-      <c r="EL19" s="41" t="n"/>
-      <c r="EM19" s="41" t="n"/>
-      <c r="EN19" s="41" t="n"/>
-      <c r="EO19" s="41" t="n"/>
-      <c r="EP19" s="41" t="n"/>
-      <c r="EQ19" s="41" t="n"/>
-      <c r="ER19" s="41" t="n"/>
-      <c r="ES19" s="41" t="n"/>
-      <c r="ET19" s="41" t="n"/>
-      <c r="EU19" s="41" t="n"/>
-      <c r="EV19" s="41" t="n"/>
-      <c r="EW19" s="41" t="n"/>
-      <c r="EX19" s="41" t="n"/>
-      <c r="EY19" s="41" t="n"/>
-      <c r="EZ19" s="41" t="n"/>
-      <c r="FA19" s="41" t="n"/>
-      <c r="FB19" s="41" t="n"/>
-      <c r="FC19" s="41" t="n"/>
-      <c r="FD19" s="41" t="n"/>
-      <c r="FE19" s="41" t="n"/>
-      <c r="FF19" s="41" t="n"/>
-      <c r="FG19" s="41" t="n"/>
-      <c r="FH19" s="41" t="n"/>
-      <c r="FI19" s="41" t="n"/>
-      <c r="FJ19" s="41" t="n"/>
-    </row>
-    <row r="20" ht="13.8" customHeight="1" s="42">
-      <c r="A20" s="41" t="n"/>
-      <c r="B20" s="41" t="n"/>
-      <c r="C20" s="41" t="n"/>
-      <c r="D20" s="41" t="n"/>
-      <c r="E20" s="41" t="n"/>
-      <c r="F20" s="41" t="n"/>
-      <c r="H20" s="41" t="n"/>
-      <c r="I20" s="41" t="n"/>
-      <c r="J20" s="41" t="n"/>
-      <c r="K20" s="41" t="n"/>
-      <c r="L20" s="41" t="n"/>
-      <c r="M20" s="41" t="n"/>
-      <c r="N20" s="41" t="n"/>
-      <c r="O20" s="41" t="n"/>
-      <c r="P20" s="41" t="n"/>
-      <c r="Q20" s="41" t="n"/>
-      <c r="R20" s="41" t="n"/>
-      <c r="S20" s="41" t="n"/>
-      <c r="T20" s="41" t="n"/>
-      <c r="U20" s="41" t="n"/>
-      <c r="V20" s="41" t="n"/>
-      <c r="W20" s="41" t="n"/>
-      <c r="X20" s="41" t="n"/>
-      <c r="Y20" s="41" t="n"/>
-      <c r="Z20" s="41" t="n"/>
-      <c r="AA20" s="41" t="n"/>
-      <c r="AB20" s="41" t="n"/>
-      <c r="AC20" s="41" t="n"/>
-      <c r="AD20" s="41" t="n"/>
-      <c r="AE20" s="41" t="n"/>
-      <c r="AF20" s="41" t="n"/>
-      <c r="AG20" s="41" t="n"/>
-      <c r="AH20" s="41" t="n"/>
-      <c r="AI20" s="41" t="n"/>
-      <c r="AJ20" s="41" t="n"/>
-      <c r="AK20" s="41" t="n"/>
-      <c r="AL20" s="41" t="n"/>
-      <c r="AM20" s="41" t="n"/>
-      <c r="AN20" s="41" t="n"/>
-      <c r="AO20" s="41" t="n"/>
-      <c r="AP20" s="41" t="n"/>
-      <c r="AQ20" s="41" t="n"/>
-      <c r="AR20" s="41" t="n"/>
-      <c r="AS20" s="41" t="n"/>
-      <c r="AT20" s="41" t="n"/>
-      <c r="AU20" s="41" t="n"/>
-      <c r="AV20" s="41" t="n"/>
-      <c r="AW20" s="41" t="n"/>
-      <c r="AX20" s="41" t="n"/>
-      <c r="AY20" s="41" t="n"/>
-      <c r="AZ20" s="41" t="n"/>
-      <c r="BA20" s="41" t="n"/>
-      <c r="BB20" s="41" t="n"/>
-      <c r="BC20" s="41" t="n"/>
-      <c r="BD20" s="41" t="n"/>
-      <c r="BE20" s="41" t="n"/>
-      <c r="BF20" s="41" t="n"/>
-      <c r="BG20" s="41" t="n"/>
-      <c r="BH20" s="41" t="n"/>
-      <c r="BI20" s="41" t="n"/>
-      <c r="BJ20" s="41" t="n"/>
-      <c r="BK20" s="41" t="n"/>
-      <c r="BL20" s="41" t="n"/>
-      <c r="BM20" s="41" t="n"/>
-      <c r="BN20" s="41" t="n"/>
-      <c r="BO20" s="41" t="n"/>
-      <c r="BP20" s="41" t="n"/>
-      <c r="BQ20" s="41" t="n"/>
-      <c r="BR20" s="41" t="n"/>
-      <c r="BS20" s="41" t="n"/>
-      <c r="BT20" s="41" t="n"/>
-      <c r="BU20" s="41" t="n"/>
-      <c r="BV20" s="41" t="n"/>
-      <c r="BW20" s="41" t="n"/>
-      <c r="BX20" s="41" t="n"/>
-      <c r="BY20" s="41" t="n"/>
-      <c r="BZ20" s="41" t="n"/>
-      <c r="CA20" s="41" t="n"/>
-      <c r="CB20" s="41" t="n"/>
-      <c r="CC20" s="41" t="n"/>
-      <c r="CD20" s="41" t="n"/>
-      <c r="CE20" s="41" t="n"/>
-      <c r="CF20" s="41" t="n"/>
-      <c r="CG20" s="41" t="n"/>
-      <c r="CH20" s="41" t="n"/>
-      <c r="CI20" s="41" t="n"/>
-      <c r="CJ20" s="41" t="n"/>
-      <c r="CK20" s="41" t="n"/>
-      <c r="CL20" s="41" t="n"/>
-      <c r="CM20" s="41" t="n"/>
-      <c r="CN20" s="41" t="n"/>
-      <c r="CO20" s="41" t="n"/>
-      <c r="CP20" s="41" t="n"/>
-      <c r="CQ20" s="41" t="n"/>
-      <c r="CR20" s="41" t="n"/>
-      <c r="CS20" s="41" t="n"/>
-      <c r="CT20" s="41" t="n"/>
-      <c r="CU20" s="41" t="n"/>
-      <c r="CV20" s="41" t="n"/>
-      <c r="CW20" s="41" t="n"/>
-      <c r="CX20" s="41" t="n"/>
-      <c r="CY20" s="41" t="n"/>
-      <c r="CZ20" s="41" t="n"/>
-      <c r="DA20" s="41" t="n"/>
-      <c r="DB20" s="41" t="n"/>
-      <c r="DC20" s="41" t="n"/>
-      <c r="DD20" s="41" t="n"/>
-      <c r="DE20" s="41" t="n"/>
-      <c r="DF20" s="41" t="n"/>
-      <c r="DG20" s="41" t="n"/>
-      <c r="DH20" s="41" t="n"/>
-      <c r="DI20" s="41" t="n"/>
-      <c r="DJ20" s="41" t="n"/>
-      <c r="DK20" s="41" t="n"/>
-      <c r="DL20" s="41" t="n"/>
-      <c r="DM20" s="41" t="n"/>
-      <c r="DN20" s="41" t="n"/>
-      <c r="DO20" s="41" t="n"/>
-      <c r="DP20" s="41" t="n"/>
-      <c r="DQ20" s="41" t="n"/>
-      <c r="DR20" s="41" t="n"/>
-      <c r="DS20" s="41" t="n"/>
-      <c r="DT20" s="41" t="n"/>
-      <c r="DU20" s="41" t="n"/>
-      <c r="DV20" s="41" t="n"/>
-      <c r="DW20" s="41" t="n"/>
-      <c r="DX20" s="41" t="n"/>
-      <c r="DY20" s="41" t="n"/>
-      <c r="DZ20" s="41" t="n"/>
-      <c r="EA20" s="41" t="n"/>
-      <c r="EB20" s="41" t="n"/>
-      <c r="EC20" s="41" t="n"/>
-      <c r="ED20" s="41" t="n"/>
-      <c r="EE20" s="41" t="n"/>
-      <c r="EF20" s="41" t="n"/>
-      <c r="EG20" s="41" t="n"/>
-      <c r="EH20" s="41" t="n"/>
-      <c r="EI20" s="41" t="n"/>
-      <c r="EJ20" s="41" t="n"/>
-      <c r="EK20" s="41" t="n"/>
-      <c r="EL20" s="41" t="n"/>
-      <c r="EM20" s="41" t="n"/>
-      <c r="EN20" s="41" t="n"/>
-      <c r="EO20" s="41" t="n"/>
-      <c r="EP20" s="41" t="n"/>
-      <c r="EQ20" s="41" t="n"/>
-      <c r="ER20" s="41" t="n"/>
-      <c r="ES20" s="41" t="n"/>
-      <c r="ET20" s="41" t="n"/>
-      <c r="EU20" s="41" t="n"/>
-      <c r="EV20" s="41" t="n"/>
-      <c r="EW20" s="41" t="n"/>
-      <c r="EX20" s="41" t="n"/>
-      <c r="EY20" s="41" t="n"/>
-      <c r="EZ20" s="41" t="n"/>
-      <c r="FA20" s="41" t="n"/>
-      <c r="FB20" s="41" t="n"/>
-      <c r="FC20" s="41" t="n"/>
-      <c r="FD20" s="41" t="n"/>
-      <c r="FE20" s="41" t="n"/>
-      <c r="FF20" s="41" t="n"/>
-      <c r="FG20" s="41" t="n"/>
-      <c r="FH20" s="41" t="n"/>
-      <c r="FI20" s="41" t="n"/>
-      <c r="FJ20" s="41" t="n"/>
-    </row>
-    <row r="21" ht="13.8" customHeight="1" s="42">
-      <c r="A21" s="41" t="n"/>
-      <c r="B21" s="41" t="n"/>
-      <c r="C21" s="41" t="n"/>
-      <c r="D21" s="41" t="n"/>
-      <c r="E21" s="41" t="n"/>
-      <c r="F21" s="41" t="n"/>
-      <c r="H21" s="41" t="n"/>
-      <c r="I21" s="41" t="n"/>
-      <c r="J21" s="41" t="n"/>
-      <c r="K21" s="41" t="n"/>
-      <c r="L21" s="41" t="n"/>
-      <c r="M21" s="41" t="n"/>
-      <c r="N21" s="41" t="n"/>
-      <c r="O21" s="41" t="n"/>
-      <c r="P21" s="41" t="n"/>
-      <c r="Q21" s="41" t="n"/>
-      <c r="R21" s="41" t="n"/>
-      <c r="S21" s="41" t="n"/>
-      <c r="T21" s="41" t="n"/>
-      <c r="U21" s="41" t="n"/>
-      <c r="V21" s="41" t="n"/>
-      <c r="W21" s="41" t="n"/>
-      <c r="X21" s="41" t="n"/>
-      <c r="Y21" s="41" t="n"/>
-      <c r="Z21" s="41" t="n"/>
-      <c r="AA21" s="41" t="n"/>
-      <c r="AB21" s="41" t="n"/>
-      <c r="AC21" s="41" t="n"/>
-      <c r="AD21" s="41" t="n"/>
-      <c r="AE21" s="41" t="n"/>
-      <c r="AF21" s="41" t="n"/>
-      <c r="AG21" s="41" t="n"/>
-      <c r="AH21" s="41" t="n"/>
-      <c r="AI21" s="41" t="n"/>
-      <c r="AJ21" s="41" t="n"/>
-      <c r="AK21" s="41" t="n"/>
-      <c r="AL21" s="41" t="n"/>
-      <c r="AM21" s="41" t="n"/>
-      <c r="AN21" s="41" t="n"/>
-      <c r="AO21" s="41" t="n"/>
-      <c r="AP21" s="41" t="n"/>
-      <c r="AQ21" s="41" t="n"/>
-      <c r="AR21" s="41" t="n"/>
-      <c r="AS21" s="41" t="n"/>
-      <c r="AT21" s="41" t="n"/>
-      <c r="AU21" s="41" t="n"/>
-      <c r="AV21" s="41" t="n"/>
-      <c r="AW21" s="41" t="n"/>
-      <c r="AX21" s="41" t="n"/>
-      <c r="AY21" s="41" t="n"/>
-      <c r="AZ21" s="41" t="n"/>
-      <c r="BA21" s="41" t="n"/>
-      <c r="BB21" s="41" t="n"/>
-      <c r="BC21" s="41" t="n"/>
-      <c r="BD21" s="41" t="n"/>
-      <c r="BE21" s="41" t="n"/>
-      <c r="BF21" s="41" t="n"/>
-      <c r="BG21" s="41" t="n"/>
-      <c r="BH21" s="41" t="n"/>
-      <c r="BI21" s="41" t="n"/>
-      <c r="BJ21" s="41" t="n"/>
-      <c r="BK21" s="41" t="n"/>
-      <c r="BL21" s="41" t="n"/>
-      <c r="BM21" s="41" t="n"/>
-      <c r="BN21" s="41" t="n"/>
-      <c r="BO21" s="41" t="n"/>
-      <c r="BP21" s="41" t="n"/>
-      <c r="BQ21" s="41" t="n"/>
-      <c r="BR21" s="41" t="n"/>
-      <c r="BS21" s="41" t="n"/>
-      <c r="BT21" s="41" t="n"/>
-      <c r="BU21" s="41" t="n"/>
-      <c r="BV21" s="41" t="n"/>
-      <c r="BW21" s="41" t="n"/>
-      <c r="BX21" s="41" t="n"/>
-      <c r="BY21" s="41" t="n"/>
-      <c r="BZ21" s="41" t="n"/>
-      <c r="CA21" s="41" t="n"/>
-      <c r="CB21" s="41" t="n"/>
-      <c r="CC21" s="41" t="n"/>
-      <c r="CD21" s="41" t="n"/>
-      <c r="CE21" s="41" t="n"/>
-      <c r="CF21" s="41" t="n"/>
-      <c r="CG21" s="41" t="n"/>
-      <c r="CH21" s="41" t="n"/>
-      <c r="CI21" s="41" t="n"/>
-      <c r="CJ21" s="41" t="n"/>
-      <c r="CK21" s="41" t="n"/>
-      <c r="CL21" s="41" t="n"/>
-      <c r="CM21" s="41" t="n"/>
-      <c r="CN21" s="41" t="n"/>
-      <c r="CO21" s="41" t="n"/>
-      <c r="CP21" s="41" t="n"/>
-      <c r="CQ21" s="41" t="n"/>
-      <c r="CR21" s="41" t="n"/>
-      <c r="CS21" s="41" t="n"/>
-      <c r="CT21" s="41" t="n"/>
-      <c r="CU21" s="41" t="n"/>
-      <c r="CV21" s="41" t="n"/>
-      <c r="CW21" s="41" t="n"/>
-      <c r="CX21" s="41" t="n"/>
-      <c r="CY21" s="41" t="n"/>
-      <c r="CZ21" s="41" t="n"/>
-      <c r="DA21" s="41" t="n"/>
-      <c r="DB21" s="41" t="n"/>
-      <c r="DC21" s="41" t="n"/>
-      <c r="DD21" s="41" t="n"/>
-      <c r="DE21" s="41" t="n"/>
-      <c r="DF21" s="41" t="n"/>
-      <c r="DG21" s="41" t="n"/>
-      <c r="DH21" s="41" t="n"/>
-      <c r="DI21" s="41" t="n"/>
-      <c r="DJ21" s="41" t="n"/>
-      <c r="DK21" s="41" t="n"/>
-      <c r="DL21" s="41" t="n"/>
-      <c r="DM21" s="41" t="n"/>
-      <c r="DN21" s="41" t="n"/>
-      <c r="DO21" s="41" t="n"/>
-      <c r="DP21" s="41" t="n"/>
-      <c r="DQ21" s="41" t="n"/>
-      <c r="DR21" s="41" t="n"/>
-      <c r="DS21" s="41" t="n"/>
-      <c r="DT21" s="41" t="n"/>
-      <c r="DU21" s="41" t="n"/>
-      <c r="DV21" s="41" t="n"/>
-      <c r="DW21" s="41" t="n"/>
-      <c r="DX21" s="41" t="n"/>
-      <c r="DY21" s="41" t="n"/>
-      <c r="DZ21" s="41" t="n"/>
-      <c r="EA21" s="41" t="n"/>
-      <c r="EB21" s="41" t="n"/>
-      <c r="EC21" s="41" t="n"/>
-      <c r="ED21" s="41" t="n"/>
-      <c r="EE21" s="41" t="n"/>
-      <c r="EF21" s="41" t="n"/>
-      <c r="EG21" s="41" t="n"/>
-      <c r="EH21" s="41" t="n"/>
-      <c r="EI21" s="41" t="n"/>
-      <c r="EJ21" s="41" t="n"/>
-      <c r="EK21" s="41" t="n"/>
-      <c r="EL21" s="41" t="n"/>
-      <c r="EM21" s="41" t="n"/>
-      <c r="EN21" s="41" t="n"/>
-      <c r="EO21" s="41" t="n"/>
-      <c r="EP21" s="41" t="n"/>
-      <c r="EQ21" s="41" t="n"/>
-      <c r="ER21" s="41" t="n"/>
-      <c r="ES21" s="41" t="n"/>
-      <c r="ET21" s="41" t="n"/>
-      <c r="EU21" s="41" t="n"/>
-      <c r="EV21" s="41" t="n"/>
-      <c r="EW21" s="41" t="n"/>
-      <c r="EX21" s="41" t="n"/>
-      <c r="EY21" s="41" t="n"/>
-      <c r="EZ21" s="41" t="n"/>
-      <c r="FA21" s="41" t="n"/>
-      <c r="FB21" s="41" t="n"/>
-      <c r="FC21" s="41" t="n"/>
-      <c r="FD21" s="41" t="n"/>
-      <c r="FE21" s="41" t="n"/>
-      <c r="FF21" s="41" t="n"/>
-      <c r="FG21" s="41" t="n"/>
-      <c r="FH21" s="41" t="n"/>
-      <c r="FI21" s="41" t="n"/>
-      <c r="FJ21" s="41" t="n"/>
-    </row>
-    <row r="22" ht="13.8" customHeight="1" s="42">
-      <c r="A22" s="41" t="n"/>
-      <c r="B22" s="41" t="n"/>
-      <c r="C22" s="41" t="n"/>
-      <c r="D22" s="41" t="n"/>
-      <c r="E22" s="41" t="n"/>
-      <c r="F22" s="41" t="n"/>
-      <c r="H22" s="41" t="n"/>
-      <c r="I22" s="41" t="n"/>
-      <c r="J22" s="41" t="n"/>
-      <c r="K22" s="41" t="n"/>
-      <c r="L22" s="41" t="n"/>
-      <c r="M22" s="41" t="n"/>
-      <c r="N22" s="41" t="n"/>
-      <c r="O22" s="41" t="n"/>
-      <c r="P22" s="41" t="n"/>
-      <c r="Q22" s="41" t="n"/>
-      <c r="R22" s="41" t="n"/>
-      <c r="S22" s="41" t="n"/>
-      <c r="T22" s="41" t="n"/>
-      <c r="U22" s="41" t="n"/>
-      <c r="V22" s="41" t="n"/>
-      <c r="W22" s="41" t="n"/>
-      <c r="X22" s="41" t="n"/>
-      <c r="Y22" s="41" t="n"/>
-      <c r="Z22" s="41" t="n"/>
-      <c r="AA22" s="41" t="n"/>
-      <c r="AB22" s="41" t="n"/>
-      <c r="AC22" s="41" t="n"/>
-      <c r="AD22" s="41" t="n"/>
-      <c r="AE22" s="41" t="n"/>
-      <c r="AF22" s="41" t="n"/>
-      <c r="AG22" s="41" t="n"/>
-      <c r="AH22" s="41" t="n"/>
-      <c r="AI22" s="41" t="n"/>
-      <c r="AJ22" s="41" t="n"/>
-      <c r="AK22" s="41" t="n"/>
-      <c r="AL22" s="41" t="n"/>
-      <c r="AM22" s="41" t="n"/>
-      <c r="AN22" s="41" t="n"/>
-      <c r="AO22" s="41" t="n"/>
-      <c r="AP22" s="41" t="n"/>
-      <c r="AQ22" s="41" t="n"/>
-      <c r="AR22" s="41" t="n"/>
-      <c r="AS22" s="41" t="n"/>
-      <c r="AT22" s="41" t="n"/>
-      <c r="AU22" s="41" t="n"/>
-      <c r="AV22" s="41" t="n"/>
-      <c r="AW22" s="41" t="n"/>
-      <c r="AX22" s="41" t="n"/>
-      <c r="AY22" s="41" t="n"/>
-      <c r="AZ22" s="41" t="n"/>
-      <c r="BA22" s="41" t="n"/>
-      <c r="BB22" s="41" t="n"/>
-      <c r="BC22" s="41" t="n"/>
-      <c r="BD22" s="41" t="n"/>
-      <c r="BE22" s="41" t="n"/>
-      <c r="BF22" s="41" t="n"/>
-      <c r="BG22" s="41" t="n"/>
-      <c r="BH22" s="41" t="n"/>
-      <c r="BI22" s="41" t="n"/>
-      <c r="BJ22" s="41" t="n"/>
-      <c r="BK22" s="41" t="n"/>
-      <c r="BL22" s="41" t="n"/>
-      <c r="BM22" s="41" t="n"/>
-      <c r="BN22" s="41" t="n"/>
-      <c r="BO22" s="41" t="n"/>
-      <c r="BP22" s="41" t="n"/>
-      <c r="BQ22" s="41" t="n"/>
-      <c r="BR22" s="41" t="n"/>
-      <c r="BS22" s="41" t="n"/>
-      <c r="BT22" s="41" t="n"/>
-      <c r="BU22" s="41" t="n"/>
-      <c r="BV22" s="41" t="n"/>
-      <c r="BW22" s="41" t="n"/>
-      <c r="BX22" s="41" t="n"/>
-      <c r="BY22" s="41" t="n"/>
-      <c r="BZ22" s="41" t="n"/>
-      <c r="CA22" s="41" t="n"/>
-      <c r="CB22" s="41" t="n"/>
-      <c r="CC22" s="41" t="n"/>
-      <c r="CD22" s="41" t="n"/>
-      <c r="CE22" s="41" t="n"/>
-      <c r="CF22" s="41" t="n"/>
-      <c r="CG22" s="41" t="n"/>
-      <c r="CH22" s="41" t="n"/>
-      <c r="CI22" s="41" t="n"/>
-      <c r="CJ22" s="41" t="n"/>
-      <c r="CK22" s="41" t="n"/>
-      <c r="CL22" s="41" t="n"/>
-      <c r="CM22" s="41" t="n"/>
-      <c r="CN22" s="41" t="n"/>
-      <c r="CO22" s="41" t="n"/>
-      <c r="CP22" s="41" t="n"/>
-      <c r="CQ22" s="41" t="n"/>
-      <c r="CR22" s="41" t="n"/>
-      <c r="CS22" s="41" t="n"/>
-      <c r="CT22" s="41" t="n"/>
-      <c r="CU22" s="41" t="n"/>
-      <c r="CV22" s="41" t="n"/>
-      <c r="CW22" s="41" t="n"/>
-      <c r="CX22" s="41" t="n"/>
-      <c r="CY22" s="41" t="n"/>
-      <c r="CZ22" s="41" t="n"/>
-      <c r="DA22" s="41" t="n"/>
-      <c r="DB22" s="41" t="n"/>
-      <c r="DC22" s="41" t="n"/>
-      <c r="DD22" s="41" t="n"/>
-      <c r="DE22" s="41" t="n"/>
-      <c r="DF22" s="41" t="n"/>
-      <c r="DG22" s="41" t="n"/>
-      <c r="DH22" s="41" t="n"/>
-      <c r="DI22" s="41" t="n"/>
-      <c r="DJ22" s="41" t="n"/>
-      <c r="DK22" s="41" t="n"/>
-      <c r="DL22" s="41" t="n"/>
-      <c r="DM22" s="41" t="n"/>
-      <c r="DN22" s="41" t="n"/>
-      <c r="DO22" s="41" t="n"/>
-      <c r="DP22" s="41" t="n"/>
-      <c r="DQ22" s="41" t="n"/>
-      <c r="DR22" s="41" t="n"/>
-      <c r="DS22" s="41" t="n"/>
-      <c r="DT22" s="41" t="n"/>
-      <c r="DU22" s="41" t="n"/>
-      <c r="DV22" s="41" t="n"/>
-      <c r="DW22" s="41" t="n"/>
-      <c r="DX22" s="41" t="n"/>
-      <c r="DY22" s="41" t="n"/>
-      <c r="DZ22" s="41" t="n"/>
-      <c r="EA22" s="41" t="n"/>
-      <c r="EB22" s="41" t="n"/>
-      <c r="EC22" s="41" t="n"/>
-      <c r="ED22" s="41" t="n"/>
-      <c r="EE22" s="41" t="n"/>
-      <c r="EF22" s="41" t="n"/>
-      <c r="EG22" s="41" t="n"/>
-      <c r="EH22" s="41" t="n"/>
-      <c r="EI22" s="41" t="n"/>
-      <c r="EJ22" s="41" t="n"/>
-      <c r="EK22" s="41" t="n"/>
-      <c r="EL22" s="41" t="n"/>
-      <c r="EM22" s="41" t="n"/>
-      <c r="EN22" s="41" t="n"/>
-      <c r="EO22" s="41" t="n"/>
-      <c r="EP22" s="41" t="n"/>
-      <c r="EQ22" s="41" t="n"/>
-      <c r="ER22" s="41" t="n"/>
-      <c r="ES22" s="41" t="n"/>
-      <c r="ET22" s="41" t="n"/>
-      <c r="EU22" s="41" t="n"/>
-      <c r="EV22" s="41" t="n"/>
-      <c r="EW22" s="41" t="n"/>
-      <c r="EX22" s="41" t="n"/>
-      <c r="EY22" s="41" t="n"/>
-      <c r="EZ22" s="41" t="n"/>
-      <c r="FA22" s="41" t="n"/>
-      <c r="FB22" s="41" t="n"/>
-      <c r="FC22" s="41" t="n"/>
-      <c r="FD22" s="41" t="n"/>
-      <c r="FE22" s="41" t="n"/>
-      <c r="FF22" s="41" t="n"/>
-      <c r="FG22" s="41" t="n"/>
-      <c r="FH22" s="41" t="n"/>
-      <c r="FI22" s="41" t="n"/>
-      <c r="FJ22" s="41" t="n"/>
-    </row>
-    <row r="23" ht="13.8" customHeight="1" s="42">
-      <c r="A23" s="41" t="n"/>
-      <c r="B23" s="41" t="n"/>
-      <c r="C23" s="41" t="n"/>
-      <c r="D23" s="41" t="n"/>
-      <c r="E23" s="41" t="n"/>
-      <c r="F23" s="41" t="n"/>
-      <c r="H23" s="41" t="n"/>
-      <c r="I23" s="41" t="n"/>
-      <c r="J23" s="41" t="n"/>
-      <c r="K23" s="41" t="n"/>
-      <c r="L23" s="41" t="n"/>
-      <c r="M23" s="41" t="n"/>
-      <c r="N23" s="41" t="n"/>
-      <c r="O23" s="41" t="n"/>
-      <c r="P23" s="41" t="n"/>
-      <c r="Q23" s="41" t="n"/>
-      <c r="R23" s="41" t="n"/>
-      <c r="S23" s="41" t="n"/>
-      <c r="T23" s="41" t="n"/>
-      <c r="U23" s="41" t="n"/>
-      <c r="V23" s="41" t="n"/>
-      <c r="W23" s="41" t="n"/>
-      <c r="X23" s="41" t="n"/>
-      <c r="Y23" s="41" t="n"/>
-      <c r="Z23" s="41" t="n"/>
-      <c r="AA23" s="41" t="n"/>
-      <c r="AB23" s="41" t="n"/>
-      <c r="AC23" s="41" t="n"/>
-      <c r="AD23" s="41" t="n"/>
-      <c r="AE23" s="41" t="n"/>
-      <c r="AF23" s="41" t="n"/>
-      <c r="AG23" s="41" t="n"/>
-      <c r="AH23" s="41" t="n"/>
-      <c r="AI23" s="41" t="n"/>
-      <c r="AJ23" s="41" t="n"/>
-      <c r="AK23" s="41" t="n"/>
-      <c r="AL23" s="41" t="n"/>
-      <c r="AM23" s="41" t="n"/>
-      <c r="AN23" s="41" t="n"/>
-      <c r="AO23" s="41" t="n"/>
-      <c r="AP23" s="41" t="n"/>
-      <c r="AQ23" s="41" t="n"/>
-      <c r="AR23" s="41" t="n"/>
-      <c r="AS23" s="41" t="n"/>
-      <c r="AT23" s="41" t="n"/>
-      <c r="AU23" s="41" t="n"/>
-      <c r="AV23" s="41" t="n"/>
-      <c r="AW23" s="41" t="n"/>
-      <c r="AX23" s="41" t="n"/>
-      <c r="AY23" s="41" t="n"/>
-      <c r="AZ23" s="41" t="n"/>
-      <c r="BA23" s="41" t="n"/>
-      <c r="BB23" s="41" t="n"/>
-      <c r="BC23" s="41" t="n"/>
-      <c r="BD23" s="41" t="n"/>
-      <c r="BE23" s="41" t="n"/>
-      <c r="BF23" s="41" t="n"/>
-      <c r="BG23" s="41" t="n"/>
-      <c r="BH23" s="41" t="n"/>
-      <c r="BI23" s="41" t="n"/>
-      <c r="BJ23" s="41" t="n"/>
-      <c r="BK23" s="41" t="n"/>
-      <c r="BL23" s="41" t="n"/>
-      <c r="BM23" s="41" t="n"/>
-      <c r="BN23" s="41" t="n"/>
-      <c r="BO23" s="41" t="n"/>
-      <c r="BP23" s="41" t="n"/>
-      <c r="BQ23" s="41" t="n"/>
-      <c r="BR23" s="41" t="n"/>
-      <c r="BS23" s="41" t="n"/>
-      <c r="BT23" s="41" t="n"/>
-      <c r="BU23" s="41" t="n"/>
-      <c r="BV23" s="41" t="n"/>
-      <c r="BW23" s="41" t="n"/>
-      <c r="BX23" s="41" t="n"/>
-      <c r="BY23" s="41" t="n"/>
-      <c r="BZ23" s="41" t="n"/>
-      <c r="CA23" s="41" t="n"/>
-      <c r="CB23" s="41" t="n"/>
-      <c r="CC23" s="41" t="n"/>
-      <c r="CD23" s="41" t="n"/>
-      <c r="CE23" s="41" t="n"/>
-      <c r="CF23" s="41" t="n"/>
-      <c r="CG23" s="41" t="n"/>
-      <c r="CH23" s="41" t="n"/>
-      <c r="CI23" s="41" t="n"/>
-      <c r="CJ23" s="41" t="n"/>
-      <c r="CK23" s="41" t="n"/>
-      <c r="CL23" s="41" t="n"/>
-      <c r="CM23" s="41" t="n"/>
-      <c r="CN23" s="41" t="n"/>
-      <c r="CO23" s="41" t="n"/>
-      <c r="CP23" s="41" t="n"/>
-      <c r="CQ23" s="41" t="n"/>
-      <c r="CR23" s="41" t="n"/>
-      <c r="CS23" s="41" t="n"/>
-      <c r="CT23" s="41" t="n"/>
-      <c r="CU23" s="41" t="n"/>
-      <c r="CV23" s="41" t="n"/>
-      <c r="CW23" s="41" t="n"/>
-      <c r="CX23" s="41" t="n"/>
-      <c r="CY23" s="41" t="n"/>
-      <c r="CZ23" s="41" t="n"/>
-      <c r="DA23" s="41" t="n"/>
-      <c r="DB23" s="41" t="n"/>
-      <c r="DC23" s="41" t="n"/>
-      <c r="DD23" s="41" t="n"/>
-      <c r="DE23" s="41" t="n"/>
-      <c r="DF23" s="41" t="n"/>
-      <c r="DG23" s="41" t="n"/>
-      <c r="DH23" s="41" t="n"/>
-      <c r="DI23" s="41" t="n"/>
-      <c r="DJ23" s="41" t="n"/>
-      <c r="DK23" s="41" t="n"/>
-      <c r="DL23" s="41" t="n"/>
-      <c r="DM23" s="41" t="n"/>
-      <c r="DN23" s="41" t="n"/>
-      <c r="DO23" s="41" t="n"/>
-      <c r="DP23" s="41" t="n"/>
-      <c r="DQ23" s="41" t="n"/>
-      <c r="DR23" s="41" t="n"/>
-      <c r="DS23" s="41" t="n"/>
-      <c r="DT23" s="41" t="n"/>
-      <c r="DU23" s="41" t="n"/>
-      <c r="DV23" s="41" t="n"/>
-      <c r="DW23" s="41" t="n"/>
-      <c r="DX23" s="41" t="n"/>
-      <c r="DY23" s="41" t="n"/>
-      <c r="DZ23" s="41" t="n"/>
-      <c r="EA23" s="41" t="n"/>
-      <c r="EB23" s="41" t="n"/>
-      <c r="EC23" s="41" t="n"/>
-      <c r="ED23" s="41" t="n"/>
-      <c r="EE23" s="41" t="n"/>
-      <c r="EF23" s="41" t="n"/>
-      <c r="EG23" s="41" t="n"/>
-      <c r="EH23" s="41" t="n"/>
-      <c r="EI23" s="41" t="n"/>
-      <c r="EJ23" s="41" t="n"/>
-      <c r="EK23" s="41" t="n"/>
-      <c r="EL23" s="41" t="n"/>
-      <c r="EM23" s="41" t="n"/>
-      <c r="EN23" s="41" t="n"/>
-      <c r="EO23" s="41" t="n"/>
-      <c r="EP23" s="41" t="n"/>
-      <c r="EQ23" s="41" t="n"/>
-      <c r="ER23" s="41" t="n"/>
-      <c r="ES23" s="41" t="n"/>
-      <c r="ET23" s="41" t="n"/>
-      <c r="EU23" s="41" t="n"/>
-      <c r="EV23" s="41" t="n"/>
-      <c r="EW23" s="41" t="n"/>
-      <c r="EX23" s="41" t="n"/>
-      <c r="EY23" s="41" t="n"/>
-      <c r="EZ23" s="41" t="n"/>
-      <c r="FA23" s="41" t="n"/>
-      <c r="FB23" s="41" t="n"/>
-      <c r="FC23" s="41" t="n"/>
-      <c r="FD23" s="41" t="n"/>
-      <c r="FE23" s="41" t="n"/>
-      <c r="FF23" s="41" t="n"/>
-      <c r="FG23" s="41" t="n"/>
-      <c r="FH23" s="41" t="n"/>
-      <c r="FI23" s="41" t="n"/>
-      <c r="FJ23" s="41" t="n"/>
-    </row>
-    <row r="24" ht="13.8" customHeight="1" s="42">
-      <c r="A24" s="41" t="n"/>
-      <c r="B24" s="41" t="n"/>
-      <c r="C24" s="41" t="n"/>
-      <c r="D24" s="41" t="n"/>
-      <c r="E24" s="41" t="n"/>
-      <c r="F24" s="41" t="n"/>
-      <c r="H24" s="41" t="n"/>
-      <c r="I24" s="41" t="n"/>
-      <c r="J24" s="41" t="n"/>
-      <c r="K24" s="41" t="n"/>
-      <c r="L24" s="41" t="n"/>
-      <c r="M24" s="41" t="n"/>
-      <c r="N24" s="41" t="n"/>
-      <c r="O24" s="41" t="n"/>
-      <c r="P24" s="41" t="n"/>
-      <c r="Q24" s="41" t="n"/>
-      <c r="R24" s="41" t="n"/>
-      <c r="S24" s="41" t="n"/>
-      <c r="T24" s="41" t="n"/>
-      <c r="U24" s="41" t="n"/>
-      <c r="V24" s="41" t="n"/>
-      <c r="W24" s="41" t="n"/>
-      <c r="X24" s="41" t="n"/>
-      <c r="Y24" s="41" t="n"/>
-      <c r="Z24" s="41" t="n"/>
-      <c r="AA24" s="41" t="n"/>
-      <c r="AB24" s="41" t="n"/>
-      <c r="AC24" s="41" t="n"/>
-      <c r="AD24" s="41" t="n"/>
-      <c r="AE24" s="41" t="n"/>
-      <c r="AF24" s="41" t="n"/>
-      <c r="AG24" s="41" t="n"/>
-      <c r="AH24" s="41" t="n"/>
-      <c r="AI24" s="41" t="n"/>
-      <c r="AJ24" s="41" t="n"/>
-      <c r="AK24" s="41" t="n"/>
-      <c r="AL24" s="41" t="n"/>
-      <c r="AM24" s="41" t="n"/>
-      <c r="AN24" s="41" t="n"/>
-      <c r="AO24" s="41" t="n"/>
-      <c r="AP24" s="41" t="n"/>
-      <c r="AQ24" s="41" t="n"/>
-      <c r="AR24" s="41" t="n"/>
-      <c r="AS24" s="41" t="n"/>
-      <c r="AT24" s="41" t="n"/>
-      <c r="AU24" s="41" t="n"/>
-      <c r="AV24" s="41" t="n"/>
-      <c r="AW24" s="41" t="n"/>
-      <c r="AX24" s="41" t="n"/>
-      <c r="AY24" s="41" t="n"/>
-      <c r="AZ24" s="41" t="n"/>
-      <c r="BA24" s="41" t="n"/>
-      <c r="BB24" s="41" t="n"/>
-      <c r="BC24" s="41" t="n"/>
-      <c r="BD24" s="41" t="n"/>
-      <c r="BE24" s="41" t="n"/>
-      <c r="BF24" s="41" t="n"/>
-      <c r="BG24" s="41" t="n"/>
-      <c r="BH24" s="41" t="n"/>
-      <c r="BI24" s="41" t="n"/>
-      <c r="BJ24" s="41" t="n"/>
-      <c r="BK24" s="41" t="n"/>
-      <c r="BL24" s="41" t="n"/>
-      <c r="BM24" s="41" t="n"/>
-      <c r="BN24" s="41" t="n"/>
-      <c r="BO24" s="41" t="n"/>
-      <c r="BP24" s="41" t="n"/>
-      <c r="BQ24" s="41" t="n"/>
-      <c r="BR24" s="41" t="n"/>
-      <c r="BS24" s="41" t="n"/>
-      <c r="BT24" s="41" t="n"/>
-      <c r="BU24" s="41" t="n"/>
-      <c r="BV24" s="41" t="n"/>
-      <c r="BW24" s="41" t="n"/>
-      <c r="BX24" s="41" t="n"/>
-      <c r="BY24" s="41" t="n"/>
-      <c r="BZ24" s="41" t="n"/>
-      <c r="CA24" s="41" t="n"/>
-      <c r="CB24" s="41" t="n"/>
-      <c r="CC24" s="41" t="n"/>
-      <c r="CD24" s="41" t="n"/>
-      <c r="CE24" s="41" t="n"/>
-      <c r="CF24" s="41" t="n"/>
-      <c r="CG24" s="41" t="n"/>
-      <c r="CH24" s="41" t="n"/>
-      <c r="CI24" s="41" t="n"/>
-      <c r="CJ24" s="41" t="n"/>
-      <c r="CK24" s="41" t="n"/>
-      <c r="CL24" s="41" t="n"/>
-      <c r="CM24" s="41" t="n"/>
-      <c r="CN24" s="41" t="n"/>
-      <c r="CO24" s="41" t="n"/>
-      <c r="CP24" s="41" t="n"/>
-      <c r="CQ24" s="41" t="n"/>
-      <c r="CR24" s="41" t="n"/>
-      <c r="CS24" s="41" t="n"/>
-      <c r="CT24" s="41" t="n"/>
-      <c r="CU24" s="41" t="n"/>
-      <c r="CV24" s="41" t="n"/>
-      <c r="CW24" s="41" t="n"/>
-      <c r="CX24" s="41" t="n"/>
-      <c r="CY24" s="41" t="n"/>
-      <c r="CZ24" s="41" t="n"/>
-      <c r="DA24" s="41" t="n"/>
-      <c r="DB24" s="41" t="n"/>
-      <c r="DC24" s="41" t="n"/>
-      <c r="DD24" s="41" t="n"/>
-      <c r="DE24" s="41" t="n"/>
-      <c r="DF24" s="41" t="n"/>
-      <c r="DG24" s="41" t="n"/>
-      <c r="DH24" s="41" t="n"/>
-      <c r="DI24" s="41" t="n"/>
-      <c r="DJ24" s="41" t="n"/>
-      <c r="DK24" s="41" t="n"/>
-      <c r="DL24" s="41" t="n"/>
-      <c r="DM24" s="41" t="n"/>
-      <c r="DN24" s="41" t="n"/>
-      <c r="DO24" s="41" t="n"/>
-      <c r="DP24" s="41" t="n"/>
-      <c r="DQ24" s="41" t="n"/>
-      <c r="DR24" s="41" t="n"/>
-      <c r="DS24" s="41" t="n"/>
-      <c r="DT24" s="41" t="n"/>
-      <c r="DU24" s="41" t="n"/>
-      <c r="DV24" s="41" t="n"/>
-      <c r="DW24" s="41" t="n"/>
-      <c r="DX24" s="41" t="n"/>
-      <c r="DY24" s="41" t="n"/>
-      <c r="DZ24" s="41" t="n"/>
-      <c r="EA24" s="41" t="n"/>
-      <c r="EB24" s="41" t="n"/>
-      <c r="EC24" s="41" t="n"/>
-      <c r="ED24" s="41" t="n"/>
-      <c r="EE24" s="41" t="n"/>
-      <c r="EF24" s="41" t="n"/>
-      <c r="EG24" s="41" t="n"/>
-      <c r="EH24" s="41" t="n"/>
-      <c r="EI24" s="41" t="n"/>
-      <c r="EJ24" s="41" t="n"/>
-      <c r="EK24" s="41" t="n"/>
-      <c r="EL24" s="41" t="n"/>
-      <c r="EM24" s="41" t="n"/>
-      <c r="EN24" s="41" t="n"/>
-      <c r="EO24" s="41" t="n"/>
-      <c r="EP24" s="41" t="n"/>
-      <c r="EQ24" s="41" t="n"/>
-      <c r="ER24" s="41" t="n"/>
-      <c r="ES24" s="41" t="n"/>
-      <c r="ET24" s="41" t="n"/>
-      <c r="EU24" s="41" t="n"/>
-      <c r="EV24" s="41" t="n"/>
-      <c r="EW24" s="41" t="n"/>
-      <c r="EX24" s="41" t="n"/>
-      <c r="EY24" s="41" t="n"/>
-      <c r="EZ24" s="41" t="n"/>
-      <c r="FA24" s="41" t="n"/>
-      <c r="FB24" s="41" t="n"/>
-      <c r="FC24" s="41" t="n"/>
-      <c r="FD24" s="41" t="n"/>
-      <c r="FE24" s="41" t="n"/>
-      <c r="FF24" s="41" t="n"/>
-      <c r="FG24" s="41" t="n"/>
-      <c r="FH24" s="41" t="n"/>
-      <c r="FI24" s="41" t="n"/>
-      <c r="FJ24" s="41" t="n"/>
-    </row>
+    <row r="8" ht="13.8" customHeight="1" s="42"/>
+    <row r="9" ht="13.8" customHeight="1" s="42"/>
+    <row r="10" ht="13.8" customHeight="1" s="42"/>
+    <row r="11" ht="13.8" customHeight="1" s="42"/>
+    <row r="12" ht="13.8" customHeight="1" s="42"/>
+    <row r="13" ht="13.8" customHeight="1" s="42"/>
+    <row r="14" ht="13.8" customHeight="1" s="42"/>
+    <row r="15" ht="13.8" customHeight="1" s="42"/>
+    <row r="16" ht="13.8" customHeight="1" s="42"/>
+    <row r="17" ht="13.8" customHeight="1" s="42"/>
+    <row r="18" ht="13.8" customHeight="1" s="42"/>
+    <row r="19" ht="13.8" customHeight="1" s="42"/>
+    <row r="20" ht="13.8" customHeight="1" s="42"/>
+    <row r="21" ht="13.8" customHeight="1" s="42"/>
+    <row r="22" ht="13.8" customHeight="1" s="42"/>
+    <row r="23" ht="13.8" customHeight="1" s="42"/>
+    <row r="24" ht="13.8" customHeight="1" s="42"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9219,7 +6207,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:FJ6 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -53,8 +53,8 @@
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -68,11 +68,11 @@
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -82,31 +82,43 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3B5E9"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFAFD095"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6D6D"/>
         <bgColor rgb="FFFF3838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFD3B5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -121,8 +133,38 @@
         <bgColor rgb="FFFF6D6D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEB8F6"/>
+        <bgColor rgb="FFD3B5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B183"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFAFD095"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,6 +193,41 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -162,7 +239,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -181,6 +258,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -190,10 +288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -205,85 +303,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -293,6 +436,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -302,6 +447,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -311,10 +477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -326,85 +492,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -432,16 +643,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFD3B5E9"/>
+      <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FF99FFCC"/>
+      <rgbColor rgb="FFDBDBDB"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF6D6D"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -451,16 +662,16 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FFCC"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FFAFD095"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFEB8F6"/>
+      <rgbColor rgb="FFD3B5E9"/>
+      <rgbColor rgb="FFF4B183"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF3838"/>
@@ -768,1454 +979,2275 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:FX7"/>
+  <dimension ref="A1:FX9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FJ4" activeCellId="0" sqref="A4:FJ6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12.96" customWidth="1" style="41" min="1" max="166"/>
+    <col width="12.96" customWidth="1" style="63" min="1" max="166"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="42">
-      <c r="A1" s="43" t="n">
+    <row r="1" ht="13.5" customHeight="1" s="64">
+      <c r="A1" s="65" t="inlineStr">
+        <is>
+          <t>DATOS BASICOS                                                                   DATOS BASICOS                                                                                                                                             DATOS BASICOS</t>
+        </is>
+      </c>
+      <c r="B1" s="66" t="n"/>
+      <c r="C1" s="66" t="n"/>
+      <c r="D1" s="66" t="n"/>
+      <c r="E1" s="66" t="n"/>
+      <c r="F1" s="66" t="n"/>
+      <c r="G1" s="66" t="n"/>
+      <c r="H1" s="66" t="n"/>
+      <c r="I1" s="66" t="n"/>
+      <c r="J1" s="66" t="n"/>
+      <c r="K1" s="66" t="n"/>
+      <c r="L1" s="66" t="n"/>
+      <c r="M1" s="66" t="n"/>
+      <c r="N1" s="66" t="n"/>
+      <c r="O1" s="66" t="n"/>
+      <c r="P1" s="67" t="n"/>
+      <c r="Q1" s="68" t="inlineStr">
+        <is>
+          <t>DIAGNOSTICO                                                                                                                        ESTADIFICACION</t>
+        </is>
+      </c>
+      <c r="R1" s="66" t="n"/>
+      <c r="S1" s="66" t="n"/>
+      <c r="T1" s="66" t="n"/>
+      <c r="U1" s="66" t="n"/>
+      <c r="V1" s="66" t="n"/>
+      <c r="W1" s="66" t="n"/>
+      <c r="X1" s="66" t="n"/>
+      <c r="Y1" s="66" t="n"/>
+      <c r="Z1" s="66" t="n"/>
+      <c r="AA1" s="66" t="n"/>
+      <c r="AB1" s="66" t="n"/>
+      <c r="AC1" s="66" t="n"/>
+      <c r="AD1" s="67" t="n"/>
+      <c r="AE1" s="65" t="inlineStr">
+        <is>
+          <t>CANCER MAMA</t>
+        </is>
+      </c>
+      <c r="AF1" s="66" t="n"/>
+      <c r="AG1" s="67" t="n"/>
+      <c r="AH1" s="68" t="inlineStr">
+        <is>
+          <t>CANCER COLORRECTAL</t>
+        </is>
+      </c>
+      <c r="AI1" s="67" t="n"/>
+      <c r="AJ1" s="65" t="inlineStr">
+        <is>
+          <t>HODGKIN</t>
+        </is>
+      </c>
+      <c r="AK1" s="68" t="inlineStr">
+        <is>
+          <t>PROSTATA</t>
+        </is>
+      </c>
+      <c r="AL1" s="65" t="inlineStr">
+        <is>
+          <t>LEUCEMIA - LINFOMA</t>
+        </is>
+      </c>
+      <c r="AM1" s="67" t="n"/>
+      <c r="AN1" s="69" t="inlineStr">
+        <is>
+          <t>ANTECEDENTES</t>
+        </is>
+      </c>
+      <c r="AO1" s="66" t="n"/>
+      <c r="AP1" s="66" t="n"/>
+      <c r="AQ1" s="66" t="n"/>
+      <c r="AR1" s="67" t="n"/>
+      <c r="AS1" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                PRIMER CICLO DE QUIMIOTERAPIA                                                                                                                  PRIMER CICLO DE QUIMIOTERAPIA                                                                                                                                            PRIMER CICLO DE QUIMIOTERAPIA                                                                                                               PRIMER CICLO DE QUIMIOTERAPIA                                     </t>
+        </is>
+      </c>
+      <c r="AT1" s="66" t="n"/>
+      <c r="AU1" s="66" t="n"/>
+      <c r="AV1" s="66" t="n"/>
+      <c r="AW1" s="66" t="n"/>
+      <c r="AX1" s="66" t="n"/>
+      <c r="AY1" s="66" t="n"/>
+      <c r="AZ1" s="66" t="n"/>
+      <c r="BA1" s="66" t="n"/>
+      <c r="BB1" s="66" t="n"/>
+      <c r="BC1" s="66" t="n"/>
+      <c r="BD1" s="66" t="n"/>
+      <c r="BE1" s="66" t="n"/>
+      <c r="BF1" s="66" t="n"/>
+      <c r="BG1" s="66" t="n"/>
+      <c r="BH1" s="66" t="n"/>
+      <c r="BI1" s="66" t="n"/>
+      <c r="BJ1" s="66" t="n"/>
+      <c r="BK1" s="66" t="n"/>
+      <c r="BL1" s="66" t="n"/>
+      <c r="BM1" s="66" t="n"/>
+      <c r="BN1" s="66" t="n"/>
+      <c r="BO1" s="66" t="n"/>
+      <c r="BP1" s="66" t="n"/>
+      <c r="BQ1" s="66" t="n"/>
+      <c r="BR1" s="66" t="n"/>
+      <c r="BS1" s="66" t="n"/>
+      <c r="BT1" s="66" t="n"/>
+      <c r="BU1" s="66" t="n"/>
+      <c r="BV1" s="66" t="n"/>
+      <c r="BW1" s="66" t="n"/>
+      <c r="BX1" s="66" t="n"/>
+      <c r="BY1" s="67" t="n"/>
+      <c r="BZ1" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                     ULTIMO CICLO DE QUIMIOTERAPIA                                                                                                           ULTIMO CICLO DE QUIMIOTERAPIA                                                                                                                                   ULTIMO CICLO DE QUIMIOTERAPIA                                     </t>
+        </is>
+      </c>
+      <c r="CA1" s="66" t="n"/>
+      <c r="CB1" s="66" t="n"/>
+      <c r="CC1" s="66" t="n"/>
+      <c r="CD1" s="66" t="n"/>
+      <c r="CE1" s="66" t="n"/>
+      <c r="CF1" s="66" t="n"/>
+      <c r="CG1" s="66" t="n"/>
+      <c r="CH1" s="66" t="n"/>
+      <c r="CI1" s="66" t="n"/>
+      <c r="CJ1" s="66" t="n"/>
+      <c r="CK1" s="66" t="n"/>
+      <c r="CL1" s="66" t="n"/>
+      <c r="CM1" s="66" t="n"/>
+      <c r="CN1" s="66" t="n"/>
+      <c r="CO1" s="66" t="n"/>
+      <c r="CP1" s="66" t="n"/>
+      <c r="CQ1" s="66" t="n"/>
+      <c r="CR1" s="66" t="n"/>
+      <c r="CS1" s="66" t="n"/>
+      <c r="CT1" s="66" t="n"/>
+      <c r="CU1" s="67" t="n"/>
+      <c r="CV1" s="68" t="inlineStr">
+        <is>
+          <t>CIRUGIA                                                                                                             CIRUGIA</t>
+        </is>
+      </c>
+      <c r="CW1" s="66" t="n"/>
+      <c r="CX1" s="66" t="n"/>
+      <c r="CY1" s="66" t="n"/>
+      <c r="CZ1" s="66" t="n"/>
+      <c r="DA1" s="66" t="n"/>
+      <c r="DB1" s="66" t="n"/>
+      <c r="DC1" s="66" t="n"/>
+      <c r="DD1" s="66" t="n"/>
+      <c r="DE1" s="66" t="n"/>
+      <c r="DF1" s="66" t="n"/>
+      <c r="DG1" s="67" t="n"/>
+      <c r="DH1" s="65" t="inlineStr">
+        <is>
+          <t>RADIOTERAPIA                                                                                                                                 RADIOTERAPIA                                                                                              RADIOTERAPIA</t>
+        </is>
+      </c>
+      <c r="DI1" s="66" t="n"/>
+      <c r="DJ1" s="66" t="n"/>
+      <c r="DK1" s="66" t="n"/>
+      <c r="DL1" s="66" t="n"/>
+      <c r="DM1" s="66" t="n"/>
+      <c r="DN1" s="66" t="n"/>
+      <c r="DO1" s="66" t="n"/>
+      <c r="DP1" s="66" t="n"/>
+      <c r="DQ1" s="66" t="n"/>
+      <c r="DR1" s="66" t="n"/>
+      <c r="DS1" s="66" t="n"/>
+      <c r="DT1" s="66" t="n"/>
+      <c r="DU1" s="66" t="n"/>
+      <c r="DV1" s="66" t="n"/>
+      <c r="DW1" s="66" t="n"/>
+      <c r="DX1" s="66" t="n"/>
+      <c r="DY1" s="66" t="n"/>
+      <c r="DZ1" s="66" t="n"/>
+      <c r="EA1" s="67" t="n"/>
+      <c r="EB1" s="68" t="inlineStr">
+        <is>
+          <t>NO SE HACEN (TRANSPLANTES)</t>
+        </is>
+      </c>
+      <c r="EC1" s="66" t="n"/>
+      <c r="ED1" s="66" t="n"/>
+      <c r="EE1" s="66" t="n"/>
+      <c r="EF1" s="66" t="n"/>
+      <c r="EG1" s="66" t="n"/>
+      <c r="EH1" s="66" t="n"/>
+      <c r="EI1" s="67" t="n"/>
+      <c r="EJ1" s="65" t="inlineStr">
+        <is>
+          <t>CUIDADO                   PALIATIVO</t>
+        </is>
+      </c>
+      <c r="EK1" s="66" t="n"/>
+      <c r="EL1" s="66" t="n"/>
+      <c r="EM1" s="66" t="n"/>
+      <c r="EN1" s="66" t="n"/>
+      <c r="EO1" s="66" t="n"/>
+      <c r="EP1" s="66" t="n"/>
+      <c r="EQ1" s="66" t="n"/>
+      <c r="ER1" s="67" t="n"/>
+      <c r="ES1" s="68" t="inlineStr">
+        <is>
+          <t>NO SE HACEN (PSIQUIATRIA)</t>
+        </is>
+      </c>
+      <c r="ET1" s="66" t="n"/>
+      <c r="EU1" s="67" t="n"/>
+      <c r="EV1" s="65" t="inlineStr">
+        <is>
+          <t>NUTRICION</t>
+        </is>
+      </c>
+      <c r="EW1" s="66" t="n"/>
+      <c r="EX1" s="66" t="n"/>
+      <c r="EY1" s="67" t="n"/>
+      <c r="EZ1" s="70" t="inlineStr">
+        <is>
+          <t>NO SE HACE</t>
+        </is>
+      </c>
+      <c r="FA1" s="65" t="inlineStr">
+        <is>
+          <t>RESULTADO FINAL DE LA ATENCIÓN</t>
+        </is>
+      </c>
+      <c r="FB1" s="66" t="n"/>
+      <c r="FC1" s="66" t="n"/>
+      <c r="FD1" s="66" t="n"/>
+      <c r="FE1" s="66" t="n"/>
+      <c r="FF1" s="66" t="n"/>
+      <c r="FG1" s="66" t="n"/>
+      <c r="FH1" s="66" t="n"/>
+      <c r="FI1" s="66" t="n"/>
+      <c r="FJ1" s="67" t="n"/>
+      <c r="FK1" s="69" t="n"/>
+    </row>
+    <row r="2" ht="17.9" customHeight="1" s="64">
+      <c r="A2" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="n">
+      <c r="B2" s="65" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="43" t="n">
+      <c r="C2" s="65" t="n">
         <v>3</v>
       </c>
-      <c r="D1" s="43" t="n">
+      <c r="D2" s="65" t="n">
         <v>4</v>
       </c>
-      <c r="E1" s="43" t="n">
+      <c r="E2" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="F1" s="43" t="n">
+      <c r="F2" s="65" t="n">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="n">
+      <c r="G2" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="H1" s="43" t="n">
+      <c r="H2" s="65" t="n">
         <v>8</v>
       </c>
-      <c r="I1" s="43" t="n">
+      <c r="I2" s="65" t="n">
         <v>9</v>
       </c>
-      <c r="J1" s="43" t="n">
+      <c r="J2" s="65" t="n">
         <v>10</v>
       </c>
-      <c r="K1" s="43" t="n">
+      <c r="K2" s="65" t="n">
         <v>11</v>
       </c>
-      <c r="L1" s="43" t="n">
+      <c r="L2" s="65" t="n">
         <v>12</v>
       </c>
-      <c r="M1" s="43" t="n">
+      <c r="M2" s="65" t="n">
         <v>13</v>
       </c>
-      <c r="N1" s="43" t="n">
+      <c r="N2" s="65" t="n">
         <v>14</v>
       </c>
-      <c r="O1" s="43" t="n">
+      <c r="O2" s="65" t="n">
         <v>15</v>
       </c>
-      <c r="P1" s="43" t="n">
+      <c r="P2" s="65" t="n">
         <v>16</v>
       </c>
-      <c r="Q1" s="44" t="n">
+      <c r="Q2" s="68" t="n">
         <v>17</v>
       </c>
-      <c r="R1" s="44" t="n">
+      <c r="R2" s="68" t="n">
         <v>18</v>
       </c>
-      <c r="S1" s="44" t="n">
+      <c r="S2" s="68" t="n">
         <v>19</v>
       </c>
-      <c r="T1" s="44" t="n">
+      <c r="T2" s="68" t="n">
         <v>20</v>
       </c>
-      <c r="U1" s="44" t="n">
+      <c r="U2" s="68" t="n">
         <v>21</v>
       </c>
-      <c r="V1" s="44" t="n">
+      <c r="V2" s="68" t="n">
         <v>22</v>
       </c>
-      <c r="W1" s="44" t="n">
+      <c r="W2" s="68" t="n">
         <v>23</v>
       </c>
-      <c r="X1" s="44" t="n">
+      <c r="X2" s="68" t="n">
         <v>24</v>
       </c>
-      <c r="Y1" s="44" t="n">
+      <c r="Y2" s="68" t="n">
         <v>25</v>
       </c>
-      <c r="Z1" s="44" t="n">
+      <c r="Z2" s="68" t="n">
         <v>26</v>
       </c>
-      <c r="AA1" s="44" t="n">
+      <c r="AA2" s="68" t="n">
         <v>27</v>
       </c>
-      <c r="AB1" s="44" t="n">
+      <c r="AB2" s="68" t="n">
         <v>28</v>
       </c>
-      <c r="AC1" s="44" t="n">
+      <c r="AC2" s="68" t="n">
         <v>29</v>
       </c>
-      <c r="AD1" s="44" t="n">
+      <c r="AD2" s="68" t="n">
         <v>30</v>
       </c>
-      <c r="AE1" s="43" t="n">
+      <c r="AE2" s="65" t="n">
         <v>31</v>
       </c>
-      <c r="AF1" s="43" t="n">
+      <c r="AF2" s="65" t="n">
         <v>32</v>
       </c>
-      <c r="AG1" s="43" t="n">
+      <c r="AG2" s="65" t="n">
         <v>33</v>
       </c>
-      <c r="AH1" s="44" t="n">
+      <c r="AH2" s="68" t="n">
         <v>34</v>
       </c>
-      <c r="AI1" s="44" t="n">
+      <c r="AI2" s="68" t="n">
         <v>35</v>
       </c>
-      <c r="AJ1" s="43" t="n">
+      <c r="AJ2" s="65" t="n">
         <v>36</v>
       </c>
-      <c r="AK1" s="44" t="n">
+      <c r="AK2" s="68" t="n">
         <v>37</v>
       </c>
-      <c r="AL1" s="43" t="n">
+      <c r="AL2" s="65" t="n">
         <v>38</v>
       </c>
-      <c r="AM1" s="43" t="n">
+      <c r="AM2" s="65" t="n">
         <v>39</v>
       </c>
-      <c r="AN1" s="45" t="n">
+      <c r="AN2" s="69" t="n">
         <v>40</v>
       </c>
-      <c r="AO1" s="45" t="n">
+      <c r="AO2" s="69" t="n">
         <v>41</v>
       </c>
-      <c r="AP1" s="45" t="n">
+      <c r="AP2" s="69" t="n">
         <v>42</v>
       </c>
-      <c r="AQ1" s="45" t="n">
+      <c r="AQ2" s="69" t="n">
         <v>43</v>
       </c>
-      <c r="AR1" s="45" t="n">
+      <c r="AR2" s="69" t="n">
         <v>44</v>
       </c>
-      <c r="AS1" s="44" t="n">
+      <c r="AS2" s="68" t="n">
         <v>45</v>
       </c>
-      <c r="AT1" s="44" t="n">
+      <c r="AT2" s="68" t="n">
         <v>46</v>
       </c>
-      <c r="AU1" s="44" t="n">
+      <c r="AU2" s="68" t="n">
         <v>47</v>
       </c>
-      <c r="AV1" s="44" t="n">
+      <c r="AV2" s="68" t="n">
         <v>48</v>
       </c>
-      <c r="AW1" s="44" t="n">
+      <c r="AW2" s="68" t="n">
         <v>49</v>
       </c>
-      <c r="AX1" s="44" t="n">
+      <c r="AX2" s="68" t="n">
         <v>50</v>
       </c>
-      <c r="AY1" s="44" t="n">
+      <c r="AY2" s="68" t="n">
         <v>51</v>
       </c>
-      <c r="AZ1" s="44" t="n">
+      <c r="AZ2" s="68" t="n">
         <v>52</v>
       </c>
-      <c r="BA1" s="44" t="n">
+      <c r="BA2" s="68" t="n">
         <v>53</v>
       </c>
-      <c r="BB1" s="44" t="n">
+      <c r="BB2" s="68" t="n">
         <v>54</v>
       </c>
-      <c r="BC1" s="44" t="n">
+      <c r="BC2" s="68" t="n">
         <v>55</v>
       </c>
-      <c r="BD1" s="44" t="n">
+      <c r="BD2" s="68" t="n">
         <v>56</v>
       </c>
-      <c r="BE1" s="44" t="n">
+      <c r="BE2" s="68" t="n">
         <v>57</v>
       </c>
-      <c r="BF1" s="44" t="n">
+      <c r="BF2" s="68" t="n">
         <v>58</v>
       </c>
-      <c r="BG1" s="44" t="n">
+      <c r="BG2" s="68" t="n">
         <v>59</v>
       </c>
-      <c r="BH1" s="44" t="n">
+      <c r="BH2" s="68" t="n">
         <v>60</v>
       </c>
-      <c r="BI1" s="44" t="n">
+      <c r="BI2" s="68" t="n">
         <v>61</v>
       </c>
-      <c r="BJ1" s="44" t="n">
+      <c r="BJ2" s="68" t="n">
         <v>62</v>
       </c>
-      <c r="BK1" s="44" t="n">
+      <c r="BK2" s="68" t="n">
         <v>63</v>
       </c>
-      <c r="BL1" s="44" t="n">
+      <c r="BL2" s="68" t="n">
         <v>64</v>
       </c>
-      <c r="BM1" s="44" t="n">
+      <c r="BM2" s="68" t="n">
         <v>65</v>
       </c>
-      <c r="BN1" s="44" t="n">
+      <c r="BN2" s="68" t="n">
         <v>66</v>
       </c>
-      <c r="BO1" s="44" t="n">
+      <c r="BO2" s="68" t="n">
         <v>67</v>
       </c>
-      <c r="BP1" s="44" t="n">
+      <c r="BP2" s="68" t="n">
         <v>68</v>
       </c>
-      <c r="BQ1" s="44" t="n">
+      <c r="BQ2" s="68" t="n">
         <v>69</v>
       </c>
-      <c r="BR1" s="44" t="n">
+      <c r="BR2" s="68" t="n">
         <v>70</v>
       </c>
-      <c r="BS1" s="44" t="n">
+      <c r="BS2" s="68" t="n">
         <v>71</v>
       </c>
-      <c r="BT1" s="44" t="n">
+      <c r="BT2" s="68" t="n">
         <v>72</v>
       </c>
-      <c r="BU1" s="44" t="n">
+      <c r="BU2" s="68" t="n">
         <v>73</v>
       </c>
-      <c r="BV1" s="44" t="n">
+      <c r="BV2" s="68" t="n">
         <v>74</v>
       </c>
-      <c r="BW1" s="44" t="n">
+      <c r="BW2" s="68" t="n">
         <v>75</v>
       </c>
-      <c r="BX1" s="44" t="n">
+      <c r="BX2" s="68" t="n">
         <v>76</v>
       </c>
-      <c r="BY1" s="44" t="n">
+      <c r="BY2" s="68" t="n">
         <v>77</v>
       </c>
-      <c r="BZ1" s="43" t="n">
+      <c r="BZ2" s="65" t="n">
         <v>78</v>
       </c>
-      <c r="CA1" s="43" t="n">
+      <c r="CA2" s="65" t="n">
         <v>79</v>
       </c>
-      <c r="CB1" s="43" t="n">
+      <c r="CB2" s="65" t="n">
         <v>80</v>
       </c>
-      <c r="CC1" s="43" t="n">
+      <c r="CC2" s="65" t="n">
         <v>81</v>
       </c>
-      <c r="CD1" s="43" t="n">
+      <c r="CD2" s="65" t="n">
         <v>82</v>
       </c>
-      <c r="CE1" s="43" t="n">
+      <c r="CE2" s="65" t="n">
         <v>83</v>
       </c>
-      <c r="CF1" s="43" t="n">
+      <c r="CF2" s="65" t="n">
         <v>84</v>
       </c>
-      <c r="CG1" s="43" t="n">
+      <c r="CG2" s="65" t="n">
         <v>85</v>
       </c>
-      <c r="CH1" s="43" t="n">
+      <c r="CH2" s="65" t="n">
         <v>86</v>
       </c>
-      <c r="CI1" s="43" t="n">
+      <c r="CI2" s="65" t="n">
         <v>87</v>
       </c>
-      <c r="CJ1" s="43" t="n">
+      <c r="CJ2" s="65" t="n">
         <v>88</v>
       </c>
-      <c r="CK1" s="43" t="n">
+      <c r="CK2" s="65" t="n">
         <v>89</v>
       </c>
-      <c r="CL1" s="43" t="n">
+      <c r="CL2" s="65" t="n">
         <v>90</v>
       </c>
-      <c r="CM1" s="43" t="n">
+      <c r="CM2" s="65" t="n">
         <v>91</v>
       </c>
-      <c r="CN1" s="43" t="n">
+      <c r="CN2" s="65" t="n">
         <v>92</v>
       </c>
-      <c r="CO1" s="43" t="n">
+      <c r="CO2" s="65" t="n">
         <v>93</v>
       </c>
-      <c r="CP1" s="43" t="n">
+      <c r="CP2" s="65" t="n">
         <v>94</v>
       </c>
-      <c r="CQ1" s="43" t="n">
+      <c r="CQ2" s="65" t="n">
         <v>95</v>
       </c>
-      <c r="CR1" s="43" t="n">
+      <c r="CR2" s="65" t="n">
         <v>96</v>
       </c>
-      <c r="CS1" s="43" t="n">
+      <c r="CS2" s="65" t="n">
         <v>97</v>
       </c>
-      <c r="CT1" s="43" t="n">
-        <v>98</v>
-      </c>
-      <c r="CU1" s="43" t="n">
+      <c r="CT2" s="65" t="n">
+        <v>98</v>
+      </c>
+      <c r="CU2" s="65" t="n">
         <v>99</v>
       </c>
-      <c r="CV1" s="44" t="n">
+      <c r="CV2" s="68" t="n">
         <v>100</v>
       </c>
-      <c r="CW1" s="44" t="n">
+      <c r="CW2" s="68" t="n">
         <v>101</v>
       </c>
-      <c r="CX1" s="44" t="n">
+      <c r="CX2" s="68" t="n">
         <v>102</v>
       </c>
-      <c r="CY1" s="44" t="n">
+      <c r="CY2" s="68" t="n">
         <v>103</v>
       </c>
-      <c r="CZ1" s="44" t="n">
+      <c r="CZ2" s="68" t="n">
         <v>104</v>
       </c>
-      <c r="DA1" s="44" t="n">
+      <c r="DA2" s="68" t="n">
         <v>105</v>
       </c>
-      <c r="DB1" s="44" t="n">
+      <c r="DB2" s="68" t="n">
         <v>106</v>
       </c>
-      <c r="DC1" s="44" t="n">
+      <c r="DC2" s="68" t="n">
         <v>107</v>
       </c>
-      <c r="DD1" s="44" t="n">
+      <c r="DD2" s="68" t="n">
         <v>108</v>
       </c>
-      <c r="DE1" s="44" t="n">
+      <c r="DE2" s="68" t="n">
         <v>109</v>
       </c>
-      <c r="DF1" s="44" t="n">
+      <c r="DF2" s="68" t="n">
         <v>110</v>
       </c>
-      <c r="DG1" s="44" t="n">
+      <c r="DG2" s="68" t="n">
         <v>111</v>
       </c>
-      <c r="DH1" s="43" t="n">
+      <c r="DH2" s="65" t="n">
         <v>112</v>
       </c>
-      <c r="DI1" s="43" t="n">
+      <c r="DI2" s="65" t="n">
         <v>113</v>
       </c>
-      <c r="DJ1" s="43" t="n">
+      <c r="DJ2" s="65" t="n">
         <v>114</v>
       </c>
-      <c r="DK1" s="43" t="n">
+      <c r="DK2" s="65" t="n">
         <v>115</v>
       </c>
-      <c r="DL1" s="43" t="n">
+      <c r="DL2" s="65" t="n">
         <v>116</v>
       </c>
-      <c r="DM1" s="43" t="n">
+      <c r="DM2" s="65" t="n">
         <v>117</v>
       </c>
-      <c r="DN1" s="43" t="n">
+      <c r="DN2" s="65" t="n">
         <v>118</v>
       </c>
-      <c r="DO1" s="43" t="n">
+      <c r="DO2" s="65" t="n">
         <v>119</v>
       </c>
-      <c r="DP1" s="43" t="n">
+      <c r="DP2" s="65" t="n">
         <v>120</v>
       </c>
-      <c r="DQ1" s="43" t="n">
+      <c r="DQ2" s="65" t="n">
         <v>121</v>
       </c>
-      <c r="DR1" s="43" t="n">
+      <c r="DR2" s="65" t="n">
         <v>122</v>
       </c>
-      <c r="DS1" s="43" t="n">
+      <c r="DS2" s="65" t="n">
         <v>123</v>
       </c>
-      <c r="DT1" s="43" t="n">
+      <c r="DT2" s="65" t="n">
         <v>124</v>
       </c>
-      <c r="DU1" s="43" t="n">
+      <c r="DU2" s="65" t="n">
         <v>125</v>
       </c>
-      <c r="DV1" s="43" t="n">
+      <c r="DV2" s="65" t="n">
         <v>126</v>
       </c>
-      <c r="DW1" s="43" t="n">
+      <c r="DW2" s="65" t="n">
         <v>127</v>
       </c>
-      <c r="DX1" s="43" t="n">
+      <c r="DX2" s="65" t="n">
         <v>128</v>
       </c>
-      <c r="DY1" s="43" t="n">
+      <c r="DY2" s="65" t="n">
         <v>129</v>
       </c>
-      <c r="DZ1" s="43" t="n">
+      <c r="DZ2" s="65" t="n">
         <v>130</v>
       </c>
-      <c r="EA1" s="43" t="n">
+      <c r="EA2" s="65" t="n">
         <v>131</v>
       </c>
-      <c r="EB1" s="44" t="n">
+      <c r="EB2" s="68" t="n">
         <v>132</v>
       </c>
-      <c r="EC1" s="44" t="n">
+      <c r="EC2" s="68" t="n">
         <v>133</v>
       </c>
-      <c r="ED1" s="44" t="n">
+      <c r="ED2" s="68" t="n">
         <v>134</v>
       </c>
-      <c r="EE1" s="44" t="n">
+      <c r="EE2" s="68" t="n">
         <v>135</v>
       </c>
-      <c r="EF1" s="44" t="n">
+      <c r="EF2" s="68" t="n">
         <v>136</v>
       </c>
-      <c r="EG1" s="44" t="n">
+      <c r="EG2" s="68" t="n">
         <v>137</v>
       </c>
-      <c r="EH1" s="44" t="n">
+      <c r="EH2" s="68" t="n">
         <v>138</v>
       </c>
-      <c r="EI1" s="44" t="n">
+      <c r="EI2" s="68" t="n">
         <v>139</v>
       </c>
-      <c r="EJ1" s="43" t="n">
+      <c r="EJ2" s="65" t="n">
         <v>140</v>
       </c>
-      <c r="EK1" s="43" t="n">
+      <c r="EK2" s="65" t="n">
         <v>141</v>
       </c>
-      <c r="EL1" s="43" t="n">
+      <c r="EL2" s="65" t="n">
         <v>142</v>
       </c>
-      <c r="EM1" s="43" t="n">
+      <c r="EM2" s="65" t="n">
         <v>143</v>
       </c>
-      <c r="EN1" s="43" t="n">
+      <c r="EN2" s="65" t="n">
         <v>144</v>
       </c>
-      <c r="EO1" s="43" t="n">
+      <c r="EO2" s="65" t="n">
         <v>145</v>
       </c>
-      <c r="EP1" s="43" t="n">
+      <c r="EP2" s="65" t="n">
         <v>146</v>
       </c>
-      <c r="EQ1" s="43" t="n">
+      <c r="EQ2" s="65" t="n">
         <v>147</v>
       </c>
-      <c r="ER1" s="43" t="n">
+      <c r="ER2" s="65" t="n">
         <v>148</v>
       </c>
-      <c r="ES1" s="44" t="n">
+      <c r="ES2" s="68" t="n">
         <v>149</v>
       </c>
-      <c r="ET1" s="44" t="n">
+      <c r="ET2" s="68" t="n">
         <v>150</v>
       </c>
-      <c r="EU1" s="44" t="n">
+      <c r="EU2" s="68" t="n">
         <v>151</v>
       </c>
-      <c r="EV1" s="43" t="n">
+      <c r="EV2" s="65" t="n">
         <v>152</v>
       </c>
-      <c r="EW1" s="43" t="n">
+      <c r="EW2" s="65" t="n">
         <v>153</v>
       </c>
-      <c r="EX1" s="43" t="n">
+      <c r="EX2" s="65" t="n">
         <v>154</v>
       </c>
-      <c r="EY1" s="43" t="n">
+      <c r="EY2" s="65" t="n">
         <v>155</v>
       </c>
-      <c r="EZ1" s="46" t="n">
+      <c r="EZ2" s="70" t="n">
         <v>156</v>
       </c>
-      <c r="FA1" s="43" t="n">
+      <c r="FA2" s="65" t="n">
         <v>157</v>
       </c>
-      <c r="FB1" s="43" t="n">
+      <c r="FB2" s="65" t="n">
         <v>158</v>
       </c>
-      <c r="FC1" s="43" t="n">
+      <c r="FC2" s="65" t="n">
         <v>159</v>
       </c>
-      <c r="FD1" s="43" t="n">
+      <c r="FD2" s="65" t="n">
         <v>160</v>
       </c>
-      <c r="FE1" s="43" t="n">
+      <c r="FE2" s="65" t="n">
         <v>161</v>
       </c>
-      <c r="FF1" s="43" t="n">
+      <c r="FF2" s="65" t="n">
         <v>162</v>
       </c>
-      <c r="FG1" s="43" t="n">
+      <c r="FG2" s="65" t="n">
         <v>163</v>
       </c>
-      <c r="FH1" s="43" t="n">
+      <c r="FH2" s="65" t="n">
         <v>164</v>
       </c>
-      <c r="FI1" s="43" t="n">
+      <c r="FI2" s="65" t="n">
         <v>165</v>
       </c>
-      <c r="FJ1" s="43" t="n">
+      <c r="FJ2" s="65" t="n">
         <v>166</v>
       </c>
+      <c r="FK2" s="69" t="n"/>
     </row>
-    <row r="2" ht="56.25" customHeight="1" s="42">
-      <c r="A2" s="47" t="inlineStr">
+    <row r="3" ht="18.65" customHeight="1" s="64">
+      <c r="A3" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="71" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="71" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="71" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="71" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="71" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="71" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" s="71" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="71" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" s="71" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" s="72" t="n">
+        <v>13</v>
+      </c>
+      <c r="N3" s="71" t="n">
+        <v>14</v>
+      </c>
+      <c r="O3" s="73" t="n">
+        <v>15</v>
+      </c>
+      <c r="P3" s="71" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="71" t="n">
+        <v>17</v>
+      </c>
+      <c r="R3" s="71" t="n">
+        <v>18</v>
+      </c>
+      <c r="S3" s="71" t="n">
+        <v>19</v>
+      </c>
+      <c r="T3" s="71" t="n">
+        <v>20</v>
+      </c>
+      <c r="U3" s="71" t="n">
+        <v>21</v>
+      </c>
+      <c r="V3" s="71" t="n">
+        <v>22</v>
+      </c>
+      <c r="W3" s="71" t="n">
+        <v>23</v>
+      </c>
+      <c r="X3" s="71" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="71" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="71" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="71" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="71" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="71" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="71" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="71" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="71" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="71" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="71" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="71" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="71" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="71" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL3" s="74" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM3" s="74" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="71" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="71" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" s="71" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ3" s="71" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR3" s="71" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS3" s="71" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT3" s="75" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU3" s="74" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="AV3" s="74" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="AW3" s="74" t="inlineStr">
+        <is>
+          <t>46.3</t>
+        </is>
+      </c>
+      <c r="AX3" s="74" t="inlineStr">
+        <is>
+          <t>46.4</t>
+        </is>
+      </c>
+      <c r="AY3" s="74" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
+      <c r="AZ3" s="74" t="inlineStr">
+        <is>
+          <t>46.6</t>
+        </is>
+      </c>
+      <c r="BA3" s="74" t="inlineStr">
+        <is>
+          <t>46.7</t>
+        </is>
+      </c>
+      <c r="BB3" s="74" t="inlineStr">
+        <is>
+          <t>46.8</t>
+        </is>
+      </c>
+      <c r="BC3" s="71" t="n">
+        <v>47</v>
+      </c>
+      <c r="BD3" s="71" t="n">
+        <v>48</v>
+      </c>
+      <c r="BE3" s="71" t="n">
+        <v>49</v>
+      </c>
+      <c r="BF3" s="71" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG3" s="71" t="n">
+        <v>51</v>
+      </c>
+      <c r="BH3" s="71" t="n">
+        <v>52</v>
+      </c>
+      <c r="BI3" s="71" t="n">
+        <v>53</v>
+      </c>
+      <c r="BJ3" s="76" t="inlineStr">
+        <is>
+          <t>53.1</t>
+        </is>
+      </c>
+      <c r="BK3" s="76" t="inlineStr">
+        <is>
+          <t>53.2</t>
+        </is>
+      </c>
+      <c r="BL3" s="76" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
+      <c r="BM3" s="76" t="inlineStr">
+        <is>
+          <t>53.4</t>
+        </is>
+      </c>
+      <c r="BN3" s="76" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="BO3" s="76" t="inlineStr">
+        <is>
+          <t>53.6</t>
+        </is>
+      </c>
+      <c r="BP3" s="76" t="inlineStr">
+        <is>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="BQ3" s="76" t="inlineStr">
+        <is>
+          <t>53.8</t>
+        </is>
+      </c>
+      <c r="BR3" s="76" t="inlineStr">
+        <is>
+          <t>53.9</t>
+        </is>
+      </c>
+      <c r="BS3" s="76" t="n">
+        <v>54</v>
+      </c>
+      <c r="BT3" s="76" t="n">
+        <v>55</v>
+      </c>
+      <c r="BU3" s="76" t="n">
+        <v>56</v>
+      </c>
+      <c r="BV3" s="71" t="n">
+        <v>57</v>
+      </c>
+      <c r="BW3" s="71" t="n">
+        <v>58</v>
+      </c>
+      <c r="BX3" s="71" t="n">
+        <v>59</v>
+      </c>
+      <c r="BY3" s="71" t="n">
+        <v>60</v>
+      </c>
+      <c r="BZ3" s="71" t="n">
+        <v>61</v>
+      </c>
+      <c r="CA3" s="71" t="n">
+        <v>62</v>
+      </c>
+      <c r="CB3" s="71" t="n">
+        <v>63</v>
+      </c>
+      <c r="CC3" s="71" t="n">
+        <v>64</v>
+      </c>
+      <c r="CD3" s="71" t="n">
+        <v>65</v>
+      </c>
+      <c r="CE3" s="71" t="n">
+        <v>66</v>
+      </c>
+      <c r="CF3" s="76" t="inlineStr">
+        <is>
+          <t>66.1</t>
+        </is>
+      </c>
+      <c r="CG3" s="76" t="inlineStr">
+        <is>
+          <t>66.2</t>
+        </is>
+      </c>
+      <c r="CH3" s="76" t="inlineStr">
+        <is>
+          <t>66.3</t>
+        </is>
+      </c>
+      <c r="CI3" s="76" t="inlineStr">
+        <is>
+          <t>66.4</t>
+        </is>
+      </c>
+      <c r="CJ3" s="76" t="inlineStr">
+        <is>
+          <t>66.5</t>
+        </is>
+      </c>
+      <c r="CK3" s="76" t="inlineStr">
+        <is>
+          <t>66.6</t>
+        </is>
+      </c>
+      <c r="CL3" s="76" t="inlineStr">
+        <is>
+          <t>66.7</t>
+        </is>
+      </c>
+      <c r="CM3" s="76" t="inlineStr">
+        <is>
+          <t>66.8</t>
+        </is>
+      </c>
+      <c r="CN3" s="76" t="inlineStr">
+        <is>
+          <t>66.9</t>
+        </is>
+      </c>
+      <c r="CO3" s="76" t="n">
+        <v>67</v>
+      </c>
+      <c r="CP3" s="76" t="n">
+        <v>68</v>
+      </c>
+      <c r="CQ3" s="76" t="n">
+        <v>69</v>
+      </c>
+      <c r="CR3" s="71" t="n">
+        <v>70</v>
+      </c>
+      <c r="CS3" s="71" t="n">
+        <v>71</v>
+      </c>
+      <c r="CT3" s="71" t="n">
+        <v>72</v>
+      </c>
+      <c r="CU3" s="71" t="n">
+        <v>73</v>
+      </c>
+      <c r="CV3" s="71" t="n">
+        <v>74</v>
+      </c>
+      <c r="CW3" s="71" t="n">
+        <v>75</v>
+      </c>
+      <c r="CX3" s="71" t="n">
+        <v>76</v>
+      </c>
+      <c r="CY3" s="71" t="n">
+        <v>77</v>
+      </c>
+      <c r="CZ3" s="71" t="n">
+        <v>78</v>
+      </c>
+      <c r="DA3" s="71" t="n">
+        <v>79</v>
+      </c>
+      <c r="DB3" s="71" t="n">
+        <v>80</v>
+      </c>
+      <c r="DC3" s="71" t="n">
+        <v>81</v>
+      </c>
+      <c r="DD3" s="71" t="n">
+        <v>82</v>
+      </c>
+      <c r="DE3" s="71" t="n">
+        <v>83</v>
+      </c>
+      <c r="DF3" s="71" t="n">
+        <v>84</v>
+      </c>
+      <c r="DG3" s="71" t="n">
+        <v>85</v>
+      </c>
+      <c r="DH3" s="71" t="n">
+        <v>86</v>
+      </c>
+      <c r="DI3" s="71" t="n">
+        <v>87</v>
+      </c>
+      <c r="DJ3" s="71" t="n">
+        <v>88</v>
+      </c>
+      <c r="DK3" s="71" t="n">
+        <v>89</v>
+      </c>
+      <c r="DL3" s="71" t="n">
+        <v>90</v>
+      </c>
+      <c r="DM3" s="71" t="n">
+        <v>91</v>
+      </c>
+      <c r="DN3" s="71" t="n">
+        <v>92</v>
+      </c>
+      <c r="DO3" s="71" t="n">
+        <v>93</v>
+      </c>
+      <c r="DP3" s="71" t="n">
+        <v>94</v>
+      </c>
+      <c r="DQ3" s="71" t="n">
+        <v>95</v>
+      </c>
+      <c r="DR3" s="71" t="n">
+        <v>96</v>
+      </c>
+      <c r="DS3" s="71" t="n">
+        <v>97</v>
+      </c>
+      <c r="DT3" s="71" t="n">
+        <v>98</v>
+      </c>
+      <c r="DU3" s="71" t="n">
+        <v>99</v>
+      </c>
+      <c r="DV3" s="71" t="n">
+        <v>100</v>
+      </c>
+      <c r="DW3" s="71" t="n">
+        <v>101</v>
+      </c>
+      <c r="DX3" s="71" t="n">
+        <v>102</v>
+      </c>
+      <c r="DY3" s="71" t="n">
+        <v>103</v>
+      </c>
+      <c r="DZ3" s="71" t="n">
+        <v>104</v>
+      </c>
+      <c r="EA3" s="71" t="n">
+        <v>105</v>
+      </c>
+      <c r="EB3" s="71" t="n">
+        <v>106</v>
+      </c>
+      <c r="EC3" s="71" t="n">
+        <v>107</v>
+      </c>
+      <c r="ED3" s="71" t="n">
+        <v>108</v>
+      </c>
+      <c r="EE3" s="71" t="n">
+        <v>109</v>
+      </c>
+      <c r="EF3" s="71" t="n">
+        <v>110</v>
+      </c>
+      <c r="EG3" s="71" t="n">
+        <v>111</v>
+      </c>
+      <c r="EH3" s="71" t="n">
+        <v>112</v>
+      </c>
+      <c r="EI3" s="71" t="n">
+        <v>113</v>
+      </c>
+      <c r="EJ3" s="71" t="n">
+        <v>114</v>
+      </c>
+      <c r="EK3" s="71" t="inlineStr">
+        <is>
+          <t>114.1</t>
+        </is>
+      </c>
+      <c r="EL3" s="71" t="inlineStr">
+        <is>
+          <t>114.2</t>
+        </is>
+      </c>
+      <c r="EM3" s="71" t="inlineStr">
+        <is>
+          <t>114.3</t>
+        </is>
+      </c>
+      <c r="EN3" s="71" t="inlineStr">
+        <is>
+          <t>114.4</t>
+        </is>
+      </c>
+      <c r="EO3" s="71" t="inlineStr">
+        <is>
+          <t>114.5</t>
+        </is>
+      </c>
+      <c r="EP3" s="71" t="inlineStr">
+        <is>
+          <t>114.6</t>
+        </is>
+      </c>
+      <c r="EQ3" s="71" t="n">
+        <v>115</v>
+      </c>
+      <c r="ER3" s="71" t="n">
+        <v>116</v>
+      </c>
+      <c r="ES3" s="71" t="n">
+        <v>117</v>
+      </c>
+      <c r="ET3" s="71" t="n">
+        <v>118</v>
+      </c>
+      <c r="EU3" s="71" t="n">
+        <v>119</v>
+      </c>
+      <c r="EV3" s="71" t="n">
+        <v>120</v>
+      </c>
+      <c r="EW3" s="71" t="n">
+        <v>121</v>
+      </c>
+      <c r="EX3" s="71" t="n">
+        <v>122</v>
+      </c>
+      <c r="EY3" s="71" t="n">
+        <v>123</v>
+      </c>
+      <c r="EZ3" s="71" t="n">
+        <v>124</v>
+      </c>
+      <c r="FA3" s="71" t="n">
+        <v>125</v>
+      </c>
+      <c r="FB3" s="71" t="n">
+        <v>126</v>
+      </c>
+      <c r="FC3" s="71" t="n">
+        <v>127</v>
+      </c>
+      <c r="FD3" s="71" t="n">
+        <v>128</v>
+      </c>
+      <c r="FE3" s="71" t="n">
+        <v>129</v>
+      </c>
+      <c r="FF3" s="71" t="n">
+        <v>130</v>
+      </c>
+      <c r="FG3" s="71" t="n">
+        <v>131</v>
+      </c>
+      <c r="FH3" s="71" t="n">
+        <v>132</v>
+      </c>
+      <c r="FI3" s="71" t="n">
+        <v>133</v>
+      </c>
+      <c r="FJ3" s="71" t="n">
+        <v>134</v>
+      </c>
+      <c r="FK3" s="77" t="n"/>
+    </row>
+    <row r="4" ht="98.5" customHeight="1" s="64">
+      <c r="A4" s="78" t="inlineStr">
         <is>
           <t>Primer nombre</t>
         </is>
       </c>
-      <c r="B2" s="47" t="inlineStr">
+      <c r="B4" s="78" t="inlineStr">
         <is>
           <t>Segundo nombre</t>
         </is>
       </c>
-      <c r="C2" s="47" t="inlineStr">
+      <c r="C4" s="78" t="inlineStr">
         <is>
           <t>Primer apellido</t>
         </is>
       </c>
-      <c r="D2" s="47" t="inlineStr">
+      <c r="D4" s="78" t="inlineStr">
         <is>
           <t>Segundo apellido</t>
         </is>
       </c>
-      <c r="E2" s="47" t="inlineStr">
+      <c r="E4" s="78" t="inlineStr">
         <is>
           <t>Tipo de Identificación</t>
         </is>
       </c>
-      <c r="F2" s="47" t="inlineStr">
+      <c r="F4" s="78" t="inlineStr">
         <is>
           <t>Número de Identificación</t>
         </is>
       </c>
-      <c r="G2" s="47" t="inlineStr">
+      <c r="G4" s="78" t="inlineStr">
         <is>
           <t>Fecha de nacimiento</t>
         </is>
       </c>
-      <c r="H2" s="47" t="inlineStr">
+      <c r="H4" s="78" t="inlineStr">
         <is>
           <t>Sexo</t>
         </is>
       </c>
-      <c r="I2" s="47" t="inlineStr">
+      <c r="I4" s="78" t="inlineStr">
         <is>
           <t>Ocupación</t>
         </is>
       </c>
-      <c r="J2" s="47" t="inlineStr">
+      <c r="J4" s="78" t="inlineStr">
         <is>
           <t>Régimen de afiliación AL SGSSS</t>
         </is>
       </c>
-      <c r="K2" s="47" t="inlineStr">
+      <c r="K4" s="78" t="inlineStr">
         <is>
           <t>EPS</t>
         </is>
       </c>
-      <c r="L2" s="47" t="inlineStr">
+      <c r="L4" s="78" t="inlineStr">
         <is>
           <t>Código pertenencia étnica</t>
         </is>
       </c>
-      <c r="M2" s="48" t="inlineStr">
+      <c r="M4" s="79" t="inlineStr">
         <is>
           <t>Grupo poblacional</t>
         </is>
       </c>
-      <c r="N2" s="47" t="inlineStr">
+      <c r="N4" s="78" t="inlineStr">
         <is>
           <t>Municipio  de residencia</t>
         </is>
       </c>
-      <c r="O2" s="49" t="inlineStr">
+      <c r="O4" s="80" t="inlineStr">
         <is>
           <t>Número telefónico del paciente (incluyendo a familiares y cuidadores)</t>
         </is>
       </c>
-      <c r="P2" s="50" t="inlineStr">
+      <c r="P4" s="81" t="inlineStr">
         <is>
           <t>Fecha de afiliación a la EAPB que reporta</t>
         </is>
       </c>
-      <c r="Q2" s="47" t="inlineStr">
+      <c r="Q4" s="78" t="inlineStr">
         <is>
           <t>Nombre de la neoplasia, cáncer o tumor</t>
         </is>
       </c>
-      <c r="R2" s="51" t="inlineStr">
+      <c r="R4" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">Fecha de Diagnóstico del Cáncer reportado </t>
         </is>
       </c>
-      <c r="S2" s="52" t="inlineStr">
+      <c r="S4" s="83" t="inlineStr">
         <is>
           <t>Fecha de la nota de remisión del médico</t>
         </is>
       </c>
-      <c r="T2" s="53" t="inlineStr">
+      <c r="T4" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">Fecha de ingreso a la institución que realizó el diagnóstico luego de la remisión intenconsulta </t>
         </is>
       </c>
-      <c r="U2" s="54" t="inlineStr">
+      <c r="U4" s="85" t="inlineStr">
         <is>
           <t>Tipo de estudio con el que se realizó el diagnóstico de cáncer</t>
         </is>
       </c>
-      <c r="V2" s="55" t="inlineStr">
+      <c r="V4" s="86" t="inlineStr">
         <is>
           <t>Motivo por el cual el usuario no tuvo diagnóstico por histopatología (aplica para registros con respuesta igual a 7 en la variable anterior)</t>
         </is>
       </c>
-      <c r="W2" s="56" t="inlineStr">
+      <c r="W4" s="87" t="inlineStr">
         <is>
           <t xml:space="preserve">Fecha de recolección de muestra para estudio histopatológico de diagnóstico </t>
         </is>
       </c>
-      <c r="X2" s="57" t="inlineStr">
+      <c r="X4" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">Fecha de Primero o único informe histopatológico válido de diagnóstico </t>
         </is>
       </c>
-      <c r="Y2" s="58" t="inlineStr">
+      <c r="Y4" s="89" t="inlineStr">
         <is>
           <t>Código válido de habilitación de la IPS donde se realiza la confirmación diagnóstica</t>
         </is>
       </c>
-      <c r="Z2" s="53" t="inlineStr">
+      <c r="Z4" s="84" t="inlineStr">
         <is>
           <t>Fecha de primera consulta con médico tratante de la enfermedad maligna(médico especialista que define la primera conducta terapéutica-terapia sistémica, cirugía , radioterapia  o cuidado paliativos- manejo expectante)</t>
         </is>
       </c>
-      <c r="AA2" s="59" t="inlineStr">
+      <c r="AA4" s="90" t="inlineStr">
         <is>
           <t>Histología del tumor en muestra de biopsia o quirúrgica</t>
         </is>
       </c>
-      <c r="AB2" s="60" t="inlineStr">
+      <c r="AB4" s="91" t="inlineStr">
         <is>
           <t>Grado de diferenciación del tumor sólido maligno según la biopsia o informe de primera cirugía</t>
         </is>
       </c>
-      <c r="AC2" s="60" t="inlineStr">
+      <c r="AC4" s="91" t="inlineStr">
         <is>
           <t>Si es tumor sólido, cuál fue la primera estadificación basada en TNM, FIGO, u otras compatibles con esta numeración según tumor.</t>
         </is>
       </c>
-      <c r="AD2" s="61" t="inlineStr">
+      <c r="AD4" s="92" t="inlineStr">
         <is>
           <t>Fecha en que se realizó esta estadificación</t>
         </is>
       </c>
-      <c r="AE2" s="62" t="inlineStr">
+      <c r="AE4" s="93" t="inlineStr">
         <is>
           <t>Para cáncer de mama, ¿se le realizó a este usuario la prueba HER2 (llamado también receptor 2 del factor de crecimiento epidérmico humano, también llamado erb-B2) antes del inicio del tratamiento?</t>
         </is>
       </c>
-      <c r="AF2" s="63" t="inlineStr">
+      <c r="AF4" s="94" t="inlineStr">
         <is>
           <t>Para cáncer de mama, fecha de realización de la primera prueba HER2</t>
         </is>
       </c>
-      <c r="AG2" s="64" t="inlineStr">
+      <c r="AG4" s="95" t="inlineStr">
         <is>
           <t>Para cáncer de mama, resultado de la ultima prueba HER2</t>
         </is>
       </c>
-      <c r="AH2" s="64" t="inlineStr">
+      <c r="AH4" s="95" t="inlineStr">
         <is>
           <t>Para cáncer colorrectal, estadificación de Dukes</t>
         </is>
       </c>
-      <c r="AI2" s="64" t="inlineStr">
+      <c r="AI4" s="95" t="inlineStr">
         <is>
           <t>Fecha en que se realizó la estadificación de Dukes</t>
         </is>
       </c>
-      <c r="AJ2" s="60" t="inlineStr">
+      <c r="AJ4" s="91" t="inlineStr">
         <is>
           <t>Estadificación clínica  en linfoma no Hodgkin (Murphy) y linfoma Hodgkin (Ann Arbor)</t>
         </is>
       </c>
-      <c r="AK2" s="60" t="inlineStr">
+      <c r="AK4" s="91" t="inlineStr">
         <is>
           <t>Para cáncer de próstata, valor de clasificación de la escala Gleason en el momento del diagnóstico</t>
         </is>
       </c>
-      <c r="AL2" s="65" t="inlineStr">
+      <c r="AL4" s="96" t="inlineStr">
         <is>
           <t>Clasificación de riesgo leucemias o linfomas (para toda la población), (ver documento de apoyo Clasificación de Riesgo por tipo de cáncer, disponible en la página web CAC)</t>
         </is>
       </c>
-      <c r="AM2" s="64" t="inlineStr">
+      <c r="AM4" s="95" t="inlineStr">
         <is>
           <t>Fecha de clasificación de riesgo</t>
         </is>
       </c>
-      <c r="AN2" s="66" t="inlineStr">
+      <c r="AN4" s="97" t="inlineStr">
         <is>
           <t>Objetivo (o intención) del tratamiento médico inicial (al diagnóstico)</t>
         </is>
       </c>
-      <c r="AO2" s="67" t="inlineStr">
+      <c r="AO4" s="98" t="inlineStr">
         <is>
           <t>Objetivo de la intervención médica durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="AP2" s="62" t="inlineStr">
+      <c r="AP4" s="93" t="inlineStr">
         <is>
           <t>Tiene antecedente de otro cáncer primario (es decir, tiene o tuvo otro tumor maligno diferente al que está notificando)</t>
         </is>
       </c>
-      <c r="AQ2" s="59" t="inlineStr">
+      <c r="AQ4" s="90" t="inlineStr">
         <is>
           <t>Fecha de diagnóstico del otro cáncer primario</t>
         </is>
       </c>
-      <c r="AR2" s="68" t="inlineStr">
+      <c r="AR4" s="99" t="inlineStr">
         <is>
           <t>Tipo (CIE-10)  de ese cáncer antecedente</t>
         </is>
       </c>
-      <c r="AS2" s="62" t="inlineStr">
+      <c r="AS4" s="93" t="inlineStr">
         <is>
           <t>¿Recibió el usuario quimioterapia u otra terapia sistémica (incluye quimioterapia, hormonoterapia, inmunoterapia) dentro del periodo de corte actual? (Aclaración: en esta sección solo incluya ciclos iniciados en este corte. Por favor, no incluya el último ciclo informado como "actual" en el corte anterior, así se haya terminado en el periodo actual de reporte).</t>
         </is>
       </c>
-      <c r="AT2" s="62" t="inlineStr">
+      <c r="AT4" s="93" t="inlineStr">
         <is>
           <t>¿Cuántas fases de quimioterapia recibió el usuario en este periodo de reporte? (aplica para hematolinfáticos con los siguientes códigos de clasificación diagnóstica CIE-10; C835 Linfoma no hodgkin linfoblástico (difuso), C910 Leucemia linfoblástica aguda, C920 Leucemia mieloide aguda, C924 Leucemia promielocitica aguda y C925 Leucemia mielomonocítica aguda)</t>
         </is>
       </c>
-      <c r="AU2" s="62" t="inlineStr">
+      <c r="AU4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve">El usuario recibió en este corte la fase de quimioterapia denominada Prefase o Citorreducción inicial (aplica solo para leucemia linfoide aguda y linfoma linfoblástico, puede haber recibido más de una fase): </t>
         </is>
       </c>
-      <c r="AV2" s="62" t="inlineStr">
+      <c r="AV4" s="93" t="inlineStr">
         <is>
           <t>El usuario recibió en este corte la fase de quimioterapia denominada Inducción (aplica solo para leucemia linfoide o mieloide aguda y linfoma linfoblástico, puede haber recibido más de una fase)</t>
         </is>
       </c>
-      <c r="AW2" s="62" t="inlineStr">
+      <c r="AW4" s="93" t="inlineStr">
         <is>
           <t>El usuario recibió en este corte la fase de quimioterapia denominada Intensificación (aplica solo para leucemia linfoide aguda y o mieloide  aguda ,linfoma linfoblástico, puede haber recibido más de una fase)</t>
         </is>
       </c>
-      <c r="AX2" s="62" t="inlineStr">
+      <c r="AX4" s="93" t="inlineStr">
         <is>
           <t>El usuario recibió en este corte la fase de quimioterapia denominada Consolidación (aplica solo para leucemia linfoide aguda y o mieloide aguda ,linfoma linfoblástico, puede haber recibido más de una fase)</t>
         </is>
       </c>
-      <c r="AY2" s="62" t="inlineStr">
+      <c r="AY4" s="93" t="inlineStr">
         <is>
           <t>El usuario recibió en este corte la fase de quimioterapia denominada Reinducción (aplica solo para leucemia linfoide aguda y linfoma linfoblástico, puede haber recibido más de una fase</t>
         </is>
       </c>
-      <c r="AZ2" s="62" t="inlineStr">
+      <c r="AZ4" s="93" t="inlineStr">
         <is>
           <t>El usuario recibió en este corte la fase de quimioterapia denominada Mantenimiento (aplica solo para leucemia linfoide o mieloide aguda y linfoma linfoblástico, puede haber recibido más de una fase)</t>
         </is>
       </c>
-      <c r="BA2" s="62" t="inlineStr">
+      <c r="BA4" s="93" t="inlineStr">
         <is>
           <t>El usuario recibió en este corte la fase de quimioterapia denominada Mantenimiento largo o final (aplica solo para leucemia linfoide o mieloide aguda y linfoma linfoblástico, puede haber recibido más de una fase)</t>
         </is>
       </c>
-      <c r="BB2" s="62" t="inlineStr">
+      <c r="BB4" s="93" t="inlineStr">
         <is>
           <t>El usuario recibió en este corte Otra fase de quimioterapia denominada diferente a las anteriores (aplica solo para leucemia linfoide o mieloide  aguda y linfoma linfoblástico, puede haber recibido más de una fase)</t>
         </is>
       </c>
-      <c r="BC2" s="58" t="inlineStr">
+      <c r="BC4" s="89" t="inlineStr">
         <is>
           <t>Número de ciclos iniciados y administrados en el periodo de reporte, incluyendo  el que aún recibe en la fecha de corte.</t>
         </is>
       </c>
-      <c r="BD2" s="67" t="inlineStr">
+      <c r="BD4" s="98" t="inlineStr">
         <is>
           <t>Ubicación temporal del primer o único esquema de quimioterapia o terapía sistemica en el periodo en relación al manejo oncológico</t>
         </is>
       </c>
-      <c r="BE2" s="53" t="inlineStr">
+      <c r="BE4" s="84" t="inlineStr">
         <is>
           <t>Fecha de inicio del primer o único esquema de quimioterapia o terapia sistémica que recibió en este periodo.  Este esquema pudo haber sido iniciado antes de periodo de reporte</t>
         </is>
       </c>
-      <c r="BF2" s="67" t="inlineStr">
+      <c r="BF4" s="98" t="inlineStr">
         <is>
           <t xml:space="preserve">Número de IPS que suministran el primer o único esquema  de quimioterapia  o terapia sistemica de este periodo de reporte </t>
         </is>
       </c>
-      <c r="BG2" s="67" t="inlineStr">
+      <c r="BG4" s="98" t="inlineStr">
         <is>
           <t>Código de la IPS1 que suministra el primer o único esquema de quimioterapia o terapía sistemica  de este corte</t>
         </is>
       </c>
-      <c r="BH2" s="59" t="inlineStr">
+      <c r="BH4" s="90" t="inlineStr">
         <is>
           <t>Código de la IPS2 que suministra el primer ciclo de este corte</t>
         </is>
       </c>
-      <c r="BI2" s="67" t="inlineStr">
+      <c r="BI4" s="98" t="inlineStr">
         <is>
           <t>Cuantos medicamentos antineoplásicos, el (los) especialista(s) tratante(s) del cáncer propusieron como manejo en el primer o único esquema de quimioterapia o terapia sistemica  de este corte</t>
         </is>
       </c>
-      <c r="BJ2" s="62" t="inlineStr">
+      <c r="BJ4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BK2" s="62" t="inlineStr">
+      <c r="BK4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BL2" s="62" t="inlineStr">
+      <c r="BL4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BM2" s="62" t="inlineStr">
+      <c r="BM4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BN2" s="62" t="inlineStr">
+      <c r="BN4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BO2" s="62" t="inlineStr">
+      <c r="BO4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BP2" s="62" t="inlineStr">
+      <c r="BP4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BQ2" s="62" t="inlineStr">
+      <c r="BQ4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BR2" s="62" t="inlineStr">
+      <c r="BR4" s="93" t="inlineStr">
         <is>
           <t>Medicamento antineoplasico administrado al usuario - primer o unico esquema del periodo</t>
         </is>
       </c>
-      <c r="BS2" s="54" t="inlineStr">
+      <c r="BS4" s="85" t="inlineStr">
         <is>
           <t>Medicamento Antineoplásico o terapia hormonal para el cáncer, adicional a los reportados en las variables 53.1 a 53.9 - 1 administrado al usuario- primer o único esquema del periodo de reporte</t>
         </is>
       </c>
-      <c r="BT2" s="54" t="inlineStr">
+      <c r="BT4" s="85" t="inlineStr">
         <is>
           <t>Medicamento Antineoplásico o terapia hormonal para el cáncer, adicional a los reportados en
 las variables 53.1 a 53.9 - 2 administrado al usuario- primer o único esquema del periodo de
 reporte</t>
         </is>
       </c>
-      <c r="BU2" s="54" t="inlineStr">
+      <c r="BU4" s="85" t="inlineStr">
         <is>
           <t>Medicamento Antineoplásico o terapia hormonal para el cáncer, adicional a los reportados en
 las variables 53.1 a 53.9 - 3 administrado al usuario- primer o único esquema del periodo de
 reporte</t>
         </is>
       </c>
-      <c r="BV2" s="62" t="inlineStr">
+      <c r="BV4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve">¿Recibió quimioterapia intratecal en el primer o único esquema de este periodo de reporte?: </t>
         </is>
       </c>
-      <c r="BW2" s="69" t="inlineStr">
+      <c r="BW4" s="100" t="inlineStr">
         <is>
           <t>Fecha de finalización del primer o único  Fecha de finalización del primer o único esquema de este periodo de reporte. Si es hormonoterapia terminada o esquema terminado en este periodo reporte la fecha de finalización del tratamiento actual</t>
         </is>
       </c>
-      <c r="BX2" s="59" t="inlineStr">
+      <c r="BX4" s="90" t="inlineStr">
         <is>
           <t>Características actuales del primer o unico esquema  de este corte</t>
         </is>
       </c>
-      <c r="BY2" s="62" t="inlineStr">
+      <c r="BY4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Motivo de la finalización (prematura) de este primer o único esquema (Aplica si registró la opción 2 de la variable anterior). Seleccione un sólo número (lo que primero ocurrió</t>
         </is>
       </c>
-      <c r="BZ2" s="62" t="inlineStr">
+      <c r="BZ4" s="93" t="inlineStr">
         <is>
           <t>Ubicación temporal del último esquema de quimioterapia o terapia sistémica de este periodo de reporte en relación al manejo oncológico: (Si en el periodo recibió únicamente hormonoterapia no reportar nuevamente en esquema final</t>
         </is>
       </c>
-      <c r="CA2" s="69" t="inlineStr">
+      <c r="CA4" s="100" t="inlineStr">
         <is>
           <t>Fecha de inicio del último esquema de quimioterapia o terapia sistémica de este periodo de reporte. Si es hormonoterapia reporte la fecha de inicio del tratamiento actual, así haya sido iniciada previo al 
 reporte actual</t>
         </is>
       </c>
-      <c r="CB2" s="67" t="inlineStr">
+      <c r="CB4" s="98" t="inlineStr">
         <is>
           <t>Número de IPS que suministran el último esquema de este periodo de reporte</t>
         </is>
       </c>
-      <c r="CC2" s="67" t="inlineStr">
+      <c r="CC4" s="98" t="inlineStr">
         <is>
           <t>Código de la IPS1 que suministra el último esquema en este periodo de reporte</t>
         </is>
       </c>
-      <c r="CD2" s="62" t="inlineStr">
+      <c r="CD4" s="93" t="inlineStr">
         <is>
           <t>Código de la IPS2 que suministra el último esquema en este periodo de reporte</t>
         </is>
       </c>
-      <c r="CE2" s="62" t="inlineStr">
+      <c r="CE4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cuántos medicamentos antineoplásicos o terapia hormonal para el cáncer, el (los) especialista(s) tratante(s) del cáncer propusieron como manejo en este último esquema de este periodo de reporte</t>
         </is>
       </c>
-      <c r="CF2" s="62" t="inlineStr">
+      <c r="CF4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CG2" s="62" t="inlineStr">
+      <c r="CG4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CH2" s="62" t="inlineStr">
+      <c r="CH4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CI2" s="62" t="inlineStr">
+      <c r="CI4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CJ2" s="62" t="inlineStr">
+      <c r="CJ4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CK2" s="62" t="inlineStr">
+      <c r="CK4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CL2" s="62" t="inlineStr">
+      <c r="CL4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CM2" s="62" t="inlineStr">
+      <c r="CM4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CN2" s="62" t="inlineStr">
+      <c r="CN4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medicamento antineoplasico administrado al usuario - ultimo esquema del periodo</t>
         </is>
       </c>
-      <c r="CO2" s="54" t="inlineStr">
+      <c r="CO4" s="85" t="inlineStr">
         <is>
           <t>Medicamento Antineoplásico o terapia hormonal para cáncer, adicional a los reportados en variables 66.1 a 66.9 -1 administrado al usuario- último esquema</t>
         </is>
       </c>
-      <c r="CP2" s="54" t="inlineStr">
+      <c r="CP4" s="85" t="inlineStr">
         <is>
           <t>Medicamento Antineoplásico o terapia hormonal para cáncer, adicional a los reportados en
 variables 66.1 a 66.9 -2 administrado al usuario- último esquema:</t>
         </is>
       </c>
-      <c r="CQ2" s="54" t="inlineStr">
+      <c r="CQ4" s="85" t="inlineStr">
         <is>
           <t>Medicamento Antineoplásico o terapia hormonal para cáncer, adicional a los reportados en
 variables 66.1 a 66.9 -2 administrado al usuario- último esquema</t>
         </is>
       </c>
-      <c r="CR2" s="59" t="inlineStr">
+      <c r="CR4" s="90" t="inlineStr">
         <is>
           <t>¿Recibió quimioterapia intratecal en el último esquema  de este corte?</t>
         </is>
       </c>
-      <c r="CS2" s="69" t="inlineStr">
+      <c r="CS4" s="100" t="inlineStr">
         <is>
           <t>Fecha de finalización del último esquema de quimioterapia o terapia sistémica este periodo de
 reporte. Si es hormonoterapia terminada o esquema terminado en este periodo reporte la fecha de
 finalización del tratamiento actual</t>
         </is>
       </c>
-      <c r="CT2" s="62" t="inlineStr">
+      <c r="CT4" s="93" t="inlineStr">
         <is>
           <t>Características actuales del último  esquema de quimioterapia  de este corte</t>
         </is>
       </c>
-      <c r="CU2" s="62" t="inlineStr">
+      <c r="CU4" s="93" t="inlineStr">
         <is>
           <t>Motivo de la finalización (prematura) de este último esquema (Aplica si registró la opción 2 de la
 pregunta anterior) Seleccione un sólo número (lo que primero ocurrió)</t>
         </is>
       </c>
-      <c r="CV2" s="62" t="inlineStr">
+      <c r="CV4" s="93" t="inlineStr">
         <is>
           <t>¿Fue sometido el usuario a una o más cirugías curativas o paliativas como parte del manejo del cáncer durante este periodo de reporte?</t>
         </is>
       </c>
-      <c r="CW2" s="62" t="inlineStr">
+      <c r="CW4" s="93" t="inlineStr">
         <is>
           <t>Número de cirugías a las que fue sometido el usuario durante el periodo de reporte actual</t>
         </is>
       </c>
-      <c r="CX2" s="69" t="inlineStr">
+      <c r="CX4" s="100" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de realización de la primera cirugía en este periodo de reporte</t>
         </is>
       </c>
-      <c r="CY2" s="70" t="inlineStr">
+      <c r="CY4" s="101" t="inlineStr">
         <is>
           <t>Código de la IPS que realizó la primera cirugía de este periodo de reporte</t>
         </is>
       </c>
-      <c r="CZ2" s="70" t="inlineStr">
+      <c r="CZ4" s="101" t="inlineStr">
         <is>
           <t xml:space="preserve"> Código de primera cirugía en este periodo de reporte</t>
         </is>
       </c>
-      <c r="DA2" s="67" t="inlineStr">
+      <c r="DA4" s="98" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ubicación temporal de esta primera cirugía en relación al manejo oncológico</t>
         </is>
       </c>
-      <c r="DB2" s="69" t="inlineStr">
+      <c r="DB4" s="100" t="inlineStr">
         <is>
           <t>Fecha de realización de la última cirugía o cirugía de reintervención en este periodo de reporte</t>
         </is>
       </c>
-      <c r="DC2" s="62" t="inlineStr">
+      <c r="DC4" s="93" t="inlineStr">
         <is>
           <t>Motivo de haber realizado la última cirugía de este periodo de reporte</t>
         </is>
       </c>
-      <c r="DD2" s="67" t="inlineStr">
+      <c r="DD4" s="98" t="inlineStr">
         <is>
           <t>Código de la IPS que realiza la última cirugía en este periodo de reporte</t>
         </is>
       </c>
-      <c r="DE2" s="70" t="inlineStr">
+      <c r="DE4" s="101" t="inlineStr">
         <is>
           <t>Código de última cirugía en este periodo de reporte</t>
         </is>
       </c>
-      <c r="DF2" s="67" t="inlineStr">
+      <c r="DF4" s="98" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ubicación temporal de esta última cirugía en relación al manejo oncológico, en este periodo de
 reporte</t>
         </is>
       </c>
-      <c r="DG2" s="62" t="inlineStr">
+      <c r="DG4" s="93" t="inlineStr">
         <is>
           <t>. Estado vital al finalizar la única o última cirugía de este periodo de reporte</t>
         </is>
       </c>
-      <c r="DH2" s="62" t="inlineStr">
+      <c r="DH4" s="93" t="inlineStr">
         <is>
           <t>¿Recibió el usuario algún tipo de radioterapia en el periodo de reporte actual?</t>
         </is>
       </c>
-      <c r="DI2" s="62" t="inlineStr">
+      <c r="DI4" s="93" t="inlineStr">
         <is>
           <t>Número de sesiones de radioterapia externa suministrados en el periodo de reporte actual</t>
         </is>
       </c>
-      <c r="DJ2" s="69" t="inlineStr">
+      <c r="DJ4" s="100" t="inlineStr">
         <is>
           <t>Fecha de inicio de primer o único esquema de cualquier tipo de radioterapia suministrado en el
 periodo de reporte actual. Reporte la fecha de inicio del tratamiento actual, así haya sido iniciada previo
 al reporte actual</t>
         </is>
       </c>
-      <c r="DK2" s="67" t="inlineStr">
+      <c r="DK4" s="98" t="inlineStr">
         <is>
           <t>Ubicación temporal del primer o único esquema de cualquier tipo de radioterapia en este periodo
 de reporte en relación al tratamiento oncológico</t>
         </is>
       </c>
-      <c r="DL2" s="67" t="inlineStr">
+      <c r="DL4" s="98" t="inlineStr">
         <is>
           <t>Tipo de radioterapia aplicada en este primer o único esquema: Registre el código de procedimiento CUPS (archivo operativo CAC)</t>
         </is>
       </c>
-      <c r="DM2" s="67" t="inlineStr">
+      <c r="DM4" s="98" t="inlineStr">
         <is>
           <t xml:space="preserve"> Número de IPS que suministran este primer o único esquema de radioterapia</t>
         </is>
       </c>
-      <c r="DN2" s="62" t="inlineStr">
+      <c r="DN4" s="93" t="inlineStr">
         <is>
           <t>Código de la IPS1 que suministra la radioterapia de este primer o único esquema</t>
         </is>
       </c>
-      <c r="DO2" s="62" t="inlineStr">
+      <c r="DO4" s="93" t="inlineStr">
         <is>
           <t>Código de la IPS2 que suministra la radioterapia de este primer o único esquema</t>
         </is>
       </c>
-      <c r="DP2" s="62" t="inlineStr">
+      <c r="DP4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de finalización de primer o único esquema de radioterapia</t>
         </is>
       </c>
-      <c r="DQ2" s="59" t="inlineStr">
+      <c r="DQ4" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve"> Características actuales de este primer o único esquema de radioterapia</t>
         </is>
       </c>
-      <c r="DR2" s="62" t="inlineStr">
+      <c r="DR4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Motivo de la finalización de este primer o único esquema de radioterapia (aplica si registró la opción
 2 de la pregunta anterior). Seleccione un sólo número (lo que primero ocurrió)</t>
         </is>
       </c>
-      <c r="DS2" s="69" t="inlineStr">
+      <c r="DS4" s="100" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de inicio del último esquema de cualquier tipo de radioterapia suministrado en el periodo de reporte actual</t>
         </is>
       </c>
-      <c r="DT2" s="67" t="inlineStr">
+      <c r="DT4" s="98" t="inlineStr">
         <is>
           <t>Ubicación temporal del último esquema de cualquier tipo de radioterapia suministrado en el
 periodo actual en relación al tratamiento oncológico</t>
         </is>
       </c>
-      <c r="DU2" s="67" t="inlineStr">
+      <c r="DU4" s="98" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tipo de radioterapia aplicada en el ÚLTIMO esquema de cualquier tipo de radioterapia suministrado en el periodo de reporte actual: Registre el código de procedimiento CUPS (archivo operativo CAC)</t>
         </is>
       </c>
-      <c r="DV2" s="67" t="inlineStr">
+      <c r="DV4" s="98" t="inlineStr">
         <is>
           <t>Número de IPS que suministran este último esquema de cualquier tipo de radioterapia en el
 periodo de reporte actual</t>
         </is>
       </c>
-      <c r="DW2" s="62" t="inlineStr">
+      <c r="DW4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Código de la IPS1 que suministra último esquema de cualquier tipo de radioterapia en el periodo de reporte actual</t>
         </is>
       </c>
-      <c r="DX2" s="62" t="inlineStr">
+      <c r="DX4" s="93" t="inlineStr">
         <is>
           <t>Código de la IPS2 que suministra último esquema de cualquier tipo de radioterapia en el periodo
 de reporte actual</t>
         </is>
       </c>
-      <c r="DY2" s="69" t="inlineStr">
+      <c r="DY4" s="100" t="inlineStr">
         <is>
           <t>Fecha de finalización del último esquema de cualquier tipo de radioterapia suministrado en el
 periodo de reporte actual</t>
         </is>
       </c>
-      <c r="DZ2" s="62" t="inlineStr">
+      <c r="DZ4" s="93" t="inlineStr">
         <is>
           <t>Características actuales de este último esquema de cualquier tipo de radioterapia suministrado
 en el periodo de reporte actual:</t>
         </is>
       </c>
-      <c r="EA2" s="62" t="inlineStr">
+      <c r="EA4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Motivo de la finalización de este último esquema de cualquier tipo de radioterapia suministrado
 en el periodo de reporte actual (aplica si registró la opción 2 de la pregunta anterior). Seleccione un
 sólo número (lo que primero ocurrió)</t>
         </is>
       </c>
-      <c r="EB2" s="62" t="inlineStr">
+      <c r="EB4" s="93" t="inlineStr">
         <is>
           <t>¿Recibió el usuario trasplante de células progenitoras hematopoyética dentro del periodo de reporte actual?</t>
         </is>
       </c>
-      <c r="EC2" s="59" t="inlineStr">
+      <c r="EC4" s="90" t="inlineStr">
         <is>
           <t>Tipo de trasplante recibido</t>
         </is>
       </c>
-      <c r="ED2" s="62" t="inlineStr">
+      <c r="ED4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ubicación temporal de este trasplante en relación al manejo oncológico</t>
         </is>
       </c>
-      <c r="EE2" s="59" t="inlineStr">
+      <c r="EE4" s="90" t="inlineStr">
         <is>
           <t>Fecha de trasplante</t>
         </is>
       </c>
-      <c r="EF2" s="59" t="inlineStr">
+      <c r="EF4" s="90" t="inlineStr">
         <is>
           <t>Código de la IPS que realizó este trasplante</t>
         </is>
       </c>
-      <c r="EG2" s="62" t="inlineStr">
+      <c r="EG4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> El usuario, ¿recibió cirugía reconstructiva en el periodo de reporte actual?</t>
         </is>
       </c>
-      <c r="EH2" s="59" t="inlineStr">
+      <c r="EH4" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de la cirugía reconstructiva</t>
         </is>
       </c>
-      <c r="EI2" s="59" t="inlineStr">
+      <c r="EI4" s="90" t="inlineStr">
         <is>
           <t>Código de la IPS que realizó cirugía reconstructiva</t>
         </is>
       </c>
-      <c r="EJ2" s="62" t="inlineStr">
+      <c r="EJ4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> ¿El usuario fue valorado en consulta o procedimiento de cuidado paliativo en el periodo de reporte actual? (pueden haber sido múltiples)</t>
         </is>
       </c>
-      <c r="EK2" s="62" t="inlineStr">
+      <c r="EK4" s="93" t="inlineStr">
         <is>
           <t>El usuario recibió consulta o procedimiento de cuidado paliativo en el periodo de reporte actual, por médico especialista en cuidado paliativo</t>
         </is>
       </c>
-      <c r="EL2" s="71" t="inlineStr">
+      <c r="EL4" s="102" t="inlineStr">
         <is>
           <t xml:space="preserve"> El usuario recibió consulta o procedimiento de cuidado paliativo en el periodo de reporte actual, por profesional de la salud (no médico, incluye psicólogo) especialista en cuidado paliativo</t>
         </is>
       </c>
-      <c r="EM2" s="71" t="inlineStr">
+      <c r="EM4" s="102" t="inlineStr">
         <is>
           <t>El usuario recibió consulta o procedimiento de cuidado paliativo en el periodo de reporte actual, por médico especialista, otra especialidad</t>
         </is>
       </c>
-      <c r="EN2" s="71" t="inlineStr">
+      <c r="EN4" s="102" t="inlineStr">
         <is>
           <t xml:space="preserve"> El usuario recibió consulta o procedimiento de cuidado paliativo en el periodo de reporte actual, por médico general</t>
         </is>
       </c>
-      <c r="EO2" s="71" t="inlineStr">
+      <c r="EO4" s="102" t="inlineStr">
         <is>
           <t xml:space="preserve"> El usuario recibió consulta o procedimiento de cuidado paliativo en el periodo de reporte actual, por trabajo social</t>
         </is>
       </c>
-      <c r="EP2" s="62" t="inlineStr">
+      <c r="EP4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> El usuario recibió consulta o procedimiento de cuidado paliativo en el periodo de reporte actual, por otro profesional de salud (no médico, incluye psicólogo) no especializado</t>
         </is>
       </c>
-      <c r="EQ2" s="69" t="inlineStr">
+      <c r="EQ4" s="100" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de primera consulta o procedimiento de cuidado paliativo en el periodo de reporte actual</t>
         </is>
       </c>
-      <c r="ER2" s="67" t="inlineStr">
+      <c r="ER4" s="98" t="inlineStr">
         <is>
           <t>Código de la IPS donde recibe la atención de cuidado paliativo en el periodo de reporte actual:</t>
         </is>
       </c>
-      <c r="ES2" s="62" t="inlineStr">
+      <c r="ES4" s="93" t="inlineStr">
         <is>
           <t>¿Ha sido valorado el usuario por el servicio de psiquiatría en el periodo de reporte actual?</t>
         </is>
       </c>
-      <c r="ET2" s="62" t="inlineStr">
+      <c r="ET4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de primera consulta con el servicio de psiquiatría (para todos los usuarios) en el periodo de
 reporte actual</t>
         </is>
       </c>
-      <c r="EU2" s="72" t="inlineStr">
+      <c r="EU4" s="103" t="inlineStr">
         <is>
           <t xml:space="preserve"> Código de la IPS donde recibió la primera valoración de psiquiatría en el periodo de reporte actual</t>
         </is>
       </c>
-      <c r="EV2" s="62" t="inlineStr">
+      <c r="EV4" s="93" t="inlineStr">
         <is>
           <t>¿Fue valorado el usuario por profesional en nutrición en el periodo de reporte actual?</t>
         </is>
       </c>
-      <c r="EW2" s="69" t="inlineStr">
+      <c r="EW4" s="100" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de consulta inicial con nutrición en el periodo de reporte actual</t>
         </is>
       </c>
-      <c r="EX2" s="67" t="inlineStr">
+      <c r="EX4" s="98" t="inlineStr">
         <is>
           <t xml:space="preserve"> Código de la IPS donde recibió la valoración por nutrición, en el periodo de reporte actual</t>
         </is>
       </c>
-      <c r="EY2" s="59" t="inlineStr">
+      <c r="EY4" s="90" t="inlineStr">
         <is>
           <t>¿El usuario recibió soporte nutricional?</t>
         </is>
       </c>
-      <c r="EZ2" s="62" t="inlineStr">
+      <c r="EZ4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> ¿El usuario ha recibido terapias complementarias para su rehabilitación?</t>
         </is>
       </c>
-      <c r="FA2" s="62" t="inlineStr">
+      <c r="FA4" s="93" t="inlineStr">
         <is>
           <t xml:space="preserve"> Tipo de tratamiento que está recibiendo el usuario a la fecha de corte (el día 01/01/2020)</t>
         </is>
       </c>
-      <c r="FB2" s="67" t="inlineStr">
+      <c r="FB4" s="98" t="inlineStr">
         <is>
           <t>Resultado final del manejo oncológico en este periodo de reporte, luego de ser tratado en este periodo el usuario está en</t>
         </is>
       </c>
-      <c r="FC2" s="59" t="inlineStr">
+      <c r="FC4" s="90" t="inlineStr">
         <is>
           <t xml:space="preserve"> Estado vital al finalizar este periodo de reporte</t>
         </is>
       </c>
-      <c r="FD2" s="67" t="inlineStr">
+      <c r="FD4" s="98" t="inlineStr">
         <is>
           <t>Novedad ADMINISTRATIVA del usuario respecto al reporte anterior</t>
         </is>
       </c>
-      <c r="FE2" s="67" t="inlineStr">
+      <c r="FE4" s="98" t="inlineStr">
         <is>
           <t>Novedad clínica del usuario a la fecha de corte</t>
         </is>
       </c>
-      <c r="FF2" s="73" t="inlineStr">
+      <c r="FF4" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de desafiliación de la EAPB</t>
         </is>
       </c>
-      <c r="FG2" s="61" t="inlineStr">
+      <c r="FG4" s="92" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de muerte</t>
         </is>
       </c>
-      <c r="FH2" s="70" t="inlineStr">
+      <c r="FH4" s="101" t="inlineStr">
         <is>
           <t xml:space="preserve"> Causa de muerte</t>
         </is>
       </c>
-      <c r="FI2" s="73" t="inlineStr">
+      <c r="FI4" s="104" t="inlineStr">
         <is>
           <t>Código único de identificación (BDUA-BDEX-PVS)</t>
         </is>
       </c>
-      <c r="FJ2" s="74" t="inlineStr">
+      <c r="FJ4" s="105" t="inlineStr">
         <is>
           <t>Fecha de Corte</t>
         </is>
       </c>
+      <c r="FK4" s="106" t="n"/>
+      <c r="FL4" s="107" t="n"/>
+      <c r="FM4" s="107" t="n"/>
+      <c r="FN4" s="107" t="n"/>
+      <c r="FO4" s="107" t="n"/>
+      <c r="FP4" s="107" t="n"/>
+      <c r="FQ4" s="107" t="n"/>
+      <c r="FR4" s="107" t="n"/>
+      <c r="FS4" s="107" t="n"/>
+      <c r="FT4" s="107" t="n"/>
+      <c r="FU4" s="107" t="n"/>
+      <c r="FV4" s="107" t="n"/>
+      <c r="FW4" s="107" t="n"/>
+      <c r="FX4" s="107" t="n"/>
     </row>
-    <row r="3" ht="122.25" customHeight="1" s="42">
-      <c r="A3" s="75" t="inlineStr">
+    <row r="5" ht="120.85" customHeight="1" s="64">
+      <c r="A5" s="108" t="inlineStr">
         <is>
           <t>Escriba el primer nombre del usuario. No se pueden utilizar símbolos, puntos, tildes, ni el carácter numeral, ni ningún otro carácter especial. Verifique que no esté registrando el primer apellido en lugar del primer nombre.</t>
         </is>
       </c>
-      <c r="B3" s="75" t="inlineStr">
+      <c r="B5" s="108" t="inlineStr">
         <is>
           <t>Escriba el segundo nombre del usuario. En caso de un tercer nombre, escríbalo separado por un espacio. Registre NONE, en mayúscula sostenida, cuando el usuario no tiene segundo nombre (NONE=Ningún Otro Nombre Escrito). No se pueden utilizar símbolos, puntos, tildes, -, ni el carácter numeral, ni ningún otro carácter especial. Verifique que no esté registrando el primer nombre en lugar del segundo nombre.</t>
         </is>
       </c>
-      <c r="C3" s="75" t="inlineStr">
+      <c r="C5" s="108" t="inlineStr">
         <is>
           <t>Escriba el primer apellido del usuario. No se pueden utilizar símbolos, puntos, tildes, -, ni el carácter numeral, ni ningún otro carácter especial. Verifique que no esté registrando el primer apellido en lugar del primer nombre.</t>
         </is>
       </c>
-      <c r="D3" s="75" t="inlineStr">
+      <c r="D5" s="108" t="inlineStr">
         <is>
           <t>Escriba el segundo apellido del usuario. Registre NOAP, en mayúscula sostenida, cuando el usuario no tiene segundo apellido (NOAP=Ningún Otro Apellido)</t>
         </is>
       </c>
-      <c r="E3" s="75" t="inlineStr">
+      <c r="E5" s="108" t="inlineStr">
         <is>
           <t>RC=Registro Civil TI= Tarjeta Identidad CC= Cédula de Ciudadanía CE= Cédula Extranjería PA= Pasaporte MS= Menor sin Identificación (solo para el Régimen Subsidiado) AS= Adulto sin Identificación (solo para el Régimen Subsidiado) CD= Carné Diplomático SC= Salvoconducto de permanencia PE= Permiso Especial</t>
         </is>
       </c>
-      <c r="F3" s="75" t="inlineStr">
+      <c r="F5" s="108" t="inlineStr">
         <is>
           <t>Número de identificación del afiliado según el tipo de identificación. Para MS y AS registre el consecutivo interno del afiliado según lo dispuesto en la Resolución 4622/2016.</t>
         </is>
       </c>
-      <c r="G3" s="75" t="inlineStr">
+      <c r="G5" s="108" t="inlineStr">
         <is>
           <t>Fecha de nacimiento del usuario en el formato AAAA-MM-DD (use como separador el guion “-“)</t>
         </is>
       </c>
-      <c r="H3" s="76" t="inlineStr">
+      <c r="H5" s="109" t="inlineStr">
         <is>
           <t>M= Masculino F= Femenino</t>
         </is>
       </c>
-      <c r="I3" s="75" t="inlineStr">
+      <c r="I5" s="108" t="inlineStr">
         <is>
           <t>Código según la Clasificación Internacional Uniforme de Ocupaciones (disponible en página web CAC). 9999= No existe información 5555= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte. 9998= No Aplica</t>
         </is>
       </c>
-      <c r="J3" s="75" t="inlineStr">
+      <c r="J5" s="108" t="inlineStr">
         <is>
           <t>C= Régimen Contributivo S= Régimen Subsidiado P= Regímenes de excepción E= Régimen especial N= No asegurado</t>
         </is>
       </c>
-      <c r="K3" s="75" t="inlineStr">
+      <c r="K5" s="108" t="inlineStr">
         <is>
           <t>Cuando el usuario tenga EAPB escriba el código de la empresa que registra al usuario. Cuando el usuario sea notificado por entidad territorial escriba el código de departamento y seguido de tres ceros Ej: 01000 donde 01 corresponde al código de departamento según DANE (disponible en la página web CAC)</t>
         </is>
       </c>
-      <c r="L3" s="75" t="inlineStr">
+      <c r="L5" s="108" t="inlineStr">
         <is>
           <t>Registre el grupo étnico del usuario: 1= Indígena 2= ROM (gitano) 3= Raizal del archipiélago de San Andrés y Providencia 4= Palenquero de San Basilio 5= Negro(a), mulato(a), afrocolombiano(a) o afrodescendiente 6= Ninguna de las anteriores 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="M3" s="77" t="inlineStr">
+      <c r="M5" s="110" t="inlineStr">
         <is>
           <t>1= Indigentes 2= Población infantil a cargo del ICBF 3= Madres comunitarias 4= Artistas, autores, compositores 7 5= Otro grupo poblacional 6= Recién Nacidos 7= Persona en situación de discapacidad 8= Desmovilizados 9= Desplazados 10= Población ROM 11= Población raizal 12= Población en centros psiquiátricos 13= Migratorio 14= Población en centros carcelarios 15= Población rural no migratoria 16= Afrocolombiano 31= Adulto mayor 32= Cabeza de familia 33= Mujer embarazada 34= Mujer lactante 35= Trabajador urbano 36= Trabajador rural 37= Víctima de violencia armada 38= Jóvenes vulnerables rurales 39= Jóvenes vulnerables urbanos 50= Persona en situación de discapacidad del sistema nervioso 51= Persona en situación de discapacidad de los ojos 52= Persona en situación de discapacidad de los oídos 53= Persona en situación de discapacidad de los demás órganos de los sentidos (olfato, tacto y gusto) 54= Persona en situación de discapacidad de la voz y el habla 55= Persona en situación de discapacidad del sistema cardiorrespiratorio y las defensas 56= Persona en situación de discapacidad de la digestión, el metabolismo, las hormonas 57= Persona en situación de discapacidad del sistema genital y reproductivo 58= Persona en situación de discapacidad del movimiento del cuerpo, manos, brazos, piernas 59= Persona en situación de discapacidad de la piel 60= Persona en situación de discapacidad de otro tipo 61=No definido 62= Comunidad indígena 63= población migrante de la República Bolivariana de Venezuela 555= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="N3" s="75" t="inlineStr">
+      <c r="N5" s="108" t="inlineStr">
         <is>
           <t>Registre el Código del municipio en donde reside el afiliado según la división político administrativa DIVIPOLA – DANE. Este código debe ser reportado en 5 dígitos, donde los dos primeros dígitos corresponden al departamento donde se localiza el municipio (disponible en la página web CAC). Validar que no se reporte la ciudad en la que recibe las atenciones en salud, cuando es en realidad reside de otro municipio.</t>
         </is>
       </c>
-      <c r="O3" s="78" t="inlineStr">
+      <c r="O5" s="111" t="inlineStr">
         <is>
           <t>Registre sólo dos números de teléfono(s) fijos y/o móviles completos para contactar al paciente y separe por guion medio (-). Si no se tiene el número telefónico del paciente (incluyendo familiares y cuidadores) diligencie 0.</t>
         </is>
       </c>
-      <c r="P3" s="75" t="inlineStr">
+      <c r="P5" s="108" t="inlineStr">
         <is>
           <t>Fecha en la que el usuario se afilió a la EAPB en el formato AAAA-MM-DD (use como separador el guion “-“).</t>
         </is>
       </c>
-      <c r="Q3" s="75" t="inlineStr">
+      <c r="Q5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre el
 código de la enfermedad maligna que fue inicialmente diagnosticada al usuario según código CIE -
@@ -2224,72 +3256,72 @@
 confirmación histopatológica.</t>
         </is>
       </c>
-      <c r="R3" s="75" t="inlineStr">
+      <c r="R5" s="108" t="inlineStr">
         <is>
           <t>Escriba la fecha de diagnóstico en formato AAAAMM-DD (con guion “-“ como separador). Si conoce sólo el año y el mes, registre el día 15. Registre 1800-01-01= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="S3" s="75" t="inlineStr">
+      <c r="S5" s="108" t="inlineStr">
         <is>
           <t>Revisar en la historia clínica la remisión más antigua disponible previa al diagnóstico y que pudiese estar asociada a la enfermedad maligna actual (debe ser menor o igual a la fecha de ingreso a la institución que realizó el diagnóstico, solicitada en la 10 variable 20). Escriba la fecha de esa remisión en formato AAAA-MM-DD (con guion “-“ como separador). Si conoce sólo el año y el mes, registre el día 15. Registre 1800-01-01= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="T3" s="75" t="inlineStr">
+      <c r="T5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15. Registre 1800-01-01= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos. Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="U3" s="75" t="inlineStr">
+      <c r="U5" s="108" t="inlineStr">
         <is>
           <t>Tipo de prueba registre:  5= Inmunohistoquímica 6= Citometría de flujo 7= Clínica exclusivamente (incluye estudios imagenológicos y/o de laboratorio en aquellos casos clínicamente justificados en donde fue imposible tomar muestra de estudio histopatológico) 8=Otro 9= Genética 10= Patología básica 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos. 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="V3" s="75" t="inlineStr">
+      <c r="V5" s="108" t="inlineStr">
         <is>
           <t>1= Clínica, usuario con coagulopatía 2= Clínica, debido a localización del tumor 3= Clínica, debido al estado funcional del usuario (deterioro) 4= Negativa del usuario o su acudiente para realizar el estudio histopatológico, con documentación de soporte 5= Administrativa 6= Clínica por reporte de imágenes o laboratorios. 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte. 98= Tiene confirmación por histopatología. 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos.</t>
         </is>
       </c>
-      <c r="W3" s="75" t="inlineStr">
+      <c r="W5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15. Registre 1800-01-01= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos. Registre 1845-01-01= No se realizó estudio histopatológico (en la variable 21 registro la opción 7). Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="X3" s="75" t="inlineStr">
+      <c r="X5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en el formato AAAA-MM-DD. (Registre la fecha de la primera prueba que confirmó diagnóstico de cáncer y dio inicio a un manejo, así haya requerido pruebas adicionales posteriormente para el diagnóstico definitivo). Si conoce sólo el año y el mes, registre el día 15. Registre 1800-01-01= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos. Registre 1845-01-01= No se realizó estudio histopatológico (en la variable 21 registro la opción 7). Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="Y3" s="75" t="inlineStr">
+      <c r="Y5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de habilitación de la IPS que proceso la muestra de patología en los casos en que el diagnóstico fue histopatológico (disponible en la página web REPS) o registre el código de la IPS donde se hizo el diagnóstico clínico. Verifique que el código reportado corresponde a una IPS con habilitación para procesamiento de muestra de patología o el servicio especializado que hace el diagnóstico clínico. 55=Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte. 96= Diagnóstico fuera del país. 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos.</t>
         </is>
       </c>
-      <c r="Z3" s="75" t="inlineStr">
+      <c r="Z5" s="108" t="inlineStr">
         <is>
           <t>(médico especialista que define la primera conducta terapéutica -terapia sistémica, cirugía, radioterapia o cuidados paliativos- Manejo expectante): Registre la fecha en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15. Registre 1800-01-01= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos. 13 Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="AA3" s="75" t="inlineStr">
+      <c r="AA5" s="108" t="inlineStr">
         <is>
           <t>Registre el número que corresponde al subtipo histológico de la biopsia diagnóstica del cáncer (como primera opción), si no hay información en ese reporte use la quirúrgica: 1= Adenocarcinoma, con o sin otra especificación 2= Carcinoma escamocelular (epidermoide), con o sin otra especificación 3= Carcinoma de células basales (basocelular) 4= Carcinoma, con o sin otra especificación diferentes a las anteriores 5= Oligodendroglioma, con o sin otra especificación 6= Astrocitoma, con o sin otra especificación 7= Ependimoma, con o sin otra especificación 8= Neuroblastoma, con o sin otra especificación 9= Meduloblastoma, con o sin otra especificación 10= Hepatoblastoma, con o sin otra especificación 11= Rabdomiosarcoma, con o sin otra especificación 12= Leiomiosarcoma, con o sin otra especificación 13= Osteosarcoma, con o sin otra especificación 14= Fibrosarcoma, con o sin otra especificación 15= Angiosarcoma, con o sin otra especificación 16= Condrosarcoma, con o sin otra especificación 17= Otros sarcomas, con o sin otra especificación 18= Pancreatoblastoma, con o sin otra especificación 19= Blastoma pleuropulmonar, con o sin otra especificación 20= Otros tipos histológicos no mencionados 23= Melanoma 24= Carcinoma papilar de tiroides 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte. 98= No se realizó estudio histopatológico (en la variable 21 registró la opción 7). 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos.</t>
         </is>
       </c>
-      <c r="AB3" s="75" t="inlineStr">
+      <c r="AB5" s="108" t="inlineStr">
         <is>
           <t>Apunte el número que corresponde al grado de diferenciación de la biopsia diagnóstica del cáncer (como primera opción), si no hay información en ese informe, use la quirúrgica. 1= Bien diferenciado (grado 1) 2= Moderadamente diferenciado (grado 2) 3= Mal diferenciado (grado 3) 4= Anaplásico o indiferenciado (grado 4) 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte. 94= Es un cáncer sólido cuyo reporte de patología no incluye la descripción de la diferenciación celular. (ejemplo: cáncer de tiroides, carcinoma basocelular, tumores in situ, melanoma, próstata, entre otros). 95= No es sólido (cáncer hematolinfático) 98= No se realizó estudio histopatológico (en la variable 21 registró la opción 7). 99= No hay información en la historia clínica</t>
         </is>
       </c>
-      <c r="AC3" s="75" t="inlineStr">
+      <c r="AC5" s="108" t="inlineStr">
         <is>
           <t>CÁNCER DE MAMA Y CÁNCER GÁSTRICO 15 0= estadio clínico (ec) 0 (tumor in situ) 2= ec IA o 1A 5= ec IB o 1b 11= ec IIA o 2a 14= ec IIB 17= ec IIIA o 3a 18= ec IIIB o 3b 19= ec IIIC o 3c 20= ec IV o 4 CANCER DE PRÓSTATA 7a Edición TNM 0= estadio clínico (ec) o (tumor in situ) 1= ec I o 1 11= ec IIA o 2a 14= ec IIB 16= ec III o 3 20= ec IV o 4 8ª Edición TNM 15= ec IIC o 2c 17= ec IIIA o 3a 18= ec IIIB o 3b 19= ec IIIC o 3c 21= ec IVA o 4a 22= ec IVB o 4b CANCER DE PULMON 7a Edición TNM 0= estadio clínico (ec) o (tumor in situ) 2= ec IA o 1A 5= ec IB o 1b 11= ec IIA o 2a 14= ec IIB 17= ec IIIA o 3a 18= ec IIIB o 3b 20= ec IV o 4 8ª Edición TNM 3= ec IA1 4= ec IA2 19= ec IIIC o 3c 21= ec IVA o 4a 22= ec IVB o 4b 16 26= Estadio IAB MELANOMA 0= estadio clínico (ec) o (tumor in situ) 2= ec IA o 1A 5= ec IB o 1b 11= ec IIA o 2a 14= ec IIB 15= ec IIC o 2c 16= ec III o 3 17= ec IIIA o 3a 18= ec IIIB o 3b 19= ec IIIC o 3c 20= ec IV o 4 29= ec IIID o 3d CÁNCER DE COLON Y RECTO 0= estadio clínico (ec) o (tumor in situ) 1= ec I o 1 11= ec IIA o 2a 14= ec IIB 15= ec IIC o 2c 17= ec IIIA o 3a 18= ec IIIB o 3b 19= ec IIIC o 3c 21= ec IVA o 4a 22= ec IVB o 4b CÁNCER ANAL (Agrupador Colon y recto) 0= estadio clínico (ec) o (tumor in situ) 1= ec I o 1 10= ec II o 2 17= ec IIIA o 3a 18= ec IIIB o 3b 20= ec IV o 4 8ª Edición TNM 1= ec I o 1 11= ec IIA o 2a 14= ec IIB o 2b 17= ec IIIA o 3a 18= ec IIIB o 3b 19= ec IIIC o 3c 20=ec IV o 4 17 CÁNCER DE CÉRVIX (FIGO) 0= estadio clínico (ec) o (tumor in situ) 1= ec I o 1 2= ec IA o 1A 3= ec IA1 4= ec IA2 5= ec IB o 1b 6= ec IB1 7= ec IB2 10= ec II o 2 11= ec IIA o 2a 12= ec IIA1 13= ec IIA2 14= ec IIB 16= ec III o 3 17= ec IIIA o 3a 18= ec IIIB o 3b 19= ec IIIC o 3c 21= ec IVA o 4a 22= ec IVB o 4b 27= ec IIIC1 o 3c1 28= ec IIIC2 o 3c2 30= ec IB3 31= ec IC1 32= ec IC2 33= ec IC3 OTRAS OPCIONES 8= ec IC o 1c 9= ec IS o 1s 23= ec IVC o 4c 24= ec 4S (para neuroblastoma) 25= ec V o 5 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte. 98= No Aplica (Es cáncer de piel basocelular, es cáncer hematológico o es cáncer en SNC, excepto neuroblastoma). 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos.</t>
         </is>
       </c>
-      <c r="AD3" s="75" t="inlineStr">
+      <c r="AD5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15. Registre 1800-01-01= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos. Registre 1845-01-01= No Aplica (Es cáncer de piel basocelular, es cáncer hematológico o es cáncer en SNC, excepto neuroblastoma) Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="AE3" s="75" t="inlineStr">
+      <c r="AE5" s="108" t="inlineStr">
         <is>
           <t>1= Sí se le realizó
 2= No se le realizó
@@ -2301,7 +3333,7 @@
 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos</t>
         </is>
       </c>
-      <c r="AF3" s="75" t="inlineStr">
+      <c r="AF5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre la fecha
 en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15.
@@ -2313,7 +3345,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="AG3" s="75" t="inlineStr">
+      <c r="AG5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= +++ (positivo)
@@ -2327,17 +3359,17 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="AH3" s="75" t="inlineStr">
+      <c r="AH5" s="108" t="inlineStr">
         <is>
           <t>Registre: 1= A 2= B 3= C 4= D 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte. 98= No Aplica (no es cáncer colorrectal) 99= Es cáncer colorrectal pero no hay información en la historia clínica acerca de esta estadificación</t>
         </is>
       </c>
-      <c r="AI3" s="75" t="inlineStr">
+      <c r="AI5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en el formato AAAA-MMDD. Si conoce sólo el año y el mes, registre el día 15. Registre 1845-01-01= No Aplica (no es cáncer colorrectal o respuesta 99 en la variable anterior) Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="AJ3" s="75" t="inlineStr">
+      <c r="AJ5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Estadio I
@@ -2362,7 +3394,7 @@
 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos.</t>
         </is>
       </c>
-      <c r="AK3" s="75" t="inlineStr">
+      <c r="AK5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre la opción que corresponde a la clasificación Gleason.
 11= Gleason ≤ 6: ≤ 3+3
@@ -2379,7 +3411,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="AL3" s="75" t="inlineStr">
+      <c r="AL5" s="108" t="inlineStr">
         <is>
           <t>Clasificación de riesgo en linfomas
 Registre:
@@ -2404,7 +3436,7 @@
 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos</t>
         </is>
       </c>
-      <c r="AM3" s="75" t="inlineStr">
+      <c r="AM5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en el formato AAAA-MM-DD. Si conoce sólo
 el año y el mes, registre el día 15.
@@ -2415,7 +3447,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="AN3" s="75" t="inlineStr">
+      <c r="AN5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Curación
@@ -2425,7 +3457,7 @@
 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos.</t>
         </is>
       </c>
-      <c r="AO3" s="75" t="inlineStr">
+      <c r="AO5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Observación previa a tratamiento (manejo expectante o casos en los que ya tienen orden médica
@@ -2443,7 +3475,7 @@
 99= No hay intervención en el periodo (abandono de terapia, alta onc</t>
         </is>
       </c>
-      <c r="AP3" s="75" t="inlineStr">
+      <c r="AP5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí
@@ -2453,7 +3485,7 @@
 99= Desconocido, el dato de esta variable no se encuentra descrito en los soportes clínicos.</t>
         </is>
       </c>
-      <c r="AQ3" s="75" t="inlineStr">
+      <c r="AQ5" s="108" t="inlineStr">
         <is>
           <t>Fecha en que se diagnosticó el otro cáncer
 primario que afecta al usuario en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre
@@ -2465,7 +3497,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="AR3" s="75" t="inlineStr">
+      <c r="AR5" s="108" t="inlineStr">
         <is>
           <t>Registre la enfermedad maligna
 antecedente o concurrente. Tenga en cuenta que antes de definir, por ejemplo, un linfoma, el
@@ -2477,7 +3509,7 @@
 Registre 99= No Aplica (no hay antecedente o concurrencia de otro cáncer primario)</t>
         </is>
       </c>
-      <c r="AS3" s="75" t="inlineStr">
+      <c r="AS5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí recibió
@@ -2487,7 +3519,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="AT3" s="75" t="inlineStr">
+      <c r="AT5" s="108" t="inlineStr">
         <is>
           <t>Escriba el número
 de fases de quimioterapia propuestas para este periodo.
@@ -2498,7 +3530,7 @@
 98= No Aplica (es sólido o es cáncer diferente a los enunciados en las fases)</t>
         </is>
       </c>
-      <c r="AU3" s="75" t="inlineStr">
+      <c r="AU5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí recibió
@@ -2509,7 +3541,7 @@
 97= No Aplica (no es leucemia linfoide o mieloide aguda ni linfoma linfoblástico) </t>
         </is>
       </c>
-      <c r="AV3" s="75" t="inlineStr">
+      <c r="AV5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí recibió
@@ -2519,7 +3551,7 @@
 97= No Aplica (no es leucemia linfoide o mieloide aguda ni linfoma linfoblástico)</t>
         </is>
       </c>
-      <c r="AW3" s="75" t="inlineStr">
+      <c r="AW5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí recibió
@@ -2529,7 +3561,7 @@
 97= No Aplica (no es leucemia linfoide o mieloide aguda ni linfoma linfoblástico)</t>
         </is>
       </c>
-      <c r="AX3" s="75" t="inlineStr">
+      <c r="AX5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí recibió
@@ -2539,7 +3571,7 @@
 97= No Aplica (no es leucemia linfoide o mieloide aguda ni linfoma linfoblástico)</t>
         </is>
       </c>
-      <c r="AY3" s="75" t="inlineStr">
+      <c r="AY5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve">Registre:
 1= Sí recibió
@@ -2549,7 +3581,7 @@
 97= No Aplica (no es leucemia linfoide aguda ni linfoma linfoblástico) </t>
         </is>
       </c>
-      <c r="AZ3" s="75" t="inlineStr">
+      <c r="AZ5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí recibió
@@ -2559,7 +3591,7 @@
 97= No Aplica (no es leucemia linfoide o mieloide aguda ni linfoma linfoblástico)</t>
         </is>
       </c>
-      <c r="BA3" s="75" t="inlineStr">
+      <c r="BA5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí recibió
@@ -2569,7 +3601,7 @@
 97= No Aplica (no es leucemia linfoide o mieloide aguda ni linfoma linfoblástico)</t>
         </is>
       </c>
-      <c r="BB3" s="75" t="inlineStr">
+      <c r="BB5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí recibió
@@ -2579,7 +3611,7 @@
 97= No Aplica (no es leucemia linfoide o mieloide aguda ni linfoma linfoblástico)</t>
         </is>
       </c>
-      <c r="BC3" s="75" t="inlineStr">
+      <c r="BC5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Escriba el número
 de ciclos iniciados en el periodo de reporte actual (pueden ser ciclos en diferentes esquemas de
@@ -2589,7 +3621,7 @@
 98= No Aplica o no la recibió, aunque fue formulada (en la variable 45 seleccionó 2 o 98)</t>
         </is>
       </c>
-      <c r="BD3" s="75" t="inlineStr">
+      <c r="BD5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Neoadyuvancia (manejo inicial prequirúrgico)
@@ -2604,7 +3636,7 @@
 98= No Aplica (en la variable 45 seleccionó la opción 98)</t>
         </is>
       </c>
-      <c r="BE3" s="75" t="inlineStr">
+      <c r="BE5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre
 esta fecha en que se inició este esquema de quimioterapia en el formato AAAA-MM-DD. Si conoce
@@ -2614,7 +3646,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BF3" s="75" t="inlineStr">
+      <c r="BF5" s="108" t="inlineStr">
         <is>
           <t>Registre el número de Instituciones Prestadoras de Servicios
 de Salud que suministran el primer esquema de quimioterapia del periodo de reporte.
@@ -2623,7 +3655,7 @@
 98= No aplica (en la variable 45 seleccionó la opción 2 y 98)</t>
         </is>
       </c>
-      <c r="BG3" s="75" t="inlineStr">
+      <c r="BG5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Código de Habilitación de IPS (disponible en la página web
 REPS) Para todos los tratamientos orales, se debe consignar el código de habilitación de la IPS que
@@ -2633,7 +3665,7 @@
 98= No Aplica (en la variable 45 seleccionó la opción 2 ó 98)</t>
         </is>
       </c>
-      <c r="BH3" s="75" t="inlineStr">
+      <c r="BH5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Código de Habilitación de IPS (disponible en la página web
 REPS)
@@ -2642,7 +3674,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BI3" s="75" t="inlineStr">
+      <c r="BI5" s="108" t="inlineStr">
         <is>
           <t>Escriba el número de medicamentos
 antineoplásicos propuestos en el primer esquema de este periodo. Recuerde descontar el número
@@ -2652,7 +3684,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BJ3" s="75" t="inlineStr">
+      <c r="BJ5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2661,7 +3693,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BK3" s="75" t="inlineStr">
+      <c r="BK5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2672,7 +3704,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BL3" s="75" t="inlineStr">
+      <c r="BL5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2683,7 +3715,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BM3" s="75" t="inlineStr">
+      <c r="BM5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2694,7 +3726,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BN3" s="75" t="inlineStr">
+      <c r="BN5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2705,7 +3737,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BO3" s="75" t="inlineStr">
+      <c r="BO5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2716,7 +3748,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BP3" s="75" t="inlineStr">
+      <c r="BP5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2727,7 +3759,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BQ3" s="75" t="inlineStr">
+      <c r="BQ5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2738,7 +3770,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BR3" s="75" t="inlineStr">
+      <c r="BR5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de
 beneficios)
@@ -2749,7 +3781,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BS3" s="75" t="inlineStr">
+      <c r="BS5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (no se tiene presente la cobertura del plan de
 beneficios en salud) del listado usado en este caso (disponible en la página web CAC)
@@ -2760,7 +3792,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BT3" s="75" t="inlineStr">
+      <c r="BT5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre el código ATC del medicamento (no se tiene presente la cobertura del plan de
 beneficios en salud) listado usado en este caso (disponible en la página web CAC).
@@ -2771,7 +3803,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BU3" s="75" t="inlineStr">
+      <c r="BU5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (no se tiene presente la cobertura del plan de
 beneficios en salud) listado usado en este caso (disponible en la página web CAC).
@@ -2782,7 +3814,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="BV3" s="75" t="inlineStr">
+      <c r="BV5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí recibió
@@ -2790,7 +3822,7 @@
 98= No Aplica (no tuvo ningún esquema de quimioterapia)</t>
         </is>
       </c>
-      <c r="BW3" s="75" t="inlineStr">
+      <c r="BW5" s="108" t="inlineStr">
         <is>
           <t>Fecha en que terminó la administración del primer o único esquema de
 quimioterapia en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15.
@@ -2800,7 +3832,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="BX3" s="75" t="inlineStr">
+      <c r="BX5" s="108" t="inlineStr">
         <is>
           <t>1= Finalizado, esquema completo según medicamentos programados
 2= Finalizado, esquema incompleto pero finalizado por algún motivo
@@ -2812,7 +3844,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="BY3" s="75" t="inlineStr">
+      <c r="BY5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Toxicidad de uno o más medicamentos
@@ -2828,7 +3860,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="BZ3" s="75" t="inlineStr">
+      <c r="BZ5" s="108" t="inlineStr">
         <is>
           <t>(Si en el periodo recibió únicamente
 hormonoterapia no reportar nuevamente en esquema final), Registre:
@@ -2848,7 +3880,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CA3" s="75" t="inlineStr">
+      <c r="CA5" s="108" t="inlineStr">
         <is>
           <t>Fecha en que se inició este esquema de quimioterapia en el
 formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15.
@@ -2857,7 +3889,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CB3" s="75" t="inlineStr">
+      <c r="CB5" s="108" t="inlineStr">
         <is>
           <t>Registre el
 número de Instituciones Prestadoras de Servicios de Salud que suministran el último esquema de
@@ -2867,7 +3899,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CC3" s="75" t="inlineStr">
+      <c r="CC5" s="108" t="inlineStr">
         <is>
           <t>Código de
 Habilitación de IPS (disponible en la página web REPS). Para todos los tratamientos orales, se debe
@@ -2878,7 +3910,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CD3" s="75" t="inlineStr">
+      <c r="CD5" s="108" t="inlineStr">
         <is>
           <t>Código de
 Habilitación de IPS (disponible en la página web REPS). Para todos los tratamientos orales, se debe
@@ -2889,7 +3921,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CE3" s="75" t="inlineStr">
+      <c r="CE5" s="108" t="inlineStr">
         <is>
           <t>Escriba el número de medicamentos
 antineoplásicos propuestos en el primer esquema de este periodo. Recuerde descontar el número
@@ -2899,7 +3931,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CF3" s="75" t="inlineStr">
+      <c r="CF5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de beneficios)
 98= No aplica
@@ -2907,7 +3939,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CG3" s="75" t="inlineStr">
+      <c r="CG5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de beneficios)
 97= Sí recibió quimioterapia, ya registrada en las variables anteriores (en la variable 45 seleccionó
@@ -2917,7 +3949,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CH3" s="75" t="inlineStr">
+      <c r="CH5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de beneficios)
 97= Sí recibió quimioterapia, ya registrada en las variables anteriores (en la variable 45 seleccionó
@@ -2927,7 +3959,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CI3" s="75" t="inlineStr">
+      <c r="CI5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de beneficios)
 97= Sí recibió quimioterapia, ya registrada en las variables anteriores (en la variable 45 seleccionó
@@ -2937,7 +3969,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CJ3" s="75" t="inlineStr">
+      <c r="CJ5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de beneficios)
 97= Sí recibió quimioterapia, ya registrada en las variables anteriores (en la variable 45 seleccionó
@@ -2947,12 +3979,12 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CK3" s="75" t="inlineStr">
+      <c r="CK5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de beneficios) 97= Sí recibió quimioterapia, ya registrada en las variables anteriores (en la variable 45 seleccionó la opción 1) 98= No aplica 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CL3" s="75" t="inlineStr">
+      <c r="CL5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre el código ATC del medicamento (Incluido o no en el plan de beneficios)
 97= Sí recibió quimioterapia, ya registrada en las variables anteriores (en la variable 45 seleccionó
@@ -2962,32 +3994,32 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CM3" s="75" t="inlineStr">
+      <c r="CM5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de beneficios) 97= Sí recibió quimioterapia, ya registrada en las variables anteriores (en la variable 45 seleccionó la opción 1) 98= No aplica 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CN3" s="75" t="inlineStr">
+      <c r="CN5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (Incluido o no en el plan de beneficios) 97= Sí recibió quimioterapia, ya registrada en las variables anteriores (en la variable 45 seleccionó la opción 1) 98= No aplica 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CO3" s="75" t="inlineStr">
+      <c r="CO5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (no se tiene presente la cobertura del Plan de Beneficios en Salud) listado usado en este caso (disponible en la página web CAC). 97= No Aplica (No recibió medicamento diferente a los enunciados en las variables 66.1 a la 66.9 y en la variable 61 seleccionó una opción &lt;=10) 98= No Aplica (no tuvo este último esquema o en la variable 61 seleccionó la opción 97 ó 98) 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CP3" s="75" t="inlineStr">
+      <c r="CP5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (no se tiene presente la cobertura del Plan de Beneficios en Salud) listado usado en este caso (disponible en la página web CAC). 97= No Aplica (No recibió medicamento diferente a los enunciados en las variables 66.1 a la 66.6 y en la variable 61 seleccionó una opción &lt;=10) 98= No Aplica (no tuvo este último esquema o en la variable 61 seleccionó la opción 97 ó 98) 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CQ3" s="75" t="inlineStr">
+      <c r="CQ5" s="108" t="inlineStr">
         <is>
           <t>Registre el código ATC del medicamento (no se tiene presente la cobertura del Plan de Beneficios en Salud) listado usado en este caso (disponible en la página web CAC). 97= No Aplica (No recibió medicamento diferente a los enunciados en las variables 66.1 a la 66.6 y en la variable 61 seleccionó una opción &lt;=10) 98= No Aplica (no tuvo este último esquema o en la variable 61 seleccionó la opción 97 ó 98) 38 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CR3" s="75" t="inlineStr">
+      <c r="CR5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Si recibió
@@ -2995,7 +4027,7 @@
 98= No Aplica (no tuvo ningún esquema de quimioterapia)</t>
         </is>
       </c>
-      <c r="CS3" s="75" t="inlineStr">
+      <c r="CS5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha en que terminó la administración del último
 esquema de quimioterapia en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el
@@ -3006,7 +4038,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CT3" s="75" t="inlineStr">
+      <c r="CT5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Finalizado, esquema completo según medicamentos programados
@@ -3018,12 +4050,12 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CU3" s="75" t="inlineStr">
+      <c r="CU5" s="108" t="inlineStr">
         <is>
           <t>Registre: 1= Toxicidad de uno o más medicamentos 2= Otros motivos médicos 3= Muerte 4= Cambio de EPS 5= Decisión del usuario, abandonó la terapia 6= No hay disponibilidad de medicamentos 39 7= Otros motivos administrativos 8= Otras causas no contempladas 98= No Aplica 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CV3" s="75" t="inlineStr">
+      <c r="CV5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Si fue sometido al menos a una cirugía durante este periodo
@@ -3032,7 +4064,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CW3" s="75" t="inlineStr">
+      <c r="CW5" s="108" t="inlineStr">
         <is>
           <t>Registre el número de cirugías a las que el usuario fue sometido durante el periodo de reporte 
 actual, incluya aquellas por complicaciones relacionadas a la cirugía inicial. Valide que se esté
@@ -3043,7 +4075,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="CX3" s="75" t="inlineStr">
+      <c r="CX5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en el
 formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15.
@@ -3052,7 +4084,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CY3" s="75" t="inlineStr">
+      <c r="CY5" s="108" t="inlineStr">
         <is>
           <t>Registre el código
 de habilitación de la IPS (disponible en la página web REPS).
@@ -3062,7 +4094,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="CZ3" s="75" t="inlineStr">
+      <c r="CZ5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de procedimiento
 CUPS (disponible en la página web CAC se recomienda utilizar el CUPS que tenga mayor relación con
@@ -3072,7 +4104,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DA3" s="75" t="inlineStr">
+      <c r="DA5" s="108" t="inlineStr">
         <is>
           <t>Esta cirugía es:
 1= Parte del manejo inicial para el cáncer (tratamiento inicial curativo)
@@ -3083,7 +4115,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DB3" s="75" t="inlineStr">
+      <c r="DB5" s="108" t="inlineStr">
         <is>
           <t>Registre la Fecha de realización de la última cirugía en el formato AAAA-MM-DD. Si conoce sólo el
 año y el mes, registre el día 15.
@@ -3093,7 +4125,7 @@
 que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DC3" s="75" t="inlineStr">
+      <c r="DC5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Complementar tratamiento quirúrgico del cáncer no asociado a complicaciones de la primera
@@ -3108,7 +4140,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DD3" s="75" t="inlineStr">
+      <c r="DD5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de
 Habilitación de IPS (disponible en la página web REPS).
@@ -3117,7 +4149,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DE3" s="75" t="inlineStr">
+      <c r="DE5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de procedimiento CUPS
 (disponible en la página web CAC). Se recomienda utilizar el CUPS que tenga mayor relación con el
@@ -3127,7 +4159,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DF3" s="75" t="inlineStr">
+      <c r="DF5" s="108" t="inlineStr">
         <is>
           <t>Esta cirugía es:
 1= Parte del manejo inicial para el cáncer (manejo inicial curativo)
@@ -3139,7 +4171,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DG3" s="75" t="inlineStr">
+      <c r="DG5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Vivo
@@ -3149,7 +4181,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DH3" s="75" t="inlineStr">
+      <c r="DH5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Si recibió algún tipo de radioterapia
@@ -3158,7 +4190,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DI3" s="75" t="inlineStr">
+      <c r="DI5" s="108" t="inlineStr">
         <is>
           <t>Registre el número de sesiones
 de radioterapia suministrados durante el periodo de reporte actual (valide que en los soportes exista
@@ -3169,7 +4201,7 @@
 recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DJ3" s="75" t="inlineStr">
+      <c r="DJ5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en que se inició cualquiera de los tipos de
 radioterapia en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15.
@@ -3178,7 +4210,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DK3" s="75" t="inlineStr">
+      <c r="DK5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre para todos los usuarios:
 1= Neoadyuvancia (manejo inicial prequirúrgico)
@@ -3193,7 +4225,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DL3" s="75" t="inlineStr">
+      <c r="DL5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de
 procedimiento CUPS (archivo operativo CAC)
@@ -3202,7 +4234,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DM3" s="75" t="inlineStr">
+      <c r="DM5" s="108" t="inlineStr">
         <is>
           <t>Registre el
 número de IPS que intervinieron en la administración de la dosis de radioterapia.
@@ -3211,7 +4243,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DN3" s="75" t="inlineStr">
+      <c r="DN5" s="108" t="inlineStr">
         <is>
           <t>Registre el
 código de Habilitación de IPS (disponible en la página web REPS).
@@ -3221,7 +4253,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DO3" s="75" t="inlineStr">
+      <c r="DO5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de Habilitación de IPS (disponible en la página web REPS).
 98= No Aplica
@@ -3229,7 +4261,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DP3" s="75" t="inlineStr">
+      <c r="DP5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha de
 finalización de cualquiera de los tipos de radioterapia en el formato AAAA-MM-DD. Si conoce sólo
@@ -3240,7 +4272,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DQ3" s="75" t="inlineStr">
+      <c r="DQ5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Finalizado, dosis completa de radioterapia prescrita
@@ -3251,12 +4283,12 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DR3" s="75" t="inlineStr">
+      <c r="DR5" s="108" t="inlineStr">
         <is>
           <t>Registre: 1= Toxicidad 2= Otros motivos médicos 3= Muerte 4= Cambio de EPS 5= Decisión del usuario, abandono la terapia. 6= Otros motivos administrativos 7= Otras causas no contempladas 98= No Aplica 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DS3" s="75" t="inlineStr">
+      <c r="DS5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en que se inició el último esquema, de cualquiera de
 los tipos de radioterapia en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día
@@ -3265,7 +4297,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="DT3" s="75" t="inlineStr">
+      <c r="DT5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Neoadyuvancia (manejo inicial prequirúrgico)
@@ -3280,7 +4312,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DU3" s="75" t="inlineStr">
+      <c r="DU5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de procedimiento CUPS (archivo
 operativo CAC)
@@ -3289,7 +4321,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DV3" s="75" t="inlineStr">
+      <c r="DV5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre el número de IPS que intervinieron en la administración de la
 dosis de radioterapia
@@ -3298,7 +4330,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DW3" s="75" t="inlineStr">
+      <c r="DW5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de Habilitación de IPS (disponible en la página web
 REPS).
@@ -3307,7 +4339,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DX3" s="75" t="inlineStr">
+      <c r="DX5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de Habilitación de IPS (disponible en la página web
 REPS).
@@ -3316,7 +4348,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DY3" s="75" t="inlineStr">
+      <c r="DY5" s="108" t="inlineStr">
         <is>
           <t>Registre la Fecha de finalización de cualquiera de los tipos de
 radioterapia en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15.
@@ -3326,7 +4358,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="DZ3" s="75" t="inlineStr">
+      <c r="DZ5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Finalizado, dosis completa de radioterapia prescrita
@@ -3337,7 +4369,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EA3" s="75" t="inlineStr">
+      <c r="EA5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Toxicidad
@@ -3352,7 +4384,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EB3" s="75" t="inlineStr">
+      <c r="EB5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí recibió
@@ -3361,7 +4393,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EC3" s="75" t="inlineStr">
+      <c r="EC5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Autólogo
@@ -3378,7 +4410,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="ED3" s="75" t="inlineStr">
+      <c r="ED5" s="108" t="inlineStr">
         <is>
           <t>Este trasplante de
 células progenitoras hematopoyéticas fue:
@@ -3390,7 +4422,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EE3" s="75" t="inlineStr">
+      <c r="EE5" s="108" t="inlineStr">
         <is>
           <t>Fecha de realización del trasplante en el formato AAAA-MM-DD. Registre:
 1845-01-01= No Aplica.
@@ -3398,7 +4430,7 @@
 que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EF3" s="75" t="inlineStr">
+      <c r="EF5" s="108" t="inlineStr">
         <is>
           <t>Registre código de Habilitación de IPS (disponible
 en la página web REPS).
@@ -3407,7 +4439,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EG3" s="75" t="inlineStr">
+      <c r="EG5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí recibió cirugía
@@ -3417,7 +4449,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EH3" s="75" t="inlineStr">
+      <c r="EH5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha en que se realizó la cirugía en el formato AAAA-MMDD. Si conoce sólo el año y el mes, registre el día 15.
 Registre 1845-01-01= No Aplica.
@@ -3425,7 +4457,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EI3" s="75" t="inlineStr">
+      <c r="EI5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre código de Habilitación de IPS
 (disponible en la página web REPS).
@@ -3434,7 +4466,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EJ3" s="75" t="inlineStr">
+      <c r="EJ5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí fue valorado
@@ -3443,7 +4475,7 @@
 servicios de salud por parte del ente territorial durante el periodo de report</t>
         </is>
       </c>
-      <c r="EK3" s="75" t="inlineStr">
+      <c r="EK5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí fue valorado.
@@ -3452,7 +4484,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EL3" s="75" t="inlineStr">
+      <c r="EL5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí fue valorado.
@@ -3461,7 +4493,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EM3" s="75" t="inlineStr">
+      <c r="EM5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí fue valorado.
@@ -3470,7 +4502,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EN3" s="75" t="inlineStr">
+      <c r="EN5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre:
 1= Sí fue valorado.
@@ -3479,12 +4511,12 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EO3" s="75" t="inlineStr">
+      <c r="EO5" s="108" t="inlineStr">
         <is>
           <t>Registre: 1= Sí fue valorado. 2= No recibió 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EP3" s="75" t="inlineStr">
+      <c r="EP5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí fue valorado.
@@ -3493,12 +4525,12 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EQ3" s="75" t="inlineStr">
+      <c r="EQ5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha de primera interconsulta o procedimiento en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el día 15. Registre 1845-01-01= No Aplica. Registre 1846-01-01= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="ER3" s="75" t="inlineStr">
+      <c r="ER5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de Habilitación de IPS (disponible en la página web REPS).
 98= No Aplica
@@ -3506,7 +4538,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="ES3" s="75" t="inlineStr">
+      <c r="ES5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí fue valorado.
@@ -3516,7 +4548,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="ET3" s="75" t="inlineStr">
+      <c r="ET5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fecha de primera interconsulta en el formato AAAA-MM-DD. Si conoce
 sólo el año y el mes, registre el día 15.
@@ -3525,7 +4557,7 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EU3" s="75" t="inlineStr">
+      <c r="EU5" s="108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registre el código de Habilitación de IPS (disponible en la página web REPS).
 98= No Aplica
@@ -3533,7 +4565,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EV3" s="75" t="inlineStr">
+      <c r="EV5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Sí fue valorado
@@ -3543,7 +4575,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EW3" s="75" t="inlineStr">
+      <c r="EW5" s="108" t="inlineStr">
         <is>
           <t>Registre la Fecha en
 que se inició esta atención en el formato AAAA-MM-DD. Si conoce sólo el año y el mes, registre el
@@ -3553,12 +4585,12 @@
 PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EX3" s="75" t="inlineStr">
+      <c r="EX5" s="108" t="inlineStr">
         <is>
           <t>Registre el código de Habilitación de IPS (disponible en la página web REPS). 98= No Aplica 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="EY3" s="75" t="inlineStr">
+      <c r="EY5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1=Si recibió soporte nutricional enteral
@@ -3569,12 +4601,12 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="EZ3" s="75" t="inlineStr">
+      <c r="EZ5" s="108" t="inlineStr">
         <is>
           <t>1= Si, Terapia física 2= Si, terapia de lenguaje 3= Si, Terapia ocupacional 5= 1 y 2 6= 1 y 3 7= 2 y 3 8= 1, 2 y 3 98= No aplica, no se han ordenado terapias.  55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="FA3" s="75" t="inlineStr">
+      <c r="FA5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Radioterapia
@@ -3597,7 +4629,7 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="FB3" s="75" t="inlineStr">
+      <c r="FB5" s="108" t="inlineStr">
         <is>
           <t>1= Pseudoprogresión (aplica solo para inmunoterapia)
 2= Progresión o recaída
@@ -3618,12 +4650,12 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="FC3" s="75" t="inlineStr">
+      <c r="FC5" s="108" t="inlineStr">
         <is>
           <t>Registre: 1= Vivo 2= Fallecido 99= Desconocido 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="FD3" s="75" t="inlineStr">
+      <c r="FD5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 0= no presenta novedad con respecto al reporte anterior (vivo y afiliado a la entidad).
@@ -3647,12 +4679,12 @@
 en los que se define el primario o se especifica el tipo de cáncer</t>
         </is>
       </c>
-      <c r="FE3" s="75" t="inlineStr">
+      <c r="FE5" s="108" t="inlineStr">
         <is>
           <t>Registre: 1= Usuario que está en manejo inicial curativo 3= Usuario que finalizó tratamiento inicial y está en seguimiento 8= Abandono de tratamiento 9= Usuario firmó alta voluntaria 10= Usuario en manejo expectante antes de tratamiento 11= Usuario que está en manejo de metástasis o de recaída 12= Usuario fallecido o desafiliado 55= Persona con aseguramiento (régimen subsidiado o contributivo y que no son PPNA) que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="FF3" s="75" t="inlineStr">
+      <c r="FF5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en la que el usuario se desafilió de la EAPB en el formato AAAA-MM-DD
 1845-01-01= No Aplica, el usuario no se desafilió
@@ -3660,7 +4692,7 @@
 que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="FG3" s="75" t="inlineStr">
+      <c r="FG5" s="108" t="inlineStr">
         <is>
           <t>Registre la fecha en la que el usuario falleció en el formato AAAA-MM-DD
 1845-01-01=No Aplica, el usuario no falleció o su estado vital no se conoce
@@ -3668,7 +4700,7 @@
 que recibió servicios de salud por parte del ente territorial durante el periodo de reporte</t>
         </is>
       </c>
-      <c r="FH3" s="75" t="inlineStr">
+      <c r="FH5" s="108" t="inlineStr">
         <is>
           <t>Registre:
 1= Muerte asociada al cáncer
@@ -3680,2515 +4712,2996 @@
 servicios de salud por parte del ente territorial durante el periodo de reporte.</t>
         </is>
       </c>
-      <c r="FI3" s="75" t="inlineStr">
+      <c r="FI5" s="108" t="inlineStr">
         <is>
           <t>Registre el código único serial de
 identificación BDUA- BDEX- PVS asignado al paciente por el Ministerio de Salud y Protección Social</t>
         </is>
       </c>
-      <c r="FJ3" s="77" t="inlineStr">
+      <c r="FJ5" s="110" t="inlineStr">
         <is>
           <t>Diligencie esta variable con la fecha 2021-01-01</t>
         </is>
       </c>
+      <c r="FK5" s="112" t="n"/>
+      <c r="FL5" s="107" t="n"/>
+      <c r="FM5" s="107" t="n"/>
+      <c r="FN5" s="107" t="n"/>
+      <c r="FO5" s="107" t="n"/>
+      <c r="FP5" s="107" t="n"/>
+      <c r="FQ5" s="107" t="n"/>
+      <c r="FR5" s="107" t="n"/>
+      <c r="FS5" s="107" t="n"/>
+      <c r="FT5" s="107" t="n"/>
+      <c r="FU5" s="107" t="n"/>
+      <c r="FV5" s="107" t="n"/>
+      <c r="FW5" s="107" t="n"/>
+      <c r="FX5" s="107" t="n"/>
     </row>
-    <row r="4" ht="13.9" customHeight="1" s="42">
-      <c r="A4" s="79" t="inlineStr">
+    <row r="6" ht="13.8" customHeight="1" s="64">
+      <c r="A6" s="113" t="n"/>
+      <c r="B6" s="113" t="n"/>
+      <c r="C6" s="113" t="n"/>
+      <c r="D6" s="113" t="n"/>
+      <c r="E6" s="113" t="n"/>
+      <c r="F6" s="113" t="n"/>
+      <c r="G6" s="113" t="n"/>
+      <c r="H6" s="113" t="n"/>
+      <c r="I6" s="113" t="n"/>
+      <c r="J6" s="113" t="n"/>
+      <c r="K6" s="113" t="n"/>
+      <c r="L6" s="114" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" s="115" t="n"/>
+      <c r="N6" s="113" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="114" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q6" s="114" t="n"/>
+      <c r="R6" s="117" t="n"/>
+      <c r="S6" s="118" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T6" s="118" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U6" s="119" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V6" s="119" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="W6" s="118" t="n"/>
+      <c r="X6" s="120" t="n"/>
+      <c r="Y6" s="119" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z6" s="121" t="n"/>
+      <c r="AA6" s="119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB6" s="119" t="n"/>
+      <c r="AC6" s="119" t="n"/>
+      <c r="AD6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AE6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="AF6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG6" s="119" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH6" s="122" t="n">
+        <v>98</v>
+      </c>
+      <c r="AI6" s="123" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="AK6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="AL6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="AM6" s="114" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN6" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="114" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR6" s="114" t="n">
+        <v>99</v>
+      </c>
+      <c r="AS6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="AT6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="AU6" s="114" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV6" s="114" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW6" s="114" t="n">
+        <v>97</v>
+      </c>
+      <c r="AX6" s="114" t="n">
+        <v>97</v>
+      </c>
+      <c r="AY6" s="114" t="n">
+        <v>97</v>
+      </c>
+      <c r="AZ6" s="114" t="n">
+        <v>97</v>
+      </c>
+      <c r="BA6" s="114" t="n">
+        <v>97</v>
+      </c>
+      <c r="BB6" s="114" t="n">
+        <v>97</v>
+      </c>
+      <c r="BC6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BD6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BE6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BG6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BH6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BI6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BJ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BK6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BL6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BM6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BN6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BO6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BP6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BQ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BR6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BS6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BT6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BU6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BV6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BW6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BY6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="BZ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CA6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CC6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CD6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CE6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CF6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CG6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CH6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CI6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CJ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CK6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CL6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CM6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CN6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CO6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CP6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CQ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CR6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CS6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT6" s="114" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CV6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CX6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="CZ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DA6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DB6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DD6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DE6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DF6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DG6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DH6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DI6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DJ6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DL6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DM6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DN6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DO6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DP6" s="114" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DR6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DS6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DU6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DV6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DW6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DX6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="DY6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EA6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EB6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EC6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="ED6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EE6" s="114" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EG6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EH6" s="114" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EJ6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="EK6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP6" s="114" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="ES6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="ET6" s="114" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EV6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EW6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="EY6" s="114" t="n">
+        <v>4</v>
+      </c>
+      <c r="EZ6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="FA6" s="114" t="n">
+        <v>9</v>
+      </c>
+      <c r="FB6" s="114" t="n">
+        <v>5</v>
+      </c>
+      <c r="FC6" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD6" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="114" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF6" s="114" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG6" s="118" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="FI6" s="114" t="n">
+        <v>98</v>
+      </c>
+      <c r="FJ6" s="124" t="n">
+        <v>44197</v>
+      </c>
+      <c r="FK6" s="113" t="n"/>
+      <c r="FL6" s="107" t="n"/>
+      <c r="FM6" s="107" t="n"/>
+      <c r="FN6" s="107" t="n"/>
+      <c r="FO6" s="107" t="n"/>
+      <c r="FP6" s="107" t="n"/>
+      <c r="FQ6" s="107" t="n"/>
+      <c r="FR6" s="107" t="n"/>
+      <c r="FS6" s="107" t="n"/>
+      <c r="FT6" s="107" t="n"/>
+      <c r="FU6" s="107" t="n"/>
+      <c r="FV6" s="107" t="n"/>
+      <c r="FW6" s="107" t="n"/>
+      <c r="FX6" s="107" t="n"/>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="64">
+      <c r="A7" s="125" t="inlineStr">
         <is>
           <t>warner</t>
         </is>
       </c>
-      <c r="B4" s="79" t="inlineStr">
+      <c r="B7" s="125" t="inlineStr">
         <is>
           <t>chistian</t>
         </is>
       </c>
-      <c r="C4" s="79" t="inlineStr">
+      <c r="C7" s="125" t="inlineStr">
         <is>
           <t>montenegro</t>
         </is>
       </c>
-      <c r="D4" s="79" t="inlineStr">
+      <c r="D7" s="125" t="inlineStr">
         <is>
           <t>barros</t>
         </is>
       </c>
-      <c r="E4" s="79" t="inlineStr">
+      <c r="E7" s="125" t="inlineStr">
         <is>
           <t>cc</t>
         </is>
       </c>
-      <c r="F4" s="79" t="inlineStr">
+      <c r="F7" s="125" t="inlineStr">
         <is>
           <t>84046881</t>
         </is>
       </c>
-      <c r="G4" s="79" t="inlineStr">
+      <c r="G7" s="126" t="inlineStr">
         <is>
           <t>1989  -02-10</t>
         </is>
       </c>
-      <c r="H4" s="79" t="inlineStr">
+      <c r="H7" s="125" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="I4" s="79" t="inlineStr">
+      <c r="I7" s="125" t="inlineStr">
         <is>
           <t>9622</t>
         </is>
       </c>
-      <c r="J4" s="79" t="inlineStr">
+      <c r="J7" s="125" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="K4" s="79" t="inlineStr">
+      <c r="K7" s="127" t="inlineStr">
         <is>
           <t xml:space="preserve">comfaguajira pgp oncologia subsidiado  </t>
         </is>
       </c>
-      <c r="L4" s="79" t="inlineStr">
+      <c r="L7" s="125" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M4" s="79" t="inlineStr">
+      <c r="M7" s="125" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N4" s="79" t="inlineStr">
+      <c r="N7" s="125" t="inlineStr">
         <is>
           <t>44430</t>
         </is>
       </c>
-      <c r="O4" s="79" t="inlineStr">
+      <c r="O7" s="125" t="inlineStr">
         <is>
           <t xml:space="preserve">3185218372  </t>
         </is>
       </c>
-      <c r="P4" s="80" t="inlineStr">
+      <c r="P7" s="125" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="Q4" s="80" t="inlineStr">
+      <c r="Q7" s="125" t="inlineStr">
         <is>
           <t>c859</t>
         </is>
       </c>
-      <c r="R4" s="80" t="inlineStr">
+      <c r="R7" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="S4" s="80" t="inlineStr">
+      <c r="S7" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="T4" s="80" t="inlineStr">
+      <c r="T7" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="U4" s="80" t="inlineStr">
+      <c r="U7" s="63" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="W4" s="80" t="n"/>
-      <c r="X4" s="80" t="n"/>
-      <c r="Y4" s="80" t="inlineStr">
+      <c r="V7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y7" s="63" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="Z4" s="80" t="inlineStr">
+      <c r="Z7" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="AA4" s="80" t="n"/>
-      <c r="AB4" s="80" t="n"/>
-      <c r="AC4" s="80" t="inlineStr">
+      <c r="AC7" s="63" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AD4" s="80" t="inlineStr">
+      <c r="AD7" s="63" t="inlineStr">
         <is>
           <t>2021-04-30</t>
         </is>
       </c>
-      <c r="AE4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AF4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AG4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AH4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AI4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AJ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AK4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AL4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AN4" s="80" t="inlineStr">
+      <c r="AE7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN7" s="63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AO4" s="80" t="inlineStr">
+      <c r="AO7" s="63" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AP4" s="80" t="inlineStr">
+      <c r="AP7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AQ4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AR4" s="80" t="inlineStr">
+      <c r="AQ7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR7" s="63" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AS4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU4" s="80" t="inlineStr">
+      <c r="AS7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU7" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AV4" s="80" t="inlineStr">
+      <c r="AV7" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AW4" s="80" t="inlineStr">
+      <c r="AW7" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AX4" s="80" t="inlineStr">
+      <c r="AX7" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AY4" s="80" t="inlineStr">
+      <c r="AY7" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AZ4" s="80" t="inlineStr">
+      <c r="AZ7" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BA4" s="80" t="inlineStr">
+      <c r="BA7" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BB4" s="80" t="inlineStr">
+      <c r="BB7" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BC4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BF4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BX4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CB4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CT4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV4" s="80" t="inlineStr">
+      <c r="BC7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CW4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CY4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DC4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DK4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DQ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DT4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DZ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EB4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EC4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ED4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EE4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EF4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EG4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EH4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EI4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EJ4" s="80" t="inlineStr">
+      <c r="CW7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EK4" s="80" t="inlineStr">
+      <c r="EK7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EL4" s="80" t="inlineStr">
+      <c r="EL7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EM4" s="80" t="inlineStr">
+      <c r="EM7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EN4" s="80" t="inlineStr">
+      <c r="EN7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EO4" s="80" t="inlineStr">
+      <c r="EO7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EP4" s="80" t="inlineStr">
+      <c r="EP7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EQ4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="ER4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES4" s="80" t="inlineStr">
+      <c r="EQ7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="ET4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EU4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV4" s="80" t="inlineStr">
+      <c r="EW7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY7" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EW4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EX4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY4" s="80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EZ4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FA4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FB4" s="80" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="FC4" s="80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="FD4" s="80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="FE4" s="80" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="FF4" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FG4" s="80" t="inlineStr"/>
-      <c r="FH4" s="80" t="inlineStr"/>
-      <c r="FI4" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FJ4" s="80" t="inlineStr">
+      <c r="EZ7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA7" s="63" t="inlineStr"/>
+      <c r="FB7" s="63" t="inlineStr"/>
+      <c r="FC7" s="63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD7" s="63" t="inlineStr"/>
+      <c r="FE7" s="63" t="inlineStr"/>
+      <c r="FF7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG7" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI7" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ7" s="63" t="inlineStr">
         <is>
           <t>2021-01-01</t>
         </is>
       </c>
-      <c r="FK4" s="79" t="n"/>
-      <c r="FL4" s="79" t="n"/>
-      <c r="FM4" s="79" t="n"/>
-      <c r="FN4" s="79" t="n"/>
-      <c r="FO4" s="79" t="n"/>
-      <c r="FP4" s="79" t="n"/>
-      <c r="FQ4" s="79" t="n"/>
-      <c r="FR4" s="79" t="n"/>
-      <c r="FS4" s="79" t="n"/>
-      <c r="FT4" s="79" t="n"/>
-      <c r="FU4" s="79" t="n"/>
-      <c r="FV4" s="79" t="n"/>
-      <c r="FW4" s="79" t="n"/>
-      <c r="FX4" s="79" t="n"/>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="42">
-      <c r="A5" s="79" t="inlineStr">
+    <row r="8" ht="13.8" customHeight="1" s="64">
+      <c r="A8" s="63" t="inlineStr">
         <is>
           <t>yoraima</t>
         </is>
       </c>
-      <c r="B5" s="79" t="inlineStr">
+      <c r="B8" s="63" t="inlineStr">
         <is>
           <t>aracelly</t>
         </is>
       </c>
-      <c r="C5" s="79" t="inlineStr">
+      <c r="C8" s="63" t="inlineStr">
         <is>
           <t>mejia</t>
         </is>
       </c>
-      <c r="D5" s="79" t="inlineStr">
+      <c r="D8" s="63" t="inlineStr">
         <is>
           <t>uriana</t>
         </is>
       </c>
-      <c r="E5" s="79" t="inlineStr">
+      <c r="E8" s="63" t="inlineStr">
         <is>
           <t>cc</t>
         </is>
       </c>
-      <c r="F5" s="79" t="inlineStr">
+      <c r="F8" s="63" t="inlineStr">
         <is>
           <t>1192943668</t>
         </is>
       </c>
-      <c r="G5" s="79" t="inlineStr">
+      <c r="G8" s="63" t="inlineStr">
         <is>
           <t>1985  -09-19</t>
         </is>
       </c>
-      <c r="H5" s="79" t="inlineStr">
+      <c r="H8" s="63" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="I5" s="79" t="inlineStr">
+      <c r="I8" s="63" t="inlineStr">
         <is>
           <t>9622</t>
         </is>
       </c>
-      <c r="J5" s="79" t="inlineStr">
+      <c r="J8" s="63" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="K5" s="79" t="inlineStr">
+      <c r="K8" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">comfaguajira pgp oncologia subsidiado  </t>
         </is>
       </c>
-      <c r="L5" s="79" t="inlineStr">
+      <c r="L8" s="63" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M5" s="79" t="inlineStr">
+      <c r="M8" s="63" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N5" s="79" t="inlineStr">
+      <c r="N8" s="63" t="inlineStr">
         <is>
           <t>44001</t>
         </is>
       </c>
-      <c r="O5" s="79" t="inlineStr">
+      <c r="O8" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">3234440935  </t>
         </is>
       </c>
-      <c r="P5" s="80" t="inlineStr">
+      <c r="P8" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="Q5" s="80" t="inlineStr">
+      <c r="Q8" s="63" t="inlineStr">
         <is>
           <t>c910</t>
         </is>
       </c>
-      <c r="R5" s="80" t="inlineStr">
+      <c r="R8" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="S5" s="80" t="inlineStr">
+      <c r="S8" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="T5" s="80" t="inlineStr">
+      <c r="T8" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="U5" s="80" t="inlineStr">
+      <c r="U8" s="63" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="W5" s="80" t="n"/>
-      <c r="X5" s="80" t="n"/>
-      <c r="Y5" s="80" t="inlineStr">
+      <c r="V8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y8" s="63" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="Z5" s="80" t="inlineStr">
+      <c r="Z8" s="63" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="AA5" s="80" t="n"/>
-      <c r="AB5" s="80" t="n"/>
-      <c r="AC5" s="80" t="inlineStr">
+      <c r="AC8" s="63" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AD5" s="80" t="inlineStr">
+      <c r="AD8" s="63" t="inlineStr">
         <is>
           <t>2021-04-30</t>
         </is>
       </c>
-      <c r="AE5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AF5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AG5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AH5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AI5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AJ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AK5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AL5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AN5" s="80" t="inlineStr">
+      <c r="AE8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN8" s="63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AO5" s="80" t="inlineStr">
+      <c r="AO8" s="63" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AP5" s="80" t="inlineStr">
+      <c r="AP8" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AQ5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AR5" s="80" t="inlineStr">
+      <c r="AQ8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR8" s="63" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AS5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU5" s="80" t="inlineStr">
+      <c r="AS8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU8" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AV5" s="80" t="inlineStr">
+      <c r="AV8" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AW5" s="80" t="inlineStr">
+      <c r="AW8" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AX5" s="80" t="inlineStr">
+      <c r="AX8" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AY5" s="80" t="inlineStr">
+      <c r="AY8" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AZ5" s="80" t="inlineStr">
+      <c r="AZ8" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BA5" s="80" t="inlineStr">
+      <c r="BA8" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BB5" s="80" t="inlineStr">
+      <c r="BB8" s="63" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BC5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BF5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BX5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CB5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CT5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV5" s="80" t="inlineStr">
+      <c r="BC8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV8" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CW5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CY5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DC5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DK5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DQ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DT5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DZ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EB5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EC5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ED5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EE5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EF5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EG5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EH5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EI5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EJ5" s="80" t="inlineStr">
+      <c r="CW8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ8" s="63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EK5" s="80" t="inlineStr">
+      <c r="EK8" s="63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EL5" s="80" t="inlineStr">
+      <c r="EL8" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EM5" s="80" t="inlineStr">
+      <c r="EM8" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EN5" s="80" t="inlineStr">
+      <c r="EN8" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EO5" s="80" t="inlineStr">
+      <c r="EO8" s="63" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EP5" s="80" t="inlineStr">
+      <c r="EP8" s="63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EQ5" s="80" t="inlineStr">
-        <is>
-          <t>2021-04-15</t>
-        </is>
-      </c>
-      <c r="ER5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES5" s="80" t="inlineStr">
+      <c r="EQ8" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">y hora de </t>
+        </is>
+      </c>
+      <c r="ER8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV8" s="63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="ET5" s="80" t="inlineStr">
+      <c r="EW8" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">y hora de </t>
         </is>
       </c>
-      <c r="EU5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV5" s="80" t="inlineStr">
+      <c r="EX8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY8" s="63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EW5" s="80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">y hora de </t>
-        </is>
-      </c>
-      <c r="EX5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY5" s="80" t="inlineStr">
+      <c r="EZ8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA8" s="63" t="inlineStr"/>
+      <c r="FB8" s="63" t="inlineStr"/>
+      <c r="FC8" s="63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EZ5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FA5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FB5" s="80" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="FC5" s="80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="FD5" s="80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="FE5" s="80" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="FF5" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FG5" s="80" t="inlineStr"/>
-      <c r="FH5" s="80" t="inlineStr"/>
-      <c r="FI5" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FJ5" s="80" t="inlineStr">
+      <c r="FD8" s="63" t="inlineStr"/>
+      <c r="FE8" s="63" t="inlineStr"/>
+      <c r="FF8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG8" s="63" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI8" s="63" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ8" s="63" t="inlineStr">
         <is>
           <t>2021-01-01</t>
         </is>
       </c>
-      <c r="FK5" s="79" t="n"/>
-      <c r="FL5" s="79" t="n"/>
-      <c r="FM5" s="79" t="n"/>
-      <c r="FN5" s="79" t="n"/>
-      <c r="FO5" s="79" t="n"/>
-      <c r="FP5" s="79" t="n"/>
-      <c r="FQ5" s="79" t="n"/>
-      <c r="FR5" s="79" t="n"/>
-      <c r="FS5" s="79" t="n"/>
-      <c r="FT5" s="79" t="n"/>
-      <c r="FU5" s="79" t="n"/>
-      <c r="FV5" s="79" t="n"/>
-      <c r="FW5" s="79" t="n"/>
-      <c r="FX5" s="79" t="n"/>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="42">
-      <c r="A6" s="79" t="inlineStr">
+    <row r="9" ht="13.8" customHeight="1" s="64">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nayibis</t>
         </is>
       </c>
-      <c r="B6" s="79" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="C6" s="79" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>morelo</t>
         </is>
       </c>
-      <c r="D6" s="79" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>marimon</t>
         </is>
       </c>
-      <c r="E6" s="79" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>cc</t>
         </is>
       </c>
-      <c r="F6" s="79" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>40925684</t>
         </is>
       </c>
-      <c r="G6" s="79" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>1971  -01-14</t>
         </is>
       </c>
-      <c r="H6" s="79" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="I6" s="79" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>9622</t>
         </is>
       </c>
-      <c r="J6" s="79" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="K6" s="79" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t xml:space="preserve">comfaguajira pgp oncologia subsidiado  </t>
         </is>
       </c>
-      <c r="L6" s="79" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M6" s="79" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N6" s="79" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>44001</t>
         </is>
       </c>
-      <c r="O6" s="79" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t xml:space="preserve">3226754735  </t>
         </is>
       </c>
-      <c r="P6" s="80" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="Q6" s="80" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>c509</t>
         </is>
       </c>
-      <c r="R6" s="80" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="S6" s="80" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="T6" s="80" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="U6" s="80" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="W6" s="80" t="n"/>
-      <c r="X6" s="80" t="n"/>
-      <c r="Y6" s="80" t="inlineStr">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="Z6" s="80" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="AA6" s="80" t="n"/>
-      <c r="AB6" s="80" t="n"/>
-      <c r="AC6" s="80" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AD6" s="80" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>2021-04-19</t>
         </is>
       </c>
-      <c r="AE6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AF6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AG6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AH6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AI6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AJ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AK6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AL6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AN6" s="80" t="inlineStr">
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AO6" s="80" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AP6" s="80" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AQ6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AR6" s="80" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AS6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU6" s="80" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AV6" s="80" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AW6" s="80" t="inlineStr">
+      <c r="AW9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AX6" s="80" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AY6" s="80" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AZ6" s="80" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BA6" s="80" t="inlineStr">
+      <c r="BA9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BB6" s="80" t="inlineStr">
+      <c r="BB9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BC6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BF6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BX6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CB6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CT6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV6" s="80" t="inlineStr">
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CW6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CY6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DC6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DK6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DQ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DT6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DZ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EB6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EC6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ED6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EE6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EF6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EG6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EH6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EI6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EJ6" s="80" t="inlineStr">
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EK6" s="80" t="inlineStr">
+      <c r="EK9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EL6" s="80" t="inlineStr">
+      <c r="EL9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EM6" s="80" t="inlineStr">
+      <c r="EM9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EN6" s="80" t="inlineStr">
+      <c r="EN9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EO6" s="80" t="inlineStr">
+      <c r="EO9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EP6" s="80" t="inlineStr">
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EQ6" s="80" t="inlineStr">
-        <is>
-          <t>2021-03-23</t>
-        </is>
-      </c>
-      <c r="ER6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES6" s="80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="ET6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EU6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV6" s="80" t="inlineStr">
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EW6" s="80" t="inlineStr">
-        <is>
-          <t>2021-01-25</t>
-        </is>
-      </c>
-      <c r="EX6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY6" s="80" t="inlineStr">
+      <c r="EZ9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA9" t="inlineStr"/>
+      <c r="FB9" t="inlineStr"/>
+      <c r="FC9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EZ6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FA6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FB6" s="80" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="FC6" s="80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="FD6" s="80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="FE6" s="80" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="FF6" s="80" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FG6" s="80" t="inlineStr"/>
-      <c r="FH6" s="80" t="inlineStr"/>
-      <c r="FI6" s="80" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FJ6" s="80" t="inlineStr">
+      <c r="FD9" t="inlineStr"/>
+      <c r="FE9" t="inlineStr"/>
+      <c r="FF9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI9" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ9" t="inlineStr">
         <is>
           <t>2021-01-01</t>
         </is>
       </c>
-      <c r="FK6" s="79" t="n"/>
-      <c r="FL6" s="79" t="n"/>
-      <c r="FM6" s="79" t="n"/>
-      <c r="FN6" s="79" t="n"/>
-      <c r="FO6" s="79" t="n"/>
-      <c r="FP6" s="79" t="n"/>
-      <c r="FQ6" s="79" t="n"/>
-      <c r="FR6" s="79" t="n"/>
-      <c r="FS6" s="79" t="n"/>
-      <c r="FT6" s="79" t="n"/>
-      <c r="FU6" s="79" t="n"/>
-      <c r="FV6" s="79" t="n"/>
-      <c r="FW6" s="79" t="n"/>
-      <c r="FX6" s="79" t="n"/>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="42">
-      <c r="G7" s="81" t="n"/>
-      <c r="K7" s="81" t="n"/>
-    </row>
-    <row r="8" ht="13.8" customHeight="1" s="42"/>
-    <row r="9" ht="13.8" customHeight="1" s="42"/>
-    <row r="10" ht="13.8" customHeight="1" s="42"/>
-    <row r="11" ht="13.8" customHeight="1" s="42"/>
-    <row r="12" ht="13.8" customHeight="1" s="42"/>
-    <row r="13" ht="13.8" customHeight="1" s="42"/>
-    <row r="14" ht="13.8" customHeight="1" s="42"/>
-    <row r="15" ht="13.8" customHeight="1" s="42"/>
-    <row r="16" ht="13.8" customHeight="1" s="42"/>
-    <row r="17" ht="13.8" customHeight="1" s="42"/>
-    <row r="18" ht="13.8" customHeight="1" s="42"/>
-    <row r="19" ht="13.8" customHeight="1" s="42"/>
-    <row r="20" ht="13.8" customHeight="1" s="42"/>
-    <row r="21" ht="13.8" customHeight="1" s="42"/>
-    <row r="22" ht="13.8" customHeight="1" s="42"/>
-    <row r="23" ht="13.8" customHeight="1" s="42"/>
-    <row r="24" ht="13.8" customHeight="1" s="42"/>
+    <row r="10" ht="13.8" customHeight="1" s="64"/>
+    <row r="11" ht="13.8" customHeight="1" s="64"/>
+    <row r="12" ht="13.8" customHeight="1" s="64"/>
+    <row r="13" ht="13.8" customHeight="1" s="64"/>
+    <row r="14" ht="13.8" customHeight="1" s="64"/>
+    <row r="15" ht="13.8" customHeight="1" s="64"/>
+    <row r="16" ht="13.8" customHeight="1" s="64"/>
+    <row r="17" ht="13.8" customHeight="1" s="64"/>
+    <row r="18" ht="13.8" customHeight="1" s="64"/>
+    <row r="19" ht="13.8" customHeight="1" s="64"/>
+    <row r="20" ht="13.8" customHeight="1" s="64"/>
+    <row r="21" ht="13.8" customHeight="1" s="64"/>
+    <row r="22" ht="13.8" customHeight="1" s="64"/>
+    <row r="23" ht="13.8" customHeight="1" s="64"/>
+    <row r="24" ht="13.8" customHeight="1" s="64"/>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:BY1"/>
+    <mergeCell ref="BZ1:CU1"/>
+    <mergeCell ref="CV1:DG1"/>
+    <mergeCell ref="DH1:EA1"/>
+    <mergeCell ref="EB1:EI1"/>
+    <mergeCell ref="EJ1:ER1"/>
+    <mergeCell ref="ES1:EU1"/>
+    <mergeCell ref="EV1:EY1"/>
+    <mergeCell ref="FA1:FJ1"/>
+  </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6204,10 +7717,10 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:FJ6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -65,7 +65,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -144,12 +144,6 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF3838"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -226,7 +220,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -410,7 +404,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -591,9 +585,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -959,11 +950,11 @@
   </sheetPr>
   <dimension ref="A1:FX12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="FG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FJ20" activeCellId="0" sqref="FJ20"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="EO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="ER7" activeCellId="0" sqref="ER7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.96" customWidth="1" style="62" min="1" max="166"/>
   </cols>
@@ -6770,9 +6761,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="EQ8" s="124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">y hora de </t>
+      <c r="EQ8" s="62" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="ER8" s="62" t="inlineStr">
@@ -6802,7 +6793,7 @@
       </c>
       <c r="EW8" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">y hora de </t>
+          <t>2021 -1801</t>
         </is>
       </c>
       <c r="EX8" s="62" t="inlineStr">
@@ -7598,7 +7589,7 @@
       </c>
       <c r="EW9" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">y hora de </t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="EX9" s="62" t="inlineStr">
@@ -8359,42 +8350,42 @@
       </c>
       <c r="EP10" s="62" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ10" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER10" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES10" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET10" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU10" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV10" s="62" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EQ10" s="62" t="inlineStr">
-        <is>
-          <t>2021-02-08</t>
-        </is>
-      </c>
-      <c r="ER10" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES10" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ET10" s="62" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EU10" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV10" s="62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="EW10" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">y hora de </t>
+          <t>2021-02-04</t>
         </is>
       </c>
       <c r="EX10" s="62" t="inlineStr">
@@ -9163,12 +9154,12 @@
       </c>
       <c r="EP11" s="62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="EQ11" s="62" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>2021-03-23</t>
         </is>
       </c>
       <c r="ER11" s="62" t="inlineStr">
@@ -9994,7 +9985,7 @@
       </c>
       <c r="EW12" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">y hora de </t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="EX12" s="62" t="inlineStr">
@@ -10095,7 +10086,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -65,7 +65,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -144,6 +144,12 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3838"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -220,7 +226,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -401,10 +407,10 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -582,6 +588,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -948,13 +957,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:FX12"/>
+  <dimension ref="A1:FX16"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="EO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="ER7" activeCellId="0" sqref="ER7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="FG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:FK11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.96" customWidth="1" style="62" min="1" max="166"/>
   </cols>
@@ -5252,22 +5261,22 @@
     <row r="7" ht="13.8" customHeight="1" s="63">
       <c r="A7" s="121" t="inlineStr">
         <is>
-          <t>warner</t>
+          <t>alfredo</t>
         </is>
       </c>
       <c r="B7" s="121" t="inlineStr">
         <is>
-          <t>chistian</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C7" s="121" t="inlineStr">
         <is>
-          <t>montenegro</t>
+          <t>jesus</t>
         </is>
       </c>
       <c r="D7" s="121" t="inlineStr">
         <is>
-          <t>barros</t>
+          <t>brito</t>
         </is>
       </c>
       <c r="E7" s="121" t="inlineStr">
@@ -5277,12 +5286,12 @@
       </c>
       <c r="F7" s="121" t="inlineStr">
         <is>
-          <t>84046881</t>
+          <t>1753652</t>
         </is>
       </c>
       <c r="G7" s="121" t="inlineStr">
         <is>
-          <t>1989 -02-10</t>
+          <t>1937 -10-15</t>
         </is>
       </c>
       <c r="H7" s="121" t="inlineStr">
@@ -5292,7 +5301,7 @@
       </c>
       <c r="I7" s="121" t="inlineStr">
         <is>
-          <t>9622</t>
+          <t>9629</t>
         </is>
       </c>
       <c r="J7" s="121" t="inlineStr">
@@ -5312,17 +5321,17 @@
       </c>
       <c r="M7" s="121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N7" s="121" t="inlineStr">
         <is>
-          <t>44430</t>
+          <t>44001</t>
         </is>
       </c>
       <c r="O7" s="121" t="inlineStr">
         <is>
-          <t xml:space="preserve">3185218372 </t>
+          <t xml:space="preserve">3004932870 </t>
         </is>
       </c>
       <c r="P7" s="121" t="inlineStr">
@@ -5332,7 +5341,7 @@
       </c>
       <c r="Q7" s="121" t="inlineStr">
         <is>
-          <t>c859</t>
+          <t>c61x</t>
         </is>
       </c>
       <c r="R7" s="123" t="inlineStr">
@@ -5350,541 +5359,541 @@
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="U7" s="123" t="inlineStr">
+      <c r="U7" s="124" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V7" s="123" t="inlineStr">
+      <c r="V7" s="124" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
       <c r="W7" s="123" t="n"/>
       <c r="X7" s="123" t="n"/>
-      <c r="Y7" s="123" t="inlineStr">
+      <c r="Y7" s="124" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="Z7" s="123" t="inlineStr">
+      <c r="Z7" s="124" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="AA7" s="123" t="n"/>
-      <c r="AB7" s="123" t="n"/>
-      <c r="AC7" s="123" t="inlineStr">
+      <c r="AA7" s="124" t="n"/>
+      <c r="AB7" s="124" t="n"/>
+      <c r="AC7" s="124" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AD7" s="123" t="inlineStr">
-        <is>
-          <t>2021-04-30</t>
-        </is>
-      </c>
-      <c r="AE7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AF7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AG7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AH7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AI7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AJ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AK7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AL7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AN7" s="123" t="inlineStr">
+      <c r="AD7" s="124" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+      <c r="AE7" s="124" t="inlineStr">
+        <is>
+          <t>-98</t>
+        </is>
+      </c>
+      <c r="AF7" s="124" t="inlineStr">
+        <is>
+          <t>--1846-01-01</t>
+        </is>
+      </c>
+      <c r="AG7" s="124" t="inlineStr">
+        <is>
+          <t>-98</t>
+        </is>
+      </c>
+      <c r="AH7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK7" s="124" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AL7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN7" s="124" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AO7" s="123" t="inlineStr">
+      <c r="AO7" s="124" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AP7" s="123" t="inlineStr">
+      <c r="AP7" s="124" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AQ7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AR7" s="123" t="inlineStr">
+      <c r="AQ7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR7" s="124" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AS7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU7" s="123" t="inlineStr">
+      <c r="AS7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU7" s="124" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AV7" s="123" t="inlineStr">
+      <c r="AV7" s="124" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AW7" s="123" t="inlineStr">
+      <c r="AW7" s="124" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AX7" s="123" t="inlineStr">
+      <c r="AX7" s="124" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AY7" s="123" t="inlineStr">
+      <c r="AY7" s="124" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AZ7" s="123" t="inlineStr">
+      <c r="AZ7" s="124" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BA7" s="123" t="inlineStr">
+      <c r="BA7" s="124" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BB7" s="123" t="inlineStr">
+      <c r="BB7" s="124" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BC7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BF7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BX7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CB7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CT7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV7" s="123" t="inlineStr">
+      <c r="BC7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV7" s="124" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CW7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CY7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DC7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DK7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DQ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DT7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY7" s="123" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DZ7" s="123" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA7" s="123" t="inlineStr">
+      <c r="CW7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY7" s="124" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ7" s="124" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA7" s="124" t="inlineStr">
         <is>
           <t>98</t>
         </is>
@@ -6048,27 +6057,27 @@
           <t>2021-01-01</t>
         </is>
       </c>
-      <c r="FK7" s="123" t="n"/>
+      <c r="FK7" s="124" t="n"/>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="63">
       <c r="A8" s="62" t="inlineStr">
         <is>
-          <t>yoraima</t>
+          <t>warner</t>
         </is>
       </c>
       <c r="B8" s="62" t="inlineStr">
         <is>
-          <t>aracelly</t>
+          <t>chistian</t>
         </is>
       </c>
       <c r="C8" s="62" t="inlineStr">
         <is>
-          <t>mejia</t>
+          <t>montenegro</t>
         </is>
       </c>
       <c r="D8" s="62" t="inlineStr">
         <is>
-          <t>uriana</t>
+          <t>barros</t>
         </is>
       </c>
       <c r="E8" s="62" t="inlineStr">
@@ -6078,17 +6087,17 @@
       </c>
       <c r="F8" s="62" t="inlineStr">
         <is>
-          <t>1192943668</t>
+          <t>84046881</t>
         </is>
       </c>
       <c r="G8" s="62" t="inlineStr">
         <is>
-          <t>1985 -09-19</t>
+          <t>1989 -02-10</t>
         </is>
       </c>
       <c r="H8" s="62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I8" s="62" t="inlineStr">
@@ -6118,12 +6127,12 @@
       </c>
       <c r="N8" s="62" t="inlineStr">
         <is>
-          <t>44001</t>
+          <t>44430</t>
         </is>
       </c>
       <c r="O8" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">3234440935 </t>
+          <t xml:space="preserve">3185218372 </t>
         </is>
       </c>
       <c r="P8" s="62" t="inlineStr">
@@ -6133,7 +6142,7 @@
       </c>
       <c r="Q8" s="62" t="inlineStr">
         <is>
-          <t>c910</t>
+          <t>c859</t>
         </is>
       </c>
       <c r="R8" s="62" t="inlineStr">
@@ -6183,17 +6192,17 @@
       </c>
       <c r="AE8" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AF8" s="62" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>--1846-01-01</t>
         </is>
       </c>
       <c r="AG8" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AH8" s="62" t="inlineStr">
@@ -6728,12 +6737,12 @@
       </c>
       <c r="EJ8" s="62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EK8" s="62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EL8" s="62" t="inlineStr">
@@ -6758,12 +6767,12 @@
       </c>
       <c r="EP8" s="62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EQ8" s="62" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>1845-01-01</t>
         </is>
       </c>
       <c r="ER8" s="62" t="inlineStr">
@@ -6788,12 +6797,12 @@
       </c>
       <c r="EV8" s="62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EW8" s="62" t="inlineStr">
         <is>
-          <t>2021 -1801</t>
+          <t>1845-01-01</t>
         </is>
       </c>
       <c r="EX8" s="62" t="inlineStr">
@@ -6803,7 +6812,7 @@
       </c>
       <c r="EY8" s="62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EZ8" s="62" t="inlineStr">
@@ -6849,22 +6858,22 @@
     <row r="9" ht="13.8" customHeight="1" s="63">
       <c r="A9" s="62" t="inlineStr">
         <is>
-          <t>bertilda</t>
+          <t>yoraima</t>
         </is>
       </c>
       <c r="B9" s="62" t="inlineStr">
         <is>
-          <t>isabel</t>
+          <t>aracelly</t>
         </is>
       </c>
       <c r="C9" s="62" t="inlineStr">
         <is>
-          <t>viloria</t>
+          <t>mejia</t>
         </is>
       </c>
       <c r="D9" s="62" t="inlineStr">
         <is>
-          <t>campo</t>
+          <t>uriana</t>
         </is>
       </c>
       <c r="E9" s="62" t="inlineStr">
@@ -6874,12 +6883,12 @@
       </c>
       <c r="F9" s="62" t="inlineStr">
         <is>
-          <t>40930022</t>
+          <t>1192943668</t>
         </is>
       </c>
       <c r="G9" s="62" t="inlineStr">
         <is>
-          <t>1964 -12-15</t>
+          <t>1985 -09-19</t>
         </is>
       </c>
       <c r="H9" s="62" t="inlineStr">
@@ -6919,7 +6928,7 @@
       </c>
       <c r="O9" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">31463186925 </t>
+          <t xml:space="preserve">3234440935 </t>
         </is>
       </c>
       <c r="P9" s="62" t="inlineStr">
@@ -6929,7 +6938,7 @@
       </c>
       <c r="Q9" s="62" t="inlineStr">
         <is>
-          <t>c531</t>
+          <t>c910</t>
         </is>
       </c>
       <c r="R9" s="62" t="inlineStr">
@@ -6974,22 +6983,22 @@
       </c>
       <c r="AD9" s="62" t="inlineStr">
         <is>
-          <t>2021-01-11</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="AE9" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AF9" s="62" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>--1846-01-01</t>
         </is>
       </c>
       <c r="AG9" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AH9" s="62" t="inlineStr">
@@ -7524,42 +7533,42 @@
       </c>
       <c r="EJ9" s="62" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EK9" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EL9" s="62" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EK9" s="62" t="inlineStr">
+      <c r="EM9" s="62" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EL9" s="62" t="inlineStr">
+      <c r="EN9" s="62" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EM9" s="62" t="inlineStr">
+      <c r="EO9" s="62" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EN9" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EO9" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="EP9" s="62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="EQ9" s="62" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="ER9" s="62" t="inlineStr">
@@ -7589,7 +7598,7 @@
       </c>
       <c r="EW9" s="62" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2021 -1801</t>
         </is>
       </c>
       <c r="EX9" s="62" t="inlineStr">
@@ -7645,24 +7654,24 @@
     <row r="10" ht="13.8" customHeight="1" s="63">
       <c r="A10" s="62" t="inlineStr">
         <is>
-          <t>rosaida</t>
+          <t>manuel</t>
         </is>
       </c>
       <c r="B10" s="62" t="inlineStr">
         <is>
+          <t>alberto</t>
+        </is>
+      </c>
+      <c r="C10" s="62" t="inlineStr">
+        <is>
+          <t>zuleta</t>
+        </is>
+      </c>
+      <c r="D10" s="62" t="inlineStr">
+        <is>
           <t>none</t>
         </is>
       </c>
-      <c r="C10" s="62" t="inlineStr">
-        <is>
-          <t>pushaina</t>
-        </is>
-      </c>
-      <c r="D10" s="62" t="inlineStr">
-        <is>
-          <t>ipuana</t>
-        </is>
-      </c>
       <c r="E10" s="62" t="inlineStr">
         <is>
           <t>cc</t>
@@ -7670,22 +7679,22 @@
       </c>
       <c r="F10" s="62" t="inlineStr">
         <is>
-          <t>56101289</t>
+          <t>12710655</t>
         </is>
       </c>
       <c r="G10" s="62" t="inlineStr">
         <is>
-          <t>1974 -05-22</t>
+          <t>1945 -01-14</t>
         </is>
       </c>
       <c r="H10" s="62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I10" s="62" t="inlineStr">
         <is>
-          <t>9622</t>
+          <t>9629</t>
         </is>
       </c>
       <c r="J10" s="62" t="inlineStr">
@@ -7705,17 +7714,17 @@
       </c>
       <c r="M10" s="62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N10" s="62" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>13873</t>
         </is>
       </c>
       <c r="O10" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">3147931653 </t>
+          <t xml:space="preserve">3007874070 </t>
         </is>
       </c>
       <c r="P10" s="62" t="inlineStr">
@@ -7725,7 +7734,7 @@
       </c>
       <c r="Q10" s="62" t="inlineStr">
         <is>
-          <t>c530</t>
+          <t>c61x</t>
         </is>
       </c>
       <c r="R10" s="62" t="inlineStr">
@@ -7770,22 +7779,22 @@
       </c>
       <c r="AD10" s="62" t="inlineStr">
         <is>
-          <t>2021-02-08</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="AE10" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AF10" s="62" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>--1846-01-01</t>
         </is>
       </c>
       <c r="AG10" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AH10" s="62" t="inlineStr">
@@ -7805,7 +7814,7 @@
       </c>
       <c r="AK10" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AL10" s="62" t="inlineStr">
@@ -8380,61 +8389,53 @@
       </c>
       <c r="EV10" s="62" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EW10" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX10" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY10" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EZ10" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA10" s="62" t="inlineStr"/>
+      <c r="FB10" s="62" t="inlineStr"/>
+      <c r="FC10" s="62" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EW10" s="62" t="inlineStr">
-        <is>
-          <t>2021-02-04</t>
-        </is>
-      </c>
-      <c r="EX10" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY10" s="62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="EZ10" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FA10" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FB10" s="62" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="FC10" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="FD10" s="62" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="FE10" s="62" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="FD10" s="62" t="inlineStr"/>
+      <c r="FE10" s="62" t="inlineStr"/>
       <c r="FF10" s="62" t="inlineStr">
         <is>
           <t>1845-01-01</t>
         </is>
       </c>
-      <c r="FG10" s="62" t="inlineStr"/>
-      <c r="FH10" s="62" t="inlineStr"/>
+      <c r="FG10" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH10" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="FI10" s="62" t="inlineStr">
         <is>
           <t>98</t>
@@ -8449,22 +8450,22 @@
     <row r="11" ht="13.8" customHeight="1" s="63">
       <c r="A11" s="62" t="inlineStr">
         <is>
-          <t>nayibis</t>
+          <t>bertilda</t>
         </is>
       </c>
       <c r="B11" s="62" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>isabel</t>
         </is>
       </c>
       <c r="C11" s="62" t="inlineStr">
         <is>
-          <t>morelo</t>
+          <t>viloria</t>
         </is>
       </c>
       <c r="D11" s="62" t="inlineStr">
         <is>
-          <t>marimon</t>
+          <t>campo</t>
         </is>
       </c>
       <c r="E11" s="62" t="inlineStr">
@@ -8474,12 +8475,12 @@
       </c>
       <c r="F11" s="62" t="inlineStr">
         <is>
-          <t>40925684</t>
+          <t>40930022</t>
         </is>
       </c>
       <c r="G11" s="62" t="inlineStr">
         <is>
-          <t>1971 -01-14</t>
+          <t>1964 -12-15</t>
         </is>
       </c>
       <c r="H11" s="62" t="inlineStr">
@@ -8519,7 +8520,7 @@
       </c>
       <c r="O11" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">3226754735 </t>
+          <t xml:space="preserve">31463186925 </t>
         </is>
       </c>
       <c r="P11" s="62" t="inlineStr">
@@ -8529,7 +8530,7 @@
       </c>
       <c r="Q11" s="62" t="inlineStr">
         <is>
-          <t>c509</t>
+          <t>c531</t>
         </is>
       </c>
       <c r="R11" s="62" t="inlineStr">
@@ -8574,22 +8575,22 @@
       </c>
       <c r="AD11" s="62" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-01-11</t>
         </is>
       </c>
       <c r="AE11" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AF11" s="62" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>--1846-01-01</t>
         </is>
       </c>
       <c r="AG11" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AH11" s="62" t="inlineStr">
@@ -9124,72 +9125,72 @@
       </c>
       <c r="EJ11" s="62" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK11" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL11" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM11" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN11" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO11" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP11" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ11" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER11" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES11" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET11" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU11" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV11" s="62" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EK11" s="62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="EL11" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EM11" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EN11" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EO11" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EP11" s="62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="EQ11" s="62" t="inlineStr">
-        <is>
-          <t>2021-03-23</t>
-        </is>
-      </c>
-      <c r="ER11" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES11" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ET11" s="62" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EU11" s="62" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV11" s="62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="EW11" s="62" t="inlineStr">
         <is>
-          <t>2021-01-25</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="EX11" s="62" t="inlineStr">
@@ -9245,22 +9246,22 @@
     <row r="12" ht="13.8" customHeight="1" s="63">
       <c r="A12" s="62" t="inlineStr">
         <is>
-          <t>bertilda</t>
+          <t>elber</t>
         </is>
       </c>
       <c r="B12" s="62" t="inlineStr">
         <is>
-          <t>isabel</t>
+          <t>rafael</t>
         </is>
       </c>
       <c r="C12" s="62" t="inlineStr">
         <is>
-          <t>viloria</t>
+          <t>mejia</t>
         </is>
       </c>
       <c r="D12" s="62" t="inlineStr">
         <is>
-          <t>campo</t>
+          <t>urbaez</t>
         </is>
       </c>
       <c r="E12" s="62" t="inlineStr">
@@ -9270,22 +9271,22 @@
       </c>
       <c r="F12" s="62" t="inlineStr">
         <is>
-          <t>40930022</t>
+          <t>17950713</t>
         </is>
       </c>
       <c r="G12" s="62" t="inlineStr">
         <is>
-          <t>1964 -12-15</t>
+          <t>1952 -09-10</t>
         </is>
       </c>
       <c r="H12" s="62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I12" s="62" t="inlineStr">
         <is>
-          <t>9622</t>
+          <t>9629</t>
         </is>
       </c>
       <c r="J12" s="62" t="inlineStr">
@@ -9305,17 +9306,17 @@
       </c>
       <c r="M12" s="62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N12" s="62" t="inlineStr">
         <is>
-          <t>44001</t>
+          <t>44279</t>
         </is>
       </c>
       <c r="O12" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve">31463186925 </t>
+          <t xml:space="preserve">3127477808 </t>
         </is>
       </c>
       <c r="P12" s="62" t="inlineStr">
@@ -9325,7 +9326,7 @@
       </c>
       <c r="Q12" s="62" t="inlineStr">
         <is>
-          <t>c531</t>
+          <t>c61x</t>
         </is>
       </c>
       <c r="R12" s="62" t="inlineStr">
@@ -9370,22 +9371,22 @@
       </c>
       <c r="AD12" s="62" t="inlineStr">
         <is>
-          <t>2021-01-11</t>
+          <t>2021-04-22</t>
         </is>
       </c>
       <c r="AE12" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AF12" s="62" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>--1846-01-01</t>
         </is>
       </c>
       <c r="AG12" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>-98</t>
         </is>
       </c>
       <c r="AH12" s="62" t="inlineStr">
@@ -9405,7 +9406,7 @@
       </c>
       <c r="AK12" s="62" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AL12" s="62" t="inlineStr">
@@ -9920,42 +9921,42 @@
       </c>
       <c r="EJ12" s="62" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EK12" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EL12" s="62" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EK12" s="62" t="inlineStr">
+      <c r="EM12" s="62" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EL12" s="62" t="inlineStr">
+      <c r="EN12" s="62" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EM12" s="62" t="inlineStr">
+      <c r="EO12" s="62" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EN12" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EO12" s="62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="EP12" s="62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="EQ12" s="62" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>2021-02-25</t>
         </is>
       </c>
       <c r="ER12" s="62" t="inlineStr">
@@ -9985,7 +9986,7 @@
       </c>
       <c r="EW12" s="62" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="EX12" s="62" t="inlineStr">
@@ -10038,10 +10039,3196 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="63"/>
-    <row r="14" ht="13.8" customHeight="1" s="63"/>
-    <row r="15" ht="13.8" customHeight="1" s="63"/>
-    <row r="16" ht="13.8" customHeight="1" s="63"/>
+    <row r="13" ht="13.8" customHeight="1" s="63">
+      <c r="A13" s="62" t="inlineStr">
+        <is>
+          <t>rosaida</t>
+        </is>
+      </c>
+      <c r="B13" s="62" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C13" s="62" t="inlineStr">
+        <is>
+          <t>pushaina</t>
+        </is>
+      </c>
+      <c r="D13" s="62" t="inlineStr">
+        <is>
+          <t>ipuana</t>
+        </is>
+      </c>
+      <c r="E13" s="62" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F13" s="62" t="inlineStr">
+        <is>
+          <t>56101289</t>
+        </is>
+      </c>
+      <c r="G13" s="62" t="inlineStr">
+        <is>
+          <t>1974 -05-22</t>
+        </is>
+      </c>
+      <c r="H13" s="62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I13" s="62" t="inlineStr">
+        <is>
+          <t>9622</t>
+        </is>
+      </c>
+      <c r="J13" s="62" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K13" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+        </is>
+      </c>
+      <c r="L13" s="62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" s="62" t="inlineStr">
+        <is>
+          <t>8001</t>
+        </is>
+      </c>
+      <c r="O13" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3147931653 </t>
+        </is>
+      </c>
+      <c r="P13" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q13" s="62" t="inlineStr">
+        <is>
+          <t>c530</t>
+        </is>
+      </c>
+      <c r="R13" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="S13" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T13" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U13" s="62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y13" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z13" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AC13" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AD13" s="62" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="AE13" s="62" t="inlineStr">
+        <is>
+          <t>-98</t>
+        </is>
+      </c>
+      <c r="AF13" s="62" t="inlineStr">
+        <is>
+          <t>--1846-01-01</t>
+        </is>
+      </c>
+      <c r="AG13" s="62" t="inlineStr">
+        <is>
+          <t>-98</t>
+        </is>
+      </c>
+      <c r="AH13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN13" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO13" s="62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR13" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU13" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV13" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW13" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX13" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY13" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ13" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA13" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB13" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV13" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EW13" s="62" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="EX13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY13" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EZ13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FB13" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="FC13" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FD13" s="62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FE13" s="62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="FF13" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG13" s="62" t="inlineStr"/>
+      <c r="FH13" s="62" t="inlineStr"/>
+      <c r="FI13" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ13" s="62" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="63">
+      <c r="A14" s="62" t="inlineStr">
+        <is>
+          <t>rafael</t>
+        </is>
+      </c>
+      <c r="B14" s="62" t="inlineStr">
+        <is>
+          <t>alberto</t>
+        </is>
+      </c>
+      <c r="C14" s="62" t="inlineStr">
+        <is>
+          <t>maestres</t>
+        </is>
+      </c>
+      <c r="D14" s="62" t="inlineStr">
+        <is>
+          <t>daza</t>
+        </is>
+      </c>
+      <c r="E14" s="62" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F14" s="62" t="inlineStr">
+        <is>
+          <t>5170652</t>
+        </is>
+      </c>
+      <c r="G14" s="62" t="inlineStr">
+        <is>
+          <t>1946 -09-16</t>
+        </is>
+      </c>
+      <c r="H14" s="62" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I14" s="62" t="inlineStr">
+        <is>
+          <t>9629</t>
+        </is>
+      </c>
+      <c r="J14" s="62" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K14" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+        </is>
+      </c>
+      <c r="L14" s="62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M14" s="62" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N14" s="62" t="inlineStr">
+        <is>
+          <t>13873</t>
+        </is>
+      </c>
+      <c r="O14" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3008220921 </t>
+        </is>
+      </c>
+      <c r="P14" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q14" s="62" t="inlineStr">
+        <is>
+          <t>c61x</t>
+        </is>
+      </c>
+      <c r="R14" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="S14" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T14" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U14" s="62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y14" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z14" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AC14" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AD14" s="62" t="inlineStr">
+        <is>
+          <t>2021-02-18</t>
+        </is>
+      </c>
+      <c r="AE14" s="62" t="inlineStr">
+        <is>
+          <t>-98</t>
+        </is>
+      </c>
+      <c r="AF14" s="62" t="inlineStr">
+        <is>
+          <t>--1846-01-01</t>
+        </is>
+      </c>
+      <c r="AG14" s="62" t="inlineStr">
+        <is>
+          <t>-98</t>
+        </is>
+      </c>
+      <c r="AH14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK14" s="62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AL14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN14" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO14" s="62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR14" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU14" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV14" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW14" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX14" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY14" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ14" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA14" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB14" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EW14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY14" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EZ14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA14" s="62" t="inlineStr"/>
+      <c r="FB14" s="62" t="inlineStr"/>
+      <c r="FC14" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD14" s="62" t="inlineStr"/>
+      <c r="FE14" s="62" t="inlineStr"/>
+      <c r="FF14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG14" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI14" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ14" s="62" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="63">
+      <c r="A15" s="62" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="B15" s="62" t="inlineStr">
+        <is>
+          <t>celestino</t>
+        </is>
+      </c>
+      <c r="C15" s="62" t="inlineStr">
+        <is>
+          <t>guerra</t>
+        </is>
+      </c>
+      <c r="D15" s="62" t="inlineStr">
+        <is>
+          <t>guerra</t>
+        </is>
+      </c>
+      <c r="E15" s="62" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F15" s="62" t="inlineStr">
+        <is>
+          <t>5143043</t>
+        </is>
+      </c>
+      <c r="G15" s="62" t="inlineStr">
+        <is>
+          <t>1943 -04-04</t>
+        </is>
+      </c>
+      <c r="H15" s="62" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="62" t="inlineStr">
+        <is>
+          <t>9629</t>
+        </is>
+      </c>
+      <c r="J15" s="62" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K15" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+        </is>
+      </c>
+      <c r="L15" s="62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M15" s="62" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N15" s="62" t="inlineStr">
+        <is>
+          <t>44001</t>
+        </is>
+      </c>
+      <c r="O15" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3016842967 </t>
+        </is>
+      </c>
+      <c r="P15" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q15" s="62" t="inlineStr">
+        <is>
+          <t>c61x</t>
+        </is>
+      </c>
+      <c r="R15" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="S15" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T15" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U15" s="62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y15" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z15" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AC15" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AD15" s="62" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="AE15" s="62" t="inlineStr">
+        <is>
+          <t>-98</t>
+        </is>
+      </c>
+      <c r="AF15" s="62" t="inlineStr">
+        <is>
+          <t>--1846-01-01</t>
+        </is>
+      </c>
+      <c r="AG15" s="62" t="inlineStr">
+        <is>
+          <t>-98</t>
+        </is>
+      </c>
+      <c r="AH15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN15" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO15" s="62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR15" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU15" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV15" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW15" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX15" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY15" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ15" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA15" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB15" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EW15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY15" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EZ15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA15" s="62" t="inlineStr"/>
+      <c r="FB15" s="62" t="inlineStr"/>
+      <c r="FC15" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD15" s="62" t="inlineStr"/>
+      <c r="FE15" s="62" t="inlineStr"/>
+      <c r="FF15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG15" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI15" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ15" s="62" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="63">
+      <c r="A16" s="62" t="inlineStr">
+        <is>
+          <t>nayibis</t>
+        </is>
+      </c>
+      <c r="B16" s="62" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C16" s="62" t="inlineStr">
+        <is>
+          <t>morelo</t>
+        </is>
+      </c>
+      <c r="D16" s="62" t="inlineStr">
+        <is>
+          <t>marimon</t>
+        </is>
+      </c>
+      <c r="E16" s="62" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F16" s="62" t="inlineStr">
+        <is>
+          <t>40925684</t>
+        </is>
+      </c>
+      <c r="G16" s="62" t="inlineStr">
+        <is>
+          <t>1971 -01-14</t>
+        </is>
+      </c>
+      <c r="H16" s="62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I16" s="62" t="inlineStr">
+        <is>
+          <t>9622</t>
+        </is>
+      </c>
+      <c r="J16" s="62" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K16" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+        </is>
+      </c>
+      <c r="L16" s="62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M16" s="62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N16" s="62" t="inlineStr">
+        <is>
+          <t>44001</t>
+        </is>
+      </c>
+      <c r="O16" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3226754735 </t>
+        </is>
+      </c>
+      <c r="P16" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q16" s="62" t="inlineStr">
+        <is>
+          <t>c509</t>
+        </is>
+      </c>
+      <c r="R16" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="S16" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T16" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U16" s="62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y16" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z16" s="62" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AC16" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AD16" s="62" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="AE16" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF16" s="62" t="inlineStr">
+        <is>
+          <t>pendiente</t>
+        </is>
+      </c>
+      <c r="AG16" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN16" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO16" s="62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP16" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR16" s="62" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU16" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV16" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW16" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX16" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY16" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ16" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA16" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB16" s="62" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV16" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ16" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EK16" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EL16" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM16" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN16" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO16" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP16" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EQ16" s="62" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="ER16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV16" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EW16" s="62" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="EX16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY16" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EZ16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA16" s="62" t="inlineStr"/>
+      <c r="FB16" s="62" t="inlineStr"/>
+      <c r="FC16" s="62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD16" s="62" t="inlineStr"/>
+      <c r="FE16" s="62" t="inlineStr"/>
+      <c r="FF16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG16" s="62" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI16" s="62" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ16" s="62" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+    </row>
     <row r="17" ht="13.8" customHeight="1" s="63"/>
     <row r="18" ht="13.8" customHeight="1" s="63"/>
     <row r="19" ht="13.8" customHeight="1" s="63"/>
@@ -10083,10 +13270,10 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:FK11 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -975,13 +975,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:FX21"/>
+  <dimension ref="A1:FX23"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="FG5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:FK21"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="CV1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DC25" activeCellId="0" sqref="DC25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.96" customWidth="1" style="65" min="1" max="166"/>
   </cols>
@@ -5763,12 +5763,12 @@
       </c>
       <c r="CW7" s="130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX7" s="130" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY7" s="130" t="inlineStr">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="CZ7" s="130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA7" s="130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB7" s="130" t="inlineStr">
@@ -5793,27 +5793,27 @@
       </c>
       <c r="DC7" s="130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD7" s="130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE7" s="130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF7" s="130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG7" s="130" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH7" s="130" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="CW8" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX8" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY8" s="65" t="inlineStr">
@@ -6591,12 +6591,12 @@
       </c>
       <c r="CZ8" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA8" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB8" s="65" t="inlineStr">
@@ -6606,27 +6606,27 @@
       </c>
       <c r="DC8" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD8" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE8" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF8" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG8" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH8" s="65" t="inlineStr">
@@ -7388,12 +7388,12 @@
       </c>
       <c r="CW9" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX9" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY9" s="65" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="CZ9" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA9" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB9" s="65" t="inlineStr">
@@ -7418,27 +7418,27 @@
       </c>
       <c r="DC9" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD9" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE9" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF9" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG9" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH9" s="65" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="CW10" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX10" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY10" s="65" t="inlineStr">
@@ -8215,12 +8215,12 @@
       </c>
       <c r="CZ10" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA10" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB10" s="65" t="inlineStr">
@@ -8230,27 +8230,27 @@
       </c>
       <c r="DC10" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD10" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE10" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF10" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG10" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH10" s="65" t="inlineStr">
@@ -9012,12 +9012,12 @@
       </c>
       <c r="CW11" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX11" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY11" s="65" t="inlineStr">
@@ -9027,12 +9027,12 @@
       </c>
       <c r="CZ11" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA11" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB11" s="65" t="inlineStr">
@@ -9042,27 +9042,27 @@
       </c>
       <c r="DC11" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD11" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE11" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF11" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG11" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH11" s="65" t="inlineStr">
@@ -9824,12 +9824,12 @@
       </c>
       <c r="CW12" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX12" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY12" s="65" t="inlineStr">
@@ -9839,12 +9839,12 @@
       </c>
       <c r="CZ12" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA12" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB12" s="65" t="inlineStr">
@@ -9854,27 +9854,27 @@
       </c>
       <c r="DC12" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD12" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE12" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF12" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG12" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH12" s="65" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="CW13" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX13" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY13" s="65" t="inlineStr">
@@ -10651,12 +10651,12 @@
       </c>
       <c r="CZ13" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA13" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB13" s="65" t="inlineStr">
@@ -10666,27 +10666,27 @@
       </c>
       <c r="DC13" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD13" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE13" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF13" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG13" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH13" s="65" t="inlineStr">
@@ -11448,12 +11448,12 @@
       </c>
       <c r="CW14" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX14" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY14" s="65" t="inlineStr">
@@ -11463,12 +11463,12 @@
       </c>
       <c r="CZ14" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA14" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB14" s="65" t="inlineStr">
@@ -11478,27 +11478,27 @@
       </c>
       <c r="DC14" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD14" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE14" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF14" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG14" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH14" s="65" t="inlineStr">
@@ -12260,12 +12260,12 @@
       </c>
       <c r="CW15" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX15" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY15" s="65" t="inlineStr">
@@ -12275,12 +12275,12 @@
       </c>
       <c r="CZ15" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA15" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB15" s="65" t="inlineStr">
@@ -12290,27 +12290,27 @@
       </c>
       <c r="DC15" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD15" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE15" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF15" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG15" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH15" s="65" t="inlineStr">
@@ -13072,12 +13072,12 @@
       </c>
       <c r="CW16" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CX16" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>988</t>
         </is>
       </c>
       <c r="CY16" s="65" t="inlineStr">
@@ -13087,12 +13087,12 @@
       </c>
       <c r="CZ16" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DA16" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DB16" s="65" t="inlineStr">
@@ -13102,27 +13102,27 @@
       </c>
       <c r="DC16" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DD16" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DE16" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DF16" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DG16" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>988</t>
         </is>
       </c>
       <c r="DH16" s="65" t="inlineStr">
@@ -13404,22 +13404,22 @@
     <row r="17" ht="13.8" customHeight="1" s="66">
       <c r="A17" s="65" t="inlineStr">
         <is>
-          <t>yasmin</t>
+          <t>kelly</t>
         </is>
       </c>
       <c r="B17" s="65" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>johanna</t>
         </is>
       </c>
       <c r="C17" s="65" t="inlineStr">
         <is>
-          <t>martinez</t>
+          <t>garcia</t>
         </is>
       </c>
       <c r="D17" s="65" t="inlineStr">
         <is>
-          <t>jimenez</t>
+          <t>alvarez</t>
         </is>
       </c>
       <c r="E17" s="65" t="inlineStr">
@@ -13429,12 +13429,12 @@
       </c>
       <c r="F17" s="65" t="inlineStr">
         <is>
-          <t>26926615</t>
+          <t>1140907843</t>
         </is>
       </c>
       <c r="G17" s="65" t="inlineStr">
         <is>
-          <t>1975 -08-30</t>
+          <t>1981 -09-13</t>
         </is>
       </c>
       <c r="H17" s="65" t="inlineStr">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="K17" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">comparta eps-s - esp. medicas ill nivel subsidiado — </t>
+          <t xml:space="preserve">gajacopi eps-s subsidiado </t>
         </is>
       </c>
       <c r="L17" s="65" t="inlineStr">
@@ -13469,12 +13469,12 @@
       </c>
       <c r="N17" s="65" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8758</t>
         </is>
       </c>
       <c r="O17" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">3217123031 </t>
+          <t xml:space="preserve">3023381444 </t>
         </is>
       </c>
       <c r="P17" s="65" t="inlineStr">
@@ -13484,12 +13484,12 @@
       </c>
       <c r="Q17" s="65" t="inlineStr">
         <is>
-          <t>c859</t>
+          <t>c509</t>
         </is>
       </c>
       <c r="R17" s="65" t="inlineStr">
         <is>
-          <t>desde hace</t>
+          <t>1800-01-01</t>
         </is>
       </c>
       <c r="S17" s="65" t="inlineStr">
@@ -13529,23 +13529,21 @@
       </c>
       <c r="AD17" s="65" t="inlineStr">
         <is>
-          <t>2020-12-15</t>
+          <t>2021-02-12</t>
         </is>
       </c>
       <c r="AE17" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF17" s="65" t="inlineStr">
         <is>
-          <t>1846-01-01</t>
-        </is>
-      </c>
-      <c r="AG17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+          <t>pendiente</t>
+        </is>
+      </c>
+      <c r="AG17" s="65" t="n">
+        <v>3</v>
       </c>
       <c r="AH17" s="65" t="inlineStr">
         <is>
@@ -13879,239 +13877,239 @@
       </c>
       <c r="CV17" s="65" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CW17" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX17" s="65" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+      <c r="CY17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ17" s="65" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="DA17" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DB17" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC17" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DD17" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DE17" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DF17" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DG17" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DH17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ17" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP17" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS17" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY17" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE17" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH17" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI17" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ17" s="65" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CW17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX17" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CY17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB17" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DC17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ17" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DK17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP17" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DQ17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS17" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DT17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY17" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DZ17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EB17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EC17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ED17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EE17" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EF17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EG17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EH17" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EI17" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EJ17" s="65" t="inlineStr">
+      <c r="EK17" s="65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EK17" s="65" t="inlineStr">
+      <c r="EL17" s="65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EL17" s="65" t="inlineStr">
+      <c r="EM17" s="65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EM17" s="65" t="inlineStr">
+      <c r="EN17" s="65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EN17" s="65" t="inlineStr">
+      <c r="EO17" s="65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EO17" s="65" t="inlineStr">
+      <c r="EP17" s="65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="EP17" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="EQ17" s="65" t="inlineStr">
         <is>
           <t>1845-01-01</t>
@@ -14139,12 +14137,12 @@
       </c>
       <c r="EV17" s="65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="EW17" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>2021-02-11</t>
         </is>
       </c>
       <c r="EX17" s="65" t="inlineStr">
@@ -14154,7 +14152,7 @@
       </c>
       <c r="EY17" s="65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="EZ17" s="65" t="inlineStr">
@@ -14216,7 +14214,7 @@
     <row r="18" ht="13.8" customHeight="1" s="66">
       <c r="A18" s="65" t="inlineStr">
         <is>
-          <t>rosaida</t>
+          <t>yasmin</t>
         </is>
       </c>
       <c r="B18" s="65" t="inlineStr">
@@ -14226,12 +14224,12 @@
       </c>
       <c r="C18" s="65" t="inlineStr">
         <is>
-          <t>pushaina</t>
+          <t>martinez</t>
         </is>
       </c>
       <c r="D18" s="65" t="inlineStr">
         <is>
-          <t>ipuana</t>
+          <t>jimenez</t>
         </is>
       </c>
       <c r="E18" s="65" t="inlineStr">
@@ -14241,12 +14239,12 @@
       </c>
       <c r="F18" s="65" t="inlineStr">
         <is>
-          <t>56101289</t>
+          <t>26926615</t>
         </is>
       </c>
       <c r="G18" s="65" t="inlineStr">
         <is>
-          <t>1974 -05-22</t>
+          <t>1975 -08-30</t>
         </is>
       </c>
       <c r="H18" s="65" t="inlineStr">
@@ -14266,7 +14264,7 @@
       </c>
       <c r="K18" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+          <t xml:space="preserve">comparta eps-s - esp. medicas ill nivel subsidiado — </t>
         </is>
       </c>
       <c r="L18" s="65" t="inlineStr">
@@ -14286,7 +14284,7 @@
       </c>
       <c r="O18" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">3147931653 </t>
+          <t xml:space="preserve">3217123031 </t>
         </is>
       </c>
       <c r="P18" s="65" t="inlineStr">
@@ -14296,709 +14294,709 @@
       </c>
       <c r="Q18" s="65" t="inlineStr">
         <is>
-          <t>c530</t>
+          <t>c859</t>
         </is>
       </c>
       <c r="R18" s="65" t="inlineStr">
         <is>
+          <t>desde hace</t>
+        </is>
+      </c>
+      <c r="S18" s="65" t="inlineStr">
+        <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="S18" s="65" t="inlineStr">
+      <c r="T18" s="65" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="T18" s="65" t="inlineStr">
+      <c r="U18" s="65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y18" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z18" s="65" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="U18" s="65" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="V18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="Y18" s="65" t="inlineStr">
+      <c r="AC18" s="65" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="Z18" s="65" t="inlineStr">
-        <is>
-          <t>1800-01-01</t>
-        </is>
-      </c>
-      <c r="AC18" s="65" t="inlineStr">
+      <c r="AD18" s="65" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="AE18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF18" s="65" t="inlineStr">
+        <is>
+          <t>1846-01-01</t>
+        </is>
+      </c>
+      <c r="AG18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN18" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO18" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR18" s="65" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AD18" s="65" t="inlineStr">
-        <is>
-          <t>2021-02-08</t>
-        </is>
-      </c>
-      <c r="AE18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AF18" s="65" t="inlineStr">
-        <is>
-          <t>1846-01-01</t>
-        </is>
-      </c>
-      <c r="AG18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AH18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AI18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AJ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AK18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AL18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AN18" s="65" t="inlineStr">
+      <c r="AS18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU18" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV18" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW18" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX18" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY18" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ18" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA18" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB18" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="CX18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="CY18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DA18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DB18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DD18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DE18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DF18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DG18" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DH18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EW18" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY18" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EZ18" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA18" s="65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FB18" s="65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC18" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AO18" s="65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AP18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AR18" s="65" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="AS18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU18" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AV18" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AW18" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AX18" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AY18" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AZ18" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BA18" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BB18" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BC18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BF18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BX18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CB18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CT18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="CW18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CY18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DC18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DK18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DQ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DT18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DZ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EB18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EC18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ED18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EE18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EF18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EG18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EH18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EI18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EJ18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EK18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EL18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EM18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EN18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EO18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EP18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EQ18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="ER18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ET18" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EU18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV18" s="65" t="inlineStr">
+      <c r="FD18" s="65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE18" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EW18" s="65" t="inlineStr">
-        <is>
-          <t>2021-02-04</t>
-        </is>
-      </c>
-      <c r="EX18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY18" s="65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="EZ18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FA18" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FB18" s="65" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="FC18" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="FD18" s="65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="FE18" s="65" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="FF18" s="65" t="inlineStr">
         <is>
           <t>1845-01-01</t>
@@ -15006,12 +15004,12 @@
       </c>
       <c r="FG18" s="65" t="inlineStr">
         <is>
-          <t>2021-02-08</t>
+          <t>1845-01-01</t>
         </is>
       </c>
       <c r="FH18" s="65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>98</t>
         </is>
       </c>
       <c r="FI18" s="65" t="inlineStr">
@@ -15028,22 +15026,22 @@
     <row r="19" ht="13.8" customHeight="1" s="66">
       <c r="A19" s="65" t="inlineStr">
         <is>
-          <t>rafael</t>
+          <t>rosaida</t>
         </is>
       </c>
       <c r="B19" s="65" t="inlineStr">
         <is>
-          <t>alberto</t>
+          <t>none</t>
         </is>
       </c>
       <c r="C19" s="65" t="inlineStr">
         <is>
-          <t>maestres</t>
+          <t>pushaina</t>
         </is>
       </c>
       <c r="D19" s="65" t="inlineStr">
         <is>
-          <t>daza</t>
+          <t>ipuana</t>
         </is>
       </c>
       <c r="E19" s="65" t="inlineStr">
@@ -15053,22 +15051,22 @@
       </c>
       <c r="F19" s="65" t="inlineStr">
         <is>
-          <t>5170652</t>
+          <t>56101289</t>
         </is>
       </c>
       <c r="G19" s="65" t="inlineStr">
         <is>
-          <t>1946 -09-16</t>
+          <t>1974 -05-22</t>
         </is>
       </c>
       <c r="H19" s="65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="I19" s="65" t="inlineStr">
         <is>
-          <t>9629</t>
+          <t>9622</t>
         </is>
       </c>
       <c r="J19" s="65" t="inlineStr">
@@ -15088,17 +15086,17 @@
       </c>
       <c r="M19" s="65" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N19" s="65" t="inlineStr">
         <is>
-          <t>13873</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="O19" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">3008220921 </t>
+          <t xml:space="preserve">3147931653 </t>
         </is>
       </c>
       <c r="P19" s="65" t="inlineStr">
@@ -15108,7 +15106,7 @@
       </c>
       <c r="Q19" s="65" t="inlineStr">
         <is>
-          <t>c61x</t>
+          <t>c530</t>
         </is>
       </c>
       <c r="R19" s="65" t="inlineStr">
@@ -15153,7 +15151,7 @@
       </c>
       <c r="AD19" s="65" t="inlineStr">
         <is>
-          <t>2021-02-18</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="AE19" s="65" t="inlineStr">
@@ -15188,642 +15186,642 @@
       </c>
       <c r="AK19" s="65" t="inlineStr">
         <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN19" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO19" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR19" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU19" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV19" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW19" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX19" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY19" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ19" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA19" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB19" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="CX19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="CY19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DA19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DB19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DD19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DE19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DF19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DG19" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DH19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV19" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EW19" s="65" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="EX19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY19" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EZ19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA19" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FB19" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="FC19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FD19" s="65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FE19" s="65" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AL19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AN19" s="65" t="inlineStr">
+      <c r="FF19" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG19" s="65" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="FH19" s="65" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AO19" s="65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AP19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AR19" s="65" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="AS19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU19" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AV19" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AW19" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AX19" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AY19" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AZ19" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BA19" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BB19" s="65" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BC19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BF19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BX19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CB19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CT19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="CW19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CY19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DC19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DK19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DQ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DT19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DZ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EB19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EC19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ED19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EE19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EF19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EG19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EH19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EI19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EJ19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EK19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EL19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EM19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EN19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EO19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EP19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EQ19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="ER19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ET19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EU19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EW19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EX19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY19" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EZ19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FA19" s="65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="FB19" s="65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="FC19" s="65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="FD19" s="65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="FE19" s="65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="FF19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FG19" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FH19" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
         </is>
       </c>
       <c r="FI19" s="65" t="inlineStr">
@@ -15840,22 +15838,22 @@
     <row r="20" ht="13.8" customHeight="1" s="66">
       <c r="A20" s="65" t="inlineStr">
         <is>
-          <t>pedro</t>
+          <t>jesus</t>
         </is>
       </c>
       <c r="B20" s="65" t="inlineStr">
         <is>
-          <t>celestino</t>
+          <t>antonio</t>
         </is>
       </c>
       <c r="C20" s="65" t="inlineStr">
         <is>
-          <t>guerra</t>
+          <t>camargo</t>
         </is>
       </c>
       <c r="D20" s="65" t="inlineStr">
         <is>
-          <t>guerra</t>
+          <t>padilla</t>
         </is>
       </c>
       <c r="E20" s="65" t="inlineStr">
@@ -15865,12 +15863,12 @@
       </c>
       <c r="F20" s="65" t="inlineStr">
         <is>
-          <t>5143043</t>
+          <t>1143444403</t>
         </is>
       </c>
       <c r="G20" s="65" t="inlineStr">
         <is>
-          <t>1943 -04-04</t>
+          <t>1993 -11-27</t>
         </is>
       </c>
       <c r="H20" s="65" t="inlineStr">
@@ -15880,7 +15878,7 @@
       </c>
       <c r="I20" s="65" t="inlineStr">
         <is>
-          <t>9629</t>
+          <t>9622</t>
         </is>
       </c>
       <c r="J20" s="65" t="inlineStr">
@@ -15890,7 +15888,7 @@
       </c>
       <c r="K20" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+          <t xml:space="preserve">cajacopi eps-s subsidiado </t>
         </is>
       </c>
       <c r="L20" s="65" t="inlineStr">
@@ -15900,17 +15898,17 @@
       </c>
       <c r="M20" s="65" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N20" s="65" t="inlineStr">
         <is>
-          <t>44001</t>
+          <t>8758</t>
         </is>
       </c>
       <c r="O20" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">3016842967 </t>
+          <t xml:space="preserve">3215347087 </t>
         </is>
       </c>
       <c r="P20" s="65" t="inlineStr">
@@ -15920,7 +15918,7 @@
       </c>
       <c r="Q20" s="65" t="inlineStr">
         <is>
-          <t>c61x</t>
+          <t>c859</t>
         </is>
       </c>
       <c r="R20" s="65" t="inlineStr">
@@ -15965,7 +15963,7 @@
       </c>
       <c r="AD20" s="65" t="inlineStr">
         <is>
-          <t>2021-02-01</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="AE20" s="65" t="inlineStr">
@@ -16315,17 +16313,17 @@
       </c>
       <c r="CV20" s="65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CW20" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CX20" s="65" t="inlineStr">
         <is>
-          <t>1845-01-01</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="CY20" s="65" t="inlineStr">
@@ -16335,12 +16333,12 @@
       </c>
       <c r="CZ20" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>80010054401</t>
         </is>
       </c>
       <c r="DA20" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1</t>
         </is>
       </c>
       <c r="DB20" s="65" t="inlineStr">
@@ -16350,27 +16348,27 @@
       </c>
       <c r="DC20" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98-</t>
         </is>
       </c>
       <c r="DD20" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98-</t>
         </is>
       </c>
       <c r="DE20" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98-</t>
         </is>
       </c>
       <c r="DF20" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98-</t>
         </is>
       </c>
       <c r="DG20" s="65" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>98-</t>
         </is>
       </c>
       <c r="DH20" s="65" t="inlineStr">
@@ -16652,815 +16650,2437 @@
     <row r="21" ht="13.8" customHeight="1" s="66">
       <c r="A21" s="65" t="inlineStr">
         <is>
+          <t>rafael</t>
+        </is>
+      </c>
+      <c r="B21" s="65" t="inlineStr">
+        <is>
+          <t>alberto</t>
+        </is>
+      </c>
+      <c r="C21" s="65" t="inlineStr">
+        <is>
+          <t>maestres</t>
+        </is>
+      </c>
+      <c r="D21" s="65" t="inlineStr">
+        <is>
+          <t>daza</t>
+        </is>
+      </c>
+      <c r="E21" s="65" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F21" s="65" t="inlineStr">
+        <is>
+          <t>5170652</t>
+        </is>
+      </c>
+      <c r="G21" s="65" t="inlineStr">
+        <is>
+          <t>1946 -09-16</t>
+        </is>
+      </c>
+      <c r="H21" s="65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I21" s="65" t="inlineStr">
+        <is>
+          <t>9629</t>
+        </is>
+      </c>
+      <c r="J21" s="65" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+        </is>
+      </c>
+      <c r="L21" s="65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M21" s="65" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N21" s="65" t="inlineStr">
+        <is>
+          <t>13873</t>
+        </is>
+      </c>
+      <c r="O21" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3008220921 </t>
+        </is>
+      </c>
+      <c r="P21" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q21" s="65" t="inlineStr">
+        <is>
+          <t>c61x</t>
+        </is>
+      </c>
+      <c r="R21" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="S21" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T21" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U21" s="65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y21" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z21" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AC21" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AD21" s="65" t="inlineStr">
+        <is>
+          <t>2021-02-18</t>
+        </is>
+      </c>
+      <c r="AE21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF21" s="65" t="inlineStr">
+        <is>
+          <t>1846-01-01</t>
+        </is>
+      </c>
+      <c r="AG21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK21" s="65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AL21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN21" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO21" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR21" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU21" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV21" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW21" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX21" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY21" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ21" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA21" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB21" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="CX21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="CY21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DA21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DB21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DD21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DE21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DF21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DG21" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DH21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EW21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY21" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EZ21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA21" s="65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FB21" s="65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC21" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD21" s="65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE21" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG21" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI21" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ21" s="65" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="66">
+      <c r="A22" s="65" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="B22" s="65" t="inlineStr">
+        <is>
+          <t>celestino</t>
+        </is>
+      </c>
+      <c r="C22" s="65" t="inlineStr">
+        <is>
+          <t>guerra</t>
+        </is>
+      </c>
+      <c r="D22" s="65" t="inlineStr">
+        <is>
+          <t>guerra</t>
+        </is>
+      </c>
+      <c r="E22" s="65" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F22" s="65" t="inlineStr">
+        <is>
+          <t>5143043</t>
+        </is>
+      </c>
+      <c r="G22" s="65" t="inlineStr">
+        <is>
+          <t>1943 -04-04</t>
+        </is>
+      </c>
+      <c r="H22" s="65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I22" s="65" t="inlineStr">
+        <is>
+          <t>9629</t>
+        </is>
+      </c>
+      <c r="J22" s="65" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K22" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+        </is>
+      </c>
+      <c r="L22" s="65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M22" s="65" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N22" s="65" t="inlineStr">
+        <is>
+          <t>44001</t>
+        </is>
+      </c>
+      <c r="O22" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3016842967 </t>
+        </is>
+      </c>
+      <c r="P22" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q22" s="65" t="inlineStr">
+        <is>
+          <t>c61x</t>
+        </is>
+      </c>
+      <c r="R22" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="S22" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T22" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U22" s="65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y22" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="Z22" s="65" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="AC22" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AD22" s="65" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="AE22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF22" s="65" t="inlineStr">
+        <is>
+          <t>1846-01-01</t>
+        </is>
+      </c>
+      <c r="AG22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN22" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO22" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR22" s="65" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU22" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV22" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW22" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX22" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY22" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ22" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA22" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB22" s="65" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="CX22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="CY22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DA22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DB22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DD22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DE22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DF22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DG22" s="65" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="DH22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EW22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY22" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EZ22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA22" s="65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FB22" s="65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC22" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD22" s="65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE22" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG22" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI22" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ22" s="65" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="66">
+      <c r="A23" s="65" t="inlineStr">
+        <is>
           <t>nayibis</t>
         </is>
       </c>
-      <c r="B21" s="65" t="inlineStr">
+      <c r="B23" s="65" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="C21" s="65" t="inlineStr">
+      <c r="C23" s="65" t="inlineStr">
         <is>
           <t>morelo</t>
         </is>
       </c>
-      <c r="D21" s="65" t="inlineStr">
+      <c r="D23" s="65" t="inlineStr">
         <is>
           <t>marimon</t>
         </is>
       </c>
-      <c r="E21" s="65" t="inlineStr">
+      <c r="E23" s="65" t="inlineStr">
         <is>
           <t>cc</t>
         </is>
       </c>
-      <c r="F21" s="65" t="inlineStr">
+      <c r="F23" s="65" t="inlineStr">
         <is>
           <t>40925684</t>
         </is>
       </c>
-      <c r="G21" s="65" t="inlineStr">
+      <c r="G23" s="65" t="inlineStr">
         <is>
           <t>1971 -01-14</t>
         </is>
       </c>
-      <c r="H21" s="65" t="inlineStr">
+      <c r="H23" s="65" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="I21" s="65" t="inlineStr">
+      <c r="I23" s="65" t="inlineStr">
         <is>
           <t>9622</t>
         </is>
       </c>
-      <c r="J21" s="65" t="inlineStr">
+      <c r="J23" s="65" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="K21" s="65" t="inlineStr">
+      <c r="K23" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
         </is>
       </c>
-      <c r="L21" s="65" t="inlineStr">
+      <c r="L23" s="65" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M21" s="65" t="inlineStr">
+      <c r="M23" s="65" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N21" s="65" t="inlineStr">
+      <c r="N23" s="65" t="inlineStr">
         <is>
           <t>44001</t>
         </is>
       </c>
-      <c r="O21" s="65" t="inlineStr">
+      <c r="O23" s="65" t="inlineStr">
         <is>
           <t xml:space="preserve">3226754735 </t>
         </is>
       </c>
-      <c r="P21" s="65" t="inlineStr">
+      <c r="P23" s="65" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="Q21" s="65" t="inlineStr">
+      <c r="Q23" s="65" t="inlineStr">
         <is>
           <t>c509</t>
         </is>
       </c>
-      <c r="R21" s="65" t="inlineStr">
+      <c r="R23" s="65" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="S21" s="65" t="inlineStr">
+      <c r="S23" s="65" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="T21" s="65" t="inlineStr">
+      <c r="T23" s="65" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="U21" s="65" t="inlineStr">
+      <c r="U23" s="65" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="Y21" s="65" t="inlineStr">
+      <c r="V23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="Y23" s="65" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="Z21" s="65" t="inlineStr">
+      <c r="Z23" s="65" t="inlineStr">
         <is>
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="AC21" s="65" t="inlineStr">
+      <c r="AC23" s="65" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AD21" s="65" t="inlineStr">
+      <c r="AD23" s="65" t="inlineStr">
         <is>
           <t>2021-04-19</t>
         </is>
       </c>
-      <c r="AE21" s="65" t="inlineStr">
+      <c r="AE23" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF21" s="65" t="inlineStr">
+      <c r="AF23" s="65" t="inlineStr">
         <is>
           <t>pendiente</t>
         </is>
       </c>
-      <c r="AG21" s="65" t="n">
+      <c r="AG23" s="65" t="n">
         <v>1</v>
       </c>
-      <c r="AH21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AI21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AJ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AK21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AL21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AN21" s="65" t="inlineStr">
+      <c r="AH23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN23" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AO21" s="65" t="inlineStr">
+      <c r="AO23" s="65" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AP21" s="65" t="inlineStr">
+      <c r="AP23" s="65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AQ21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AR21" s="65" t="inlineStr">
+      <c r="AQ23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR23" s="65" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AS21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU21" s="65" t="inlineStr">
+      <c r="AS23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU23" s="65" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AV21" s="65" t="inlineStr">
+      <c r="AV23" s="65" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AW21" s="65" t="inlineStr">
+      <c r="AW23" s="65" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AX21" s="65" t="inlineStr">
+      <c r="AX23" s="65" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AY21" s="65" t="inlineStr">
+      <c r="AY23" s="65" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AZ21" s="65" t="inlineStr">
+      <c r="AZ23" s="65" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BA21" s="65" t="inlineStr">
+      <c r="BA23" s="65" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BB21" s="65" t="inlineStr">
+      <c r="BB23" s="65" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="BC21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BF21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BX21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CB21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CT21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV21" s="65" t="inlineStr">
+      <c r="BC23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV23" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CW23" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX23" s="65" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="CY23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ23" s="65" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="DA23" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DB23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC23" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DD23" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DE23" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DF23" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DG23" s="65" t="inlineStr">
+        <is>
+          <t>98-</t>
+        </is>
+      </c>
+      <c r="DH23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ23" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EK23" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EL23" s="65" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CW21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CX21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CY21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CZ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DA21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DB21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DC21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DD21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DE21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DF21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DG21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DH21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DI21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DJ21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DK21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DL21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DM21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DN21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DO21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DP21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DQ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DR21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DS21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DT21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DU21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DV21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DW21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DX21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="DY21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="DZ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EA21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EB21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EC21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ED21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EE21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EF21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EG21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EH21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EI21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EJ21" s="65" t="inlineStr">
+      <c r="EM23" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN23" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO23" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP23" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EK21" s="65" t="inlineStr">
+      <c r="EQ23" s="65" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="ER23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV23" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EL21" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EM21" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EN21" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EO21" s="65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EP21" s="65" t="inlineStr">
+      <c r="EW23" s="65" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="EX23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY23" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EQ21" s="65" t="inlineStr">
-        <is>
-          <t>2021-03-23</t>
-        </is>
-      </c>
-      <c r="ER21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ES21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="ET21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="EU21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EV21" s="65" t="inlineStr">
+      <c r="EZ23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA23" s="65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FB23" s="65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC23" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EW21" s="65" t="inlineStr">
-        <is>
-          <t>2021-01-25</t>
-        </is>
-      </c>
-      <c r="EX21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="EY21" s="65" t="inlineStr">
+      <c r="FD23" s="65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE23" s="65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EZ21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FA21" s="65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="FB21" s="65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="FC21" s="65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="FD21" s="65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="FE21" s="65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="FF21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FG21" s="65" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="FH21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FI21" s="65" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="FJ21" s="65" t="inlineStr">
+      <c r="FF23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG23" s="65" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI23" s="65" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ23" s="65" t="inlineStr">
         <is>
           <t>2021-01-01</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="66"/>
-    <row r="23" ht="13.8" customHeight="1" s="66"/>
     <row r="24" ht="13.8" customHeight="1" s="66"/>
   </sheetData>
   <mergeCells count="15">
@@ -17494,11 +19114,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:FK21 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.94140625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -5763,12 +5763,12 @@
       </c>
       <c r="CW7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY7" s="130" t="inlineStr">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="CZ7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB7" s="130" t="inlineStr">
@@ -5793,27 +5793,27 @@
       </c>
       <c r="DC7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG7" s="130" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH7" s="130" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="CW8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY8" s="65" t="inlineStr">
@@ -6591,12 +6591,12 @@
       </c>
       <c r="CZ8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB8" s="65" t="inlineStr">
@@ -6606,27 +6606,27 @@
       </c>
       <c r="DC8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG8" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH8" s="65" t="inlineStr">
@@ -7388,12 +7388,12 @@
       </c>
       <c r="CW9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY9" s="65" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="CZ9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB9" s="65" t="inlineStr">
@@ -7418,27 +7418,27 @@
       </c>
       <c r="DC9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG9" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH9" s="65" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="CW10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY10" s="65" t="inlineStr">
@@ -8215,12 +8215,12 @@
       </c>
       <c r="CZ10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB10" s="65" t="inlineStr">
@@ -8230,27 +8230,27 @@
       </c>
       <c r="DC10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG10" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH10" s="65" t="inlineStr">
@@ -9012,12 +9012,12 @@
       </c>
       <c r="CW11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY11" s="65" t="inlineStr">
@@ -9027,12 +9027,12 @@
       </c>
       <c r="CZ11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB11" s="65" t="inlineStr">
@@ -9042,27 +9042,27 @@
       </c>
       <c r="DC11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG11" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH11" s="65" t="inlineStr">
@@ -9824,12 +9824,12 @@
       </c>
       <c r="CW12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY12" s="65" t="inlineStr">
@@ -9839,12 +9839,12 @@
       </c>
       <c r="CZ12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB12" s="65" t="inlineStr">
@@ -9854,27 +9854,27 @@
       </c>
       <c r="DC12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG12" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH12" s="65" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="CW13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY13" s="65" t="inlineStr">
@@ -10651,12 +10651,12 @@
       </c>
       <c r="CZ13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB13" s="65" t="inlineStr">
@@ -10666,27 +10666,27 @@
       </c>
       <c r="DC13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG13" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH13" s="65" t="inlineStr">
@@ -11448,12 +11448,12 @@
       </c>
       <c r="CW14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY14" s="65" t="inlineStr">
@@ -11463,12 +11463,12 @@
       </c>
       <c r="CZ14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB14" s="65" t="inlineStr">
@@ -11478,27 +11478,27 @@
       </c>
       <c r="DC14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG14" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH14" s="65" t="inlineStr">
@@ -12260,12 +12260,12 @@
       </c>
       <c r="CW15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY15" s="65" t="inlineStr">
@@ -12275,12 +12275,12 @@
       </c>
       <c r="CZ15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB15" s="65" t="inlineStr">
@@ -12290,27 +12290,27 @@
       </c>
       <c r="DC15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG15" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH15" s="65" t="inlineStr">
@@ -13072,12 +13072,12 @@
       </c>
       <c r="CW16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY16" s="65" t="inlineStr">
@@ -13087,12 +13087,12 @@
       </c>
       <c r="CZ16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB16" s="65" t="inlineStr">
@@ -13102,27 +13102,27 @@
       </c>
       <c r="DC16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG16" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH16" s="65" t="inlineStr">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="CZ17" s="65" t="inlineStr">
         <is>
-          <t>80010054401</t>
+          <t>345302</t>
         </is>
       </c>
       <c r="DA17" s="65" t="inlineStr">
@@ -14694,12 +14694,12 @@
       </c>
       <c r="CW18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY18" s="65" t="inlineStr">
@@ -14709,12 +14709,12 @@
       </c>
       <c r="CZ18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB18" s="65" t="inlineStr">
@@ -14724,27 +14724,27 @@
       </c>
       <c r="DC18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG18" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH18" s="65" t="inlineStr">
@@ -15506,12 +15506,12 @@
       </c>
       <c r="CW19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY19" s="65" t="inlineStr">
@@ -15521,12 +15521,12 @@
       </c>
       <c r="CZ19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB19" s="65" t="inlineStr">
@@ -15536,27 +15536,27 @@
       </c>
       <c r="DC19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG19" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH19" s="65" t="inlineStr">
@@ -16333,7 +16333,7 @@
       </c>
       <c r="CZ20" s="65" t="inlineStr">
         <is>
-          <t>80010054401</t>
+          <t>405101</t>
         </is>
       </c>
       <c r="DA20" s="65" t="inlineStr">
@@ -17130,12 +17130,12 @@
       </c>
       <c r="CW21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY21" s="65" t="inlineStr">
@@ -17145,12 +17145,12 @@
       </c>
       <c r="CZ21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB21" s="65" t="inlineStr">
@@ -17160,27 +17160,27 @@
       </c>
       <c r="DC21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG21" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH21" s="65" t="inlineStr">
@@ -17942,12 +17942,12 @@
       </c>
       <c r="CW22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CY22" s="65" t="inlineStr">
@@ -17957,12 +17957,12 @@
       </c>
       <c r="CZ22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB22" s="65" t="inlineStr">
@@ -17972,27 +17972,27 @@
       </c>
       <c r="DC22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DD22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DE22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DF22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DG22" s="65" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DH22" s="65" t="inlineStr">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="CZ23" s="65" t="inlineStr">
         <is>
-          <t>80010054401</t>
+          <t>750</t>
         </is>
       </c>
       <c r="DA23" s="65" t="inlineStr">

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -977,11 +977,11 @@
   </sheetPr>
   <dimension ref="A1:FX23"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="CV1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DC25" activeCellId="0" sqref="DC25"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="FF1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A7:FK23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.96" customWidth="1" style="65" min="1" max="166"/>
   </cols>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="FK3" s="79" t="n"/>
     </row>
-    <row r="4" ht="98.5" customHeight="1" s="66">
+    <row r="4" ht="77.40000000000001" customHeight="1" s="66">
       <c r="A4" s="80" t="inlineStr">
         <is>
           <t>Primer nombre</t>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="U8" s="65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="V8" s="65" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="U9" s="65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V9" s="65" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="Z10" s="65" t="inlineStr">
         <is>
-          <t>1800-01-01</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="AC10" s="65" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="U11" s="65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="V11" s="65" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="Z12" s="65" t="inlineStr">
         <is>
-          <t>1800-01-01</t>
+          <t>2021-01-08</t>
         </is>
       </c>
       <c r="AC12" s="65" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="U14" s="65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="V14" s="65" t="inlineStr">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="U15" s="65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V15" s="65" t="inlineStr">
@@ -13519,7 +13519,7 @@
       </c>
       <c r="Z17" s="65" t="inlineStr">
         <is>
-          <t>1800-01-01</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="AC17" s="65" t="inlineStr">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="U18" s="65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V18" s="65" t="inlineStr">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="Z18" s="65" t="inlineStr">
         <is>
-          <t>1800-01-01</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="AC18" s="65" t="inlineStr">
@@ -15141,7 +15141,7 @@
       </c>
       <c r="Z19" s="65" t="inlineStr">
         <is>
-          <t>1800-01-01</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="AC19" s="65" t="inlineStr">
@@ -18324,7 +18324,7 @@
       </c>
       <c r="K23" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">comfaguajira pgp oncologia subsidiado </t>
+          <t>comfaguajira pgp oncologia subsidiado</t>
         </is>
       </c>
       <c r="L23" s="65" t="inlineStr">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="Z23" s="65" t="inlineStr">
         <is>
-          <t>1800-01-01</t>
+          <t>2021-01-19</t>
         </is>
       </c>
       <c r="AC23" s="65" t="inlineStr">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="CZ23" s="65" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>134530</t>
         </is>
       </c>
       <c r="DA23" s="65" t="inlineStr">
@@ -19115,10 +19115,10 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:FK23 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -5399,8 +5399,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="AA7" s="130" t="n"/>
-      <c r="AB7" s="130" t="n"/>
+      <c r="AA7" s="130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB7" s="130" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="AC7" s="130" t="inlineStr">
         <is>
           <t>99</t>
@@ -6214,6 +6222,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA8" s="65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB8" s="65" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="AC8" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -7026,6 +7044,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA9" s="65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB9" s="65" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
       <c r="AC9" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -7838,6 +7866,14 @@
           <t>2021-01-29</t>
         </is>
       </c>
+      <c r="AA10" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="65" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="AC10" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -8650,6 +8686,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA11" s="65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB11" s="65" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
       <c r="AC11" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -9462,6 +9508,16 @@
           <t>2021-01-08</t>
         </is>
       </c>
+      <c r="AA12" s="65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB12" s="65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="AC12" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -10274,6 +10330,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA13" s="65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB13" s="65" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="AC13" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -11086,6 +11152,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA14" s="65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB14" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="AC14" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -11898,6 +11974,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA15" s="65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB15" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC15" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -12710,6 +12796,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA16" s="65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB16" s="65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AC16" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -13522,6 +13618,16 @@
           <t>2021-01-04</t>
         </is>
       </c>
+      <c r="AA17" s="65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB17" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="AC17" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -13577,7 +13683,7 @@
       </c>
       <c r="AN17" s="65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AO17" s="65" t="inlineStr">
@@ -14332,6 +14438,16 @@
           <t>2020-11-11</t>
         </is>
       </c>
+      <c r="AA18" s="65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB18" s="65" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
       <c r="AC18" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -15144,6 +15260,14 @@
           <t>2021-02-02</t>
         </is>
       </c>
+      <c r="AA19" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="AC19" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -15956,6 +16080,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA20" s="65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB20" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="AC20" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -16768,6 +16902,14 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA21" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="65" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="AC21" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -17580,6 +17722,16 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="AA22" s="65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB22" s="65" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="AC22" s="65" t="inlineStr">
         <is>
           <t>99</t>
@@ -18390,6 +18542,16 @@
       <c r="Z23" s="65" t="inlineStr">
         <is>
           <t>2021-01-19</t>
+        </is>
+      </c>
+      <c r="AA23" s="65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB23" s="65" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="AC23" s="65" t="inlineStr">

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -977,11 +977,11 @@
   </sheetPr>
   <dimension ref="A1:FX23"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="FF1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A7:FK23"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="AG1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO9" activeCellId="0" sqref="AO9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.9921875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="12.96" customWidth="1" style="65" min="1" max="166"/>
   </cols>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="AO8" s="65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AP8" s="65" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="AO14" s="65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AP14" s="65" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="AO15" s="65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AP15" s="65" t="inlineStr">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="AO18" s="65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AP18" s="65" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="AO19" s="65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AP19" s="65" t="inlineStr">
@@ -19277,10 +19277,10 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:FK23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.9921875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G9" s="143" t="inlineStr">
         <is>
-          <t>1989 -02-10</t>
+          <t>1969 -02-10</t>
         </is>
       </c>
       <c r="H9" s="143" t="inlineStr">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="Q12" s="143" t="inlineStr">
         <is>
-          <t>cb59</t>
+          <t>c859</t>
         </is>
       </c>
       <c r="R12" s="143" t="inlineStr">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="FB14" s="143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="FC14" s="143" t="inlineStr">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="FE14" s="143" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="FF14" s="143" t="inlineStr">
@@ -14904,7 +14904,7 @@
       </c>
       <c r="Q19" s="143" t="inlineStr">
         <is>
-          <t>c859</t>
+          <t xml:space="preserve">c59 </t>
         </is>
       </c>
       <c r="R19" s="143" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="AB20" s="143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AC20" s="143" t="inlineStr">
@@ -16130,17 +16130,17 @@
       </c>
       <c r="CV20" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="CW20" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX20" s="143" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>1845-01-01</t>
         </is>
       </c>
       <c r="CY20" s="143" t="inlineStr">
@@ -16150,12 +16150,12 @@
       </c>
       <c r="CZ20" s="143" t="inlineStr">
         <is>
-          <t>345302</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA20" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB20" s="143" t="inlineStr">
@@ -16391,7 +16391,7 @@
       </c>
       <c r="EW20" s="143" t="inlineStr">
         <is>
-          <t>2021-02-11</t>
+          <t>202-02- 11</t>
         </is>
       </c>
       <c r="EX20" s="143" t="inlineStr">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="AB23" s="143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AC23" s="143" t="inlineStr">
@@ -20565,22 +20565,22 @@
     <row r="26" ht="13.8" customHeight="1" s="73">
       <c r="A26" s="143" t="inlineStr">
         <is>
-          <t>pedro</t>
+          <t>alfredo</t>
         </is>
       </c>
       <c r="B26" s="143" t="inlineStr">
         <is>
-          <t>celestino</t>
+          <t>de</t>
         </is>
       </c>
       <c r="C26" s="143" t="inlineStr">
         <is>
-          <t>guerra</t>
+          <t>jesus</t>
         </is>
       </c>
       <c r="D26" s="143" t="inlineStr">
         <is>
-          <t>guerra</t>
+          <t>brito</t>
         </is>
       </c>
       <c r="E26" s="143" t="inlineStr">
@@ -20590,12 +20590,12 @@
       </c>
       <c r="F26" s="143" t="inlineStr">
         <is>
-          <t>5143043</t>
+          <t>1753652</t>
         </is>
       </c>
       <c r="G26" s="143" t="inlineStr">
         <is>
-          <t>1943 -04-04</t>
+          <t>1937 -10-15</t>
         </is>
       </c>
       <c r="H26" s="143" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="O26" s="143" t="inlineStr">
         <is>
-          <t xml:space="preserve">3016842967 </t>
+          <t xml:space="preserve">3004932870 </t>
         </is>
       </c>
       <c r="P26" s="143" t="inlineStr">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="AD26" s="143" t="inlineStr">
         <is>
-          <t>2021-02-01</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="AE26" s="143" t="inlineStr">
@@ -20733,7 +20733,7 @@
       </c>
       <c r="AK26" s="143" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AL26" s="143" t="inlineStr">
@@ -21386,22 +21386,22 @@
     <row r="27" ht="13.8" customHeight="1" s="73">
       <c r="A27" s="143" t="inlineStr">
         <is>
-          <t>nayibis</t>
+          <t>pedro</t>
         </is>
       </c>
       <c r="B27" s="143" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>celestino</t>
         </is>
       </c>
       <c r="C27" s="143" t="inlineStr">
         <is>
-          <t>morelo</t>
+          <t>guerra</t>
         </is>
       </c>
       <c r="D27" s="143" t="inlineStr">
         <is>
-          <t>marimon</t>
+          <t>guerra</t>
         </is>
       </c>
       <c r="E27" s="143" t="inlineStr">
@@ -21411,22 +21411,22 @@
       </c>
       <c r="F27" s="143" t="inlineStr">
         <is>
-          <t>40925684</t>
+          <t>5143043</t>
         </is>
       </c>
       <c r="G27" s="143" t="inlineStr">
         <is>
-          <t>1971 -01-14</t>
+          <t>1943 -04-04</t>
         </is>
       </c>
       <c r="H27" s="143" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I27" s="143" t="inlineStr">
         <is>
-          <t>9622</t>
+          <t>9629</t>
         </is>
       </c>
       <c r="J27" s="143" t="inlineStr">
@@ -21442,7 +21442,7 @@
       </c>
       <c r="M27" s="143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N27" s="143" t="inlineStr">
@@ -21452,7 +21452,7 @@
       </c>
       <c r="O27" s="143" t="inlineStr">
         <is>
-          <t xml:space="preserve">3226754735 </t>
+          <t xml:space="preserve">3016842967 </t>
         </is>
       </c>
       <c r="P27" s="143" t="inlineStr">
@@ -21462,12 +21462,12 @@
       </c>
       <c r="Q27" s="143" t="inlineStr">
         <is>
-          <t>c509</t>
+          <t>c61x</t>
         </is>
       </c>
       <c r="R27" s="143" t="inlineStr">
         <is>
-          <t>2017-11-20</t>
+          <t>1800-01-01</t>
         </is>
       </c>
       <c r="S27" s="143" t="inlineStr">
@@ -21494,12 +21494,12 @@
       <c r="X27" s="143" t="n"/>
       <c r="Y27" s="143" t="inlineStr">
         <is>
-          <t>80010054401</t>
+          <t>99</t>
         </is>
       </c>
       <c r="Z27" s="143" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>1800-01-01</t>
         </is>
       </c>
       <c r="AA27" s="143" t="inlineStr">
@@ -21509,375 +21509,377 @@
       </c>
       <c r="AB27" s="143" t="inlineStr">
         <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AC27" s="143" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AD27" s="143" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="AE27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF27" s="143" t="inlineStr">
+        <is>
+          <t>1846-01-01</t>
+        </is>
+      </c>
+      <c r="AG27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI27" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM27" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN27" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO27" s="143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP27" s="143" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AC27" s="143" t="inlineStr">
+      <c r="AQ27" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR27" s="143" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="AD27" s="143" t="inlineStr">
-        <is>
-          <t>2021-04-19</t>
-        </is>
-      </c>
-      <c r="AE27" s="143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF27" s="143" t="inlineStr">
-        <is>
-          <t>pendiente</t>
-        </is>
-      </c>
-      <c r="AG27" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AI27" s="143" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AJ27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AK27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AL27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AM27" s="143" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AN27" s="143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO27" s="143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AP27" s="143" t="inlineStr">
+      <c r="AS27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU27" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV27" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW27" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX27" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY27" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ27" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA27" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB27" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE27" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW27" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA27" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS27" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU27" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV27" s="143" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AQ27" s="143" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="AR27" s="143" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="AS27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AT27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="AU27" s="143" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AV27" s="143" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AW27" s="143" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AX27" s="143" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AY27" s="143" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AZ27" s="143" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BA27" s="143" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BB27" s="143" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="BC27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BD27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BE27" s="143" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BF27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BG27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BH27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BI27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BJ27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BK27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BL27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BM27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BN27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BO27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BP27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BQ27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BR27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BS27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BT27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BU27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BV27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BW27" s="143" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="BX27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BY27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="BZ27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CA27" s="143" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CB27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CC27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CD27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CE27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CF27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CG27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CH27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CI27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CJ27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CK27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CL27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CM27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CN27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CO27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CP27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CQ27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CR27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CS27" s="143" t="inlineStr">
-        <is>
-          <t>1845-01-01</t>
-        </is>
-      </c>
-      <c r="CT27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CU27" s="143" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="CV27" s="143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="CW27" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>98</t>
         </is>
       </c>
       <c r="CX27" s="143" t="inlineStr">
         <is>
-          <t>2021-01-26</t>
+          <t>1845-01-01</t>
         </is>
       </c>
       <c r="CY27" s="143" t="inlineStr">
@@ -21887,12 +21889,12 @@
       </c>
       <c r="CZ27" s="143" t="inlineStr">
         <is>
-          <t>134530</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DA27" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>98</t>
         </is>
       </c>
       <c r="DB27" s="143" t="inlineStr">
@@ -22067,12 +22069,12 @@
       </c>
       <c r="EJ27" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EK27" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EL27" s="143" t="inlineStr">
@@ -22097,12 +22099,12 @@
       </c>
       <c r="EP27" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EQ27" s="143" t="inlineStr">
         <is>
-          <t>2021-03-23</t>
+          <t>1845-01-01</t>
         </is>
       </c>
       <c r="ER27" s="143" t="inlineStr">
@@ -22127,12 +22129,12 @@
       </c>
       <c r="EV27" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EW27" s="143" t="inlineStr">
         <is>
-          <t>2021-01-25</t>
+          <t>1845-01-01</t>
         </is>
       </c>
       <c r="EX27" s="143" t="inlineStr">
@@ -22142,7 +22144,7 @@
       </c>
       <c r="EY27" s="143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EZ27" s="143" t="inlineStr">
@@ -22203,172 +22205,822 @@
       <c r="FK27" s="143" t="n"/>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="73">
-      <c r="A28" s="143" t="n"/>
-      <c r="B28" s="143" t="n"/>
-      <c r="C28" s="143" t="n"/>
-      <c r="D28" s="143" t="n"/>
-      <c r="E28" s="143" t="n"/>
-      <c r="F28" s="143" t="n"/>
-      <c r="G28" s="143" t="n"/>
-      <c r="H28" s="143" t="n"/>
-      <c r="I28" s="143" t="n"/>
-      <c r="J28" s="143" t="n"/>
+      <c r="A28" s="143" t="inlineStr">
+        <is>
+          <t>nayibis</t>
+        </is>
+      </c>
+      <c r="B28" s="143" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C28" s="143" t="inlineStr">
+        <is>
+          <t>morelo</t>
+        </is>
+      </c>
+      <c r="D28" s="143" t="inlineStr">
+        <is>
+          <t>marimon</t>
+        </is>
+      </c>
+      <c r="E28" s="143" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="F28" s="143" t="inlineStr">
+        <is>
+          <t>40925684</t>
+        </is>
+      </c>
+      <c r="G28" s="143" t="inlineStr">
+        <is>
+          <t>1971 -01-14</t>
+        </is>
+      </c>
+      <c r="H28" s="143" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I28" s="143" t="inlineStr">
+        <is>
+          <t>9622</t>
+        </is>
+      </c>
+      <c r="J28" s="143" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
       <c r="K28" s="143" t="n"/>
-      <c r="L28" s="143" t="n"/>
-      <c r="M28" s="143" t="n"/>
-      <c r="N28" s="143" t="n"/>
-      <c r="O28" s="143" t="n"/>
-      <c r="P28" s="143" t="n"/>
-      <c r="Q28" s="143" t="n"/>
-      <c r="R28" s="143" t="n"/>
-      <c r="S28" s="143" t="n"/>
-      <c r="T28" s="143" t="n"/>
-      <c r="U28" s="143" t="n"/>
-      <c r="V28" s="143" t="n"/>
+      <c r="L28" s="143" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M28" s="143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N28" s="143" t="inlineStr">
+        <is>
+          <t>44001</t>
+        </is>
+      </c>
+      <c r="O28" s="143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3226754735 </t>
+        </is>
+      </c>
+      <c r="P28" s="143" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q28" s="143" t="inlineStr">
+        <is>
+          <t>c509</t>
+        </is>
+      </c>
+      <c r="R28" s="143" t="inlineStr">
+        <is>
+          <t>2017-11-20</t>
+        </is>
+      </c>
+      <c r="S28" s="143" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="T28" s="143" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="U28" s="143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="W28" s="143" t="n"/>
       <c r="X28" s="143" t="n"/>
-      <c r="Y28" s="143" t="n"/>
-      <c r="Z28" s="143" t="n"/>
-      <c r="AA28" s="143" t="n"/>
-      <c r="AB28" s="143" t="n"/>
-      <c r="AC28" s="143" t="n"/>
-      <c r="AD28" s="143" t="n"/>
-      <c r="AE28" s="143" t="n"/>
-      <c r="AF28" s="143" t="n"/>
-      <c r="AG28" s="143" t="n"/>
-      <c r="AH28" s="143" t="n"/>
-      <c r="AI28" s="143" t="n"/>
-      <c r="AJ28" s="143" t="n"/>
-      <c r="AK28" s="143" t="n"/>
-      <c r="AL28" s="143" t="n"/>
-      <c r="AM28" s="143" t="n"/>
-      <c r="AN28" s="143" t="n"/>
-      <c r="AO28" s="143" t="n"/>
-      <c r="AP28" s="143" t="n"/>
-      <c r="AQ28" s="143" t="n"/>
-      <c r="AR28" s="143" t="n"/>
-      <c r="AS28" s="143" t="n"/>
-      <c r="AT28" s="143" t="n"/>
-      <c r="AU28" s="143" t="n"/>
-      <c r="AV28" s="143" t="n"/>
-      <c r="AW28" s="143" t="n"/>
-      <c r="AX28" s="143" t="n"/>
-      <c r="AY28" s="143" t="n"/>
-      <c r="AZ28" s="143" t="n"/>
-      <c r="BA28" s="143" t="n"/>
-      <c r="BB28" s="143" t="n"/>
-      <c r="BC28" s="143" t="n"/>
-      <c r="BD28" s="143" t="n"/>
-      <c r="BE28" s="143" t="n"/>
-      <c r="BF28" s="143" t="n"/>
-      <c r="BG28" s="143" t="n"/>
-      <c r="BH28" s="143" t="n"/>
-      <c r="BI28" s="143" t="n"/>
-      <c r="BJ28" s="143" t="n"/>
-      <c r="BK28" s="143" t="n"/>
-      <c r="BL28" s="143" t="n"/>
-      <c r="BM28" s="143" t="n"/>
-      <c r="BN28" s="143" t="n"/>
-      <c r="BO28" s="143" t="n"/>
-      <c r="BP28" s="143" t="n"/>
-      <c r="BQ28" s="143" t="n"/>
-      <c r="BR28" s="143" t="n"/>
-      <c r="BS28" s="143" t="n"/>
-      <c r="BT28" s="143" t="n"/>
-      <c r="BU28" s="143" t="n"/>
-      <c r="BV28" s="143" t="n"/>
-      <c r="BW28" s="143" t="n"/>
-      <c r="BX28" s="143" t="n"/>
-      <c r="BY28" s="143" t="n"/>
-      <c r="BZ28" s="143" t="n"/>
-      <c r="CA28" s="143" t="n"/>
-      <c r="CB28" s="143" t="n"/>
-      <c r="CC28" s="143" t="n"/>
-      <c r="CD28" s="143" t="n"/>
-      <c r="CE28" s="143" t="n"/>
-      <c r="CF28" s="143" t="n"/>
-      <c r="CG28" s="143" t="n"/>
-      <c r="CH28" s="143" t="n"/>
-      <c r="CI28" s="143" t="n"/>
-      <c r="CJ28" s="143" t="n"/>
-      <c r="CK28" s="143" t="n"/>
-      <c r="CL28" s="143" t="n"/>
-      <c r="CM28" s="143" t="n"/>
-      <c r="CN28" s="143" t="n"/>
-      <c r="CO28" s="143" t="n"/>
-      <c r="CP28" s="143" t="n"/>
-      <c r="CQ28" s="143" t="n"/>
-      <c r="CR28" s="143" t="n"/>
-      <c r="CS28" s="143" t="n"/>
-      <c r="CT28" s="143" t="n"/>
-      <c r="CU28" s="143" t="n"/>
-      <c r="CV28" s="143" t="n"/>
-      <c r="CW28" s="143" t="n"/>
-      <c r="CX28" s="143" t="n"/>
-      <c r="CY28" s="143" t="n"/>
-      <c r="CZ28" s="143" t="n"/>
-      <c r="DA28" s="143" t="n"/>
-      <c r="DB28" s="143" t="n"/>
-      <c r="DC28" s="143" t="n"/>
-      <c r="DD28" s="143" t="n"/>
-      <c r="DE28" s="143" t="n"/>
-      <c r="DF28" s="143" t="n"/>
-      <c r="DG28" s="143" t="n"/>
-      <c r="DH28" s="143" t="n"/>
-      <c r="DI28" s="143" t="n"/>
-      <c r="DJ28" s="143" t="n"/>
-      <c r="DK28" s="143" t="n"/>
-      <c r="DL28" s="143" t="n"/>
-      <c r="DM28" s="143" t="n"/>
-      <c r="DN28" s="143" t="n"/>
-      <c r="DO28" s="143" t="n"/>
-      <c r="DP28" s="143" t="n"/>
-      <c r="DQ28" s="143" t="n"/>
-      <c r="DR28" s="143" t="n"/>
-      <c r="DS28" s="143" t="n"/>
-      <c r="DT28" s="143" t="n"/>
-      <c r="DU28" s="143" t="n"/>
-      <c r="DV28" s="143" t="n"/>
-      <c r="DW28" s="143" t="n"/>
-      <c r="DX28" s="143" t="n"/>
-      <c r="DY28" s="143" t="n"/>
-      <c r="DZ28" s="143" t="n"/>
-      <c r="EA28" s="143" t="n"/>
-      <c r="EB28" s="143" t="n"/>
-      <c r="EC28" s="143" t="n"/>
-      <c r="ED28" s="143" t="n"/>
-      <c r="EE28" s="143" t="n"/>
-      <c r="EF28" s="143" t="n"/>
-      <c r="EG28" s="143" t="n"/>
-      <c r="EH28" s="143" t="n"/>
-      <c r="EI28" s="143" t="n"/>
-      <c r="EJ28" s="143" t="n"/>
-      <c r="EK28" s="143" t="n"/>
-      <c r="EL28" s="143" t="n"/>
-      <c r="EM28" s="143" t="n"/>
-      <c r="EN28" s="143" t="n"/>
-      <c r="EO28" s="143" t="n"/>
-      <c r="EP28" s="143" t="n"/>
-      <c r="EQ28" s="143" t="n"/>
-      <c r="ER28" s="143" t="n"/>
-      <c r="ES28" s="143" t="n"/>
-      <c r="ET28" s="143" t="n"/>
-      <c r="EU28" s="143" t="n"/>
-      <c r="EV28" s="143" t="n"/>
-      <c r="EW28" s="143" t="n"/>
-      <c r="EX28" s="143" t="n"/>
-      <c r="EY28" s="143" t="n"/>
-      <c r="EZ28" s="143" t="n"/>
-      <c r="FA28" s="143" t="n"/>
-      <c r="FB28" s="143" t="n"/>
-      <c r="FC28" s="143" t="n"/>
-      <c r="FD28" s="143" t="n"/>
-      <c r="FE28" s="143" t="n"/>
-      <c r="FF28" s="143" t="n"/>
-      <c r="FG28" s="143" t="n"/>
-      <c r="FH28" s="143" t="n"/>
-      <c r="FI28" s="143" t="n"/>
-      <c r="FJ28" s="143" t="n"/>
+      <c r="Y28" s="143" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="Z28" s="143" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+      <c r="AA28" s="143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB28" s="143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC28" s="143" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AD28" s="143" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="AE28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF28" s="143" t="inlineStr">
+        <is>
+          <t>pendiente</t>
+        </is>
+      </c>
+      <c r="AG28" s="143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO28" s="143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP28" s="143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR28" s="143" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU28" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV28" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW28" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX28" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY28" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ28" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA28" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB28" s="143" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BE28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CA28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CW28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX28" s="143" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="CY28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ28" s="143" t="inlineStr">
+        <is>
+          <t>134530</t>
+        </is>
+      </c>
+      <c r="DA28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DB28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DI28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DJ28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DK28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DL28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DM28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DN28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DO28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DQ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DR28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DU28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EK28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EL28" s="143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM28" s="143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN28" s="143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO28" s="143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EQ28" s="143" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="ER28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EW28" s="143" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="EX28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EZ28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA28" s="143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FB28" s="143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD28" s="143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FE28" s="143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FF28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG28" s="143" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI28" s="143" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ28" s="143" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
       <c r="FK28" s="143" t="n"/>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="73">

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -899,11 +899,11 @@
   </sheetPr>
   <dimension ref="A1:FX174"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="FD1048549" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:FK1048576"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.09375" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="13.02" customWidth="1" style="54" min="1" max="10"/>
     <col width="19.71" customWidth="1" style="54" min="11" max="11"/>
@@ -4910,155 +4910,747 @@
           <t>1800-01-01</t>
         </is>
       </c>
-      <c r="Q7" s="54" t="n"/>
-      <c r="S7" s="54" t="n"/>
-      <c r="T7" s="54" t="n"/>
-      <c r="U7" s="54" t="n"/>
-      <c r="V7" s="54" t="n"/>
-      <c r="W7" s="54" t="n"/>
-      <c r="X7" s="54" t="n"/>
-      <c r="Y7" s="54" t="n"/>
-      <c r="Z7" s="54" t="n"/>
-      <c r="AA7" s="54" t="n"/>
-      <c r="AB7" s="54" t="n"/>
-      <c r="AC7" s="54" t="n"/>
-      <c r="AD7" s="54" t="n"/>
-      <c r="AE7" s="54" t="n"/>
-      <c r="AF7" s="54" t="n"/>
-      <c r="AG7" s="54" t="n"/>
-      <c r="AH7" s="54" t="n"/>
-      <c r="AI7" s="107" t="n"/>
-      <c r="AJ7" s="54" t="n"/>
-      <c r="AK7" s="54" t="n"/>
-      <c r="AL7" s="54" t="n"/>
-      <c r="AM7" s="54" t="n"/>
-      <c r="AN7" s="54" t="n"/>
-      <c r="AO7" s="54" t="n"/>
-      <c r="AP7" s="54" t="n"/>
-      <c r="AQ7" s="54" t="n"/>
-      <c r="AR7" s="54" t="n"/>
-      <c r="AS7" s="54" t="n"/>
-      <c r="AT7" s="54" t="n"/>
-      <c r="AU7" s="54" t="n"/>
-      <c r="AV7" s="54" t="n"/>
-      <c r="AW7" s="54" t="n"/>
-      <c r="AX7" s="54" t="n"/>
-      <c r="AY7" s="54" t="n"/>
-      <c r="AZ7" s="54" t="n"/>
-      <c r="BA7" s="54" t="n"/>
-      <c r="BB7" s="54" t="n"/>
-      <c r="BC7" s="54" t="n"/>
-      <c r="BD7" s="54" t="n"/>
-      <c r="BE7" s="54" t="n"/>
-      <c r="BF7" s="54" t="n"/>
-      <c r="BG7" s="54" t="n"/>
-      <c r="BH7" s="54" t="n"/>
-      <c r="BI7" s="54" t="n"/>
-      <c r="BJ7" s="54" t="n"/>
-      <c r="BK7" s="54" t="n"/>
-      <c r="BL7" s="54" t="n"/>
-      <c r="BM7" s="54" t="n"/>
-      <c r="BN7" s="54" t="n"/>
-      <c r="BO7" s="54" t="n"/>
-      <c r="BP7" s="54" t="n"/>
-      <c r="BQ7" s="54" t="n"/>
-      <c r="BR7" s="54" t="n"/>
-      <c r="BS7" s="54" t="n"/>
-      <c r="BT7" s="54" t="n"/>
-      <c r="BU7" s="54" t="n"/>
-      <c r="BV7" s="54" t="n"/>
-      <c r="BW7" s="54" t="n"/>
-      <c r="BX7" s="54" t="n"/>
-      <c r="BY7" s="54" t="n"/>
-      <c r="BZ7" s="54" t="n"/>
-      <c r="CA7" s="54" t="n"/>
-      <c r="CB7" s="54" t="n"/>
-      <c r="CC7" s="54" t="n"/>
-      <c r="CD7" s="54" t="n"/>
-      <c r="CE7" s="54" t="n"/>
-      <c r="CF7" s="54" t="n"/>
-      <c r="CG7" s="54" t="n"/>
-      <c r="CH7" s="54" t="n"/>
-      <c r="CI7" s="54" t="n"/>
-      <c r="CJ7" s="54" t="n"/>
-      <c r="CK7" s="54" t="n"/>
-      <c r="CL7" s="54" t="n"/>
-      <c r="CM7" s="54" t="n"/>
-      <c r="CN7" s="54" t="n"/>
-      <c r="CO7" s="54" t="n"/>
-      <c r="CP7" s="54" t="n"/>
-      <c r="CQ7" s="54" t="n"/>
-      <c r="CR7" s="54" t="n"/>
-      <c r="CS7" s="54" t="n"/>
-      <c r="CT7" s="54" t="n"/>
-      <c r="CU7" s="54" t="n"/>
-      <c r="CV7" s="54" t="n"/>
-      <c r="CW7" s="54" t="n"/>
-      <c r="CX7" s="54" t="n"/>
-      <c r="CY7" s="54" t="n"/>
-      <c r="CZ7" s="54" t="n"/>
-      <c r="DA7" s="54" t="n"/>
-      <c r="DB7" s="54" t="n"/>
-      <c r="DC7" s="54" t="n"/>
-      <c r="DD7" s="54" t="n"/>
-      <c r="DE7" s="54" t="n"/>
-      <c r="DF7" s="54" t="n"/>
-      <c r="DG7" s="54" t="n"/>
-      <c r="DH7" s="54" t="n"/>
-      <c r="DI7" s="54" t="n"/>
-      <c r="DJ7" s="54" t="n"/>
-      <c r="DK7" s="54" t="n"/>
-      <c r="DL7" s="54" t="n"/>
-      <c r="DM7" s="54" t="n"/>
-      <c r="DN7" s="54" t="n"/>
-      <c r="DO7" s="54" t="n"/>
-      <c r="DP7" s="54" t="n"/>
-      <c r="DQ7" s="54" t="n"/>
-      <c r="DR7" s="54" t="n"/>
-      <c r="DS7" s="54" t="n"/>
-      <c r="DT7" s="54" t="n"/>
-      <c r="DU7" s="54" t="n"/>
-      <c r="DV7" s="54" t="n"/>
-      <c r="DW7" s="54" t="n"/>
-      <c r="DX7" s="54" t="n"/>
-      <c r="DY7" s="54" t="n"/>
-      <c r="DZ7" s="54" t="n"/>
-      <c r="EA7" s="54" t="n"/>
-      <c r="EB7" s="54" t="n"/>
-      <c r="EC7" s="54" t="n"/>
-      <c r="ED7" s="54" t="n"/>
-      <c r="EE7" s="54" t="n"/>
-      <c r="EF7" s="54" t="n"/>
-      <c r="EG7" s="54" t="n"/>
-      <c r="EH7" s="54" t="n"/>
-      <c r="EI7" s="54" t="n"/>
-      <c r="EJ7" s="54" t="n"/>
-      <c r="EK7" s="54" t="n"/>
-      <c r="EL7" s="54" t="n"/>
-      <c r="EM7" s="54" t="n"/>
-      <c r="EN7" s="54" t="n"/>
-      <c r="EO7" s="54" t="n"/>
-      <c r="EP7" s="54" t="n"/>
-      <c r="EQ7" s="54" t="n"/>
-      <c r="ER7" s="54" t="n"/>
-      <c r="ES7" s="54" t="n"/>
-      <c r="ET7" s="54" t="n"/>
-      <c r="EU7" s="54" t="n"/>
-      <c r="EV7" s="54" t="n"/>
-      <c r="EW7" s="54" t="n"/>
-      <c r="EX7" s="54" t="n"/>
-      <c r="EY7" s="54" t="n"/>
-      <c r="EZ7" s="54" t="n"/>
-      <c r="FA7" s="54" t="n"/>
-      <c r="FB7" s="54" t="n"/>
-      <c r="FC7" s="54" t="n"/>
-      <c r="FD7" s="54" t="n"/>
-      <c r="FE7" s="54" t="n"/>
-      <c r="FF7" s="54" t="n"/>
-      <c r="FG7" s="108" t="n"/>
-      <c r="FH7" s="54" t="n"/>
-      <c r="FI7" s="54" t="n"/>
-      <c r="FJ7" s="54" t="n"/>
+      <c r="Q7" s="54" t="inlineStr">
+        <is>
+          <t>C509</t>
+        </is>
+      </c>
+      <c r="S7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI7" s="107" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN7" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR7" s="54" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS7" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC7" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BE7" s="54" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="BF7" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG7" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="BH7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="54" t="inlineStr">
+        <is>
+          <t>L02BA01</t>
+        </is>
+      </c>
+      <c r="BK7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BL7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BM7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BN7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BO7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BP7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BQ7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BR7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BS7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BT7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BU7" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BV7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BW7" s="54" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="BX7" s="54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CA7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH7" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI7" s="54" t="n">
+        <v>16</v>
+      </c>
+      <c r="DJ7" s="54" t="inlineStr">
+        <is>
+          <t>2021-01-12</t>
+        </is>
+      </c>
+      <c r="DK7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL7" s="54" t="inlineStr">
+        <is>
+          <t>922443</t>
+        </is>
+      </c>
+      <c r="DM7" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DN7" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="DO7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP7" s="54" t="inlineStr">
+        <is>
+          <t>2021-02-02</t>
+        </is>
+      </c>
+      <c r="DQ7" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DR7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT7" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP7" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EW7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY7" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EZ7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA7" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FB7" s="54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC7" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD7" s="54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="FE7" s="54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FF7" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG7" s="108" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI7" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ7" s="54" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="55">
       <c r="A8" s="54" t="inlineStr">
@@ -5139,6 +5731,745 @@
       <c r="P8" s="54" t="inlineStr">
         <is>
           <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q8" s="54" t="inlineStr">
+        <is>
+          <t>C509</t>
+        </is>
+      </c>
+      <c r="S8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG8" s="54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR8" s="54" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BE8" s="54" t="inlineStr">
+        <is>
+          <t>2021-02-18</t>
+        </is>
+      </c>
+      <c r="BF8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG8" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="BH8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI8" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="54" t="inlineStr">
+        <is>
+          <t>L02BA01</t>
+        </is>
+      </c>
+      <c r="BK8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BL8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BM8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BN8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BO8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BP8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BQ8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BR8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BS8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BT8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BU8" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BV8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BW8" s="54" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="BX8" s="54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CA8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI8" s="54" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ8" s="54" t="inlineStr">
+        <is>
+          <t>21-01-19</t>
+        </is>
+      </c>
+      <c r="DK8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL8" s="54" t="inlineStr">
+        <is>
+          <t>922443</t>
+        </is>
+      </c>
+      <c r="DM8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DN8" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="DO8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP8" s="54" t="inlineStr">
+        <is>
+          <t>21-02-22</t>
+        </is>
+      </c>
+      <c r="DQ8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DR8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT8" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP8" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EW8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY8" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EZ8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA8" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FB8" s="54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC8" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD8" s="54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="FE8" s="54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FF8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG8" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI8" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ8" s="54" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="FK8" s="106" t="n"/>
@@ -5224,6 +6555,743 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="Q9" s="54" t="inlineStr">
+        <is>
+          <t>C509</t>
+        </is>
+      </c>
+      <c r="S9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB9" s="54" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AC9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR9" s="54" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC9" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BE9" s="54" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="BF9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG9" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="BH9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI9" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="54" t="inlineStr">
+        <is>
+          <t>M05BA08</t>
+        </is>
+      </c>
+      <c r="BK9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BL9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BM9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BN9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BO9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BP9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BQ9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BR9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BS9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BT9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BU9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BV9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BW9" s="54" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="BX9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CA9" s="54" t="inlineStr">
+        <is>
+          <t>2021-05-28</t>
+        </is>
+      </c>
+      <c r="CB9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CC9" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="CD9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE9" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="54" t="inlineStr">
+        <is>
+          <t>M05BA08</t>
+        </is>
+      </c>
+      <c r="CG9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CH9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CI9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CJ9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CK9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CL9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CM9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CN9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CO9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CP9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CQ9" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CR9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CS9" s="54" t="inlineStr">
+        <is>
+          <t>2021-06-01</t>
+        </is>
+      </c>
+      <c r="CT9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CU9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI9" s="54" t="n">
+        <v>10</v>
+      </c>
+      <c r="DJ9" s="54" t="inlineStr">
+        <is>
+          <t>2020-11-24</t>
+        </is>
+      </c>
+      <c r="DK9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL9" s="54" t="inlineStr">
+        <is>
+          <t>922442</t>
+        </is>
+      </c>
+      <c r="DM9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DN9" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="DO9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP9" s="54" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
+      </c>
+      <c r="DQ9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DR9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT9" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP9" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EW9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY9" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EZ9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA9" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FB9" s="54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC9" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD9" s="54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="FE9" s="54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FF9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG9" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI9" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ9" s="54" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
       <c r="FK9" s="106" t="n"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="55">
@@ -6135,6 +8203,749 @@
           <t>1800-01-01</t>
         </is>
       </c>
+      <c r="Q11" s="54" t="inlineStr">
+        <is>
+          <t>C539</t>
+        </is>
+      </c>
+      <c r="S11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB11" s="54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AF11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AG11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN11" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR11" s="54" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AT11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU11" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV11" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW11" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX11" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY11" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ11" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA11" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB11" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BD11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BE11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BF11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BG11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BH11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BJ11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BK11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BL11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BM11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BN11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BO11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BP11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BQ11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BR11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BS11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BT11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BU11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BV11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BW11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="BX11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BY11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CA11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CG11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CH11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CI11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CJ11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CK11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CL11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CM11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CN11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CO11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CP11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CQ11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CR11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH11" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI11" s="54" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ11" s="54" t="inlineStr">
+        <is>
+          <t>21-07-27</t>
+        </is>
+      </c>
+      <c r="DK11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL11" s="54" t="inlineStr">
+        <is>
+          <t>922607</t>
+        </is>
+      </c>
+      <c r="DM11" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DN11" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="DO11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP11" s="54" t="inlineStr">
+        <is>
+          <t>19-08-13</t>
+        </is>
+      </c>
+      <c r="DQ11" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DR11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT11" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP11" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EW11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY11" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EZ11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA11" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FB11" s="54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC11" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD11" s="54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="FE11" s="54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FF11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG11" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI11" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ11" s="54" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
       <c r="FK11" s="106" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="55">
@@ -6213,9 +9024,748 @@
           <t>3003553852</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" s="54" t="inlineStr">
         <is>
           <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="Q12" s="54" t="inlineStr">
+        <is>
+          <t>C509</t>
+        </is>
+      </c>
+      <c r="S12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG12" s="54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AI12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AJ12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AK12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AM12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AN12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="AR12" s="54" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AS12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AU12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AV12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AX12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AY12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AZ12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BA12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BB12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BC12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BE12" s="54" t="inlineStr">
+        <is>
+          <t>2021-01-14</t>
+        </is>
+      </c>
+      <c r="BF12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG12" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="BH12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BI12" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="54" t="inlineStr">
+        <is>
+          <t>L02BA01</t>
+        </is>
+      </c>
+      <c r="BK12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BL12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BM12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BN12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BO12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BP12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BQ12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BR12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BS12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BT12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BU12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="BV12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BW12" s="54" t="inlineStr">
+        <is>
+          <t>1800-01-01</t>
+        </is>
+      </c>
+      <c r="BX12" s="54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="BZ12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="CA12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CB12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CC12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CD12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CE12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CF12" s="54" t="inlineStr">
+        <is>
+          <t>L02BA01</t>
+        </is>
+      </c>
+      <c r="CG12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CH12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CI12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CJ12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CK12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CL12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CM12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CN12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CO12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CP12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CQ12" s="54" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="CR12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CS12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CT12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CU12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CV12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="CW12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CX12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="CY12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CZ12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DA12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DB12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DC12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DD12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DE12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DF12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DG12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DH12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI12" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ12" s="54" t="inlineStr">
+        <is>
+          <t>20-12-23</t>
+        </is>
+      </c>
+      <c r="DK12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DL12" s="54" t="inlineStr">
+        <is>
+          <t>922443</t>
+        </is>
+      </c>
+      <c r="DM12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DN12" s="54" t="inlineStr">
+        <is>
+          <t>80010054401</t>
+        </is>
+      </c>
+      <c r="DO12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DP12" s="54" t="inlineStr">
+        <is>
+          <t>21-01-14</t>
+        </is>
+      </c>
+      <c r="DQ12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DR12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DS12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DT12" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="DU12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DV12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DW12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DX12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="DY12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="DZ12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EA12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EB12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EC12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ED12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EE12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EF12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EG12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EH12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EI12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EJ12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EK12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EL12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EM12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EN12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EO12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EP12" s="54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="EQ12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="ER12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ES12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="ET12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EU12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EV12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EW12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="EX12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="EY12" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EZ12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FA12" s="54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FB12" s="54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="FC12" s="54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="FD12" s="54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="FE12" s="54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="FF12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FG12" s="54" t="inlineStr">
+        <is>
+          <t>1845-01-01</t>
+        </is>
+      </c>
+      <c r="FH12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FI12" s="54" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="FJ12" s="54" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="FK12" s="106" t="n"/>
@@ -29263,10 +32813,10 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A7:FK1048576 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.07421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.09375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/prueba2.xlsx
+++ b/prueba2.xlsx
@@ -2228,7 +2228,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.71"/>
@@ -22598,7 +22598,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
